--- a/周数据/《实施上线数据统计表》-沈蒙.xlsx
+++ b/周数据/《实施上线数据统计表》-沈蒙.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -172,9 +172,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>新品牌</t>
-  </si>
-  <si>
     <t>鸭得堡（国际金融中心店）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -210,13 +207,161 @@
     <t>戴真冰</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆山</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天昆山九方城店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>王化洲</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T负责人</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>饺翻天</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天无锡凤宾路大润发店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>王化洲</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T负责人</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>西宁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉西宁华联店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南通印象城店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南通观音山大润发店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰州</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天泰州万达广场店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>三千粉</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>三千粉无锡苏宁店</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>王化洲</t>
+  </si>
+  <si>
+    <t>IT负责人</t>
+  </si>
+  <si>
+    <t>如东</t>
+  </si>
+  <si>
+    <t>三千粉南通如东欧尚超市店</t>
+  </si>
+  <si>
+    <t>供应链</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -449,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -937,13 +1082,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,6 +1329,63 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1219,48 +1430,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="13" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,20 +1445,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1568,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1584,75 +1756,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="A1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="87" t="s">
+      <c r="E3" s="95"/>
+      <c r="F3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="98" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="86"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="35" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="94"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="74" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="37">
@@ -1683,7 +1855,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="37"/>
       <c r="C6" s="44"/>
       <c r="D6" s="45"/>
@@ -1706,7 +1878,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="37"/>
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
@@ -1729,7 +1901,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="37"/>
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
@@ -1752,7 +1924,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="37"/>
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
@@ -1775,7 +1947,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="50"/>
       <c r="C10" s="51"/>
       <c r="D10" s="52"/>
@@ -1798,8 +1970,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="81" t="s">
-        <v>49</v>
+      <c r="A11" s="74" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="57">
         <v>20</v>
@@ -1829,7 +2001,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="81"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="59"/>
       <c r="C12" s="60"/>
       <c r="D12" s="45"/>
@@ -1852,7 +2024,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="81"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="59"/>
       <c r="C13" s="60"/>
       <c r="D13" s="45"/>
@@ -1875,7 +2047,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="81"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="59"/>
       <c r="C14" s="60"/>
       <c r="D14" s="45"/>
@@ -1898,7 +2070,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="81"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
       <c r="D15" s="45"/>
@@ -1921,7 +2093,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="61"/>
       <c r="C16" s="62"/>
       <c r="D16" s="52"/>
@@ -1944,7 +2116,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="81"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="57"/>
       <c r="C17" s="58"/>
       <c r="D17" s="39"/>
@@ -1967,7 +2139,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="81"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
       <c r="D18" s="45"/>
@@ -1990,7 +2162,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="81"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="59"/>
       <c r="C19" s="60"/>
       <c r="D19" s="45"/>
@@ -2013,7 +2185,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="81"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="59"/>
       <c r="C20" s="60"/>
       <c r="D20" s="45"/>
@@ -2036,7 +2208,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="81"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="59"/>
       <c r="C21" s="60"/>
       <c r="D21" s="45"/>
@@ -2059,7 +2231,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="82"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="61"/>
       <c r="C22" s="62"/>
       <c r="D22" s="52"/>
@@ -2082,7 +2254,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="81"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="57"/>
       <c r="C23" s="63"/>
       <c r="D23" s="64"/>
@@ -2105,7 +2277,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="81"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="59"/>
       <c r="C24" s="44"/>
       <c r="D24" s="45"/>
@@ -2128,7 +2300,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="81"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="59"/>
       <c r="C25" s="44"/>
       <c r="D25" s="45"/>
@@ -2151,7 +2323,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="81"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="59"/>
       <c r="C26" s="44"/>
       <c r="D26" s="45"/>
@@ -2174,7 +2346,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="81"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="59"/>
       <c r="C27" s="44"/>
       <c r="D27" s="45"/>
@@ -2197,7 +2369,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="82"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="61"/>
       <c r="C28" s="51"/>
       <c r="D28" s="52"/>
@@ -2220,7 +2392,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="81"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="57"/>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
@@ -2243,7 +2415,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="81"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="59"/>
       <c r="C30" s="44"/>
       <c r="D30" s="45"/>
@@ -2266,7 +2438,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="81"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="59"/>
       <c r="C31" s="44"/>
       <c r="D31" s="45"/>
@@ -2289,7 +2461,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="81"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="59"/>
       <c r="C32" s="44"/>
       <c r="D32" s="45"/>
@@ -2312,7 +2484,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="81"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="59"/>
       <c r="C33" s="44"/>
       <c r="D33" s="45"/>
@@ -2335,7 +2507,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="82"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="61"/>
       <c r="C34" s="51"/>
       <c r="D34" s="52"/>
@@ -2358,7 +2530,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="81"/>
+      <c r="A35" s="74"/>
       <c r="B35" s="57"/>
       <c r="C35" s="63"/>
       <c r="D35" s="64"/>
@@ -2381,7 +2553,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="81"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="59"/>
       <c r="C36" s="44"/>
       <c r="D36" s="45"/>
@@ -2404,7 +2576,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="81"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="59"/>
       <c r="C37" s="44"/>
       <c r="D37" s="45"/>
@@ -2427,7 +2599,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="81"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="59"/>
       <c r="C38" s="44"/>
       <c r="D38" s="45"/>
@@ -2450,7 +2622,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="81"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="59"/>
       <c r="C39" s="44"/>
       <c r="D39" s="45"/>
@@ -2473,7 +2645,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="82"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="61"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
@@ -2496,7 +2668,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="81"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="57"/>
       <c r="C41" s="63"/>
       <c r="D41" s="64"/>
@@ -2519,7 +2691,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="81"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="59"/>
       <c r="C42" s="44"/>
       <c r="D42" s="45"/>
@@ -2542,7 +2714,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="81"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="59"/>
       <c r="C43" s="44"/>
       <c r="D43" s="45"/>
@@ -2565,7 +2737,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="81"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="59"/>
       <c r="C44" s="44"/>
       <c r="D44" s="45"/>
@@ -2588,7 +2760,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="81"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="59"/>
       <c r="C45" s="44"/>
       <c r="D45" s="45"/>
@@ -2611,7 +2783,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="82"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="61"/>
       <c r="C46" s="51"/>
       <c r="D46" s="52"/>
@@ -2634,7 +2806,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="81"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="57"/>
       <c r="C47" s="63"/>
       <c r="D47" s="64"/>
@@ -2657,7 +2829,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="81"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="59"/>
       <c r="C48" s="44"/>
       <c r="D48" s="45"/>
@@ -2680,7 +2852,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="81"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="59"/>
       <c r="C49" s="44"/>
       <c r="D49" s="45"/>
@@ -2703,7 +2875,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="81"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="59"/>
       <c r="C50" s="44"/>
       <c r="D50" s="45"/>
@@ -2726,7 +2898,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="81"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="59"/>
       <c r="C51" s="44"/>
       <c r="D51" s="45"/>
@@ -2749,7 +2921,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="82"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="61"/>
       <c r="C52" s="51"/>
       <c r="D52" s="52"/>
@@ -2772,7 +2944,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="81"/>
+      <c r="A53" s="74"/>
       <c r="B53" s="57"/>
       <c r="C53" s="63"/>
       <c r="D53" s="64"/>
@@ -2795,7 +2967,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="81"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="59"/>
       <c r="C54" s="44"/>
       <c r="D54" s="45"/>
@@ -2818,7 +2990,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="81"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="59"/>
       <c r="C55" s="44"/>
       <c r="D55" s="45"/>
@@ -2841,7 +3013,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="81"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="59"/>
       <c r="C56" s="44"/>
       <c r="D56" s="45"/>
@@ -2864,7 +3036,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="81"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="59"/>
       <c r="C57" s="44"/>
       <c r="D57" s="45"/>
@@ -2887,7 +3059,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="82"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="61"/>
       <c r="C58" s="51"/>
       <c r="D58" s="52"/>
@@ -2910,7 +3082,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="81"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="57"/>
       <c r="C59" s="63"/>
       <c r="D59" s="64"/>
@@ -2933,7 +3105,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="81"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="59"/>
       <c r="C60" s="44"/>
       <c r="D60" s="45"/>
@@ -2956,7 +3128,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="81"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="59"/>
       <c r="C61" s="44"/>
       <c r="D61" s="45"/>
@@ -2979,7 +3151,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="81"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="59"/>
       <c r="C62" s="44"/>
       <c r="D62" s="45"/>
@@ -3002,7 +3174,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="81"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="59"/>
       <c r="C63" s="44"/>
       <c r="D63" s="45"/>
@@ -3025,7 +3197,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="82"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="61"/>
       <c r="C64" s="51"/>
       <c r="D64" s="52"/>
@@ -3048,7 +3220,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="81"/>
+      <c r="A65" s="74"/>
       <c r="B65" s="57"/>
       <c r="C65" s="63"/>
       <c r="D65" s="64"/>
@@ -3071,7 +3243,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="81"/>
+      <c r="A66" s="74"/>
       <c r="B66" s="59"/>
       <c r="C66" s="44"/>
       <c r="D66" s="45"/>
@@ -3094,7 +3266,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="81"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="59"/>
       <c r="C67" s="44"/>
       <c r="D67" s="45"/>
@@ -3117,7 +3289,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="81"/>
+      <c r="A68" s="74"/>
       <c r="B68" s="59"/>
       <c r="C68" s="44"/>
       <c r="D68" s="45"/>
@@ -3140,7 +3312,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="81"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="59"/>
       <c r="C69" s="44"/>
       <c r="D69" s="45"/>
@@ -3163,7 +3335,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="82"/>
+      <c r="A70" s="75"/>
       <c r="B70" s="61"/>
       <c r="C70" s="51"/>
       <c r="D70" s="52"/>
@@ -3186,7 +3358,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="81"/>
+      <c r="A71" s="74"/>
       <c r="B71" s="57"/>
       <c r="C71" s="63"/>
       <c r="D71" s="64"/>
@@ -3209,7 +3381,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="81"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="59"/>
       <c r="C72" s="44"/>
       <c r="D72" s="45"/>
@@ -3232,7 +3404,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="81"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="59"/>
       <c r="C73" s="44"/>
       <c r="D73" s="45"/>
@@ -3255,7 +3427,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="81"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="59"/>
       <c r="C74" s="44"/>
       <c r="D74" s="45"/>
@@ -3278,7 +3450,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="81"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="59"/>
       <c r="C75" s="44"/>
       <c r="D75" s="45"/>
@@ -3301,7 +3473,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="82"/>
+      <c r="A76" s="75"/>
       <c r="B76" s="61"/>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
@@ -3324,7 +3496,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="81"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="57"/>
       <c r="C77" s="63"/>
       <c r="D77" s="64"/>
@@ -3347,7 +3519,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="81"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="59"/>
       <c r="C78" s="44"/>
       <c r="D78" s="45"/>
@@ -3370,7 +3542,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="81"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="59"/>
       <c r="C79" s="44"/>
       <c r="D79" s="45"/>
@@ -3393,7 +3565,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="81"/>
+      <c r="A80" s="74"/>
       <c r="B80" s="59"/>
       <c r="C80" s="44"/>
       <c r="D80" s="45"/>
@@ -3416,7 +3588,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="81"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="59"/>
       <c r="C81" s="44"/>
       <c r="D81" s="45"/>
@@ -3439,7 +3611,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="82"/>
+      <c r="A82" s="75"/>
       <c r="B82" s="61"/>
       <c r="C82" s="51"/>
       <c r="D82" s="52"/>
@@ -3462,7 +3634,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="81"/>
+      <c r="A83" s="74"/>
       <c r="B83" s="57"/>
       <c r="C83" s="63"/>
       <c r="D83" s="64"/>
@@ -3485,7 +3657,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="81"/>
+      <c r="A84" s="74"/>
       <c r="B84" s="59"/>
       <c r="C84" s="44"/>
       <c r="D84" s="45"/>
@@ -3508,7 +3680,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="81"/>
+      <c r="A85" s="74"/>
       <c r="B85" s="59"/>
       <c r="C85" s="44"/>
       <c r="D85" s="45"/>
@@ -3531,7 +3703,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="81"/>
+      <c r="A86" s="74"/>
       <c r="B86" s="59"/>
       <c r="C86" s="44"/>
       <c r="D86" s="45"/>
@@ -3554,7 +3726,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="81"/>
+      <c r="A87" s="74"/>
       <c r="B87" s="59"/>
       <c r="C87" s="44"/>
       <c r="D87" s="45"/>
@@ -3577,7 +3749,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="82"/>
+      <c r="A88" s="75"/>
       <c r="B88" s="61"/>
       <c r="C88" s="51"/>
       <c r="D88" s="52"/>
@@ -3600,7 +3772,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="81"/>
+      <c r="A89" s="74"/>
       <c r="B89" s="57"/>
       <c r="C89" s="63"/>
       <c r="D89" s="64"/>
@@ -3623,7 +3795,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="81"/>
+      <c r="A90" s="74"/>
       <c r="B90" s="59"/>
       <c r="C90" s="44"/>
       <c r="D90" s="45"/>
@@ -3646,7 +3818,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="81"/>
+      <c r="A91" s="74"/>
       <c r="B91" s="59"/>
       <c r="C91" s="44"/>
       <c r="D91" s="45"/>
@@ -3669,7 +3841,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="81"/>
+      <c r="A92" s="74"/>
       <c r="B92" s="59"/>
       <c r="C92" s="44"/>
       <c r="D92" s="45"/>
@@ -3692,7 +3864,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="81"/>
+      <c r="A93" s="74"/>
       <c r="B93" s="59"/>
       <c r="C93" s="44"/>
       <c r="D93" s="45"/>
@@ -3715,7 +3887,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="82"/>
+      <c r="A94" s="75"/>
       <c r="B94" s="61"/>
       <c r="C94" s="51"/>
       <c r="D94" s="52"/>
@@ -3738,7 +3910,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="81"/>
+      <c r="A95" s="74"/>
       <c r="B95" s="57"/>
       <c r="C95" s="63"/>
       <c r="D95" s="64"/>
@@ -3761,7 +3933,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="81"/>
+      <c r="A96" s="74"/>
       <c r="B96" s="59"/>
       <c r="C96" s="44"/>
       <c r="D96" s="45"/>
@@ -3784,7 +3956,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="81"/>
+      <c r="A97" s="74"/>
       <c r="B97" s="59"/>
       <c r="C97" s="44"/>
       <c r="D97" s="45"/>
@@ -3807,7 +3979,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="81"/>
+      <c r="A98" s="74"/>
       <c r="B98" s="59"/>
       <c r="C98" s="44"/>
       <c r="D98" s="45"/>
@@ -3830,7 +4002,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="81"/>
+      <c r="A99" s="74"/>
       <c r="B99" s="59"/>
       <c r="C99" s="44"/>
       <c r="D99" s="45"/>
@@ -3853,7 +4025,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="82"/>
+      <c r="A100" s="75"/>
       <c r="B100" s="61"/>
       <c r="C100" s="51"/>
       <c r="D100" s="52"/>
@@ -3876,7 +4048,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="81"/>
+      <c r="A101" s="74"/>
       <c r="B101" s="57"/>
       <c r="C101" s="63"/>
       <c r="D101" s="64"/>
@@ -3899,7 +4071,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="81"/>
+      <c r="A102" s="74"/>
       <c r="B102" s="59"/>
       <c r="C102" s="44"/>
       <c r="D102" s="45"/>
@@ -3922,7 +4094,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="81"/>
+      <c r="A103" s="74"/>
       <c r="B103" s="59"/>
       <c r="C103" s="44"/>
       <c r="D103" s="45"/>
@@ -3945,7 +4117,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="81"/>
+      <c r="A104" s="74"/>
       <c r="B104" s="59"/>
       <c r="C104" s="44"/>
       <c r="D104" s="45"/>
@@ -3968,7 +4140,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="81"/>
+      <c r="A105" s="74"/>
       <c r="B105" s="59"/>
       <c r="C105" s="44"/>
       <c r="D105" s="45"/>
@@ -3991,7 +4163,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="82"/>
+      <c r="A106" s="75"/>
       <c r="B106" s="61"/>
       <c r="C106" s="51"/>
       <c r="D106" s="52"/>
@@ -4014,7 +4186,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="81"/>
+      <c r="A107" s="74"/>
       <c r="B107" s="57"/>
       <c r="C107" s="63"/>
       <c r="D107" s="64"/>
@@ -4037,7 +4209,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="81"/>
+      <c r="A108" s="74"/>
       <c r="B108" s="59"/>
       <c r="C108" s="44"/>
       <c r="D108" s="45"/>
@@ -4060,7 +4232,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="81"/>
+      <c r="A109" s="74"/>
       <c r="B109" s="59"/>
       <c r="C109" s="44"/>
       <c r="D109" s="45"/>
@@ -4083,7 +4255,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="81"/>
+      <c r="A110" s="74"/>
       <c r="B110" s="59"/>
       <c r="C110" s="44"/>
       <c r="D110" s="45"/>
@@ -4106,7 +4278,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="81"/>
+      <c r="A111" s="74"/>
       <c r="B111" s="59"/>
       <c r="C111" s="44"/>
       <c r="D111" s="45"/>
@@ -4129,7 +4301,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="82"/>
+      <c r="A112" s="75"/>
       <c r="B112" s="61"/>
       <c r="C112" s="51"/>
       <c r="D112" s="52"/>
@@ -4152,7 +4324,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="81"/>
+      <c r="A113" s="74"/>
       <c r="B113" s="57"/>
       <c r="C113" s="63"/>
       <c r="D113" s="64"/>
@@ -4175,7 +4347,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="81"/>
+      <c r="A114" s="74"/>
       <c r="B114" s="59"/>
       <c r="C114" s="44"/>
       <c r="D114" s="45"/>
@@ -4198,7 +4370,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="81"/>
+      <c r="A115" s="74"/>
       <c r="B115" s="59"/>
       <c r="C115" s="44"/>
       <c r="D115" s="45"/>
@@ -4221,7 +4393,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="81"/>
+      <c r="A116" s="74"/>
       <c r="B116" s="59"/>
       <c r="C116" s="44"/>
       <c r="D116" s="45"/>
@@ -4244,7 +4416,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="81"/>
+      <c r="A117" s="74"/>
       <c r="B117" s="59"/>
       <c r="C117" s="44"/>
       <c r="D117" s="45"/>
@@ -4267,7 +4439,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="82"/>
+      <c r="A118" s="75"/>
       <c r="B118" s="61"/>
       <c r="C118" s="51"/>
       <c r="D118" s="52"/>
@@ -4290,7 +4462,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="81"/>
+      <c r="A119" s="74"/>
       <c r="B119" s="57"/>
       <c r="C119" s="63"/>
       <c r="D119" s="64"/>
@@ -4313,7 +4485,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="81"/>
+      <c r="A120" s="74"/>
       <c r="B120" s="59"/>
       <c r="C120" s="44"/>
       <c r="D120" s="45"/>
@@ -4336,7 +4508,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="81"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="59"/>
       <c r="C121" s="44"/>
       <c r="D121" s="45"/>
@@ -4359,7 +4531,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="81"/>
+      <c r="A122" s="74"/>
       <c r="B122" s="59"/>
       <c r="C122" s="44"/>
       <c r="D122" s="45"/>
@@ -4382,7 +4554,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="81"/>
+      <c r="A123" s="74"/>
       <c r="B123" s="59"/>
       <c r="C123" s="44"/>
       <c r="D123" s="45"/>
@@ -4405,7 +4577,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="82"/>
+      <c r="A124" s="75"/>
       <c r="B124" s="61"/>
       <c r="C124" s="51"/>
       <c r="D124" s="52"/>
@@ -4428,7 +4600,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="81"/>
+      <c r="A125" s="74"/>
       <c r="B125" s="57"/>
       <c r="C125" s="63"/>
       <c r="D125" s="64"/>
@@ -4451,7 +4623,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="81"/>
+      <c r="A126" s="74"/>
       <c r="B126" s="59"/>
       <c r="C126" s="44"/>
       <c r="D126" s="45"/>
@@ -4474,7 +4646,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="81"/>
+      <c r="A127" s="74"/>
       <c r="B127" s="59"/>
       <c r="C127" s="44"/>
       <c r="D127" s="45"/>
@@ -4497,7 +4669,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="81"/>
+      <c r="A128" s="74"/>
       <c r="B128" s="59"/>
       <c r="C128" s="44"/>
       <c r="D128" s="45"/>
@@ -4520,7 +4692,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="81"/>
+      <c r="A129" s="74"/>
       <c r="B129" s="59"/>
       <c r="C129" s="44"/>
       <c r="D129" s="45"/>
@@ -4543,7 +4715,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="82"/>
+      <c r="A130" s="75"/>
       <c r="B130" s="61"/>
       <c r="C130" s="51"/>
       <c r="D130" s="52"/>
@@ -4566,7 +4738,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="81"/>
+      <c r="A131" s="74"/>
       <c r="B131" s="57"/>
       <c r="C131" s="63"/>
       <c r="D131" s="64"/>
@@ -4589,7 +4761,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="81"/>
+      <c r="A132" s="74"/>
       <c r="B132" s="59"/>
       <c r="C132" s="44"/>
       <c r="D132" s="45"/>
@@ -4612,7 +4784,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="81"/>
+      <c r="A133" s="74"/>
       <c r="B133" s="59"/>
       <c r="C133" s="44"/>
       <c r="D133" s="45"/>
@@ -4635,7 +4807,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="81"/>
+      <c r="A134" s="74"/>
       <c r="B134" s="59"/>
       <c r="C134" s="44"/>
       <c r="D134" s="45"/>
@@ -4658,7 +4830,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="81"/>
+      <c r="A135" s="74"/>
       <c r="B135" s="59"/>
       <c r="C135" s="44"/>
       <c r="D135" s="45"/>
@@ -4681,7 +4853,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="82"/>
+      <c r="A136" s="75"/>
       <c r="B136" s="61"/>
       <c r="C136" s="51"/>
       <c r="D136" s="52"/>
@@ -4704,7 +4876,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="81"/>
+      <c r="A137" s="74"/>
       <c r="B137" s="57"/>
       <c r="C137" s="63"/>
       <c r="D137" s="64"/>
@@ -4727,7 +4899,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A138" s="81"/>
+      <c r="A138" s="74"/>
       <c r="B138" s="59"/>
       <c r="C138" s="44"/>
       <c r="D138" s="45"/>
@@ -4750,7 +4922,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A139" s="81"/>
+      <c r="A139" s="74"/>
       <c r="B139" s="59"/>
       <c r="C139" s="44"/>
       <c r="D139" s="45"/>
@@ -4773,7 +4945,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A140" s="81"/>
+      <c r="A140" s="74"/>
       <c r="B140" s="59"/>
       <c r="C140" s="44"/>
       <c r="D140" s="45"/>
@@ -4796,7 +4968,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A141" s="81"/>
+      <c r="A141" s="74"/>
       <c r="B141" s="59"/>
       <c r="C141" s="44"/>
       <c r="D141" s="45"/>
@@ -4819,7 +4991,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A142" s="82"/>
+      <c r="A142" s="75"/>
       <c r="B142" s="61"/>
       <c r="C142" s="51"/>
       <c r="D142" s="52"/>
@@ -4842,7 +5014,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A143" s="81"/>
+      <c r="A143" s="74"/>
       <c r="B143" s="57"/>
       <c r="C143" s="63"/>
       <c r="D143" s="64"/>
@@ -4865,7 +5037,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="81"/>
+      <c r="A144" s="74"/>
       <c r="B144" s="59"/>
       <c r="C144" s="44"/>
       <c r="D144" s="45"/>
@@ -4888,7 +5060,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="81"/>
+      <c r="A145" s="74"/>
       <c r="B145" s="59"/>
       <c r="C145" s="44"/>
       <c r="D145" s="45"/>
@@ -4911,7 +5083,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A146" s="81"/>
+      <c r="A146" s="74"/>
       <c r="B146" s="59"/>
       <c r="C146" s="44"/>
       <c r="D146" s="45"/>
@@ -4934,7 +5106,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="81"/>
+      <c r="A147" s="74"/>
       <c r="B147" s="59"/>
       <c r="C147" s="44"/>
       <c r="D147" s="45"/>
@@ -4957,7 +5129,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="82"/>
+      <c r="A148" s="75"/>
       <c r="B148" s="61"/>
       <c r="C148" s="51"/>
       <c r="D148" s="52"/>
@@ -4980,7 +5152,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="81"/>
+      <c r="A149" s="74"/>
       <c r="B149" s="57"/>
       <c r="C149" s="63"/>
       <c r="D149" s="64"/>
@@ -5003,7 +5175,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A150" s="81"/>
+      <c r="A150" s="74"/>
       <c r="B150" s="59"/>
       <c r="C150" s="44"/>
       <c r="D150" s="45"/>
@@ -5026,7 +5198,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="81"/>
+      <c r="A151" s="74"/>
       <c r="B151" s="59"/>
       <c r="C151" s="44"/>
       <c r="D151" s="45"/>
@@ -5049,7 +5221,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A152" s="81"/>
+      <c r="A152" s="74"/>
       <c r="B152" s="59"/>
       <c r="C152" s="44"/>
       <c r="D152" s="45"/>
@@ -5072,7 +5244,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="81"/>
+      <c r="A153" s="74"/>
       <c r="B153" s="59"/>
       <c r="C153" s="44"/>
       <c r="D153" s="45"/>
@@ -5095,7 +5267,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="82"/>
+      <c r="A154" s="75"/>
       <c r="B154" s="61"/>
       <c r="C154" s="51"/>
       <c r="D154" s="52"/>
@@ -5118,7 +5290,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A155" s="81"/>
+      <c r="A155" s="74"/>
       <c r="B155" s="57"/>
       <c r="C155" s="63"/>
       <c r="D155" s="64"/>
@@ -5141,7 +5313,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A156" s="81"/>
+      <c r="A156" s="74"/>
       <c r="B156" s="59"/>
       <c r="C156" s="44"/>
       <c r="D156" s="45"/>
@@ -5164,7 +5336,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A157" s="81"/>
+      <c r="A157" s="74"/>
       <c r="B157" s="59"/>
       <c r="C157" s="44"/>
       <c r="D157" s="45"/>
@@ -5187,7 +5359,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A158" s="81"/>
+      <c r="A158" s="74"/>
       <c r="B158" s="59"/>
       <c r="C158" s="44"/>
       <c r="D158" s="45"/>
@@ -5210,7 +5382,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A159" s="81"/>
+      <c r="A159" s="74"/>
       <c r="B159" s="59"/>
       <c r="C159" s="44"/>
       <c r="D159" s="45"/>
@@ -5233,7 +5405,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A160" s="82"/>
+      <c r="A160" s="75"/>
       <c r="B160" s="61"/>
       <c r="C160" s="51"/>
       <c r="D160" s="52"/>
@@ -5256,7 +5428,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A161" s="81"/>
+      <c r="A161" s="74"/>
       <c r="B161" s="57"/>
       <c r="C161" s="63"/>
       <c r="D161" s="64"/>
@@ -5279,7 +5451,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A162" s="81"/>
+      <c r="A162" s="74"/>
       <c r="B162" s="59"/>
       <c r="C162" s="44"/>
       <c r="D162" s="45"/>
@@ -5302,7 +5474,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A163" s="81"/>
+      <c r="A163" s="74"/>
       <c r="B163" s="59"/>
       <c r="C163" s="44"/>
       <c r="D163" s="45"/>
@@ -5325,7 +5497,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A164" s="81"/>
+      <c r="A164" s="74"/>
       <c r="B164" s="59"/>
       <c r="C164" s="44"/>
       <c r="D164" s="45"/>
@@ -5348,7 +5520,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" s="81"/>
+      <c r="A165" s="74"/>
       <c r="B165" s="59"/>
       <c r="C165" s="44"/>
       <c r="D165" s="45"/>
@@ -5371,7 +5543,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A166" s="82"/>
+      <c r="A166" s="75"/>
       <c r="B166" s="61"/>
       <c r="C166" s="51"/>
       <c r="D166" s="52"/>
@@ -5394,7 +5566,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" s="81"/>
+      <c r="A167" s="74"/>
       <c r="B167" s="57"/>
       <c r="C167" s="63"/>
       <c r="D167" s="64"/>
@@ -5417,7 +5589,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" s="81"/>
+      <c r="A168" s="74"/>
       <c r="B168" s="59"/>
       <c r="C168" s="44"/>
       <c r="D168" s="45"/>
@@ -5440,7 +5612,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A169" s="81"/>
+      <c r="A169" s="74"/>
       <c r="B169" s="59"/>
       <c r="C169" s="44"/>
       <c r="D169" s="45"/>
@@ -5463,7 +5635,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A170" s="81"/>
+      <c r="A170" s="74"/>
       <c r="B170" s="59"/>
       <c r="C170" s="44"/>
       <c r="D170" s="45"/>
@@ -5486,7 +5658,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A171" s="81"/>
+      <c r="A171" s="74"/>
       <c r="B171" s="59"/>
       <c r="C171" s="44"/>
       <c r="D171" s="45"/>
@@ -5509,7 +5681,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A172" s="82"/>
+      <c r="A172" s="75"/>
       <c r="B172" s="61"/>
       <c r="C172" s="51"/>
       <c r="D172" s="52"/>
@@ -5532,7 +5704,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A173" s="81"/>
+      <c r="A173" s="74"/>
       <c r="B173" s="57"/>
       <c r="C173" s="63"/>
       <c r="D173" s="64"/>
@@ -5555,7 +5727,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A174" s="81"/>
+      <c r="A174" s="74"/>
       <c r="B174" s="59"/>
       <c r="C174" s="44"/>
       <c r="D174" s="45"/>
@@ -5578,7 +5750,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A175" s="81"/>
+      <c r="A175" s="74"/>
       <c r="B175" s="59"/>
       <c r="C175" s="44"/>
       <c r="D175" s="45"/>
@@ -5601,7 +5773,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A176" s="81"/>
+      <c r="A176" s="74"/>
       <c r="B176" s="59"/>
       <c r="C176" s="44"/>
       <c r="D176" s="45"/>
@@ -5624,7 +5796,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A177" s="81"/>
+      <c r="A177" s="74"/>
       <c r="B177" s="59"/>
       <c r="C177" s="44"/>
       <c r="D177" s="45"/>
@@ -5647,7 +5819,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A178" s="82"/>
+      <c r="A178" s="75"/>
       <c r="B178" s="61"/>
       <c r="C178" s="51"/>
       <c r="D178" s="52"/>
@@ -5670,7 +5842,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A179" s="81"/>
+      <c r="A179" s="74"/>
       <c r="B179" s="57"/>
       <c r="C179" s="63"/>
       <c r="D179" s="64"/>
@@ -5693,7 +5865,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A180" s="81"/>
+      <c r="A180" s="74"/>
       <c r="B180" s="59"/>
       <c r="C180" s="44"/>
       <c r="D180" s="45"/>
@@ -5716,7 +5888,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A181" s="81"/>
+      <c r="A181" s="74"/>
       <c r="B181" s="59"/>
       <c r="C181" s="44"/>
       <c r="D181" s="45"/>
@@ -5739,7 +5911,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A182" s="81"/>
+      <c r="A182" s="74"/>
       <c r="B182" s="59"/>
       <c r="C182" s="44"/>
       <c r="D182" s="45"/>
@@ -5762,7 +5934,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A183" s="81"/>
+      <c r="A183" s="74"/>
       <c r="B183" s="59"/>
       <c r="C183" s="44"/>
       <c r="D183" s="45"/>
@@ -5785,7 +5957,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A184" s="82"/>
+      <c r="A184" s="75"/>
       <c r="B184" s="61"/>
       <c r="C184" s="51"/>
       <c r="D184" s="52"/>
@@ -5808,7 +5980,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A185" s="81"/>
+      <c r="A185" s="74"/>
       <c r="B185" s="57"/>
       <c r="C185" s="63"/>
       <c r="D185" s="64"/>
@@ -5831,7 +6003,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A186" s="81"/>
+      <c r="A186" s="74"/>
       <c r="B186" s="59"/>
       <c r="C186" s="44"/>
       <c r="D186" s="45"/>
@@ -5854,7 +6026,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A187" s="81"/>
+      <c r="A187" s="74"/>
       <c r="B187" s="59"/>
       <c r="C187" s="44"/>
       <c r="D187" s="45"/>
@@ -5877,7 +6049,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A188" s="81"/>
+      <c r="A188" s="74"/>
       <c r="B188" s="59"/>
       <c r="C188" s="44"/>
       <c r="D188" s="45"/>
@@ -5900,7 +6072,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A189" s="81"/>
+      <c r="A189" s="74"/>
       <c r="B189" s="59"/>
       <c r="C189" s="44"/>
       <c r="D189" s="45"/>
@@ -5923,7 +6095,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A190" s="82"/>
+      <c r="A190" s="75"/>
       <c r="B190" s="61"/>
       <c r="C190" s="51"/>
       <c r="D190" s="52"/>
@@ -5946,7 +6118,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A191" s="81"/>
+      <c r="A191" s="74"/>
       <c r="B191" s="57"/>
       <c r="C191" s="63"/>
       <c r="D191" s="64"/>
@@ -5969,7 +6141,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A192" s="81"/>
+      <c r="A192" s="74"/>
       <c r="B192" s="59"/>
       <c r="C192" s="44"/>
       <c r="D192" s="45"/>
@@ -5992,7 +6164,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A193" s="81"/>
+      <c r="A193" s="74"/>
       <c r="B193" s="59"/>
       <c r="C193" s="44"/>
       <c r="D193" s="45"/>
@@ -6015,7 +6187,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A194" s="81"/>
+      <c r="A194" s="74"/>
       <c r="B194" s="59"/>
       <c r="C194" s="44"/>
       <c r="D194" s="45"/>
@@ -6038,7 +6210,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A195" s="81"/>
+      <c r="A195" s="74"/>
       <c r="B195" s="59"/>
       <c r="C195" s="44"/>
       <c r="D195" s="45"/>
@@ -6061,7 +6233,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A196" s="82"/>
+      <c r="A196" s="75"/>
       <c r="B196" s="61"/>
       <c r="C196" s="51"/>
       <c r="D196" s="52"/>
@@ -6084,7 +6256,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A197" s="81"/>
+      <c r="A197" s="74"/>
       <c r="B197" s="57"/>
       <c r="C197" s="63"/>
       <c r="D197" s="64"/>
@@ -6107,7 +6279,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A198" s="81"/>
+      <c r="A198" s="74"/>
       <c r="B198" s="59"/>
       <c r="C198" s="44"/>
       <c r="D198" s="45"/>
@@ -6130,7 +6302,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A199" s="81"/>
+      <c r="A199" s="74"/>
       <c r="B199" s="59"/>
       <c r="C199" s="44"/>
       <c r="D199" s="45"/>
@@ -6153,7 +6325,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A200" s="81"/>
+      <c r="A200" s="74"/>
       <c r="B200" s="59"/>
       <c r="C200" s="44"/>
       <c r="D200" s="45"/>
@@ -6176,7 +6348,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A201" s="81"/>
+      <c r="A201" s="74"/>
       <c r="B201" s="59"/>
       <c r="C201" s="44"/>
       <c r="D201" s="45"/>
@@ -6199,7 +6371,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A202" s="82"/>
+      <c r="A202" s="75"/>
       <c r="B202" s="61"/>
       <c r="C202" s="51"/>
       <c r="D202" s="52"/>
@@ -6222,7 +6394,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A203" s="81"/>
+      <c r="A203" s="74"/>
       <c r="B203" s="57"/>
       <c r="C203" s="63"/>
       <c r="D203" s="64"/>
@@ -6245,7 +6417,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A204" s="81"/>
+      <c r="A204" s="74"/>
       <c r="B204" s="59"/>
       <c r="C204" s="44"/>
       <c r="D204" s="45"/>
@@ -6268,7 +6440,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A205" s="81"/>
+      <c r="A205" s="74"/>
       <c r="B205" s="59"/>
       <c r="C205" s="44"/>
       <c r="D205" s="45"/>
@@ -6291,7 +6463,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A206" s="81"/>
+      <c r="A206" s="74"/>
       <c r="B206" s="59"/>
       <c r="C206" s="44"/>
       <c r="D206" s="45"/>
@@ -6314,7 +6486,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A207" s="81"/>
+      <c r="A207" s="74"/>
       <c r="B207" s="59"/>
       <c r="C207" s="44"/>
       <c r="D207" s="45"/>
@@ -6337,7 +6509,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A208" s="82"/>
+      <c r="A208" s="75"/>
       <c r="B208" s="61"/>
       <c r="C208" s="51"/>
       <c r="D208" s="52"/>
@@ -6360,7 +6532,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A209" s="81"/>
+      <c r="A209" s="74"/>
       <c r="B209" s="57"/>
       <c r="C209" s="63"/>
       <c r="D209" s="64"/>
@@ -6383,7 +6555,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A210" s="81"/>
+      <c r="A210" s="74"/>
       <c r="B210" s="59"/>
       <c r="C210" s="44"/>
       <c r="D210" s="45"/>
@@ -6406,7 +6578,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A211" s="81"/>
+      <c r="A211" s="74"/>
       <c r="B211" s="59"/>
       <c r="C211" s="44"/>
       <c r="D211" s="45"/>
@@ -6429,7 +6601,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A212" s="81"/>
+      <c r="A212" s="74"/>
       <c r="B212" s="59"/>
       <c r="C212" s="44"/>
       <c r="D212" s="45"/>
@@ -6452,7 +6624,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A213" s="81"/>
+      <c r="A213" s="74"/>
       <c r="B213" s="59"/>
       <c r="C213" s="44"/>
       <c r="D213" s="45"/>
@@ -6475,7 +6647,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A214" s="82"/>
+      <c r="A214" s="75"/>
       <c r="B214" s="61"/>
       <c r="C214" s="51"/>
       <c r="D214" s="52"/>
@@ -6498,7 +6670,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A215" s="81"/>
+      <c r="A215" s="74"/>
       <c r="B215" s="57"/>
       <c r="C215" s="63"/>
       <c r="D215" s="64"/>
@@ -6521,7 +6693,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A216" s="81"/>
+      <c r="A216" s="74"/>
       <c r="B216" s="59"/>
       <c r="C216" s="44"/>
       <c r="D216" s="45"/>
@@ -6544,7 +6716,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A217" s="81"/>
+      <c r="A217" s="74"/>
       <c r="B217" s="59"/>
       <c r="C217" s="44"/>
       <c r="D217" s="45"/>
@@ -6567,7 +6739,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A218" s="81"/>
+      <c r="A218" s="74"/>
       <c r="B218" s="59"/>
       <c r="C218" s="44"/>
       <c r="D218" s="45"/>
@@ -6590,7 +6762,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A219" s="81"/>
+      <c r="A219" s="74"/>
       <c r="B219" s="59"/>
       <c r="C219" s="44"/>
       <c r="D219" s="45"/>
@@ -6613,7 +6785,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A220" s="82"/>
+      <c r="A220" s="75"/>
       <c r="B220" s="61"/>
       <c r="C220" s="51"/>
       <c r="D220" s="52"/>
@@ -6636,7 +6808,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A221" s="81"/>
+      <c r="A221" s="74"/>
       <c r="B221" s="57"/>
       <c r="C221" s="63"/>
       <c r="D221" s="64"/>
@@ -6659,7 +6831,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A222" s="81"/>
+      <c r="A222" s="74"/>
       <c r="B222" s="59"/>
       <c r="C222" s="44"/>
       <c r="D222" s="45"/>
@@ -6682,7 +6854,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A223" s="81"/>
+      <c r="A223" s="74"/>
       <c r="B223" s="59"/>
       <c r="C223" s="44"/>
       <c r="D223" s="45"/>
@@ -6705,7 +6877,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A224" s="81"/>
+      <c r="A224" s="74"/>
       <c r="B224" s="59"/>
       <c r="C224" s="44"/>
       <c r="D224" s="45"/>
@@ -6728,7 +6900,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A225" s="81"/>
+      <c r="A225" s="74"/>
       <c r="B225" s="59"/>
       <c r="C225" s="44"/>
       <c r="D225" s="45"/>
@@ -6751,7 +6923,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A226" s="82"/>
+      <c r="A226" s="75"/>
       <c r="B226" s="61"/>
       <c r="C226" s="51"/>
       <c r="D226" s="52"/>
@@ -6774,7 +6946,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A227" s="81"/>
+      <c r="A227" s="74"/>
       <c r="B227" s="57"/>
       <c r="C227" s="63"/>
       <c r="D227" s="64"/>
@@ -6797,7 +6969,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A228" s="81"/>
+      <c r="A228" s="74"/>
       <c r="B228" s="59"/>
       <c r="C228" s="44"/>
       <c r="D228" s="45"/>
@@ -6820,7 +6992,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A229" s="81"/>
+      <c r="A229" s="74"/>
       <c r="B229" s="59"/>
       <c r="C229" s="44"/>
       <c r="D229" s="45"/>
@@ -6843,7 +7015,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A230" s="81"/>
+      <c r="A230" s="74"/>
       <c r="B230" s="59"/>
       <c r="C230" s="44"/>
       <c r="D230" s="45"/>
@@ -6866,7 +7038,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A231" s="81"/>
+      <c r="A231" s="74"/>
       <c r="B231" s="59"/>
       <c r="C231" s="44"/>
       <c r="D231" s="45"/>
@@ -6889,7 +7061,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A232" s="82"/>
+      <c r="A232" s="75"/>
       <c r="B232" s="61"/>
       <c r="C232" s="51"/>
       <c r="D232" s="52"/>
@@ -6912,7 +7084,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A233" s="81"/>
+      <c r="A233" s="74"/>
       <c r="B233" s="57"/>
       <c r="C233" s="63"/>
       <c r="D233" s="64"/>
@@ -6935,7 +7107,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A234" s="81"/>
+      <c r="A234" s="74"/>
       <c r="B234" s="59"/>
       <c r="C234" s="44"/>
       <c r="D234" s="45"/>
@@ -6958,7 +7130,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A235" s="81"/>
+      <c r="A235" s="74"/>
       <c r="B235" s="59"/>
       <c r="C235" s="44"/>
       <c r="D235" s="45"/>
@@ -6981,7 +7153,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A236" s="81"/>
+      <c r="A236" s="74"/>
       <c r="B236" s="59"/>
       <c r="C236" s="44"/>
       <c r="D236" s="45"/>
@@ -7004,7 +7176,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A237" s="81"/>
+      <c r="A237" s="74"/>
       <c r="B237" s="59"/>
       <c r="C237" s="44"/>
       <c r="D237" s="45"/>
@@ -7027,7 +7199,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A238" s="82"/>
+      <c r="A238" s="75"/>
       <c r="B238" s="61"/>
       <c r="C238" s="51"/>
       <c r="D238" s="52"/>
@@ -7050,7 +7222,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A239" s="81"/>
+      <c r="A239" s="74"/>
       <c r="B239" s="57"/>
       <c r="C239" s="63"/>
       <c r="D239" s="64"/>
@@ -7073,7 +7245,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A240" s="81"/>
+      <c r="A240" s="74"/>
       <c r="B240" s="59"/>
       <c r="C240" s="44"/>
       <c r="D240" s="45"/>
@@ -7096,7 +7268,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A241" s="81"/>
+      <c r="A241" s="74"/>
       <c r="B241" s="59"/>
       <c r="C241" s="44"/>
       <c r="D241" s="45"/>
@@ -7119,7 +7291,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A242" s="81"/>
+      <c r="A242" s="74"/>
       <c r="B242" s="59"/>
       <c r="C242" s="44"/>
       <c r="D242" s="45"/>
@@ -7142,7 +7314,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A243" s="81"/>
+      <c r="A243" s="74"/>
       <c r="B243" s="59"/>
       <c r="C243" s="44"/>
       <c r="D243" s="45"/>
@@ -7165,7 +7337,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A244" s="82"/>
+      <c r="A244" s="75"/>
       <c r="B244" s="61"/>
       <c r="C244" s="51"/>
       <c r="D244" s="52"/>
@@ -7188,7 +7360,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A245" s="81"/>
+      <c r="A245" s="74"/>
       <c r="B245" s="57"/>
       <c r="C245" s="63"/>
       <c r="D245" s="64"/>
@@ -7211,7 +7383,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A246" s="81"/>
+      <c r="A246" s="74"/>
       <c r="B246" s="59"/>
       <c r="C246" s="44"/>
       <c r="D246" s="45"/>
@@ -7234,7 +7406,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A247" s="81"/>
+      <c r="A247" s="74"/>
       <c r="B247" s="59"/>
       <c r="C247" s="44"/>
       <c r="D247" s="45"/>
@@ -7257,7 +7429,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A248" s="81"/>
+      <c r="A248" s="74"/>
       <c r="B248" s="59"/>
       <c r="C248" s="44"/>
       <c r="D248" s="45"/>
@@ -7280,7 +7452,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A249" s="81"/>
+      <c r="A249" s="74"/>
       <c r="B249" s="59"/>
       <c r="C249" s="44"/>
       <c r="D249" s="45"/>
@@ -7303,7 +7475,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A250" s="82"/>
+      <c r="A250" s="75"/>
       <c r="B250" s="61"/>
       <c r="C250" s="51"/>
       <c r="D250" s="52"/>
@@ -7326,7 +7498,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A251" s="81"/>
+      <c r="A251" s="74"/>
       <c r="B251" s="57"/>
       <c r="C251" s="63"/>
       <c r="D251" s="64"/>
@@ -7349,7 +7521,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A252" s="81"/>
+      <c r="A252" s="74"/>
       <c r="B252" s="59"/>
       <c r="C252" s="44"/>
       <c r="D252" s="45"/>
@@ -7372,7 +7544,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A253" s="81"/>
+      <c r="A253" s="74"/>
       <c r="B253" s="59"/>
       <c r="C253" s="44"/>
       <c r="D253" s="45"/>
@@ -7395,7 +7567,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A254" s="81"/>
+      <c r="A254" s="74"/>
       <c r="B254" s="59"/>
       <c r="C254" s="44"/>
       <c r="D254" s="45"/>
@@ -7418,7 +7590,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A255" s="81"/>
+      <c r="A255" s="74"/>
       <c r="B255" s="59"/>
       <c r="C255" s="44"/>
       <c r="D255" s="45"/>
@@ -7441,7 +7613,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A256" s="82"/>
+      <c r="A256" s="75"/>
       <c r="B256" s="61"/>
       <c r="C256" s="51"/>
       <c r="D256" s="52"/>
@@ -7464,7 +7636,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A257" s="81"/>
+      <c r="A257" s="74"/>
       <c r="B257" s="57"/>
       <c r="C257" s="63"/>
       <c r="D257" s="64"/>
@@ -7487,7 +7659,7 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A258" s="81"/>
+      <c r="A258" s="74"/>
       <c r="B258" s="59"/>
       <c r="C258" s="44"/>
       <c r="D258" s="45"/>
@@ -7510,7 +7682,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A259" s="81"/>
+      <c r="A259" s="74"/>
       <c r="B259" s="59"/>
       <c r="C259" s="44"/>
       <c r="D259" s="45"/>
@@ -7533,7 +7705,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A260" s="81"/>
+      <c r="A260" s="74"/>
       <c r="B260" s="59"/>
       <c r="C260" s="44"/>
       <c r="D260" s="45"/>
@@ -7556,7 +7728,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A261" s="81"/>
+      <c r="A261" s="74"/>
       <c r="B261" s="59"/>
       <c r="C261" s="44"/>
       <c r="D261" s="45"/>
@@ -7579,7 +7751,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A262" s="82"/>
+      <c r="A262" s="75"/>
       <c r="B262" s="61"/>
       <c r="C262" s="51"/>
       <c r="D262" s="52"/>
@@ -7602,7 +7774,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A263" s="81"/>
+      <c r="A263" s="74"/>
       <c r="B263" s="57"/>
       <c r="C263" s="63"/>
       <c r="D263" s="64"/>
@@ -7625,7 +7797,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A264" s="81"/>
+      <c r="A264" s="74"/>
       <c r="B264" s="59"/>
       <c r="C264" s="44"/>
       <c r="D264" s="45"/>
@@ -7648,7 +7820,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A265" s="81"/>
+      <c r="A265" s="74"/>
       <c r="B265" s="59"/>
       <c r="C265" s="44"/>
       <c r="D265" s="45"/>
@@ -7671,7 +7843,7 @@
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A266" s="81"/>
+      <c r="A266" s="74"/>
       <c r="B266" s="59"/>
       <c r="C266" s="44"/>
       <c r="D266" s="45"/>
@@ -7694,7 +7866,7 @@
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A267" s="81"/>
+      <c r="A267" s="74"/>
       <c r="B267" s="59"/>
       <c r="C267" s="44"/>
       <c r="D267" s="45"/>
@@ -7717,7 +7889,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A268" s="82"/>
+      <c r="A268" s="75"/>
       <c r="B268" s="61"/>
       <c r="C268" s="51"/>
       <c r="D268" s="52"/>
@@ -7740,7 +7912,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A269" s="81"/>
+      <c r="A269" s="74"/>
       <c r="B269" s="57"/>
       <c r="C269" s="63"/>
       <c r="D269" s="64"/>
@@ -7763,7 +7935,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A270" s="81"/>
+      <c r="A270" s="74"/>
       <c r="B270" s="59"/>
       <c r="C270" s="44"/>
       <c r="D270" s="45"/>
@@ -7786,7 +7958,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A271" s="81"/>
+      <c r="A271" s="74"/>
       <c r="B271" s="59"/>
       <c r="C271" s="44"/>
       <c r="D271" s="45"/>
@@ -7809,7 +7981,7 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A272" s="81"/>
+      <c r="A272" s="74"/>
       <c r="B272" s="59"/>
       <c r="C272" s="44"/>
       <c r="D272" s="45"/>
@@ -7832,7 +8004,7 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A273" s="81"/>
+      <c r="A273" s="74"/>
       <c r="B273" s="59"/>
       <c r="C273" s="44"/>
       <c r="D273" s="45"/>
@@ -7855,7 +8027,7 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A274" s="82"/>
+      <c r="A274" s="75"/>
       <c r="B274" s="61"/>
       <c r="C274" s="51"/>
       <c r="D274" s="52"/>
@@ -7878,7 +8050,7 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A275" s="81"/>
+      <c r="A275" s="74"/>
       <c r="B275" s="57"/>
       <c r="C275" s="63"/>
       <c r="D275" s="64"/>
@@ -7901,7 +8073,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A276" s="81"/>
+      <c r="A276" s="74"/>
       <c r="B276" s="59"/>
       <c r="C276" s="44"/>
       <c r="D276" s="45"/>
@@ -7924,7 +8096,7 @@
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A277" s="81"/>
+      <c r="A277" s="74"/>
       <c r="B277" s="59"/>
       <c r="C277" s="44"/>
       <c r="D277" s="45"/>
@@ -7947,7 +8119,7 @@
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A278" s="81"/>
+      <c r="A278" s="74"/>
       <c r="B278" s="59"/>
       <c r="C278" s="44"/>
       <c r="D278" s="45"/>
@@ -7970,7 +8142,7 @@
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A279" s="81"/>
+      <c r="A279" s="74"/>
       <c r="B279" s="59"/>
       <c r="C279" s="44"/>
       <c r="D279" s="45"/>
@@ -7993,7 +8165,7 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A280" s="82"/>
+      <c r="A280" s="75"/>
       <c r="B280" s="61"/>
       <c r="C280" s="51"/>
       <c r="D280" s="52"/>
@@ -8016,7 +8188,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A281" s="81"/>
+      <c r="A281" s="74"/>
       <c r="B281" s="57"/>
       <c r="C281" s="63"/>
       <c r="D281" s="64"/>
@@ -8039,7 +8211,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A282" s="81"/>
+      <c r="A282" s="74"/>
       <c r="B282" s="59"/>
       <c r="C282" s="44"/>
       <c r="D282" s="45"/>
@@ -8062,7 +8234,7 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A283" s="81"/>
+      <c r="A283" s="74"/>
       <c r="B283" s="59"/>
       <c r="C283" s="44"/>
       <c r="D283" s="45"/>
@@ -8085,7 +8257,7 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A284" s="81"/>
+      <c r="A284" s="74"/>
       <c r="B284" s="59"/>
       <c r="C284" s="44"/>
       <c r="D284" s="45"/>
@@ -8108,7 +8280,7 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A285" s="81"/>
+      <c r="A285" s="74"/>
       <c r="B285" s="59"/>
       <c r="C285" s="44"/>
       <c r="D285" s="45"/>
@@ -8131,7 +8303,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A286" s="82"/>
+      <c r="A286" s="75"/>
       <c r="B286" s="61"/>
       <c r="C286" s="51"/>
       <c r="D286" s="52"/>
@@ -8154,7 +8326,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A287" s="81"/>
+      <c r="A287" s="74"/>
       <c r="B287" s="57"/>
       <c r="C287" s="63"/>
       <c r="D287" s="64"/>
@@ -8177,7 +8349,7 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A288" s="81"/>
+      <c r="A288" s="74"/>
       <c r="B288" s="59"/>
       <c r="C288" s="44"/>
       <c r="D288" s="45"/>
@@ -8200,7 +8372,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A289" s="81"/>
+      <c r="A289" s="74"/>
       <c r="B289" s="59"/>
       <c r="C289" s="44"/>
       <c r="D289" s="45"/>
@@ -8223,7 +8395,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A290" s="81"/>
+      <c r="A290" s="74"/>
       <c r="B290" s="59"/>
       <c r="C290" s="44"/>
       <c r="D290" s="45"/>
@@ -8246,7 +8418,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A291" s="81"/>
+      <c r="A291" s="74"/>
       <c r="B291" s="59"/>
       <c r="C291" s="44"/>
       <c r="D291" s="45"/>
@@ -8269,7 +8441,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A292" s="82"/>
+      <c r="A292" s="75"/>
       <c r="B292" s="61"/>
       <c r="C292" s="51"/>
       <c r="D292" s="52"/>
@@ -8292,7 +8464,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A293" s="81"/>
+      <c r="A293" s="74"/>
       <c r="B293" s="57"/>
       <c r="C293" s="63"/>
       <c r="D293" s="64"/>
@@ -8315,7 +8487,7 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A294" s="81"/>
+      <c r="A294" s="74"/>
       <c r="B294" s="59"/>
       <c r="C294" s="44"/>
       <c r="D294" s="45"/>
@@ -8338,7 +8510,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A295" s="81"/>
+      <c r="A295" s="74"/>
       <c r="B295" s="59"/>
       <c r="C295" s="44"/>
       <c r="D295" s="45"/>
@@ -8361,7 +8533,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A296" s="81"/>
+      <c r="A296" s="74"/>
       <c r="B296" s="59"/>
       <c r="C296" s="44"/>
       <c r="D296" s="45"/>
@@ -8384,7 +8556,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A297" s="81"/>
+      <c r="A297" s="74"/>
       <c r="B297" s="59"/>
       <c r="C297" s="44"/>
       <c r="D297" s="45"/>
@@ -8407,7 +8579,7 @@
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A298" s="82"/>
+      <c r="A298" s="75"/>
       <c r="B298" s="61"/>
       <c r="C298" s="51"/>
       <c r="D298" s="52"/>
@@ -8430,7 +8602,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A299" s="81"/>
+      <c r="A299" s="74"/>
       <c r="B299" s="57"/>
       <c r="C299" s="63"/>
       <c r="D299" s="64"/>
@@ -8453,7 +8625,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A300" s="81"/>
+      <c r="A300" s="74"/>
       <c r="B300" s="59"/>
       <c r="C300" s="44"/>
       <c r="D300" s="45"/>
@@ -8476,7 +8648,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A301" s="81"/>
+      <c r="A301" s="74"/>
       <c r="B301" s="59"/>
       <c r="C301" s="44"/>
       <c r="D301" s="45"/>
@@ -8499,7 +8671,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A302" s="81"/>
+      <c r="A302" s="74"/>
       <c r="B302" s="59"/>
       <c r="C302" s="44"/>
       <c r="D302" s="45"/>
@@ -8522,7 +8694,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A303" s="81"/>
+      <c r="A303" s="74"/>
       <c r="B303" s="59"/>
       <c r="C303" s="44"/>
       <c r="D303" s="45"/>
@@ -8545,7 +8717,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A304" s="82"/>
+      <c r="A304" s="75"/>
       <c r="B304" s="61"/>
       <c r="C304" s="51"/>
       <c r="D304" s="52"/>
@@ -8568,7 +8740,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A305" s="81"/>
+      <c r="A305" s="74"/>
       <c r="B305" s="57"/>
       <c r="C305" s="63"/>
       <c r="D305" s="64"/>
@@ -8591,7 +8763,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A306" s="81"/>
+      <c r="A306" s="74"/>
       <c r="B306" s="59"/>
       <c r="C306" s="44"/>
       <c r="D306" s="45"/>
@@ -8614,7 +8786,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A307" s="81"/>
+      <c r="A307" s="74"/>
       <c r="B307" s="59"/>
       <c r="C307" s="44"/>
       <c r="D307" s="45"/>
@@ -8637,7 +8809,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A308" s="81"/>
+      <c r="A308" s="74"/>
       <c r="B308" s="59"/>
       <c r="C308" s="44"/>
       <c r="D308" s="45"/>
@@ -8660,7 +8832,7 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A309" s="81"/>
+      <c r="A309" s="74"/>
       <c r="B309" s="59"/>
       <c r="C309" s="44"/>
       <c r="D309" s="45"/>
@@ -8683,7 +8855,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A310" s="82"/>
+      <c r="A310" s="75"/>
       <c r="B310" s="61"/>
       <c r="C310" s="51"/>
       <c r="D310" s="52"/>
@@ -8706,7 +8878,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A311" s="81"/>
+      <c r="A311" s="74"/>
       <c r="B311" s="57"/>
       <c r="C311" s="63"/>
       <c r="D311" s="64"/>
@@ -8729,7 +8901,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A312" s="81"/>
+      <c r="A312" s="74"/>
       <c r="B312" s="59"/>
       <c r="C312" s="44"/>
       <c r="D312" s="45"/>
@@ -8752,7 +8924,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A313" s="81"/>
+      <c r="A313" s="74"/>
       <c r="B313" s="59"/>
       <c r="C313" s="44"/>
       <c r="D313" s="45"/>
@@ -8775,7 +8947,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A314" s="81"/>
+      <c r="A314" s="74"/>
       <c r="B314" s="59"/>
       <c r="C314" s="44"/>
       <c r="D314" s="45"/>
@@ -8798,7 +8970,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A315" s="81"/>
+      <c r="A315" s="74"/>
       <c r="B315" s="59"/>
       <c r="C315" s="44"/>
       <c r="D315" s="45"/>
@@ -8821,7 +8993,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A316" s="82"/>
+      <c r="A316" s="75"/>
       <c r="B316" s="61"/>
       <c r="C316" s="51"/>
       <c r="D316" s="52"/>
@@ -8844,7 +9016,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A317" s="81"/>
+      <c r="A317" s="74"/>
       <c r="B317" s="57"/>
       <c r="C317" s="63"/>
       <c r="D317" s="64"/>
@@ -8867,7 +9039,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A318" s="81"/>
+      <c r="A318" s="74"/>
       <c r="B318" s="59"/>
       <c r="C318" s="44"/>
       <c r="D318" s="45"/>
@@ -8890,7 +9062,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A319" s="81"/>
+      <c r="A319" s="74"/>
       <c r="B319" s="59"/>
       <c r="C319" s="44"/>
       <c r="D319" s="45"/>
@@ -8913,7 +9085,7 @@
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A320" s="81"/>
+      <c r="A320" s="74"/>
       <c r="B320" s="59"/>
       <c r="C320" s="44"/>
       <c r="D320" s="45"/>
@@ -8936,7 +9108,7 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A321" s="81"/>
+      <c r="A321" s="74"/>
       <c r="B321" s="59"/>
       <c r="C321" s="44"/>
       <c r="D321" s="45"/>
@@ -8959,7 +9131,7 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A322" s="82"/>
+      <c r="A322" s="75"/>
       <c r="B322" s="61"/>
       <c r="C322" s="51"/>
       <c r="D322" s="52"/>
@@ -8982,7 +9154,7 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A323" s="81"/>
+      <c r="A323" s="74"/>
       <c r="B323" s="57"/>
       <c r="C323" s="63"/>
       <c r="D323" s="64"/>
@@ -9005,7 +9177,7 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A324" s="81"/>
+      <c r="A324" s="74"/>
       <c r="B324" s="59"/>
       <c r="C324" s="44"/>
       <c r="D324" s="45"/>
@@ -9028,7 +9200,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A325" s="81"/>
+      <c r="A325" s="74"/>
       <c r="B325" s="59"/>
       <c r="C325" s="44"/>
       <c r="D325" s="45"/>
@@ -9051,7 +9223,7 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A326" s="81"/>
+      <c r="A326" s="74"/>
       <c r="B326" s="59"/>
       <c r="C326" s="44"/>
       <c r="D326" s="45"/>
@@ -9074,7 +9246,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A327" s="81"/>
+      <c r="A327" s="74"/>
       <c r="B327" s="59"/>
       <c r="C327" s="44"/>
       <c r="D327" s="45"/>
@@ -9097,7 +9269,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A328" s="82"/>
+      <c r="A328" s="75"/>
       <c r="B328" s="61"/>
       <c r="C328" s="51"/>
       <c r="D328" s="52"/>
@@ -9120,7 +9292,7 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A329" s="81"/>
+      <c r="A329" s="74"/>
       <c r="B329" s="57"/>
       <c r="C329" s="63"/>
       <c r="D329" s="64"/>
@@ -9143,7 +9315,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A330" s="81"/>
+      <c r="A330" s="74"/>
       <c r="B330" s="59"/>
       <c r="C330" s="44"/>
       <c r="D330" s="45"/>
@@ -9166,7 +9338,7 @@
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A331" s="81"/>
+      <c r="A331" s="74"/>
       <c r="B331" s="59"/>
       <c r="C331" s="44"/>
       <c r="D331" s="45"/>
@@ -9189,7 +9361,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A332" s="81"/>
+      <c r="A332" s="74"/>
       <c r="B332" s="59"/>
       <c r="C332" s="44"/>
       <c r="D332" s="45"/>
@@ -9212,7 +9384,7 @@
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A333" s="81"/>
+      <c r="A333" s="74"/>
       <c r="B333" s="59"/>
       <c r="C333" s="44"/>
       <c r="D333" s="45"/>
@@ -9235,7 +9407,7 @@
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A334" s="82"/>
+      <c r="A334" s="75"/>
       <c r="B334" s="61"/>
       <c r="C334" s="51"/>
       <c r="D334" s="52"/>
@@ -9258,7 +9430,7 @@
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A335" s="81"/>
+      <c r="A335" s="74"/>
       <c r="B335" s="57"/>
       <c r="C335" s="63"/>
       <c r="D335" s="64"/>
@@ -9281,7 +9453,7 @@
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A336" s="81"/>
+      <c r="A336" s="74"/>
       <c r="B336" s="59"/>
       <c r="C336" s="44"/>
       <c r="D336" s="45"/>
@@ -9304,7 +9476,7 @@
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A337" s="81"/>
+      <c r="A337" s="74"/>
       <c r="B337" s="59"/>
       <c r="C337" s="44"/>
       <c r="D337" s="45"/>
@@ -9327,7 +9499,7 @@
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A338" s="81"/>
+      <c r="A338" s="74"/>
       <c r="B338" s="59"/>
       <c r="C338" s="44"/>
       <c r="D338" s="45"/>
@@ -9350,7 +9522,7 @@
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A339" s="81"/>
+      <c r="A339" s="74"/>
       <c r="B339" s="59"/>
       <c r="C339" s="44"/>
       <c r="D339" s="45"/>
@@ -9373,7 +9545,7 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A340" s="82"/>
+      <c r="A340" s="75"/>
       <c r="B340" s="61"/>
       <c r="C340" s="51"/>
       <c r="D340" s="52"/>
@@ -9396,7 +9568,7 @@
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A341" s="81"/>
+      <c r="A341" s="74"/>
       <c r="B341" s="57"/>
       <c r="C341" s="63"/>
       <c r="D341" s="64"/>
@@ -9419,7 +9591,7 @@
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A342" s="81"/>
+      <c r="A342" s="74"/>
       <c r="B342" s="59"/>
       <c r="C342" s="44"/>
       <c r="D342" s="45"/>
@@ -9442,7 +9614,7 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A343" s="81"/>
+      <c r="A343" s="74"/>
       <c r="B343" s="59"/>
       <c r="C343" s="44"/>
       <c r="D343" s="45"/>
@@ -9465,7 +9637,7 @@
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A344" s="81"/>
+      <c r="A344" s="74"/>
       <c r="B344" s="59"/>
       <c r="C344" s="44"/>
       <c r="D344" s="45"/>
@@ -9488,7 +9660,7 @@
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A345" s="81"/>
+      <c r="A345" s="74"/>
       <c r="B345" s="59"/>
       <c r="C345" s="44"/>
       <c r="D345" s="45"/>
@@ -9511,7 +9683,7 @@
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A346" s="82"/>
+      <c r="A346" s="75"/>
       <c r="B346" s="61"/>
       <c r="C346" s="51"/>
       <c r="D346" s="52"/>
@@ -9534,7 +9706,7 @@
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A347" s="81"/>
+      <c r="A347" s="74"/>
       <c r="B347" s="57"/>
       <c r="C347" s="63"/>
       <c r="D347" s="64"/>
@@ -9557,7 +9729,7 @@
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A348" s="81"/>
+      <c r="A348" s="74"/>
       <c r="B348" s="59"/>
       <c r="C348" s="44"/>
       <c r="D348" s="45"/>
@@ -9580,7 +9752,7 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A349" s="81"/>
+      <c r="A349" s="74"/>
       <c r="B349" s="59"/>
       <c r="C349" s="44"/>
       <c r="D349" s="45"/>
@@ -9603,7 +9775,7 @@
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A350" s="81"/>
+      <c r="A350" s="74"/>
       <c r="B350" s="59"/>
       <c r="C350" s="44"/>
       <c r="D350" s="45"/>
@@ -9626,7 +9798,7 @@
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A351" s="81"/>
+      <c r="A351" s="74"/>
       <c r="B351" s="59"/>
       <c r="C351" s="44"/>
       <c r="D351" s="45"/>
@@ -9649,7 +9821,7 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A352" s="82"/>
+      <c r="A352" s="75"/>
       <c r="B352" s="61"/>
       <c r="C352" s="51"/>
       <c r="D352" s="52"/>
@@ -9672,7 +9844,7 @@
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A353" s="81"/>
+      <c r="A353" s="74"/>
       <c r="B353" s="57"/>
       <c r="C353" s="63"/>
       <c r="D353" s="64"/>
@@ -9695,7 +9867,7 @@
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A354" s="81"/>
+      <c r="A354" s="74"/>
       <c r="B354" s="59"/>
       <c r="C354" s="44"/>
       <c r="D354" s="45"/>
@@ -9718,7 +9890,7 @@
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A355" s="81"/>
+      <c r="A355" s="74"/>
       <c r="B355" s="59"/>
       <c r="C355" s="44"/>
       <c r="D355" s="45"/>
@@ -9741,7 +9913,7 @@
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A356" s="81"/>
+      <c r="A356" s="74"/>
       <c r="B356" s="59"/>
       <c r="C356" s="44"/>
       <c r="D356" s="45"/>
@@ -9764,7 +9936,7 @@
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A357" s="81"/>
+      <c r="A357" s="74"/>
       <c r="B357" s="59"/>
       <c r="C357" s="44"/>
       <c r="D357" s="45"/>
@@ -9787,7 +9959,7 @@
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A358" s="82"/>
+      <c r="A358" s="75"/>
       <c r="B358" s="61"/>
       <c r="C358" s="51"/>
       <c r="D358" s="52"/>
@@ -9810,7 +9982,7 @@
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A359" s="81"/>
+      <c r="A359" s="74"/>
       <c r="B359" s="57"/>
       <c r="C359" s="63"/>
       <c r="D359" s="64"/>
@@ -9833,7 +10005,7 @@
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A360" s="81"/>
+      <c r="A360" s="74"/>
       <c r="B360" s="59"/>
       <c r="C360" s="44"/>
       <c r="D360" s="45"/>
@@ -9856,7 +10028,7 @@
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A361" s="81"/>
+      <c r="A361" s="74"/>
       <c r="B361" s="59"/>
       <c r="C361" s="44"/>
       <c r="D361" s="45"/>
@@ -9879,7 +10051,7 @@
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A362" s="81"/>
+      <c r="A362" s="74"/>
       <c r="B362" s="59"/>
       <c r="C362" s="44"/>
       <c r="D362" s="45"/>
@@ -9902,7 +10074,7 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A363" s="81"/>
+      <c r="A363" s="74"/>
       <c r="B363" s="59"/>
       <c r="C363" s="44"/>
       <c r="D363" s="45"/>
@@ -9925,7 +10097,7 @@
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A364" s="82"/>
+      <c r="A364" s="75"/>
       <c r="B364" s="61"/>
       <c r="C364" s="51"/>
       <c r="D364" s="52"/>
@@ -9948,7 +10120,7 @@
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A365" s="81"/>
+      <c r="A365" s="74"/>
       <c r="B365" s="57"/>
       <c r="C365" s="63"/>
       <c r="D365" s="64"/>
@@ -9971,7 +10143,7 @@
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A366" s="81"/>
+      <c r="A366" s="74"/>
       <c r="B366" s="59"/>
       <c r="C366" s="44"/>
       <c r="D366" s="45"/>
@@ -9994,7 +10166,7 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A367" s="81"/>
+      <c r="A367" s="74"/>
       <c r="B367" s="59"/>
       <c r="C367" s="44"/>
       <c r="D367" s="45"/>
@@ -10017,7 +10189,7 @@
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A368" s="81"/>
+      <c r="A368" s="74"/>
       <c r="B368" s="59"/>
       <c r="C368" s="44"/>
       <c r="D368" s="45"/>
@@ -10040,7 +10212,7 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A369" s="81"/>
+      <c r="A369" s="74"/>
       <c r="B369" s="59"/>
       <c r="C369" s="44"/>
       <c r="D369" s="45"/>
@@ -10063,7 +10235,7 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A370" s="82"/>
+      <c r="A370" s="75"/>
       <c r="B370" s="61"/>
       <c r="C370" s="51"/>
       <c r="D370" s="52"/>
@@ -10086,7 +10258,7 @@
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A371" s="81"/>
+      <c r="A371" s="74"/>
       <c r="B371" s="57"/>
       <c r="C371" s="63"/>
       <c r="D371" s="64"/>
@@ -10109,7 +10281,7 @@
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A372" s="81"/>
+      <c r="A372" s="74"/>
       <c r="B372" s="59"/>
       <c r="C372" s="44"/>
       <c r="D372" s="45"/>
@@ -10132,7 +10304,7 @@
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A373" s="81"/>
+      <c r="A373" s="74"/>
       <c r="B373" s="59"/>
       <c r="C373" s="44"/>
       <c r="D373" s="45"/>
@@ -10155,7 +10327,7 @@
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A374" s="81"/>
+      <c r="A374" s="74"/>
       <c r="B374" s="59"/>
       <c r="C374" s="44"/>
       <c r="D374" s="45"/>
@@ -10178,7 +10350,7 @@
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A375" s="81"/>
+      <c r="A375" s="74"/>
       <c r="B375" s="59"/>
       <c r="C375" s="44"/>
       <c r="D375" s="45"/>
@@ -10201,7 +10373,7 @@
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A376" s="82"/>
+      <c r="A376" s="75"/>
       <c r="B376" s="61"/>
       <c r="C376" s="51"/>
       <c r="D376" s="52"/>
@@ -10224,7 +10396,7 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A377" s="81"/>
+      <c r="A377" s="74"/>
       <c r="B377" s="57"/>
       <c r="C377" s="63"/>
       <c r="D377" s="64"/>
@@ -10247,7 +10419,7 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A378" s="81"/>
+      <c r="A378" s="74"/>
       <c r="B378" s="59"/>
       <c r="C378" s="44"/>
       <c r="D378" s="45"/>
@@ -10270,7 +10442,7 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A379" s="81"/>
+      <c r="A379" s="74"/>
       <c r="B379" s="59"/>
       <c r="C379" s="44"/>
       <c r="D379" s="45"/>
@@ -10293,7 +10465,7 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A380" s="81"/>
+      <c r="A380" s="74"/>
       <c r="B380" s="59"/>
       <c r="C380" s="44"/>
       <c r="D380" s="45"/>
@@ -10316,7 +10488,7 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A381" s="81"/>
+      <c r="A381" s="74"/>
       <c r="B381" s="59"/>
       <c r="C381" s="44"/>
       <c r="D381" s="45"/>
@@ -10339,7 +10511,7 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A382" s="82"/>
+      <c r="A382" s="75"/>
       <c r="B382" s="61"/>
       <c r="C382" s="51"/>
       <c r="D382" s="52"/>
@@ -10362,7 +10534,7 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A383" s="81"/>
+      <c r="A383" s="74"/>
       <c r="B383" s="57"/>
       <c r="C383" s="63"/>
       <c r="D383" s="64"/>
@@ -10385,7 +10557,7 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A384" s="81"/>
+      <c r="A384" s="74"/>
       <c r="B384" s="59"/>
       <c r="C384" s="44"/>
       <c r="D384" s="45"/>
@@ -10408,7 +10580,7 @@
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A385" s="81"/>
+      <c r="A385" s="74"/>
       <c r="B385" s="59"/>
       <c r="C385" s="44"/>
       <c r="D385" s="45"/>
@@ -10431,7 +10603,7 @@
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A386" s="81"/>
+      <c r="A386" s="74"/>
       <c r="B386" s="59"/>
       <c r="C386" s="44"/>
       <c r="D386" s="45"/>
@@ -10454,7 +10626,7 @@
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A387" s="81"/>
+      <c r="A387" s="74"/>
       <c r="B387" s="59"/>
       <c r="C387" s="44"/>
       <c r="D387" s="45"/>
@@ -10477,7 +10649,7 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A388" s="82"/>
+      <c r="A388" s="75"/>
       <c r="B388" s="61"/>
       <c r="C388" s="51"/>
       <c r="D388" s="52"/>
@@ -10500,7 +10672,7 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A389" s="81"/>
+      <c r="A389" s="74"/>
       <c r="B389" s="57"/>
       <c r="C389" s="63"/>
       <c r="D389" s="64"/>
@@ -10523,7 +10695,7 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A390" s="81"/>
+      <c r="A390" s="74"/>
       <c r="B390" s="59"/>
       <c r="C390" s="44"/>
       <c r="D390" s="45"/>
@@ -10546,7 +10718,7 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A391" s="81"/>
+      <c r="A391" s="74"/>
       <c r="B391" s="59"/>
       <c r="C391" s="44"/>
       <c r="D391" s="45"/>
@@ -10569,7 +10741,7 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A392" s="81"/>
+      <c r="A392" s="74"/>
       <c r="B392" s="59"/>
       <c r="C392" s="44"/>
       <c r="D392" s="45"/>
@@ -10592,7 +10764,7 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A393" s="81"/>
+      <c r="A393" s="74"/>
       <c r="B393" s="59"/>
       <c r="C393" s="44"/>
       <c r="D393" s="45"/>
@@ -10615,7 +10787,7 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A394" s="82"/>
+      <c r="A394" s="75"/>
       <c r="B394" s="61"/>
       <c r="C394" s="51"/>
       <c r="D394" s="52"/>
@@ -10638,7 +10810,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A395" s="81"/>
+      <c r="A395" s="74"/>
       <c r="B395" s="57"/>
       <c r="C395" s="63"/>
       <c r="D395" s="64"/>
@@ -10661,7 +10833,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A396" s="81"/>
+      <c r="A396" s="74"/>
       <c r="B396" s="59"/>
       <c r="C396" s="44"/>
       <c r="D396" s="45"/>
@@ -10684,7 +10856,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A397" s="81"/>
+      <c r="A397" s="74"/>
       <c r="B397" s="59"/>
       <c r="C397" s="44"/>
       <c r="D397" s="45"/>
@@ -10707,7 +10879,7 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A398" s="81"/>
+      <c r="A398" s="74"/>
       <c r="B398" s="59"/>
       <c r="C398" s="44"/>
       <c r="D398" s="45"/>
@@ -10730,7 +10902,7 @@
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A399" s="81"/>
+      <c r="A399" s="74"/>
       <c r="B399" s="59"/>
       <c r="C399" s="44"/>
       <c r="D399" s="45"/>
@@ -10753,7 +10925,7 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A400" s="82"/>
+      <c r="A400" s="75"/>
       <c r="B400" s="61"/>
       <c r="C400" s="51"/>
       <c r="D400" s="52"/>
@@ -10776,7 +10948,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A401" s="81"/>
+      <c r="A401" s="74"/>
       <c r="B401" s="57"/>
       <c r="C401" s="63"/>
       <c r="D401" s="64"/>
@@ -10799,7 +10971,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A402" s="81"/>
+      <c r="A402" s="74"/>
       <c r="B402" s="59"/>
       <c r="C402" s="44"/>
       <c r="D402" s="45"/>
@@ -10822,7 +10994,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A403" s="81"/>
+      <c r="A403" s="74"/>
       <c r="B403" s="59"/>
       <c r="C403" s="44"/>
       <c r="D403" s="45"/>
@@ -10845,7 +11017,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A404" s="81"/>
+      <c r="A404" s="74"/>
       <c r="B404" s="59"/>
       <c r="C404" s="44"/>
       <c r="D404" s="45"/>
@@ -10868,7 +11040,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A405" s="81"/>
+      <c r="A405" s="74"/>
       <c r="B405" s="59"/>
       <c r="C405" s="44"/>
       <c r="D405" s="45"/>
@@ -10891,7 +11063,7 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A406" s="82"/>
+      <c r="A406" s="75"/>
       <c r="B406" s="61"/>
       <c r="C406" s="51"/>
       <c r="D406" s="52"/>
@@ -10914,7 +11086,7 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A407" s="81"/>
+      <c r="A407" s="74"/>
       <c r="B407" s="57"/>
       <c r="C407" s="63"/>
       <c r="D407" s="64"/>
@@ -10937,7 +11109,7 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A408" s="81"/>
+      <c r="A408" s="74"/>
       <c r="B408" s="59"/>
       <c r="C408" s="44"/>
       <c r="D408" s="45"/>
@@ -10960,7 +11132,7 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A409" s="81"/>
+      <c r="A409" s="74"/>
       <c r="B409" s="59"/>
       <c r="C409" s="44"/>
       <c r="D409" s="45"/>
@@ -10983,7 +11155,7 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A410" s="81"/>
+      <c r="A410" s="74"/>
       <c r="B410" s="59"/>
       <c r="C410" s="44"/>
       <c r="D410" s="45"/>
@@ -11006,7 +11178,7 @@
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A411" s="81"/>
+      <c r="A411" s="74"/>
       <c r="B411" s="59"/>
       <c r="C411" s="44"/>
       <c r="D411" s="45"/>
@@ -11029,7 +11201,7 @@
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A412" s="82"/>
+      <c r="A412" s="75"/>
       <c r="B412" s="61"/>
       <c r="C412" s="51"/>
       <c r="D412" s="52"/>
@@ -11052,7 +11224,7 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A413" s="81"/>
+      <c r="A413" s="74"/>
       <c r="B413" s="57"/>
       <c r="C413" s="63"/>
       <c r="D413" s="64"/>
@@ -11075,7 +11247,7 @@
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A414" s="81"/>
+      <c r="A414" s="74"/>
       <c r="B414" s="59"/>
       <c r="C414" s="44"/>
       <c r="D414" s="45"/>
@@ -11098,7 +11270,7 @@
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A415" s="81"/>
+      <c r="A415" s="74"/>
       <c r="B415" s="59"/>
       <c r="C415" s="44"/>
       <c r="D415" s="45"/>
@@ -11121,7 +11293,7 @@
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A416" s="81"/>
+      <c r="A416" s="74"/>
       <c r="B416" s="59"/>
       <c r="C416" s="44"/>
       <c r="D416" s="45"/>
@@ -11144,7 +11316,7 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A417" s="81"/>
+      <c r="A417" s="74"/>
       <c r="B417" s="59"/>
       <c r="C417" s="44"/>
       <c r="D417" s="45"/>
@@ -11167,7 +11339,7 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A418" s="82"/>
+      <c r="A418" s="75"/>
       <c r="B418" s="61"/>
       <c r="C418" s="51"/>
       <c r="D418" s="52"/>
@@ -11190,7 +11362,7 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A419" s="81"/>
+      <c r="A419" s="74"/>
       <c r="B419" s="57"/>
       <c r="C419" s="63"/>
       <c r="D419" s="64"/>
@@ -11213,7 +11385,7 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A420" s="81"/>
+      <c r="A420" s="74"/>
       <c r="B420" s="59"/>
       <c r="C420" s="44"/>
       <c r="D420" s="45"/>
@@ -11236,7 +11408,7 @@
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A421" s="81"/>
+      <c r="A421" s="74"/>
       <c r="B421" s="59"/>
       <c r="C421" s="44"/>
       <c r="D421" s="45"/>
@@ -11259,7 +11431,7 @@
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A422" s="81"/>
+      <c r="A422" s="74"/>
       <c r="B422" s="59"/>
       <c r="C422" s="44"/>
       <c r="D422" s="45"/>
@@ -11282,7 +11454,7 @@
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A423" s="81"/>
+      <c r="A423" s="74"/>
       <c r="B423" s="59"/>
       <c r="C423" s="44"/>
       <c r="D423" s="45"/>
@@ -11305,7 +11477,7 @@
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A424" s="82"/>
+      <c r="A424" s="75"/>
       <c r="B424" s="61"/>
       <c r="C424" s="51"/>
       <c r="D424" s="52"/>
@@ -11328,7 +11500,7 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A425" s="81"/>
+      <c r="A425" s="74"/>
       <c r="B425" s="57"/>
       <c r="C425" s="63"/>
       <c r="D425" s="64"/>
@@ -11351,7 +11523,7 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A426" s="81"/>
+      <c r="A426" s="74"/>
       <c r="B426" s="59"/>
       <c r="C426" s="44"/>
       <c r="D426" s="45"/>
@@ -11374,7 +11546,7 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A427" s="81"/>
+      <c r="A427" s="74"/>
       <c r="B427" s="59"/>
       <c r="C427" s="44"/>
       <c r="D427" s="45"/>
@@ -11397,7 +11569,7 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A428" s="81"/>
+      <c r="A428" s="74"/>
       <c r="B428" s="59"/>
       <c r="C428" s="44"/>
       <c r="D428" s="45"/>
@@ -11420,7 +11592,7 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A429" s="81"/>
+      <c r="A429" s="74"/>
       <c r="B429" s="59"/>
       <c r="C429" s="44"/>
       <c r="D429" s="45"/>
@@ -11443,7 +11615,7 @@
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A430" s="82"/>
+      <c r="A430" s="75"/>
       <c r="B430" s="61"/>
       <c r="C430" s="51"/>
       <c r="D430" s="52"/>
@@ -11466,7 +11638,7 @@
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A431" s="81"/>
+      <c r="A431" s="74"/>
       <c r="B431" s="57"/>
       <c r="C431" s="63"/>
       <c r="D431" s="64"/>
@@ -11489,7 +11661,7 @@
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A432" s="81"/>
+      <c r="A432" s="74"/>
       <c r="B432" s="59"/>
       <c r="C432" s="44"/>
       <c r="D432" s="45"/>
@@ -11512,7 +11684,7 @@
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A433" s="81"/>
+      <c r="A433" s="74"/>
       <c r="B433" s="59"/>
       <c r="C433" s="44"/>
       <c r="D433" s="45"/>
@@ -11535,7 +11707,7 @@
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A434" s="81"/>
+      <c r="A434" s="74"/>
       <c r="B434" s="59"/>
       <c r="C434" s="44"/>
       <c r="D434" s="45"/>
@@ -11558,7 +11730,7 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A435" s="81"/>
+      <c r="A435" s="74"/>
       <c r="B435" s="59"/>
       <c r="C435" s="44"/>
       <c r="D435" s="45"/>
@@ -11581,7 +11753,7 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A436" s="82"/>
+      <c r="A436" s="75"/>
       <c r="B436" s="61"/>
       <c r="C436" s="51"/>
       <c r="D436" s="52"/>
@@ -11604,7 +11776,7 @@
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A437" s="81"/>
+      <c r="A437" s="74"/>
       <c r="B437" s="57"/>
       <c r="C437" s="63"/>
       <c r="D437" s="64"/>
@@ -11627,7 +11799,7 @@
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A438" s="81"/>
+      <c r="A438" s="74"/>
       <c r="B438" s="59"/>
       <c r="C438" s="44"/>
       <c r="D438" s="45"/>
@@ -11650,7 +11822,7 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A439" s="81"/>
+      <c r="A439" s="74"/>
       <c r="B439" s="59"/>
       <c r="C439" s="44"/>
       <c r="D439" s="45"/>
@@ -11673,7 +11845,7 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A440" s="81"/>
+      <c r="A440" s="74"/>
       <c r="B440" s="59"/>
       <c r="C440" s="44"/>
       <c r="D440" s="45"/>
@@ -11696,7 +11868,7 @@
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A441" s="81"/>
+      <c r="A441" s="74"/>
       <c r="B441" s="59"/>
       <c r="C441" s="44"/>
       <c r="D441" s="45"/>
@@ -11719,7 +11891,7 @@
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A442" s="82"/>
+      <c r="A442" s="75"/>
       <c r="B442" s="61"/>
       <c r="C442" s="51"/>
       <c r="D442" s="52"/>
@@ -11742,7 +11914,7 @@
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A443" s="81"/>
+      <c r="A443" s="74"/>
       <c r="B443" s="57"/>
       <c r="C443" s="63"/>
       <c r="D443" s="64"/>
@@ -11765,7 +11937,7 @@
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A444" s="81"/>
+      <c r="A444" s="74"/>
       <c r="B444" s="59"/>
       <c r="C444" s="44"/>
       <c r="D444" s="45"/>
@@ -11788,7 +11960,7 @@
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A445" s="81"/>
+      <c r="A445" s="74"/>
       <c r="B445" s="59"/>
       <c r="C445" s="44"/>
       <c r="D445" s="45"/>
@@ -11811,7 +11983,7 @@
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A446" s="81"/>
+      <c r="A446" s="74"/>
       <c r="B446" s="59"/>
       <c r="C446" s="44"/>
       <c r="D446" s="45"/>
@@ -11834,7 +12006,7 @@
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A447" s="81"/>
+      <c r="A447" s="74"/>
       <c r="B447" s="59"/>
       <c r="C447" s="44"/>
       <c r="D447" s="45"/>
@@ -11857,7 +12029,7 @@
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A448" s="82"/>
+      <c r="A448" s="75"/>
       <c r="B448" s="61"/>
       <c r="C448" s="51"/>
       <c r="D448" s="52"/>
@@ -11880,7 +12052,7 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A449" s="81"/>
+      <c r="A449" s="74"/>
       <c r="B449" s="57"/>
       <c r="C449" s="63"/>
       <c r="D449" s="64"/>
@@ -11903,7 +12075,7 @@
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A450" s="81"/>
+      <c r="A450" s="74"/>
       <c r="B450" s="59"/>
       <c r="C450" s="44"/>
       <c r="D450" s="45"/>
@@ -11926,7 +12098,7 @@
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A451" s="81"/>
+      <c r="A451" s="74"/>
       <c r="B451" s="59"/>
       <c r="C451" s="44"/>
       <c r="D451" s="45"/>
@@ -11949,7 +12121,7 @@
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A452" s="81"/>
+      <c r="A452" s="74"/>
       <c r="B452" s="59"/>
       <c r="C452" s="44"/>
       <c r="D452" s="45"/>
@@ -11972,7 +12144,7 @@
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A453" s="81"/>
+      <c r="A453" s="74"/>
       <c r="B453" s="59"/>
       <c r="C453" s="44"/>
       <c r="D453" s="45"/>
@@ -11995,7 +12167,7 @@
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A454" s="82"/>
+      <c r="A454" s="75"/>
       <c r="B454" s="61"/>
       <c r="C454" s="51"/>
       <c r="D454" s="52"/>
@@ -12018,7 +12190,7 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A455" s="81"/>
+      <c r="A455" s="74"/>
       <c r="B455" s="57"/>
       <c r="C455" s="63"/>
       <c r="D455" s="64"/>
@@ -12041,7 +12213,7 @@
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A456" s="81"/>
+      <c r="A456" s="74"/>
       <c r="B456" s="59"/>
       <c r="C456" s="44"/>
       <c r="D456" s="45"/>
@@ -12064,7 +12236,7 @@
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A457" s="81"/>
+      <c r="A457" s="74"/>
       <c r="B457" s="59"/>
       <c r="C457" s="44"/>
       <c r="D457" s="45"/>
@@ -12087,7 +12259,7 @@
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A458" s="81"/>
+      <c r="A458" s="74"/>
       <c r="B458" s="59"/>
       <c r="C458" s="44"/>
       <c r="D458" s="45"/>
@@ -12110,7 +12282,7 @@
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A459" s="81"/>
+      <c r="A459" s="74"/>
       <c r="B459" s="59"/>
       <c r="C459" s="44"/>
       <c r="D459" s="45"/>
@@ -12133,7 +12305,7 @@
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A460" s="82"/>
+      <c r="A460" s="75"/>
       <c r="B460" s="61"/>
       <c r="C460" s="51"/>
       <c r="D460" s="52"/>
@@ -12156,7 +12328,7 @@
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A461" s="81"/>
+      <c r="A461" s="74"/>
       <c r="B461" s="57"/>
       <c r="C461" s="63"/>
       <c r="D461" s="64"/>
@@ -12179,7 +12351,7 @@
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A462" s="81"/>
+      <c r="A462" s="74"/>
       <c r="B462" s="59"/>
       <c r="C462" s="44"/>
       <c r="D462" s="45"/>
@@ -12202,7 +12374,7 @@
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A463" s="81"/>
+      <c r="A463" s="74"/>
       <c r="B463" s="59"/>
       <c r="C463" s="44"/>
       <c r="D463" s="45"/>
@@ -12225,7 +12397,7 @@
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A464" s="81"/>
+      <c r="A464" s="74"/>
       <c r="B464" s="59"/>
       <c r="C464" s="44"/>
       <c r="D464" s="45"/>
@@ -12248,7 +12420,7 @@
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A465" s="81"/>
+      <c r="A465" s="74"/>
       <c r="B465" s="59"/>
       <c r="C465" s="44"/>
       <c r="D465" s="45"/>
@@ -12271,7 +12443,7 @@
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A466" s="82"/>
+      <c r="A466" s="75"/>
       <c r="B466" s="61"/>
       <c r="C466" s="51"/>
       <c r="D466" s="52"/>
@@ -12294,7 +12466,7 @@
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A467" s="81"/>
+      <c r="A467" s="74"/>
       <c r="B467" s="57"/>
       <c r="C467" s="63"/>
       <c r="D467" s="64"/>
@@ -12317,7 +12489,7 @@
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A468" s="81"/>
+      <c r="A468" s="74"/>
       <c r="B468" s="59"/>
       <c r="C468" s="44"/>
       <c r="D468" s="45"/>
@@ -12340,7 +12512,7 @@
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A469" s="81"/>
+      <c r="A469" s="74"/>
       <c r="B469" s="59"/>
       <c r="C469" s="44"/>
       <c r="D469" s="45"/>
@@ -12363,7 +12535,7 @@
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A470" s="81"/>
+      <c r="A470" s="74"/>
       <c r="B470" s="59"/>
       <c r="C470" s="44"/>
       <c r="D470" s="45"/>
@@ -12386,7 +12558,7 @@
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A471" s="81"/>
+      <c r="A471" s="74"/>
       <c r="B471" s="59"/>
       <c r="C471" s="44"/>
       <c r="D471" s="45"/>
@@ -12409,7 +12581,7 @@
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A472" s="82"/>
+      <c r="A472" s="75"/>
       <c r="B472" s="61"/>
       <c r="C472" s="51"/>
       <c r="D472" s="52"/>
@@ -12432,7 +12604,7 @@
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A473" s="81"/>
+      <c r="A473" s="74"/>
       <c r="B473" s="57"/>
       <c r="C473" s="63"/>
       <c r="D473" s="64"/>
@@ -12455,7 +12627,7 @@
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A474" s="81"/>
+      <c r="A474" s="74"/>
       <c r="B474" s="59"/>
       <c r="C474" s="44"/>
       <c r="D474" s="45"/>
@@ -12478,7 +12650,7 @@
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A475" s="81"/>
+      <c r="A475" s="74"/>
       <c r="B475" s="59"/>
       <c r="C475" s="44"/>
       <c r="D475" s="45"/>
@@ -12501,7 +12673,7 @@
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A476" s="81"/>
+      <c r="A476" s="74"/>
       <c r="B476" s="59"/>
       <c r="C476" s="44"/>
       <c r="D476" s="45"/>
@@ -12524,7 +12696,7 @@
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A477" s="81"/>
+      <c r="A477" s="74"/>
       <c r="B477" s="59"/>
       <c r="C477" s="44"/>
       <c r="D477" s="45"/>
@@ -12547,7 +12719,7 @@
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A478" s="82"/>
+      <c r="A478" s="75"/>
       <c r="B478" s="61"/>
       <c r="C478" s="51"/>
       <c r="D478" s="52"/>
@@ -12570,7 +12742,7 @@
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A479" s="81"/>
+      <c r="A479" s="74"/>
       <c r="B479" s="57"/>
       <c r="C479" s="63"/>
       <c r="D479" s="64"/>
@@ -12593,7 +12765,7 @@
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A480" s="81"/>
+      <c r="A480" s="74"/>
       <c r="B480" s="59"/>
       <c r="C480" s="44"/>
       <c r="D480" s="45"/>
@@ -12616,7 +12788,7 @@
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A481" s="81"/>
+      <c r="A481" s="74"/>
       <c r="B481" s="59"/>
       <c r="C481" s="44"/>
       <c r="D481" s="45"/>
@@ -12639,7 +12811,7 @@
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A482" s="81"/>
+      <c r="A482" s="74"/>
       <c r="B482" s="59"/>
       <c r="C482" s="44"/>
       <c r="D482" s="45"/>
@@ -12662,7 +12834,7 @@
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A483" s="81"/>
+      <c r="A483" s="74"/>
       <c r="B483" s="59"/>
       <c r="C483" s="44"/>
       <c r="D483" s="45"/>
@@ -12685,7 +12857,7 @@
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A484" s="82"/>
+      <c r="A484" s="75"/>
       <c r="B484" s="61"/>
       <c r="C484" s="51"/>
       <c r="D484" s="52"/>
@@ -12708,7 +12880,7 @@
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A485" s="81"/>
+      <c r="A485" s="74"/>
       <c r="B485" s="57"/>
       <c r="C485" s="63"/>
       <c r="D485" s="64"/>
@@ -12731,7 +12903,7 @@
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A486" s="81"/>
+      <c r="A486" s="74"/>
       <c r="B486" s="59"/>
       <c r="C486" s="44"/>
       <c r="D486" s="45"/>
@@ -12754,7 +12926,7 @@
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A487" s="81"/>
+      <c r="A487" s="74"/>
       <c r="B487" s="59"/>
       <c r="C487" s="44"/>
       <c r="D487" s="45"/>
@@ -12777,7 +12949,7 @@
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A488" s="81"/>
+      <c r="A488" s="74"/>
       <c r="B488" s="59"/>
       <c r="C488" s="44"/>
       <c r="D488" s="45"/>
@@ -12800,7 +12972,7 @@
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A489" s="81"/>
+      <c r="A489" s="74"/>
       <c r="B489" s="59"/>
       <c r="C489" s="44"/>
       <c r="D489" s="45"/>
@@ -12823,7 +12995,7 @@
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A490" s="82"/>
+      <c r="A490" s="75"/>
       <c r="B490" s="61"/>
       <c r="C490" s="51"/>
       <c r="D490" s="52"/>
@@ -12846,7 +13018,7 @@
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A491" s="81"/>
+      <c r="A491" s="74"/>
       <c r="B491" s="57"/>
       <c r="C491" s="63"/>
       <c r="D491" s="64"/>
@@ -12869,7 +13041,7 @@
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A492" s="81"/>
+      <c r="A492" s="74"/>
       <c r="B492" s="59"/>
       <c r="C492" s="44"/>
       <c r="D492" s="45"/>
@@ -12892,7 +13064,7 @@
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A493" s="81"/>
+      <c r="A493" s="74"/>
       <c r="B493" s="59"/>
       <c r="C493" s="44"/>
       <c r="D493" s="45"/>
@@ -12915,7 +13087,7 @@
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A494" s="81"/>
+      <c r="A494" s="74"/>
       <c r="B494" s="59"/>
       <c r="C494" s="44"/>
       <c r="D494" s="45"/>
@@ -12938,7 +13110,7 @@
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A495" s="81"/>
+      <c r="A495" s="74"/>
       <c r="B495" s="59"/>
       <c r="C495" s="44"/>
       <c r="D495" s="45"/>
@@ -12961,7 +13133,7 @@
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A496" s="82"/>
+      <c r="A496" s="75"/>
       <c r="B496" s="61"/>
       <c r="C496" s="51"/>
       <c r="D496" s="52"/>
@@ -12984,7 +13156,7 @@
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A497" s="81"/>
+      <c r="A497" s="74"/>
       <c r="B497" s="57"/>
       <c r="C497" s="63"/>
       <c r="D497" s="64"/>
@@ -13007,7 +13179,7 @@
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A498" s="81"/>
+      <c r="A498" s="74"/>
       <c r="B498" s="59"/>
       <c r="C498" s="44"/>
       <c r="D498" s="45"/>
@@ -13030,7 +13202,7 @@
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A499" s="81"/>
+      <c r="A499" s="74"/>
       <c r="B499" s="59"/>
       <c r="C499" s="44"/>
       <c r="D499" s="45"/>
@@ -13053,7 +13225,7 @@
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A500" s="81"/>
+      <c r="A500" s="74"/>
       <c r="B500" s="59"/>
       <c r="C500" s="44"/>
       <c r="D500" s="45"/>
@@ -13076,7 +13248,7 @@
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A501" s="81"/>
+      <c r="A501" s="74"/>
       <c r="B501" s="59"/>
       <c r="C501" s="44"/>
       <c r="D501" s="45"/>
@@ -13099,7 +13271,7 @@
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A502" s="82"/>
+      <c r="A502" s="75"/>
       <c r="B502" s="61"/>
       <c r="C502" s="51"/>
       <c r="D502" s="52"/>
@@ -13122,7 +13294,7 @@
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A503" s="81"/>
+      <c r="A503" s="74"/>
       <c r="B503" s="57"/>
       <c r="C503" s="63"/>
       <c r="D503" s="64"/>
@@ -13145,7 +13317,7 @@
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A504" s="81"/>
+      <c r="A504" s="74"/>
       <c r="B504" s="59"/>
       <c r="C504" s="44"/>
       <c r="D504" s="45"/>
@@ -13168,7 +13340,7 @@
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A505" s="81"/>
+      <c r="A505" s="74"/>
       <c r="B505" s="59"/>
       <c r="C505" s="44"/>
       <c r="D505" s="45"/>
@@ -13191,7 +13363,7 @@
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A506" s="81"/>
+      <c r="A506" s="74"/>
       <c r="B506" s="59"/>
       <c r="C506" s="44"/>
       <c r="D506" s="45"/>
@@ -13214,7 +13386,7 @@
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A507" s="81"/>
+      <c r="A507" s="74"/>
       <c r="B507" s="59"/>
       <c r="C507" s="44"/>
       <c r="D507" s="45"/>
@@ -13237,7 +13409,7 @@
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A508" s="82"/>
+      <c r="A508" s="75"/>
       <c r="B508" s="61"/>
       <c r="C508" s="51"/>
       <c r="D508" s="52"/>
@@ -13260,7 +13432,7 @@
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A509" s="81"/>
+      <c r="A509" s="74"/>
       <c r="B509" s="57"/>
       <c r="C509" s="63"/>
       <c r="D509" s="64"/>
@@ -13283,7 +13455,7 @@
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A510" s="81"/>
+      <c r="A510" s="74"/>
       <c r="B510" s="59"/>
       <c r="C510" s="44"/>
       <c r="D510" s="45"/>
@@ -13306,7 +13478,7 @@
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A511" s="81"/>
+      <c r="A511" s="74"/>
       <c r="B511" s="59"/>
       <c r="C511" s="44"/>
       <c r="D511" s="45"/>
@@ -13329,7 +13501,7 @@
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A512" s="81"/>
+      <c r="A512" s="74"/>
       <c r="B512" s="59"/>
       <c r="C512" s="44"/>
       <c r="D512" s="45"/>
@@ -13352,7 +13524,7 @@
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A513" s="81"/>
+      <c r="A513" s="74"/>
       <c r="B513" s="59"/>
       <c r="C513" s="44"/>
       <c r="D513" s="45"/>
@@ -13375,7 +13547,7 @@
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A514" s="82"/>
+      <c r="A514" s="75"/>
       <c r="B514" s="61"/>
       <c r="C514" s="51"/>
       <c r="D514" s="52"/>
@@ -13398,7 +13570,7 @@
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A515" s="81"/>
+      <c r="A515" s="74"/>
       <c r="B515" s="57"/>
       <c r="C515" s="63"/>
       <c r="D515" s="64"/>
@@ -13421,7 +13593,7 @@
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A516" s="81"/>
+      <c r="A516" s="74"/>
       <c r="B516" s="59"/>
       <c r="C516" s="44"/>
       <c r="D516" s="45"/>
@@ -13444,7 +13616,7 @@
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A517" s="81"/>
+      <c r="A517" s="74"/>
       <c r="B517" s="59"/>
       <c r="C517" s="44"/>
       <c r="D517" s="45"/>
@@ -13467,7 +13639,7 @@
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A518" s="81"/>
+      <c r="A518" s="74"/>
       <c r="B518" s="59"/>
       <c r="C518" s="44"/>
       <c r="D518" s="45"/>
@@ -13490,7 +13662,7 @@
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A519" s="81"/>
+      <c r="A519" s="74"/>
       <c r="B519" s="59"/>
       <c r="C519" s="44"/>
       <c r="D519" s="45"/>
@@ -13513,7 +13685,7 @@
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A520" s="82"/>
+      <c r="A520" s="75"/>
       <c r="B520" s="61"/>
       <c r="C520" s="51"/>
       <c r="D520" s="52"/>
@@ -13536,7 +13708,7 @@
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A521" s="81"/>
+      <c r="A521" s="74"/>
       <c r="B521" s="57"/>
       <c r="C521" s="63"/>
       <c r="D521" s="64"/>
@@ -13559,7 +13731,7 @@
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A522" s="81"/>
+      <c r="A522" s="74"/>
       <c r="B522" s="59"/>
       <c r="C522" s="44"/>
       <c r="D522" s="45"/>
@@ -13582,7 +13754,7 @@
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A523" s="81"/>
+      <c r="A523" s="74"/>
       <c r="B523" s="59"/>
       <c r="C523" s="44"/>
       <c r="D523" s="45"/>
@@ -13605,7 +13777,7 @@
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A524" s="81"/>
+      <c r="A524" s="74"/>
       <c r="B524" s="59"/>
       <c r="C524" s="44"/>
       <c r="D524" s="45"/>
@@ -13628,7 +13800,7 @@
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A525" s="81"/>
+      <c r="A525" s="74"/>
       <c r="B525" s="59"/>
       <c r="C525" s="44"/>
       <c r="D525" s="45"/>
@@ -13651,7 +13823,7 @@
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A526" s="82"/>
+      <c r="A526" s="75"/>
       <c r="B526" s="61"/>
       <c r="C526" s="51"/>
       <c r="D526" s="52"/>
@@ -13674,7 +13846,7 @@
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A527" s="81"/>
+      <c r="A527" s="74"/>
       <c r="B527" s="57"/>
       <c r="C527" s="63"/>
       <c r="D527" s="64"/>
@@ -13697,7 +13869,7 @@
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A528" s="81"/>
+      <c r="A528" s="74"/>
       <c r="B528" s="59"/>
       <c r="C528" s="44"/>
       <c r="D528" s="45"/>
@@ -13720,7 +13892,7 @@
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A529" s="81"/>
+      <c r="A529" s="74"/>
       <c r="B529" s="59"/>
       <c r="C529" s="44"/>
       <c r="D529" s="45"/>
@@ -13743,7 +13915,7 @@
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A530" s="81"/>
+      <c r="A530" s="74"/>
       <c r="B530" s="59"/>
       <c r="C530" s="44"/>
       <c r="D530" s="45"/>
@@ -13766,7 +13938,7 @@
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A531" s="81"/>
+      <c r="A531" s="74"/>
       <c r="B531" s="59"/>
       <c r="C531" s="44"/>
       <c r="D531" s="45"/>
@@ -13789,7 +13961,7 @@
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A532" s="82"/>
+      <c r="A532" s="75"/>
       <c r="B532" s="61"/>
       <c r="C532" s="51"/>
       <c r="D532" s="52"/>
@@ -13812,7 +13984,7 @@
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A533" s="81"/>
+      <c r="A533" s="74"/>
       <c r="B533" s="57"/>
       <c r="C533" s="63"/>
       <c r="D533" s="64"/>
@@ -13835,7 +14007,7 @@
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A534" s="81"/>
+      <c r="A534" s="74"/>
       <c r="B534" s="59"/>
       <c r="C534" s="44"/>
       <c r="D534" s="45"/>
@@ -13858,7 +14030,7 @@
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A535" s="81"/>
+      <c r="A535" s="74"/>
       <c r="B535" s="59"/>
       <c r="C535" s="44"/>
       <c r="D535" s="45"/>
@@ -13881,7 +14053,7 @@
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A536" s="81"/>
+      <c r="A536" s="74"/>
       <c r="B536" s="59"/>
       <c r="C536" s="44"/>
       <c r="D536" s="45"/>
@@ -13904,7 +14076,7 @@
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A537" s="81"/>
+      <c r="A537" s="74"/>
       <c r="B537" s="59"/>
       <c r="C537" s="44"/>
       <c r="D537" s="45"/>
@@ -13927,7 +14099,7 @@
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A538" s="82"/>
+      <c r="A538" s="75"/>
       <c r="B538" s="61"/>
       <c r="C538" s="51"/>
       <c r="D538" s="52"/>
@@ -13950,7 +14122,7 @@
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A539" s="81"/>
+      <c r="A539" s="74"/>
       <c r="B539" s="57"/>
       <c r="C539" s="63"/>
       <c r="D539" s="64"/>
@@ -13973,7 +14145,7 @@
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A540" s="81"/>
+      <c r="A540" s="74"/>
       <c r="B540" s="59"/>
       <c r="C540" s="44"/>
       <c r="D540" s="45"/>
@@ -13996,7 +14168,7 @@
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A541" s="81"/>
+      <c r="A541" s="74"/>
       <c r="B541" s="59"/>
       <c r="C541" s="44"/>
       <c r="D541" s="45"/>
@@ -14019,7 +14191,7 @@
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A542" s="81"/>
+      <c r="A542" s="74"/>
       <c r="B542" s="59"/>
       <c r="C542" s="44"/>
       <c r="D542" s="45"/>
@@ -14042,7 +14214,7 @@
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A543" s="81"/>
+      <c r="A543" s="74"/>
       <c r="B543" s="59"/>
       <c r="C543" s="44"/>
       <c r="D543" s="45"/>
@@ -14065,7 +14237,7 @@
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A544" s="82"/>
+      <c r="A544" s="75"/>
       <c r="B544" s="61"/>
       <c r="C544" s="51"/>
       <c r="D544" s="52"/>
@@ -14088,7 +14260,7 @@
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A545" s="81"/>
+      <c r="A545" s="74"/>
       <c r="B545" s="57"/>
       <c r="C545" s="63"/>
       <c r="D545" s="64"/>
@@ -14111,7 +14283,7 @@
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A546" s="81"/>
+      <c r="A546" s="74"/>
       <c r="B546" s="59"/>
       <c r="C546" s="44"/>
       <c r="D546" s="45"/>
@@ -14134,7 +14306,7 @@
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A547" s="81"/>
+      <c r="A547" s="74"/>
       <c r="B547" s="59"/>
       <c r="C547" s="44"/>
       <c r="D547" s="45"/>
@@ -14157,7 +14329,7 @@
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A548" s="81"/>
+      <c r="A548" s="74"/>
       <c r="B548" s="59"/>
       <c r="C548" s="44"/>
       <c r="D548" s="45"/>
@@ -14180,7 +14352,7 @@
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A549" s="81"/>
+      <c r="A549" s="74"/>
       <c r="B549" s="59"/>
       <c r="C549" s="44"/>
       <c r="D549" s="45"/>
@@ -14203,7 +14375,7 @@
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A550" s="82"/>
+      <c r="A550" s="75"/>
       <c r="B550" s="61"/>
       <c r="C550" s="51"/>
       <c r="D550" s="52"/>
@@ -14226,7 +14398,7 @@
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A551" s="81"/>
+      <c r="A551" s="74"/>
       <c r="B551" s="57"/>
       <c r="C551" s="63"/>
       <c r="D551" s="64"/>
@@ -14249,7 +14421,7 @@
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A552" s="81"/>
+      <c r="A552" s="74"/>
       <c r="B552" s="59"/>
       <c r="C552" s="44"/>
       <c r="D552" s="45"/>
@@ -14272,7 +14444,7 @@
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A553" s="81"/>
+      <c r="A553" s="74"/>
       <c r="B553" s="59"/>
       <c r="C553" s="44"/>
       <c r="D553" s="45"/>
@@ -14295,7 +14467,7 @@
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A554" s="81"/>
+      <c r="A554" s="74"/>
       <c r="B554" s="59"/>
       <c r="C554" s="44"/>
       <c r="D554" s="45"/>
@@ -14318,7 +14490,7 @@
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A555" s="81"/>
+      <c r="A555" s="74"/>
       <c r="B555" s="59"/>
       <c r="C555" s="44"/>
       <c r="D555" s="45"/>
@@ -14341,7 +14513,7 @@
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A556" s="82"/>
+      <c r="A556" s="75"/>
       <c r="B556" s="61"/>
       <c r="C556" s="51"/>
       <c r="D556" s="52"/>
@@ -14364,7 +14536,7 @@
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A557" s="81"/>
+      <c r="A557" s="74"/>
       <c r="B557" s="57"/>
       <c r="C557" s="63"/>
       <c r="D557" s="64"/>
@@ -14387,7 +14559,7 @@
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A558" s="81"/>
+      <c r="A558" s="74"/>
       <c r="B558" s="59"/>
       <c r="C558" s="44"/>
       <c r="D558" s="45"/>
@@ -14410,7 +14582,7 @@
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A559" s="81"/>
+      <c r="A559" s="74"/>
       <c r="B559" s="59"/>
       <c r="C559" s="44"/>
       <c r="D559" s="45"/>
@@ -14433,7 +14605,7 @@
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A560" s="81"/>
+      <c r="A560" s="74"/>
       <c r="B560" s="59"/>
       <c r="C560" s="44"/>
       <c r="D560" s="45"/>
@@ -14456,7 +14628,7 @@
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A561" s="81"/>
+      <c r="A561" s="74"/>
       <c r="B561" s="59"/>
       <c r="C561" s="44"/>
       <c r="D561" s="45"/>
@@ -14479,7 +14651,7 @@
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A562" s="82"/>
+      <c r="A562" s="75"/>
       <c r="B562" s="61"/>
       <c r="C562" s="51"/>
       <c r="D562" s="52"/>
@@ -14502,7 +14674,7 @@
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A563" s="81"/>
+      <c r="A563" s="74"/>
       <c r="B563" s="57"/>
       <c r="C563" s="63"/>
       <c r="D563" s="64"/>
@@ -14525,7 +14697,7 @@
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A564" s="81"/>
+      <c r="A564" s="74"/>
       <c r="B564" s="59"/>
       <c r="C564" s="44"/>
       <c r="D564" s="45"/>
@@ -14548,7 +14720,7 @@
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A565" s="81"/>
+      <c r="A565" s="74"/>
       <c r="B565" s="59"/>
       <c r="C565" s="44"/>
       <c r="D565" s="45"/>
@@ -14571,7 +14743,7 @@
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A566" s="81"/>
+      <c r="A566" s="74"/>
       <c r="B566" s="59"/>
       <c r="C566" s="44"/>
       <c r="D566" s="45"/>
@@ -14594,7 +14766,7 @@
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A567" s="81"/>
+      <c r="A567" s="74"/>
       <c r="B567" s="59"/>
       <c r="C567" s="44"/>
       <c r="D567" s="45"/>
@@ -14617,7 +14789,7 @@
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A568" s="82"/>
+      <c r="A568" s="75"/>
       <c r="B568" s="61"/>
       <c r="C568" s="51"/>
       <c r="D568" s="52"/>
@@ -14640,7 +14812,7 @@
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A569" s="81"/>
+      <c r="A569" s="74"/>
       <c r="B569" s="57"/>
       <c r="C569" s="63"/>
       <c r="D569" s="64"/>
@@ -14663,7 +14835,7 @@
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A570" s="81"/>
+      <c r="A570" s="74"/>
       <c r="B570" s="59"/>
       <c r="C570" s="44"/>
       <c r="D570" s="45"/>
@@ -14686,7 +14858,7 @@
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A571" s="81"/>
+      <c r="A571" s="74"/>
       <c r="B571" s="59"/>
       <c r="C571" s="44"/>
       <c r="D571" s="45"/>
@@ -14709,7 +14881,7 @@
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A572" s="81"/>
+      <c r="A572" s="74"/>
       <c r="B572" s="59"/>
       <c r="C572" s="44"/>
       <c r="D572" s="45"/>
@@ -14732,7 +14904,7 @@
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A573" s="81"/>
+      <c r="A573" s="74"/>
       <c r="B573" s="59"/>
       <c r="C573" s="44"/>
       <c r="D573" s="45"/>
@@ -14755,7 +14927,7 @@
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A574" s="82"/>
+      <c r="A574" s="75"/>
       <c r="B574" s="61"/>
       <c r="C574" s="51"/>
       <c r="D574" s="52"/>
@@ -14778,7 +14950,7 @@
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A575" s="81"/>
+      <c r="A575" s="74"/>
       <c r="B575" s="57"/>
       <c r="C575" s="63"/>
       <c r="D575" s="64"/>
@@ -14801,7 +14973,7 @@
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A576" s="81"/>
+      <c r="A576" s="74"/>
       <c r="B576" s="59"/>
       <c r="C576" s="44"/>
       <c r="D576" s="45"/>
@@ -14824,7 +14996,7 @@
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A577" s="81"/>
+      <c r="A577" s="74"/>
       <c r="B577" s="59"/>
       <c r="C577" s="44"/>
       <c r="D577" s="45"/>
@@ -14847,7 +15019,7 @@
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A578" s="81"/>
+      <c r="A578" s="74"/>
       <c r="B578" s="59"/>
       <c r="C578" s="44"/>
       <c r="D578" s="45"/>
@@ -14870,7 +15042,7 @@
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A579" s="81"/>
+      <c r="A579" s="74"/>
       <c r="B579" s="59"/>
       <c r="C579" s="44"/>
       <c r="D579" s="45"/>
@@ -14893,7 +15065,7 @@
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A580" s="82"/>
+      <c r="A580" s="75"/>
       <c r="B580" s="61"/>
       <c r="C580" s="51"/>
       <c r="D580" s="52"/>
@@ -14916,7 +15088,7 @@
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A581" s="81"/>
+      <c r="A581" s="74"/>
       <c r="B581" s="57"/>
       <c r="C581" s="63"/>
       <c r="D581" s="64"/>
@@ -14939,7 +15111,7 @@
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A582" s="81"/>
+      <c r="A582" s="74"/>
       <c r="B582" s="59"/>
       <c r="C582" s="44"/>
       <c r="D582" s="45"/>
@@ -14962,7 +15134,7 @@
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A583" s="81"/>
+      <c r="A583" s="74"/>
       <c r="B583" s="59"/>
       <c r="C583" s="44"/>
       <c r="D583" s="45"/>
@@ -14985,7 +15157,7 @@
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A584" s="81"/>
+      <c r="A584" s="74"/>
       <c r="B584" s="59"/>
       <c r="C584" s="44"/>
       <c r="D584" s="45"/>
@@ -15008,7 +15180,7 @@
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A585" s="81"/>
+      <c r="A585" s="74"/>
       <c r="B585" s="59"/>
       <c r="C585" s="44"/>
       <c r="D585" s="45"/>
@@ -15031,7 +15203,7 @@
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A586" s="82"/>
+      <c r="A586" s="75"/>
       <c r="B586" s="61"/>
       <c r="C586" s="51"/>
       <c r="D586" s="52"/>
@@ -15054,7 +15226,7 @@
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A587" s="81"/>
+      <c r="A587" s="74"/>
       <c r="B587" s="57"/>
       <c r="C587" s="63"/>
       <c r="D587" s="64"/>
@@ -15077,7 +15249,7 @@
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A588" s="81"/>
+      <c r="A588" s="74"/>
       <c r="B588" s="59"/>
       <c r="C588" s="44"/>
       <c r="D588" s="45"/>
@@ -15100,7 +15272,7 @@
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A589" s="81"/>
+      <c r="A589" s="74"/>
       <c r="B589" s="59"/>
       <c r="C589" s="44"/>
       <c r="D589" s="45"/>
@@ -15123,7 +15295,7 @@
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A590" s="81"/>
+      <c r="A590" s="74"/>
       <c r="B590" s="59"/>
       <c r="C590" s="44"/>
       <c r="D590" s="45"/>
@@ -15146,7 +15318,7 @@
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A591" s="81"/>
+      <c r="A591" s="74"/>
       <c r="B591" s="59"/>
       <c r="C591" s="44"/>
       <c r="D591" s="45"/>
@@ -15169,7 +15341,7 @@
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A592" s="82"/>
+      <c r="A592" s="75"/>
       <c r="B592" s="61"/>
       <c r="C592" s="51"/>
       <c r="D592" s="52"/>
@@ -15192,7 +15364,7 @@
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A593" s="81"/>
+      <c r="A593" s="74"/>
       <c r="B593" s="57"/>
       <c r="C593" s="63"/>
       <c r="D593" s="64"/>
@@ -15215,7 +15387,7 @@
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A594" s="81"/>
+      <c r="A594" s="74"/>
       <c r="B594" s="59"/>
       <c r="C594" s="44"/>
       <c r="D594" s="45"/>
@@ -15238,7 +15410,7 @@
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A595" s="81"/>
+      <c r="A595" s="74"/>
       <c r="B595" s="59"/>
       <c r="C595" s="44"/>
       <c r="D595" s="45"/>
@@ -15261,7 +15433,7 @@
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A596" s="81"/>
+      <c r="A596" s="74"/>
       <c r="B596" s="59"/>
       <c r="C596" s="44"/>
       <c r="D596" s="45"/>
@@ -15284,7 +15456,7 @@
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A597" s="81"/>
+      <c r="A597" s="74"/>
       <c r="B597" s="59"/>
       <c r="C597" s="44"/>
       <c r="D597" s="45"/>
@@ -15307,7 +15479,7 @@
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A598" s="82"/>
+      <c r="A598" s="75"/>
       <c r="B598" s="61"/>
       <c r="C598" s="51"/>
       <c r="D598" s="52"/>
@@ -15332,6 +15504,91 @@
   </sheetData>
   <sheetProtection password="C66B" sheet="1" objects="1"/>
   <mergeCells count="109">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="A131:A136"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="A191:A196"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="A209:A214"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A239:A244"/>
+    <mergeCell ref="A245:A250"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="A257:A262"/>
+    <mergeCell ref="A263:A268"/>
+    <mergeCell ref="A269:A274"/>
+    <mergeCell ref="A275:A280"/>
+    <mergeCell ref="A281:A286"/>
+    <mergeCell ref="A287:A292"/>
+    <mergeCell ref="A293:A298"/>
+    <mergeCell ref="A299:A304"/>
+    <mergeCell ref="A305:A310"/>
+    <mergeCell ref="A311:A316"/>
+    <mergeCell ref="A317:A322"/>
+    <mergeCell ref="A323:A328"/>
+    <mergeCell ref="A329:A334"/>
+    <mergeCell ref="A335:A340"/>
+    <mergeCell ref="A341:A346"/>
+    <mergeCell ref="A347:A352"/>
+    <mergeCell ref="A353:A358"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="A365:A370"/>
+    <mergeCell ref="A371:A376"/>
+    <mergeCell ref="A377:A382"/>
+    <mergeCell ref="A383:A388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="A395:A400"/>
+    <mergeCell ref="A401:A406"/>
+    <mergeCell ref="A407:A412"/>
+    <mergeCell ref="A503:A508"/>
+    <mergeCell ref="A509:A514"/>
+    <mergeCell ref="A515:A520"/>
+    <mergeCell ref="A413:A418"/>
+    <mergeCell ref="A419:A424"/>
+    <mergeCell ref="A425:A430"/>
+    <mergeCell ref="A431:A436"/>
+    <mergeCell ref="A437:A442"/>
+    <mergeCell ref="A443:A448"/>
+    <mergeCell ref="A449:A454"/>
+    <mergeCell ref="A455:A460"/>
+    <mergeCell ref="A461:A466"/>
     <mergeCell ref="A575:A580"/>
     <mergeCell ref="A581:A586"/>
     <mergeCell ref="A587:A592"/>
@@ -15356,91 +15613,6 @@
     <mergeCell ref="A485:A490"/>
     <mergeCell ref="A491:A496"/>
     <mergeCell ref="A497:A502"/>
-    <mergeCell ref="A503:A508"/>
-    <mergeCell ref="A509:A514"/>
-    <mergeCell ref="A515:A520"/>
-    <mergeCell ref="A413:A418"/>
-    <mergeCell ref="A419:A424"/>
-    <mergeCell ref="A425:A430"/>
-    <mergeCell ref="A431:A436"/>
-    <mergeCell ref="A437:A442"/>
-    <mergeCell ref="A443:A448"/>
-    <mergeCell ref="A449:A454"/>
-    <mergeCell ref="A455:A460"/>
-    <mergeCell ref="A461:A466"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="A365:A370"/>
-    <mergeCell ref="A371:A376"/>
-    <mergeCell ref="A377:A382"/>
-    <mergeCell ref="A383:A388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="A395:A400"/>
-    <mergeCell ref="A401:A406"/>
-    <mergeCell ref="A407:A412"/>
-    <mergeCell ref="A305:A310"/>
-    <mergeCell ref="A311:A316"/>
-    <mergeCell ref="A317:A322"/>
-    <mergeCell ref="A323:A328"/>
-    <mergeCell ref="A329:A334"/>
-    <mergeCell ref="A335:A340"/>
-    <mergeCell ref="A341:A346"/>
-    <mergeCell ref="A347:A352"/>
-    <mergeCell ref="A353:A358"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="A257:A262"/>
-    <mergeCell ref="A263:A268"/>
-    <mergeCell ref="A269:A274"/>
-    <mergeCell ref="A275:A280"/>
-    <mergeCell ref="A281:A286"/>
-    <mergeCell ref="A287:A292"/>
-    <mergeCell ref="A293:A298"/>
-    <mergeCell ref="A299:A304"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="A209:A214"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A239:A244"/>
-    <mergeCell ref="A245:A250"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="A191:A196"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -15450,10 +15622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O294"/>
+  <dimension ref="A1:O293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15461,10 +15633,11 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="5" width="9.75" style="26"/>
+    <col min="4" max="4" width="25.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="26" customWidth="1"/>
     <col min="6" max="6" width="15" style="13" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="26" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -15519,187 +15692,413 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+      <c r="A2" s="69">
         <v>17</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="106">
         <v>43217</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="99">
+      <c r="G2" s="105">
         <v>76105202</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="99">
+      <c r="K2" s="70">
         <v>15161100931</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="99">
+      <c r="N2" s="105">
         <v>18136650031</v>
       </c>
-      <c r="O2" s="99" t="s">
-        <v>45</v>
+      <c r="O2" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="107">
+        <v>22</v>
+      </c>
+      <c r="B3" s="103">
+        <v>43244</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76133752</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="70">
+        <v>15161100930</v>
+      </c>
+      <c r="L3" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="103">
+        <v>43244</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76156911</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="70">
+        <v>15161100931</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="103">
+        <v>43244</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1">
+        <v>76157133</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="70">
+        <v>15161100931</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="103">
+        <v>43244</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76133002</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="70">
+        <v>15161100931</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="103">
+        <v>43244</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1">
+        <v>76152937</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="70">
+        <v>15161100931</v>
+      </c>
+      <c r="L7" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="103">
+        <v>43244</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1">
+        <v>76152939</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="70">
+        <v>15161100931</v>
+      </c>
+      <c r="L8" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="103">
+        <v>43244</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76138830</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="70">
+        <v>15161100931</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="103">
+        <v>43244</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="1">
+        <v>76132999</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="70">
+        <v>15161100931</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
@@ -20510,36 +20909,21 @@
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
-      <c r="O293" s="1"/>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A294" s="1"/>
-      <c r="B294" s="11"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="29"/>
-      <c r="E294" s="29"/>
-      <c r="F294" s="11"/>
-      <c r="G294" s="11"/>
-      <c r="H294" s="29"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
-      <c r="N294" s="1"/>
-      <c r="O294" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A10"/>
+  </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C1048576">
+      <formula1>"SaaS,SaaS+微信,单店库存,供应链"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
-      <formula1>"SaaS,SaaS+微信,单店库存,供应链"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -20594,13 +20978,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="71">
+        <v>43193</v>
+      </c>
+      <c r="D2" s="72" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="100">
-        <v>43193</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
@@ -20608,41 +20992,41 @@
       <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="102" t="s">
-        <v>48</v>
+      <c r="G2" s="73" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="95">
+      <c r="A3" s="100">
         <v>20</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="100">
+        <v>49</v>
+      </c>
+      <c r="C3" s="71">
         <v>43238</v>
       </c>
-      <c r="D3" s="101"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="102"/>
+      <c r="B4" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="97"/>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="71">
+        <v>43238</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="100">
-        <v>43238</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -20650,93 +21034,93 @@
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="102" t="s">
-        <v>54</v>
+      <c r="G4" s="73" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="95"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="102"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="96"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="102"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="96"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="102"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="96"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="102"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="96"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="102"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="96"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="102"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="96"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="102"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="96"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="102"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="97"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="102"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -20745,7 +21129,7 @@
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="96"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="19"/>
       <c r="C15" s="22"/>
       <c r="D15" s="21"/>
@@ -20754,7 +21138,7 @@
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="96"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="17"/>
       <c r="C16" s="22"/>
       <c r="D16" s="21"/>
@@ -20763,7 +21147,7 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="96"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -20772,7 +21156,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="96"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
@@ -20781,7 +21165,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="96"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -20790,7 +21174,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="96"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
@@ -20799,7 +21183,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="96"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -20808,7 +21192,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="96"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="18"/>
@@ -20817,7 +21201,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="96"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="18"/>
@@ -20826,7 +21210,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="96"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="18"/>
@@ -20835,7 +21219,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="96"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="18"/>
@@ -20844,7 +21228,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="97"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="18"/>
@@ -20853,7 +21237,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="95"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="19"/>
       <c r="C27" s="22"/>
       <c r="D27" s="21"/>
@@ -20862,7 +21246,7 @@
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="96"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="17"/>
       <c r="C28" s="22"/>
       <c r="D28" s="21"/>
@@ -20871,7 +21255,7 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="96"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
@@ -20880,7 +21264,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="96"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
@@ -20889,7 +21273,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="96"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="18"/>
@@ -20898,7 +21282,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="96"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="18"/>
@@ -20907,7 +21291,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="96"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="18"/>
@@ -20916,7 +21300,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="96"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
@@ -20925,7 +21309,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="96"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
@@ -20934,7 +21318,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="96"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="18"/>
@@ -20943,7 +21327,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="96"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="18"/>
@@ -20952,7 +21336,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="96"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="18"/>
@@ -20961,7 +21345,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="96"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="18"/>
@@ -20970,7 +21354,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="96"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="18"/>
@@ -20979,7 +21363,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="97"/>
+      <c r="A41" s="102"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="18"/>
@@ -20988,7 +21372,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="95"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="17"/>
       <c r="C42" s="22"/>
       <c r="D42" s="21"/>
@@ -20997,7 +21381,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="96"/>
+      <c r="A43" s="101"/>
       <c r="B43" s="17"/>
       <c r="C43" s="23"/>
       <c r="D43" s="21"/>
@@ -21006,7 +21390,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="96"/>
+      <c r="A44" s="101"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
@@ -21015,7 +21399,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="96"/>
+      <c r="A45" s="101"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
@@ -21024,7 +21408,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="96"/>
+      <c r="A46" s="101"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
@@ -21033,7 +21417,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="96"/>
+      <c r="A47" s="101"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
@@ -21042,7 +21426,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="96"/>
+      <c r="A48" s="101"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
@@ -21051,7 +21435,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="96"/>
+      <c r="A49" s="101"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
@@ -21060,7 +21444,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="96"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="18"/>
@@ -21069,7 +21453,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="96"/>
+      <c r="A51" s="101"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="18"/>
@@ -21078,7 +21462,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="96"/>
+      <c r="A52" s="101"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="18"/>
@@ -21087,7 +21471,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="96"/>
+      <c r="A53" s="101"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="18"/>
@@ -21096,7 +21480,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="96"/>
+      <c r="A54" s="101"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="18"/>
@@ -21105,7 +21489,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="96"/>
+      <c r="A55" s="101"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="18"/>
@@ -21114,7 +21498,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="97"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
@@ -21123,7 +21507,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="95"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="17"/>
       <c r="C57" s="22"/>
       <c r="D57" s="21"/>
@@ -21132,7 +21516,7 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="96"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="17"/>
       <c r="C58" s="23"/>
       <c r="D58" s="21"/>
@@ -21141,7 +21525,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="96"/>
+      <c r="A59" s="101"/>
       <c r="B59" s="17"/>
       <c r="C59" s="23"/>
       <c r="D59" s="21"/>
@@ -21150,7 +21534,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="96"/>
+      <c r="A60" s="101"/>
       <c r="B60" s="17"/>
       <c r="C60" s="23"/>
       <c r="D60" s="21"/>
@@ -21159,7 +21543,7 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="96"/>
+      <c r="A61" s="101"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18"/>
@@ -21168,7 +21552,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="96"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="18"/>
@@ -21177,7 +21561,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="96"/>
+      <c r="A63" s="101"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="18"/>
@@ -21186,7 +21570,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="96"/>
+      <c r="A64" s="101"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
@@ -21195,7 +21579,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="96"/>
+      <c r="A65" s="101"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18"/>
@@ -21204,7 +21588,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="96"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="18"/>
@@ -21213,7 +21597,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="96"/>
+      <c r="A67" s="101"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
@@ -21222,7 +21606,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="97"/>
+      <c r="A68" s="102"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
@@ -21231,7 +21615,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="95"/>
+      <c r="A69" s="100"/>
       <c r="B69" s="17"/>
       <c r="C69" s="22"/>
       <c r="D69" s="21"/>
@@ -21240,7 +21624,7 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="96"/>
+      <c r="A70" s="101"/>
       <c r="B70" s="17"/>
       <c r="C70" s="23"/>
       <c r="D70" s="21"/>
@@ -21249,7 +21633,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="96"/>
+      <c r="A71" s="101"/>
       <c r="B71" s="17"/>
       <c r="C71" s="23"/>
       <c r="D71" s="21"/>
@@ -21258,7 +21642,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="96"/>
+      <c r="A72" s="101"/>
       <c r="B72" s="17"/>
       <c r="C72" s="23"/>
       <c r="D72" s="21"/>
@@ -21267,7 +21651,7 @@
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="96"/>
+      <c r="A73" s="101"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
@@ -21276,7 +21660,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="96"/>
+      <c r="A74" s="101"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="18"/>
@@ -21285,7 +21669,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="96"/>
+      <c r="A75" s="101"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="18"/>
@@ -21294,7 +21678,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="96"/>
+      <c r="A76" s="101"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18"/>
@@ -21303,7 +21687,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="96"/>
+      <c r="A77" s="101"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18"/>
@@ -21312,7 +21696,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="96"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
@@ -21321,7 +21705,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="96"/>
+      <c r="A79" s="101"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="18"/>
@@ -21330,7 +21714,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="97"/>
+      <c r="A80" s="102"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18"/>
@@ -21339,7 +21723,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="96"/>
+      <c r="A81" s="101"/>
       <c r="B81" s="17"/>
       <c r="C81" s="23"/>
       <c r="D81" s="21"/>
@@ -21348,7 +21732,7 @@
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="96"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="17"/>
       <c r="C82" s="23"/>
       <c r="D82" s="21"/>
@@ -21357,7 +21741,7 @@
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="96"/>
+      <c r="A83" s="101"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="18"/>
@@ -21366,7 +21750,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="96"/>
+      <c r="A84" s="101"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18"/>
@@ -21375,7 +21759,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="96"/>
+      <c r="A85" s="101"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="18"/>
@@ -21384,7 +21768,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="96"/>
+      <c r="A86" s="101"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="18"/>
@@ -21393,7 +21777,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="96"/>
+      <c r="A87" s="101"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18"/>
@@ -21402,7 +21786,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="96"/>
+      <c r="A88" s="101"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18"/>
@@ -21411,7 +21795,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="96"/>
+      <c r="A89" s="101"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18"/>
@@ -21420,7 +21804,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="97"/>
+      <c r="A90" s="102"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18"/>

--- a/周数据/《实施上线数据统计表》-沈蒙.xlsx
+++ b/周数据/《实施上线数据统计表》-沈蒙.xlsx
@@ -17,12 +17,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -160,6 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -170,6 +171,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,13 +271,25 @@
   <si>
     <t>补贴方式</t>
   </si>
+  <si>
+    <t>吴江</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南通通州大润发店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉吴江万宝大润发店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -290,6 +304,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -298,17 +313,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -316,6 +334,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -323,12 +342,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -336,12 +357,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -349,6 +372,7 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -358,6 +382,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -367,6 +392,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -376,6 +402,7 @@
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -384,6 +411,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -393,6 +421,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -401,6 +430,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1006,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,7 +1091,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,7 +1133,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,6 +1292,48 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1306,52 +1378,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1363,14 +1396,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,52 +1707,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="A1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="95" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="87" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="101" t="s">
@@ -1718,22 +1760,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="88"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="94"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="100"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="102"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="77" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="45">
@@ -1764,7 +1806,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="89"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="45">
         <v>18</v>
       </c>
@@ -1793,7 +1835,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="45"/>
       <c r="C7" s="52"/>
       <c r="D7" s="53"/>
@@ -1816,7 +1858,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="45"/>
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
@@ -1839,7 +1881,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="45"/>
       <c r="C9" s="52"/>
       <c r="D9" s="53"/>
@@ -1862,7 +1904,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="58"/>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -1885,7 +1927,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="77" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="65">
@@ -1916,7 +1958,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="67"/>
       <c r="C12" s="68"/>
       <c r="D12" s="53"/>
@@ -1939,7 +1981,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="89"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="67"/>
       <c r="C13" s="68"/>
       <c r="D13" s="53"/>
@@ -1962,7 +2004,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="89"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
       <c r="D14" s="53"/>
@@ -1985,7 +2027,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="89"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="67"/>
       <c r="C15" s="68"/>
       <c r="D15" s="53"/>
@@ -2008,7 +2050,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="90"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="69"/>
       <c r="C16" s="70"/>
       <c r="D16" s="60"/>
@@ -2031,7 +2073,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="89"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="65"/>
       <c r="C17" s="66"/>
       <c r="D17" s="47"/>
@@ -2054,7 +2096,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="89"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="67"/>
       <c r="C18" s="68"/>
       <c r="D18" s="53"/>
@@ -2077,7 +2119,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="67"/>
       <c r="C19" s="68"/>
       <c r="D19" s="53"/>
@@ -2100,7 +2142,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="89"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68"/>
       <c r="D20" s="53"/>
@@ -2123,7 +2165,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="89"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="67"/>
       <c r="C21" s="68"/>
       <c r="D21" s="53"/>
@@ -2146,7 +2188,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="90"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="69"/>
       <c r="C22" s="70"/>
       <c r="D22" s="60"/>
@@ -2169,7 +2211,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="89"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="65"/>
       <c r="C23" s="71"/>
       <c r="D23" s="72"/>
@@ -2192,7 +2234,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="89"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="67"/>
       <c r="C24" s="52"/>
       <c r="D24" s="53"/>
@@ -2215,7 +2257,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="89"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="67"/>
       <c r="C25" s="52"/>
       <c r="D25" s="53"/>
@@ -2238,7 +2280,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="89"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="53"/>
@@ -2261,7 +2303,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="89"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="67"/>
       <c r="C27" s="52"/>
       <c r="D27" s="53"/>
@@ -2284,7 +2326,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="90"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="69"/>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
@@ -2307,7 +2349,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="89"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="65"/>
       <c r="C29" s="71"/>
       <c r="D29" s="72"/>
@@ -2330,7 +2372,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="89"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53"/>
@@ -2353,7 +2395,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="89"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="67"/>
       <c r="C31" s="52"/>
       <c r="D31" s="53"/>
@@ -2376,7 +2418,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="89"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="67"/>
       <c r="C32" s="52"/>
       <c r="D32" s="53"/>
@@ -2399,7 +2441,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="89"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="67"/>
       <c r="C33" s="52"/>
       <c r="D33" s="53"/>
@@ -2422,7 +2464,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="90"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="69"/>
       <c r="C34" s="59"/>
       <c r="D34" s="60"/>
@@ -2445,7 +2487,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="89"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="65"/>
       <c r="C35" s="71"/>
       <c r="D35" s="72"/>
@@ -2468,7 +2510,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="89"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="67"/>
       <c r="C36" s="52"/>
       <c r="D36" s="53"/>
@@ -2491,7 +2533,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="89"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="67"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53"/>
@@ -2514,7 +2556,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="89"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="53"/>
@@ -2537,7 +2579,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="89"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="67"/>
       <c r="C39" s="52"/>
       <c r="D39" s="53"/>
@@ -2560,7 +2602,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="90"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="69"/>
       <c r="C40" s="59"/>
       <c r="D40" s="60"/>
@@ -2583,7 +2625,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="89"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="65"/>
       <c r="C41" s="71"/>
       <c r="D41" s="72"/>
@@ -2606,7 +2648,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="89"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="53"/>
@@ -2629,7 +2671,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="89"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="67"/>
       <c r="C43" s="52"/>
       <c r="D43" s="53"/>
@@ -2652,7 +2694,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="89"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="67"/>
       <c r="C44" s="52"/>
       <c r="D44" s="53"/>
@@ -2675,7 +2717,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="89"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="67"/>
       <c r="C45" s="52"/>
       <c r="D45" s="53"/>
@@ -2698,7 +2740,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="90"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="69"/>
       <c r="C46" s="59"/>
       <c r="D46" s="60"/>
@@ -2721,7 +2763,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="89"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="65"/>
       <c r="C47" s="71"/>
       <c r="D47" s="72"/>
@@ -2744,7 +2786,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="89"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="67"/>
       <c r="C48" s="52"/>
       <c r="D48" s="53"/>
@@ -2767,7 +2809,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="89"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="67"/>
       <c r="C49" s="52"/>
       <c r="D49" s="53"/>
@@ -2790,7 +2832,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="89"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="53"/>
@@ -2813,7 +2855,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="89"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="67"/>
       <c r="C51" s="52"/>
       <c r="D51" s="53"/>
@@ -2836,7 +2878,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="90"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="69"/>
       <c r="C52" s="59"/>
       <c r="D52" s="60"/>
@@ -2859,7 +2901,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="89"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="65"/>
       <c r="C53" s="71"/>
       <c r="D53" s="72"/>
@@ -2882,7 +2924,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="89"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="53"/>
@@ -2905,7 +2947,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="89"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="67"/>
       <c r="C55" s="52"/>
       <c r="D55" s="53"/>
@@ -2928,7 +2970,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="89"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="67"/>
       <c r="C56" s="52"/>
       <c r="D56" s="53"/>
@@ -2951,7 +2993,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="89"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="67"/>
       <c r="C57" s="52"/>
       <c r="D57" s="53"/>
@@ -2974,7 +3016,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="90"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="69"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
@@ -2997,7 +3039,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="89"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="65"/>
       <c r="C59" s="71"/>
       <c r="D59" s="72"/>
@@ -3020,7 +3062,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="89"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="67"/>
       <c r="C60" s="52"/>
       <c r="D60" s="53"/>
@@ -3043,7 +3085,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="89"/>
+      <c r="A61" s="77"/>
       <c r="B61" s="67"/>
       <c r="C61" s="52"/>
       <c r="D61" s="53"/>
@@ -3066,7 +3108,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="89"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="53"/>
@@ -3089,7 +3131,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="89"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="67"/>
       <c r="C63" s="52"/>
       <c r="D63" s="53"/>
@@ -3112,7 +3154,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="90"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="69"/>
       <c r="C64" s="59"/>
       <c r="D64" s="60"/>
@@ -3135,7 +3177,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="89"/>
+      <c r="A65" s="77"/>
       <c r="B65" s="65"/>
       <c r="C65" s="71"/>
       <c r="D65" s="72"/>
@@ -3158,7 +3200,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="89"/>
+      <c r="A66" s="77"/>
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
       <c r="D66" s="53"/>
@@ -3181,7 +3223,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="89"/>
+      <c r="A67" s="77"/>
       <c r="B67" s="67"/>
       <c r="C67" s="52"/>
       <c r="D67" s="53"/>
@@ -3204,7 +3246,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="89"/>
+      <c r="A68" s="77"/>
       <c r="B68" s="67"/>
       <c r="C68" s="52"/>
       <c r="D68" s="53"/>
@@ -3227,7 +3269,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="89"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="67"/>
       <c r="C69" s="52"/>
       <c r="D69" s="53"/>
@@ -3250,7 +3292,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="90"/>
+      <c r="A70" s="78"/>
       <c r="B70" s="69"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -3273,7 +3315,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="89"/>
+      <c r="A71" s="77"/>
       <c r="B71" s="65"/>
       <c r="C71" s="71"/>
       <c r="D71" s="72"/>
@@ -3296,7 +3338,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="89"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="67"/>
       <c r="C72" s="52"/>
       <c r="D72" s="53"/>
@@ -3319,7 +3361,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="89"/>
+      <c r="A73" s="77"/>
       <c r="B73" s="67"/>
       <c r="C73" s="52"/>
       <c r="D73" s="53"/>
@@ -3342,7 +3384,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="89"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="67"/>
       <c r="C74" s="52"/>
       <c r="D74" s="53"/>
@@ -3365,7 +3407,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="89"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="67"/>
       <c r="C75" s="52"/>
       <c r="D75" s="53"/>
@@ -3388,7 +3430,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="90"/>
+      <c r="A76" s="78"/>
       <c r="B76" s="69"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -3411,7 +3453,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="89"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="65"/>
       <c r="C77" s="71"/>
       <c r="D77" s="72"/>
@@ -3434,7 +3476,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="89"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
@@ -3457,7 +3499,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="89"/>
+      <c r="A79" s="77"/>
       <c r="B79" s="67"/>
       <c r="C79" s="52"/>
       <c r="D79" s="53"/>
@@ -3480,7 +3522,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="89"/>
+      <c r="A80" s="77"/>
       <c r="B80" s="67"/>
       <c r="C80" s="52"/>
       <c r="D80" s="53"/>
@@ -3503,7 +3545,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="89"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="67"/>
       <c r="C81" s="52"/>
       <c r="D81" s="53"/>
@@ -3526,7 +3568,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="90"/>
+      <c r="A82" s="78"/>
       <c r="B82" s="69"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
@@ -3549,7 +3591,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="89"/>
+      <c r="A83" s="77"/>
       <c r="B83" s="65"/>
       <c r="C83" s="71"/>
       <c r="D83" s="72"/>
@@ -3572,7 +3614,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="89"/>
+      <c r="A84" s="77"/>
       <c r="B84" s="67"/>
       <c r="C84" s="52"/>
       <c r="D84" s="53"/>
@@ -3595,7 +3637,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="89"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="67"/>
       <c r="C85" s="52"/>
       <c r="D85" s="53"/>
@@ -3618,7 +3660,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="89"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="67"/>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -3641,7 +3683,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="89"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="67"/>
       <c r="C87" s="52"/>
       <c r="D87" s="53"/>
@@ -3664,7 +3706,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="90"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="69"/>
       <c r="C88" s="59"/>
       <c r="D88" s="60"/>
@@ -3687,7 +3729,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="89"/>
+      <c r="A89" s="77"/>
       <c r="B89" s="65"/>
       <c r="C89" s="71"/>
       <c r="D89" s="72"/>
@@ -3710,7 +3752,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="89"/>
+      <c r="A90" s="77"/>
       <c r="B90" s="67"/>
       <c r="C90" s="52"/>
       <c r="D90" s="53"/>
@@ -3733,7 +3775,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="89"/>
+      <c r="A91" s="77"/>
       <c r="B91" s="67"/>
       <c r="C91" s="52"/>
       <c r="D91" s="53"/>
@@ -3756,7 +3798,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="89"/>
+      <c r="A92" s="77"/>
       <c r="B92" s="67"/>
       <c r="C92" s="52"/>
       <c r="D92" s="53"/>
@@ -3779,7 +3821,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="89"/>
+      <c r="A93" s="77"/>
       <c r="B93" s="67"/>
       <c r="C93" s="52"/>
       <c r="D93" s="53"/>
@@ -3802,7 +3844,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="90"/>
+      <c r="A94" s="78"/>
       <c r="B94" s="69"/>
       <c r="C94" s="59"/>
       <c r="D94" s="60"/>
@@ -3825,7 +3867,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="89"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="65"/>
       <c r="C95" s="71"/>
       <c r="D95" s="72"/>
@@ -3848,7 +3890,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="89"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="67"/>
       <c r="C96" s="52"/>
       <c r="D96" s="53"/>
@@ -3871,7 +3913,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="89"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="67"/>
       <c r="C97" s="52"/>
       <c r="D97" s="53"/>
@@ -3894,7 +3936,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="89"/>
+      <c r="A98" s="77"/>
       <c r="B98" s="67"/>
       <c r="C98" s="52"/>
       <c r="D98" s="53"/>
@@ -3917,7 +3959,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="89"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="67"/>
       <c r="C99" s="52"/>
       <c r="D99" s="53"/>
@@ -3940,7 +3982,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="90"/>
+      <c r="A100" s="78"/>
       <c r="B100" s="69"/>
       <c r="C100" s="59"/>
       <c r="D100" s="60"/>
@@ -3963,7 +4005,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="89"/>
+      <c r="A101" s="77"/>
       <c r="B101" s="65"/>
       <c r="C101" s="71"/>
       <c r="D101" s="72"/>
@@ -3986,7 +4028,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="89"/>
+      <c r="A102" s="77"/>
       <c r="B102" s="67"/>
       <c r="C102" s="52"/>
       <c r="D102" s="53"/>
@@ -4009,7 +4051,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="89"/>
+      <c r="A103" s="77"/>
       <c r="B103" s="67"/>
       <c r="C103" s="52"/>
       <c r="D103" s="53"/>
@@ -4032,7 +4074,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="89"/>
+      <c r="A104" s="77"/>
       <c r="B104" s="67"/>
       <c r="C104" s="52"/>
       <c r="D104" s="53"/>
@@ -4055,7 +4097,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="89"/>
+      <c r="A105" s="77"/>
       <c r="B105" s="67"/>
       <c r="C105" s="52"/>
       <c r="D105" s="53"/>
@@ -4078,7 +4120,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="90"/>
+      <c r="A106" s="78"/>
       <c r="B106" s="69"/>
       <c r="C106" s="59"/>
       <c r="D106" s="60"/>
@@ -4101,7 +4143,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="89"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="65"/>
       <c r="C107" s="71"/>
       <c r="D107" s="72"/>
@@ -4124,7 +4166,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="89"/>
+      <c r="A108" s="77"/>
       <c r="B108" s="67"/>
       <c r="C108" s="52"/>
       <c r="D108" s="53"/>
@@ -4147,7 +4189,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="89"/>
+      <c r="A109" s="77"/>
       <c r="B109" s="67"/>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
@@ -4170,7 +4212,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="89"/>
+      <c r="A110" s="77"/>
       <c r="B110" s="67"/>
       <c r="C110" s="52"/>
       <c r="D110" s="53"/>
@@ -4193,7 +4235,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="89"/>
+      <c r="A111" s="77"/>
       <c r="B111" s="67"/>
       <c r="C111" s="52"/>
       <c r="D111" s="53"/>
@@ -4216,7 +4258,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="90"/>
+      <c r="A112" s="78"/>
       <c r="B112" s="69"/>
       <c r="C112" s="59"/>
       <c r="D112" s="60"/>
@@ -4239,7 +4281,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="89"/>
+      <c r="A113" s="77"/>
       <c r="B113" s="65"/>
       <c r="C113" s="71"/>
       <c r="D113" s="72"/>
@@ -4262,7 +4304,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="89"/>
+      <c r="A114" s="77"/>
       <c r="B114" s="67"/>
       <c r="C114" s="52"/>
       <c r="D114" s="53"/>
@@ -4285,7 +4327,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="89"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="67"/>
       <c r="C115" s="52"/>
       <c r="D115" s="53"/>
@@ -4308,7 +4350,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="89"/>
+      <c r="A116" s="77"/>
       <c r="B116" s="67"/>
       <c r="C116" s="52"/>
       <c r="D116" s="53"/>
@@ -4331,7 +4373,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="89"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="67"/>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
@@ -4354,7 +4396,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="90"/>
+      <c r="A118" s="78"/>
       <c r="B118" s="69"/>
       <c r="C118" s="59"/>
       <c r="D118" s="60"/>
@@ -4377,7 +4419,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="89"/>
+      <c r="A119" s="77"/>
       <c r="B119" s="65"/>
       <c r="C119" s="71"/>
       <c r="D119" s="72"/>
@@ -4400,7 +4442,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="89"/>
+      <c r="A120" s="77"/>
       <c r="B120" s="67"/>
       <c r="C120" s="52"/>
       <c r="D120" s="53"/>
@@ -4423,7 +4465,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="89"/>
+      <c r="A121" s="77"/>
       <c r="B121" s="67"/>
       <c r="C121" s="52"/>
       <c r="D121" s="53"/>
@@ -4446,7 +4488,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="89"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="67"/>
       <c r="C122" s="52"/>
       <c r="D122" s="53"/>
@@ -4469,7 +4511,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="89"/>
+      <c r="A123" s="77"/>
       <c r="B123" s="67"/>
       <c r="C123" s="52"/>
       <c r="D123" s="53"/>
@@ -4492,7 +4534,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="90"/>
+      <c r="A124" s="78"/>
       <c r="B124" s="69"/>
       <c r="C124" s="59"/>
       <c r="D124" s="60"/>
@@ -4515,7 +4557,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="89"/>
+      <c r="A125" s="77"/>
       <c r="B125" s="65"/>
       <c r="C125" s="71"/>
       <c r="D125" s="72"/>
@@ -4538,7 +4580,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="89"/>
+      <c r="A126" s="77"/>
       <c r="B126" s="67"/>
       <c r="C126" s="52"/>
       <c r="D126" s="53"/>
@@ -4561,7 +4603,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="89"/>
+      <c r="A127" s="77"/>
       <c r="B127" s="67"/>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
@@ -4584,7 +4626,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="89"/>
+      <c r="A128" s="77"/>
       <c r="B128" s="67"/>
       <c r="C128" s="52"/>
       <c r="D128" s="53"/>
@@ -4607,7 +4649,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="89"/>
+      <c r="A129" s="77"/>
       <c r="B129" s="67"/>
       <c r="C129" s="52"/>
       <c r="D129" s="53"/>
@@ -4630,7 +4672,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="90"/>
+      <c r="A130" s="78"/>
       <c r="B130" s="69"/>
       <c r="C130" s="59"/>
       <c r="D130" s="60"/>
@@ -4653,7 +4695,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="89"/>
+      <c r="A131" s="77"/>
       <c r="B131" s="65"/>
       <c r="C131" s="71"/>
       <c r="D131" s="72"/>
@@ -4676,7 +4718,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="89"/>
+      <c r="A132" s="77"/>
       <c r="B132" s="67"/>
       <c r="C132" s="52"/>
       <c r="D132" s="53"/>
@@ -4699,7 +4741,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="89"/>
+      <c r="A133" s="77"/>
       <c r="B133" s="67"/>
       <c r="C133" s="52"/>
       <c r="D133" s="53"/>
@@ -4722,7 +4764,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="89"/>
+      <c r="A134" s="77"/>
       <c r="B134" s="67"/>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
@@ -4745,7 +4787,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="89"/>
+      <c r="A135" s="77"/>
       <c r="B135" s="67"/>
       <c r="C135" s="52"/>
       <c r="D135" s="53"/>
@@ -4768,7 +4810,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="90"/>
+      <c r="A136" s="78"/>
       <c r="B136" s="69"/>
       <c r="C136" s="59"/>
       <c r="D136" s="60"/>
@@ -4791,7 +4833,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="89"/>
+      <c r="A137" s="77"/>
       <c r="B137" s="65"/>
       <c r="C137" s="71"/>
       <c r="D137" s="72"/>
@@ -4814,7 +4856,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A138" s="89"/>
+      <c r="A138" s="77"/>
       <c r="B138" s="67"/>
       <c r="C138" s="52"/>
       <c r="D138" s="53"/>
@@ -4837,7 +4879,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A139" s="89"/>
+      <c r="A139" s="77"/>
       <c r="B139" s="67"/>
       <c r="C139" s="52"/>
       <c r="D139" s="53"/>
@@ -4860,7 +4902,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A140" s="89"/>
+      <c r="A140" s="77"/>
       <c r="B140" s="67"/>
       <c r="C140" s="52"/>
       <c r="D140" s="53"/>
@@ -4883,7 +4925,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A141" s="89"/>
+      <c r="A141" s="77"/>
       <c r="B141" s="67"/>
       <c r="C141" s="52"/>
       <c r="D141" s="53"/>
@@ -4906,7 +4948,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A142" s="90"/>
+      <c r="A142" s="78"/>
       <c r="B142" s="69"/>
       <c r="C142" s="59"/>
       <c r="D142" s="60"/>
@@ -4929,7 +4971,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A143" s="89"/>
+      <c r="A143" s="77"/>
       <c r="B143" s="65"/>
       <c r="C143" s="71"/>
       <c r="D143" s="72"/>
@@ -4952,7 +4994,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="89"/>
+      <c r="A144" s="77"/>
       <c r="B144" s="67"/>
       <c r="C144" s="52"/>
       <c r="D144" s="53"/>
@@ -4975,7 +5017,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="89"/>
+      <c r="A145" s="77"/>
       <c r="B145" s="67"/>
       <c r="C145" s="52"/>
       <c r="D145" s="53"/>
@@ -4998,7 +5040,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A146" s="89"/>
+      <c r="A146" s="77"/>
       <c r="B146" s="67"/>
       <c r="C146" s="52"/>
       <c r="D146" s="53"/>
@@ -5021,7 +5063,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="89"/>
+      <c r="A147" s="77"/>
       <c r="B147" s="67"/>
       <c r="C147" s="52"/>
       <c r="D147" s="53"/>
@@ -5044,7 +5086,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="90"/>
+      <c r="A148" s="78"/>
       <c r="B148" s="69"/>
       <c r="C148" s="59"/>
       <c r="D148" s="60"/>
@@ -5067,7 +5109,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="89"/>
+      <c r="A149" s="77"/>
       <c r="B149" s="65"/>
       <c r="C149" s="71"/>
       <c r="D149" s="72"/>
@@ -5090,7 +5132,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A150" s="89"/>
+      <c r="A150" s="77"/>
       <c r="B150" s="67"/>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
@@ -5113,7 +5155,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="89"/>
+      <c r="A151" s="77"/>
       <c r="B151" s="67"/>
       <c r="C151" s="52"/>
       <c r="D151" s="53"/>
@@ -5136,7 +5178,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A152" s="89"/>
+      <c r="A152" s="77"/>
       <c r="B152" s="67"/>
       <c r="C152" s="52"/>
       <c r="D152" s="53"/>
@@ -5159,7 +5201,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="89"/>
+      <c r="A153" s="77"/>
       <c r="B153" s="67"/>
       <c r="C153" s="52"/>
       <c r="D153" s="53"/>
@@ -5182,7 +5224,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="90"/>
+      <c r="A154" s="78"/>
       <c r="B154" s="69"/>
       <c r="C154" s="59"/>
       <c r="D154" s="60"/>
@@ -5205,7 +5247,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A155" s="89"/>
+      <c r="A155" s="77"/>
       <c r="B155" s="65"/>
       <c r="C155" s="71"/>
       <c r="D155" s="72"/>
@@ -5228,7 +5270,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A156" s="89"/>
+      <c r="A156" s="77"/>
       <c r="B156" s="67"/>
       <c r="C156" s="52"/>
       <c r="D156" s="53"/>
@@ -5251,7 +5293,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A157" s="89"/>
+      <c r="A157" s="77"/>
       <c r="B157" s="67"/>
       <c r="C157" s="52"/>
       <c r="D157" s="53"/>
@@ -5274,7 +5316,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A158" s="89"/>
+      <c r="A158" s="77"/>
       <c r="B158" s="67"/>
       <c r="C158" s="52"/>
       <c r="D158" s="53"/>
@@ -5297,7 +5339,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A159" s="89"/>
+      <c r="A159" s="77"/>
       <c r="B159" s="67"/>
       <c r="C159" s="52"/>
       <c r="D159" s="53"/>
@@ -5320,7 +5362,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A160" s="90"/>
+      <c r="A160" s="78"/>
       <c r="B160" s="69"/>
       <c r="C160" s="59"/>
       <c r="D160" s="60"/>
@@ -5343,7 +5385,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A161" s="89"/>
+      <c r="A161" s="77"/>
       <c r="B161" s="65"/>
       <c r="C161" s="71"/>
       <c r="D161" s="72"/>
@@ -5366,7 +5408,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A162" s="89"/>
+      <c r="A162" s="77"/>
       <c r="B162" s="67"/>
       <c r="C162" s="52"/>
       <c r="D162" s="53"/>
@@ -5389,7 +5431,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A163" s="89"/>
+      <c r="A163" s="77"/>
       <c r="B163" s="67"/>
       <c r="C163" s="52"/>
       <c r="D163" s="53"/>
@@ -5412,7 +5454,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A164" s="89"/>
+      <c r="A164" s="77"/>
       <c r="B164" s="67"/>
       <c r="C164" s="52"/>
       <c r="D164" s="53"/>
@@ -5435,7 +5477,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" s="89"/>
+      <c r="A165" s="77"/>
       <c r="B165" s="67"/>
       <c r="C165" s="52"/>
       <c r="D165" s="53"/>
@@ -5458,7 +5500,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A166" s="90"/>
+      <c r="A166" s="78"/>
       <c r="B166" s="69"/>
       <c r="C166" s="59"/>
       <c r="D166" s="60"/>
@@ -5481,7 +5523,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" s="89"/>
+      <c r="A167" s="77"/>
       <c r="B167" s="65"/>
       <c r="C167" s="71"/>
       <c r="D167" s="72"/>
@@ -5504,7 +5546,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" s="89"/>
+      <c r="A168" s="77"/>
       <c r="B168" s="67"/>
       <c r="C168" s="52"/>
       <c r="D168" s="53"/>
@@ -5527,7 +5569,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A169" s="89"/>
+      <c r="A169" s="77"/>
       <c r="B169" s="67"/>
       <c r="C169" s="52"/>
       <c r="D169" s="53"/>
@@ -5550,7 +5592,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A170" s="89"/>
+      <c r="A170" s="77"/>
       <c r="B170" s="67"/>
       <c r="C170" s="52"/>
       <c r="D170" s="53"/>
@@ -5573,7 +5615,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A171" s="89"/>
+      <c r="A171" s="77"/>
       <c r="B171" s="67"/>
       <c r="C171" s="52"/>
       <c r="D171" s="53"/>
@@ -5596,7 +5638,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A172" s="90"/>
+      <c r="A172" s="78"/>
       <c r="B172" s="69"/>
       <c r="C172" s="59"/>
       <c r="D172" s="60"/>
@@ -5619,7 +5661,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A173" s="89"/>
+      <c r="A173" s="77"/>
       <c r="B173" s="65"/>
       <c r="C173" s="71"/>
       <c r="D173" s="72"/>
@@ -5642,7 +5684,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A174" s="89"/>
+      <c r="A174" s="77"/>
       <c r="B174" s="67"/>
       <c r="C174" s="52"/>
       <c r="D174" s="53"/>
@@ -5665,7 +5707,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A175" s="89"/>
+      <c r="A175" s="77"/>
       <c r="B175" s="67"/>
       <c r="C175" s="52"/>
       <c r="D175" s="53"/>
@@ -5688,7 +5730,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A176" s="89"/>
+      <c r="A176" s="77"/>
       <c r="B176" s="67"/>
       <c r="C176" s="52"/>
       <c r="D176" s="53"/>
@@ -5711,7 +5753,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A177" s="89"/>
+      <c r="A177" s="77"/>
       <c r="B177" s="67"/>
       <c r="C177" s="52"/>
       <c r="D177" s="53"/>
@@ -5734,7 +5776,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A178" s="90"/>
+      <c r="A178" s="78"/>
       <c r="B178" s="69"/>
       <c r="C178" s="59"/>
       <c r="D178" s="60"/>
@@ -5757,7 +5799,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A179" s="89"/>
+      <c r="A179" s="77"/>
       <c r="B179" s="65"/>
       <c r="C179" s="71"/>
       <c r="D179" s="72"/>
@@ -5780,7 +5822,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A180" s="89"/>
+      <c r="A180" s="77"/>
       <c r="B180" s="67"/>
       <c r="C180" s="52"/>
       <c r="D180" s="53"/>
@@ -5803,7 +5845,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A181" s="89"/>
+      <c r="A181" s="77"/>
       <c r="B181" s="67"/>
       <c r="C181" s="52"/>
       <c r="D181" s="53"/>
@@ -5826,7 +5868,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A182" s="89"/>
+      <c r="A182" s="77"/>
       <c r="B182" s="67"/>
       <c r="C182" s="52"/>
       <c r="D182" s="53"/>
@@ -5849,7 +5891,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A183" s="89"/>
+      <c r="A183" s="77"/>
       <c r="B183" s="67"/>
       <c r="C183" s="52"/>
       <c r="D183" s="53"/>
@@ -5872,7 +5914,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A184" s="90"/>
+      <c r="A184" s="78"/>
       <c r="B184" s="69"/>
       <c r="C184" s="59"/>
       <c r="D184" s="60"/>
@@ -5895,7 +5937,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A185" s="89"/>
+      <c r="A185" s="77"/>
       <c r="B185" s="65"/>
       <c r="C185" s="71"/>
       <c r="D185" s="72"/>
@@ -5918,7 +5960,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A186" s="89"/>
+      <c r="A186" s="77"/>
       <c r="B186" s="67"/>
       <c r="C186" s="52"/>
       <c r="D186" s="53"/>
@@ -5941,7 +5983,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A187" s="89"/>
+      <c r="A187" s="77"/>
       <c r="B187" s="67"/>
       <c r="C187" s="52"/>
       <c r="D187" s="53"/>
@@ -5964,7 +6006,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A188" s="89"/>
+      <c r="A188" s="77"/>
       <c r="B188" s="67"/>
       <c r="C188" s="52"/>
       <c r="D188" s="53"/>
@@ -5987,7 +6029,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A189" s="89"/>
+      <c r="A189" s="77"/>
       <c r="B189" s="67"/>
       <c r="C189" s="52"/>
       <c r="D189" s="53"/>
@@ -6010,7 +6052,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A190" s="90"/>
+      <c r="A190" s="78"/>
       <c r="B190" s="69"/>
       <c r="C190" s="59"/>
       <c r="D190" s="60"/>
@@ -6033,7 +6075,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A191" s="89"/>
+      <c r="A191" s="77"/>
       <c r="B191" s="65"/>
       <c r="C191" s="71"/>
       <c r="D191" s="72"/>
@@ -6056,7 +6098,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A192" s="89"/>
+      <c r="A192" s="77"/>
       <c r="B192" s="67"/>
       <c r="C192" s="52"/>
       <c r="D192" s="53"/>
@@ -6079,7 +6121,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A193" s="89"/>
+      <c r="A193" s="77"/>
       <c r="B193" s="67"/>
       <c r="C193" s="52"/>
       <c r="D193" s="53"/>
@@ -6102,7 +6144,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A194" s="89"/>
+      <c r="A194" s="77"/>
       <c r="B194" s="67"/>
       <c r="C194" s="52"/>
       <c r="D194" s="53"/>
@@ -6125,7 +6167,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A195" s="89"/>
+      <c r="A195" s="77"/>
       <c r="B195" s="67"/>
       <c r="C195" s="52"/>
       <c r="D195" s="53"/>
@@ -6148,7 +6190,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A196" s="90"/>
+      <c r="A196" s="78"/>
       <c r="B196" s="69"/>
       <c r="C196" s="59"/>
       <c r="D196" s="60"/>
@@ -6171,7 +6213,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A197" s="89"/>
+      <c r="A197" s="77"/>
       <c r="B197" s="65"/>
       <c r="C197" s="71"/>
       <c r="D197" s="72"/>
@@ -6194,7 +6236,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A198" s="89"/>
+      <c r="A198" s="77"/>
       <c r="B198" s="67"/>
       <c r="C198" s="52"/>
       <c r="D198" s="53"/>
@@ -6217,7 +6259,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A199" s="89"/>
+      <c r="A199" s="77"/>
       <c r="B199" s="67"/>
       <c r="C199" s="52"/>
       <c r="D199" s="53"/>
@@ -6240,7 +6282,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A200" s="89"/>
+      <c r="A200" s="77"/>
       <c r="B200" s="67"/>
       <c r="C200" s="52"/>
       <c r="D200" s="53"/>
@@ -6263,7 +6305,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A201" s="89"/>
+      <c r="A201" s="77"/>
       <c r="B201" s="67"/>
       <c r="C201" s="52"/>
       <c r="D201" s="53"/>
@@ -6286,7 +6328,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A202" s="90"/>
+      <c r="A202" s="78"/>
       <c r="B202" s="69"/>
       <c r="C202" s="59"/>
       <c r="D202" s="60"/>
@@ -6309,7 +6351,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A203" s="89"/>
+      <c r="A203" s="77"/>
       <c r="B203" s="65"/>
       <c r="C203" s="71"/>
       <c r="D203" s="72"/>
@@ -6332,7 +6374,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A204" s="89"/>
+      <c r="A204" s="77"/>
       <c r="B204" s="67"/>
       <c r="C204" s="52"/>
       <c r="D204" s="53"/>
@@ -6355,7 +6397,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A205" s="89"/>
+      <c r="A205" s="77"/>
       <c r="B205" s="67"/>
       <c r="C205" s="52"/>
       <c r="D205" s="53"/>
@@ -6378,7 +6420,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A206" s="89"/>
+      <c r="A206" s="77"/>
       <c r="B206" s="67"/>
       <c r="C206" s="52"/>
       <c r="D206" s="53"/>
@@ -6401,7 +6443,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A207" s="89"/>
+      <c r="A207" s="77"/>
       <c r="B207" s="67"/>
       <c r="C207" s="52"/>
       <c r="D207" s="53"/>
@@ -6424,7 +6466,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A208" s="90"/>
+      <c r="A208" s="78"/>
       <c r="B208" s="69"/>
       <c r="C208" s="59"/>
       <c r="D208" s="60"/>
@@ -6447,7 +6489,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A209" s="89"/>
+      <c r="A209" s="77"/>
       <c r="B209" s="65"/>
       <c r="C209" s="71"/>
       <c r="D209" s="72"/>
@@ -6470,7 +6512,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A210" s="89"/>
+      <c r="A210" s="77"/>
       <c r="B210" s="67"/>
       <c r="C210" s="52"/>
       <c r="D210" s="53"/>
@@ -6493,7 +6535,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A211" s="89"/>
+      <c r="A211" s="77"/>
       <c r="B211" s="67"/>
       <c r="C211" s="52"/>
       <c r="D211" s="53"/>
@@ -6516,7 +6558,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A212" s="89"/>
+      <c r="A212" s="77"/>
       <c r="B212" s="67"/>
       <c r="C212" s="52"/>
       <c r="D212" s="53"/>
@@ -6539,7 +6581,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A213" s="89"/>
+      <c r="A213" s="77"/>
       <c r="B213" s="67"/>
       <c r="C213" s="52"/>
       <c r="D213" s="53"/>
@@ -6562,7 +6604,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A214" s="90"/>
+      <c r="A214" s="78"/>
       <c r="B214" s="69"/>
       <c r="C214" s="59"/>
       <c r="D214" s="60"/>
@@ -6585,7 +6627,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A215" s="89"/>
+      <c r="A215" s="77"/>
       <c r="B215" s="65"/>
       <c r="C215" s="71"/>
       <c r="D215" s="72"/>
@@ -6608,7 +6650,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A216" s="89"/>
+      <c r="A216" s="77"/>
       <c r="B216" s="67"/>
       <c r="C216" s="52"/>
       <c r="D216" s="53"/>
@@ -6631,7 +6673,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A217" s="89"/>
+      <c r="A217" s="77"/>
       <c r="B217" s="67"/>
       <c r="C217" s="52"/>
       <c r="D217" s="53"/>
@@ -6654,7 +6696,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A218" s="89"/>
+      <c r="A218" s="77"/>
       <c r="B218" s="67"/>
       <c r="C218" s="52"/>
       <c r="D218" s="53"/>
@@ -6677,7 +6719,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A219" s="89"/>
+      <c r="A219" s="77"/>
       <c r="B219" s="67"/>
       <c r="C219" s="52"/>
       <c r="D219" s="53"/>
@@ -6700,7 +6742,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A220" s="90"/>
+      <c r="A220" s="78"/>
       <c r="B220" s="69"/>
       <c r="C220" s="59"/>
       <c r="D220" s="60"/>
@@ -6723,7 +6765,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A221" s="89"/>
+      <c r="A221" s="77"/>
       <c r="B221" s="65"/>
       <c r="C221" s="71"/>
       <c r="D221" s="72"/>
@@ -6746,7 +6788,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A222" s="89"/>
+      <c r="A222" s="77"/>
       <c r="B222" s="67"/>
       <c r="C222" s="52"/>
       <c r="D222" s="53"/>
@@ -6769,7 +6811,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A223" s="89"/>
+      <c r="A223" s="77"/>
       <c r="B223" s="67"/>
       <c r="C223" s="52"/>
       <c r="D223" s="53"/>
@@ -6792,7 +6834,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A224" s="89"/>
+      <c r="A224" s="77"/>
       <c r="B224" s="67"/>
       <c r="C224" s="52"/>
       <c r="D224" s="53"/>
@@ -6815,7 +6857,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A225" s="89"/>
+      <c r="A225" s="77"/>
       <c r="B225" s="67"/>
       <c r="C225" s="52"/>
       <c r="D225" s="53"/>
@@ -6838,7 +6880,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A226" s="90"/>
+      <c r="A226" s="78"/>
       <c r="B226" s="69"/>
       <c r="C226" s="59"/>
       <c r="D226" s="60"/>
@@ -6861,7 +6903,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A227" s="89"/>
+      <c r="A227" s="77"/>
       <c r="B227" s="65"/>
       <c r="C227" s="71"/>
       <c r="D227" s="72"/>
@@ -6884,7 +6926,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A228" s="89"/>
+      <c r="A228" s="77"/>
       <c r="B228" s="67"/>
       <c r="C228" s="52"/>
       <c r="D228" s="53"/>
@@ -6907,7 +6949,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A229" s="89"/>
+      <c r="A229" s="77"/>
       <c r="B229" s="67"/>
       <c r="C229" s="52"/>
       <c r="D229" s="53"/>
@@ -6930,7 +6972,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A230" s="89"/>
+      <c r="A230" s="77"/>
       <c r="B230" s="67"/>
       <c r="C230" s="52"/>
       <c r="D230" s="53"/>
@@ -6953,7 +6995,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A231" s="89"/>
+      <c r="A231" s="77"/>
       <c r="B231" s="67"/>
       <c r="C231" s="52"/>
       <c r="D231" s="53"/>
@@ -6976,7 +7018,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A232" s="90"/>
+      <c r="A232" s="78"/>
       <c r="B232" s="69"/>
       <c r="C232" s="59"/>
       <c r="D232" s="60"/>
@@ -6999,7 +7041,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A233" s="89"/>
+      <c r="A233" s="77"/>
       <c r="B233" s="65"/>
       <c r="C233" s="71"/>
       <c r="D233" s="72"/>
@@ -7022,7 +7064,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A234" s="89"/>
+      <c r="A234" s="77"/>
       <c r="B234" s="67"/>
       <c r="C234" s="52"/>
       <c r="D234" s="53"/>
@@ -7045,7 +7087,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A235" s="89"/>
+      <c r="A235" s="77"/>
       <c r="B235" s="67"/>
       <c r="C235" s="52"/>
       <c r="D235" s="53"/>
@@ -7068,7 +7110,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A236" s="89"/>
+      <c r="A236" s="77"/>
       <c r="B236" s="67"/>
       <c r="C236" s="52"/>
       <c r="D236" s="53"/>
@@ -7091,7 +7133,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A237" s="89"/>
+      <c r="A237" s="77"/>
       <c r="B237" s="67"/>
       <c r="C237" s="52"/>
       <c r="D237" s="53"/>
@@ -7114,7 +7156,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A238" s="90"/>
+      <c r="A238" s="78"/>
       <c r="B238" s="69"/>
       <c r="C238" s="59"/>
       <c r="D238" s="60"/>
@@ -7137,7 +7179,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A239" s="89"/>
+      <c r="A239" s="77"/>
       <c r="B239" s="65"/>
       <c r="C239" s="71"/>
       <c r="D239" s="72"/>
@@ -7160,7 +7202,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A240" s="89"/>
+      <c r="A240" s="77"/>
       <c r="B240" s="67"/>
       <c r="C240" s="52"/>
       <c r="D240" s="53"/>
@@ -7183,7 +7225,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A241" s="89"/>
+      <c r="A241" s="77"/>
       <c r="B241" s="67"/>
       <c r="C241" s="52"/>
       <c r="D241" s="53"/>
@@ -7206,7 +7248,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A242" s="89"/>
+      <c r="A242" s="77"/>
       <c r="B242" s="67"/>
       <c r="C242" s="52"/>
       <c r="D242" s="53"/>
@@ -7229,7 +7271,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A243" s="89"/>
+      <c r="A243" s="77"/>
       <c r="B243" s="67"/>
       <c r="C243" s="52"/>
       <c r="D243" s="53"/>
@@ -7252,7 +7294,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A244" s="90"/>
+      <c r="A244" s="78"/>
       <c r="B244" s="69"/>
       <c r="C244" s="59"/>
       <c r="D244" s="60"/>
@@ -7275,7 +7317,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A245" s="89"/>
+      <c r="A245" s="77"/>
       <c r="B245" s="65"/>
       <c r="C245" s="71"/>
       <c r="D245" s="72"/>
@@ -7298,7 +7340,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A246" s="89"/>
+      <c r="A246" s="77"/>
       <c r="B246" s="67"/>
       <c r="C246" s="52"/>
       <c r="D246" s="53"/>
@@ -7321,7 +7363,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A247" s="89"/>
+      <c r="A247" s="77"/>
       <c r="B247" s="67"/>
       <c r="C247" s="52"/>
       <c r="D247" s="53"/>
@@ -7344,7 +7386,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A248" s="89"/>
+      <c r="A248" s="77"/>
       <c r="B248" s="67"/>
       <c r="C248" s="52"/>
       <c r="D248" s="53"/>
@@ -7367,7 +7409,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A249" s="89"/>
+      <c r="A249" s="77"/>
       <c r="B249" s="67"/>
       <c r="C249" s="52"/>
       <c r="D249" s="53"/>
@@ -7390,7 +7432,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A250" s="90"/>
+      <c r="A250" s="78"/>
       <c r="B250" s="69"/>
       <c r="C250" s="59"/>
       <c r="D250" s="60"/>
@@ -7413,7 +7455,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A251" s="89"/>
+      <c r="A251" s="77"/>
       <c r="B251" s="65"/>
       <c r="C251" s="71"/>
       <c r="D251" s="72"/>
@@ -7436,7 +7478,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A252" s="89"/>
+      <c r="A252" s="77"/>
       <c r="B252" s="67"/>
       <c r="C252" s="52"/>
       <c r="D252" s="53"/>
@@ -7459,7 +7501,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A253" s="89"/>
+      <c r="A253" s="77"/>
       <c r="B253" s="67"/>
       <c r="C253" s="52"/>
       <c r="D253" s="53"/>
@@ -7482,7 +7524,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A254" s="89"/>
+      <c r="A254" s="77"/>
       <c r="B254" s="67"/>
       <c r="C254" s="52"/>
       <c r="D254" s="53"/>
@@ -7505,7 +7547,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A255" s="89"/>
+      <c r="A255" s="77"/>
       <c r="B255" s="67"/>
       <c r="C255" s="52"/>
       <c r="D255" s="53"/>
@@ -7528,7 +7570,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A256" s="90"/>
+      <c r="A256" s="78"/>
       <c r="B256" s="69"/>
       <c r="C256" s="59"/>
       <c r="D256" s="60"/>
@@ -7551,7 +7593,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A257" s="89"/>
+      <c r="A257" s="77"/>
       <c r="B257" s="65"/>
       <c r="C257" s="71"/>
       <c r="D257" s="72"/>
@@ -7574,7 +7616,7 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A258" s="89"/>
+      <c r="A258" s="77"/>
       <c r="B258" s="67"/>
       <c r="C258" s="52"/>
       <c r="D258" s="53"/>
@@ -7597,7 +7639,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A259" s="89"/>
+      <c r="A259" s="77"/>
       <c r="B259" s="67"/>
       <c r="C259" s="52"/>
       <c r="D259" s="53"/>
@@ -7620,7 +7662,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A260" s="89"/>
+      <c r="A260" s="77"/>
       <c r="B260" s="67"/>
       <c r="C260" s="52"/>
       <c r="D260" s="53"/>
@@ -7643,7 +7685,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A261" s="89"/>
+      <c r="A261" s="77"/>
       <c r="B261" s="67"/>
       <c r="C261" s="52"/>
       <c r="D261" s="53"/>
@@ -7666,7 +7708,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A262" s="90"/>
+      <c r="A262" s="78"/>
       <c r="B262" s="69"/>
       <c r="C262" s="59"/>
       <c r="D262" s="60"/>
@@ -7689,7 +7731,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A263" s="89"/>
+      <c r="A263" s="77"/>
       <c r="B263" s="65"/>
       <c r="C263" s="71"/>
       <c r="D263" s="72"/>
@@ -7712,7 +7754,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A264" s="89"/>
+      <c r="A264" s="77"/>
       <c r="B264" s="67"/>
       <c r="C264" s="52"/>
       <c r="D264" s="53"/>
@@ -7735,7 +7777,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A265" s="89"/>
+      <c r="A265" s="77"/>
       <c r="B265" s="67"/>
       <c r="C265" s="52"/>
       <c r="D265" s="53"/>
@@ -7758,7 +7800,7 @@
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A266" s="89"/>
+      <c r="A266" s="77"/>
       <c r="B266" s="67"/>
       <c r="C266" s="52"/>
       <c r="D266" s="53"/>
@@ -7781,7 +7823,7 @@
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A267" s="89"/>
+      <c r="A267" s="77"/>
       <c r="B267" s="67"/>
       <c r="C267" s="52"/>
       <c r="D267" s="53"/>
@@ -7804,7 +7846,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A268" s="90"/>
+      <c r="A268" s="78"/>
       <c r="B268" s="69"/>
       <c r="C268" s="59"/>
       <c r="D268" s="60"/>
@@ -7827,7 +7869,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A269" s="89"/>
+      <c r="A269" s="77"/>
       <c r="B269" s="65"/>
       <c r="C269" s="71"/>
       <c r="D269" s="72"/>
@@ -7850,7 +7892,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A270" s="89"/>
+      <c r="A270" s="77"/>
       <c r="B270" s="67"/>
       <c r="C270" s="52"/>
       <c r="D270" s="53"/>
@@ -7873,7 +7915,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A271" s="89"/>
+      <c r="A271" s="77"/>
       <c r="B271" s="67"/>
       <c r="C271" s="52"/>
       <c r="D271" s="53"/>
@@ -7896,7 +7938,7 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A272" s="89"/>
+      <c r="A272" s="77"/>
       <c r="B272" s="67"/>
       <c r="C272" s="52"/>
       <c r="D272" s="53"/>
@@ -7919,7 +7961,7 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A273" s="89"/>
+      <c r="A273" s="77"/>
       <c r="B273" s="67"/>
       <c r="C273" s="52"/>
       <c r="D273" s="53"/>
@@ -7942,7 +7984,7 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A274" s="90"/>
+      <c r="A274" s="78"/>
       <c r="B274" s="69"/>
       <c r="C274" s="59"/>
       <c r="D274" s="60"/>
@@ -7965,7 +8007,7 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A275" s="89"/>
+      <c r="A275" s="77"/>
       <c r="B275" s="65"/>
       <c r="C275" s="71"/>
       <c r="D275" s="72"/>
@@ -7988,7 +8030,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A276" s="89"/>
+      <c r="A276" s="77"/>
       <c r="B276" s="67"/>
       <c r="C276" s="52"/>
       <c r="D276" s="53"/>
@@ -8011,7 +8053,7 @@
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A277" s="89"/>
+      <c r="A277" s="77"/>
       <c r="B277" s="67"/>
       <c r="C277" s="52"/>
       <c r="D277" s="53"/>
@@ -8034,7 +8076,7 @@
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A278" s="89"/>
+      <c r="A278" s="77"/>
       <c r="B278" s="67"/>
       <c r="C278" s="52"/>
       <c r="D278" s="53"/>
@@ -8057,7 +8099,7 @@
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A279" s="89"/>
+      <c r="A279" s="77"/>
       <c r="B279" s="67"/>
       <c r="C279" s="52"/>
       <c r="D279" s="53"/>
@@ -8080,7 +8122,7 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A280" s="90"/>
+      <c r="A280" s="78"/>
       <c r="B280" s="69"/>
       <c r="C280" s="59"/>
       <c r="D280" s="60"/>
@@ -8103,7 +8145,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A281" s="89"/>
+      <c r="A281" s="77"/>
       <c r="B281" s="65"/>
       <c r="C281" s="71"/>
       <c r="D281" s="72"/>
@@ -8126,7 +8168,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A282" s="89"/>
+      <c r="A282" s="77"/>
       <c r="B282" s="67"/>
       <c r="C282" s="52"/>
       <c r="D282" s="53"/>
@@ -8149,7 +8191,7 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A283" s="89"/>
+      <c r="A283" s="77"/>
       <c r="B283" s="67"/>
       <c r="C283" s="52"/>
       <c r="D283" s="53"/>
@@ -8172,7 +8214,7 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A284" s="89"/>
+      <c r="A284" s="77"/>
       <c r="B284" s="67"/>
       <c r="C284" s="52"/>
       <c r="D284" s="53"/>
@@ -8195,7 +8237,7 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A285" s="89"/>
+      <c r="A285" s="77"/>
       <c r="B285" s="67"/>
       <c r="C285" s="52"/>
       <c r="D285" s="53"/>
@@ -8218,7 +8260,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A286" s="90"/>
+      <c r="A286" s="78"/>
       <c r="B286" s="69"/>
       <c r="C286" s="59"/>
       <c r="D286" s="60"/>
@@ -8241,7 +8283,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A287" s="89"/>
+      <c r="A287" s="77"/>
       <c r="B287" s="65"/>
       <c r="C287" s="71"/>
       <c r="D287" s="72"/>
@@ -8264,7 +8306,7 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A288" s="89"/>
+      <c r="A288" s="77"/>
       <c r="B288" s="67"/>
       <c r="C288" s="52"/>
       <c r="D288" s="53"/>
@@ -8287,7 +8329,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A289" s="89"/>
+      <c r="A289" s="77"/>
       <c r="B289" s="67"/>
       <c r="C289" s="52"/>
       <c r="D289" s="53"/>
@@ -8310,7 +8352,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A290" s="89"/>
+      <c r="A290" s="77"/>
       <c r="B290" s="67"/>
       <c r="C290" s="52"/>
       <c r="D290" s="53"/>
@@ -8333,7 +8375,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A291" s="89"/>
+      <c r="A291" s="77"/>
       <c r="B291" s="67"/>
       <c r="C291" s="52"/>
       <c r="D291" s="53"/>
@@ -8356,7 +8398,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A292" s="90"/>
+      <c r="A292" s="78"/>
       <c r="B292" s="69"/>
       <c r="C292" s="59"/>
       <c r="D292" s="60"/>
@@ -8379,7 +8421,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A293" s="89"/>
+      <c r="A293" s="77"/>
       <c r="B293" s="65"/>
       <c r="C293" s="71"/>
       <c r="D293" s="72"/>
@@ -8402,7 +8444,7 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A294" s="89"/>
+      <c r="A294" s="77"/>
       <c r="B294" s="67"/>
       <c r="C294" s="52"/>
       <c r="D294" s="53"/>
@@ -8425,7 +8467,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A295" s="89"/>
+      <c r="A295" s="77"/>
       <c r="B295" s="67"/>
       <c r="C295" s="52"/>
       <c r="D295" s="53"/>
@@ -8448,7 +8490,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A296" s="89"/>
+      <c r="A296" s="77"/>
       <c r="B296" s="67"/>
       <c r="C296" s="52"/>
       <c r="D296" s="53"/>
@@ -8471,7 +8513,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A297" s="89"/>
+      <c r="A297" s="77"/>
       <c r="B297" s="67"/>
       <c r="C297" s="52"/>
       <c r="D297" s="53"/>
@@ -8494,7 +8536,7 @@
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A298" s="90"/>
+      <c r="A298" s="78"/>
       <c r="B298" s="69"/>
       <c r="C298" s="59"/>
       <c r="D298" s="60"/>
@@ -8517,7 +8559,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A299" s="89"/>
+      <c r="A299" s="77"/>
       <c r="B299" s="65"/>
       <c r="C299" s="71"/>
       <c r="D299" s="72"/>
@@ -8540,7 +8582,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A300" s="89"/>
+      <c r="A300" s="77"/>
       <c r="B300" s="67"/>
       <c r="C300" s="52"/>
       <c r="D300" s="53"/>
@@ -8563,7 +8605,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A301" s="89"/>
+      <c r="A301" s="77"/>
       <c r="B301" s="67"/>
       <c r="C301" s="52"/>
       <c r="D301" s="53"/>
@@ -8586,7 +8628,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A302" s="89"/>
+      <c r="A302" s="77"/>
       <c r="B302" s="67"/>
       <c r="C302" s="52"/>
       <c r="D302" s="53"/>
@@ -8609,7 +8651,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A303" s="89"/>
+      <c r="A303" s="77"/>
       <c r="B303" s="67"/>
       <c r="C303" s="52"/>
       <c r="D303" s="53"/>
@@ -8632,7 +8674,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A304" s="90"/>
+      <c r="A304" s="78"/>
       <c r="B304" s="69"/>
       <c r="C304" s="59"/>
       <c r="D304" s="60"/>
@@ -8655,7 +8697,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A305" s="89"/>
+      <c r="A305" s="77"/>
       <c r="B305" s="65"/>
       <c r="C305" s="71"/>
       <c r="D305" s="72"/>
@@ -8678,7 +8720,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A306" s="89"/>
+      <c r="A306" s="77"/>
       <c r="B306" s="67"/>
       <c r="C306" s="52"/>
       <c r="D306" s="53"/>
@@ -8701,7 +8743,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A307" s="89"/>
+      <c r="A307" s="77"/>
       <c r="B307" s="67"/>
       <c r="C307" s="52"/>
       <c r="D307" s="53"/>
@@ -8724,7 +8766,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A308" s="89"/>
+      <c r="A308" s="77"/>
       <c r="B308" s="67"/>
       <c r="C308" s="52"/>
       <c r="D308" s="53"/>
@@ -8747,7 +8789,7 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A309" s="89"/>
+      <c r="A309" s="77"/>
       <c r="B309" s="67"/>
       <c r="C309" s="52"/>
       <c r="D309" s="53"/>
@@ -8770,7 +8812,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A310" s="90"/>
+      <c r="A310" s="78"/>
       <c r="B310" s="69"/>
       <c r="C310" s="59"/>
       <c r="D310" s="60"/>
@@ -8793,7 +8835,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A311" s="89"/>
+      <c r="A311" s="77"/>
       <c r="B311" s="65"/>
       <c r="C311" s="71"/>
       <c r="D311" s="72"/>
@@ -8816,7 +8858,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A312" s="89"/>
+      <c r="A312" s="77"/>
       <c r="B312" s="67"/>
       <c r="C312" s="52"/>
       <c r="D312" s="53"/>
@@ -8839,7 +8881,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A313" s="89"/>
+      <c r="A313" s="77"/>
       <c r="B313" s="67"/>
       <c r="C313" s="52"/>
       <c r="D313" s="53"/>
@@ -8862,7 +8904,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A314" s="89"/>
+      <c r="A314" s="77"/>
       <c r="B314" s="67"/>
       <c r="C314" s="52"/>
       <c r="D314" s="53"/>
@@ -8885,7 +8927,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A315" s="89"/>
+      <c r="A315" s="77"/>
       <c r="B315" s="67"/>
       <c r="C315" s="52"/>
       <c r="D315" s="53"/>
@@ -8908,7 +8950,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A316" s="90"/>
+      <c r="A316" s="78"/>
       <c r="B316" s="69"/>
       <c r="C316" s="59"/>
       <c r="D316" s="60"/>
@@ -8931,7 +8973,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A317" s="89"/>
+      <c r="A317" s="77"/>
       <c r="B317" s="65"/>
       <c r="C317" s="71"/>
       <c r="D317" s="72"/>
@@ -8954,7 +8996,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A318" s="89"/>
+      <c r="A318" s="77"/>
       <c r="B318" s="67"/>
       <c r="C318" s="52"/>
       <c r="D318" s="53"/>
@@ -8977,7 +9019,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A319" s="89"/>
+      <c r="A319" s="77"/>
       <c r="B319" s="67"/>
       <c r="C319" s="52"/>
       <c r="D319" s="53"/>
@@ -9000,7 +9042,7 @@
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A320" s="89"/>
+      <c r="A320" s="77"/>
       <c r="B320" s="67"/>
       <c r="C320" s="52"/>
       <c r="D320" s="53"/>
@@ -9023,7 +9065,7 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A321" s="89"/>
+      <c r="A321" s="77"/>
       <c r="B321" s="67"/>
       <c r="C321" s="52"/>
       <c r="D321" s="53"/>
@@ -9046,7 +9088,7 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A322" s="90"/>
+      <c r="A322" s="78"/>
       <c r="B322" s="69"/>
       <c r="C322" s="59"/>
       <c r="D322" s="60"/>
@@ -9069,7 +9111,7 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A323" s="89"/>
+      <c r="A323" s="77"/>
       <c r="B323" s="65"/>
       <c r="C323" s="71"/>
       <c r="D323" s="72"/>
@@ -9092,7 +9134,7 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A324" s="89"/>
+      <c r="A324" s="77"/>
       <c r="B324" s="67"/>
       <c r="C324" s="52"/>
       <c r="D324" s="53"/>
@@ -9115,7 +9157,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A325" s="89"/>
+      <c r="A325" s="77"/>
       <c r="B325" s="67"/>
       <c r="C325" s="52"/>
       <c r="D325" s="53"/>
@@ -9138,7 +9180,7 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A326" s="89"/>
+      <c r="A326" s="77"/>
       <c r="B326" s="67"/>
       <c r="C326" s="52"/>
       <c r="D326" s="53"/>
@@ -9161,7 +9203,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A327" s="89"/>
+      <c r="A327" s="77"/>
       <c r="B327" s="67"/>
       <c r="C327" s="52"/>
       <c r="D327" s="53"/>
@@ -9184,7 +9226,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A328" s="90"/>
+      <c r="A328" s="78"/>
       <c r="B328" s="69"/>
       <c r="C328" s="59"/>
       <c r="D328" s="60"/>
@@ -9207,7 +9249,7 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A329" s="89"/>
+      <c r="A329" s="77"/>
       <c r="B329" s="65"/>
       <c r="C329" s="71"/>
       <c r="D329" s="72"/>
@@ -9230,7 +9272,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A330" s="89"/>
+      <c r="A330" s="77"/>
       <c r="B330" s="67"/>
       <c r="C330" s="52"/>
       <c r="D330" s="53"/>
@@ -9253,7 +9295,7 @@
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A331" s="89"/>
+      <c r="A331" s="77"/>
       <c r="B331" s="67"/>
       <c r="C331" s="52"/>
       <c r="D331" s="53"/>
@@ -9276,7 +9318,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A332" s="89"/>
+      <c r="A332" s="77"/>
       <c r="B332" s="67"/>
       <c r="C332" s="52"/>
       <c r="D332" s="53"/>
@@ -9299,7 +9341,7 @@
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A333" s="89"/>
+      <c r="A333" s="77"/>
       <c r="B333" s="67"/>
       <c r="C333" s="52"/>
       <c r="D333" s="53"/>
@@ -9322,7 +9364,7 @@
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A334" s="90"/>
+      <c r="A334" s="78"/>
       <c r="B334" s="69"/>
       <c r="C334" s="59"/>
       <c r="D334" s="60"/>
@@ -9345,7 +9387,7 @@
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A335" s="89"/>
+      <c r="A335" s="77"/>
       <c r="B335" s="65"/>
       <c r="C335" s="71"/>
       <c r="D335" s="72"/>
@@ -9368,7 +9410,7 @@
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A336" s="89"/>
+      <c r="A336" s="77"/>
       <c r="B336" s="67"/>
       <c r="C336" s="52"/>
       <c r="D336" s="53"/>
@@ -9391,7 +9433,7 @@
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A337" s="89"/>
+      <c r="A337" s="77"/>
       <c r="B337" s="67"/>
       <c r="C337" s="52"/>
       <c r="D337" s="53"/>
@@ -9414,7 +9456,7 @@
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A338" s="89"/>
+      <c r="A338" s="77"/>
       <c r="B338" s="67"/>
       <c r="C338" s="52"/>
       <c r="D338" s="53"/>
@@ -9437,7 +9479,7 @@
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A339" s="89"/>
+      <c r="A339" s="77"/>
       <c r="B339" s="67"/>
       <c r="C339" s="52"/>
       <c r="D339" s="53"/>
@@ -9460,7 +9502,7 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A340" s="90"/>
+      <c r="A340" s="78"/>
       <c r="B340" s="69"/>
       <c r="C340" s="59"/>
       <c r="D340" s="60"/>
@@ -9483,7 +9525,7 @@
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A341" s="89"/>
+      <c r="A341" s="77"/>
       <c r="B341" s="65"/>
       <c r="C341" s="71"/>
       <c r="D341" s="72"/>
@@ -9506,7 +9548,7 @@
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A342" s="89"/>
+      <c r="A342" s="77"/>
       <c r="B342" s="67"/>
       <c r="C342" s="52"/>
       <c r="D342" s="53"/>
@@ -9529,7 +9571,7 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A343" s="89"/>
+      <c r="A343" s="77"/>
       <c r="B343" s="67"/>
       <c r="C343" s="52"/>
       <c r="D343" s="53"/>
@@ -9552,7 +9594,7 @@
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A344" s="89"/>
+      <c r="A344" s="77"/>
       <c r="B344" s="67"/>
       <c r="C344" s="52"/>
       <c r="D344" s="53"/>
@@ -9575,7 +9617,7 @@
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A345" s="89"/>
+      <c r="A345" s="77"/>
       <c r="B345" s="67"/>
       <c r="C345" s="52"/>
       <c r="D345" s="53"/>
@@ -9598,7 +9640,7 @@
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A346" s="90"/>
+      <c r="A346" s="78"/>
       <c r="B346" s="69"/>
       <c r="C346" s="59"/>
       <c r="D346" s="60"/>
@@ -9621,7 +9663,7 @@
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A347" s="89"/>
+      <c r="A347" s="77"/>
       <c r="B347" s="65"/>
       <c r="C347" s="71"/>
       <c r="D347" s="72"/>
@@ -9644,7 +9686,7 @@
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A348" s="89"/>
+      <c r="A348" s="77"/>
       <c r="B348" s="67"/>
       <c r="C348" s="52"/>
       <c r="D348" s="53"/>
@@ -9667,7 +9709,7 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A349" s="89"/>
+      <c r="A349" s="77"/>
       <c r="B349" s="67"/>
       <c r="C349" s="52"/>
       <c r="D349" s="53"/>
@@ -9690,7 +9732,7 @@
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A350" s="89"/>
+      <c r="A350" s="77"/>
       <c r="B350" s="67"/>
       <c r="C350" s="52"/>
       <c r="D350" s="53"/>
@@ -9713,7 +9755,7 @@
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A351" s="89"/>
+      <c r="A351" s="77"/>
       <c r="B351" s="67"/>
       <c r="C351" s="52"/>
       <c r="D351" s="53"/>
@@ -9736,7 +9778,7 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A352" s="90"/>
+      <c r="A352" s="78"/>
       <c r="B352" s="69"/>
       <c r="C352" s="59"/>
       <c r="D352" s="60"/>
@@ -9759,7 +9801,7 @@
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A353" s="89"/>
+      <c r="A353" s="77"/>
       <c r="B353" s="65"/>
       <c r="C353" s="71"/>
       <c r="D353" s="72"/>
@@ -9782,7 +9824,7 @@
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A354" s="89"/>
+      <c r="A354" s="77"/>
       <c r="B354" s="67"/>
       <c r="C354" s="52"/>
       <c r="D354" s="53"/>
@@ -9805,7 +9847,7 @@
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A355" s="89"/>
+      <c r="A355" s="77"/>
       <c r="B355" s="67"/>
       <c r="C355" s="52"/>
       <c r="D355" s="53"/>
@@ -9828,7 +9870,7 @@
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A356" s="89"/>
+      <c r="A356" s="77"/>
       <c r="B356" s="67"/>
       <c r="C356" s="52"/>
       <c r="D356" s="53"/>
@@ -9851,7 +9893,7 @@
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A357" s="89"/>
+      <c r="A357" s="77"/>
       <c r="B357" s="67"/>
       <c r="C357" s="52"/>
       <c r="D357" s="53"/>
@@ -9874,7 +9916,7 @@
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A358" s="90"/>
+      <c r="A358" s="78"/>
       <c r="B358" s="69"/>
       <c r="C358" s="59"/>
       <c r="D358" s="60"/>
@@ -9897,7 +9939,7 @@
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A359" s="89"/>
+      <c r="A359" s="77"/>
       <c r="B359" s="65"/>
       <c r="C359" s="71"/>
       <c r="D359" s="72"/>
@@ -9920,7 +9962,7 @@
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A360" s="89"/>
+      <c r="A360" s="77"/>
       <c r="B360" s="67"/>
       <c r="C360" s="52"/>
       <c r="D360" s="53"/>
@@ -9943,7 +9985,7 @@
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A361" s="89"/>
+      <c r="A361" s="77"/>
       <c r="B361" s="67"/>
       <c r="C361" s="52"/>
       <c r="D361" s="53"/>
@@ -9966,7 +10008,7 @@
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A362" s="89"/>
+      <c r="A362" s="77"/>
       <c r="B362" s="67"/>
       <c r="C362" s="52"/>
       <c r="D362" s="53"/>
@@ -9989,7 +10031,7 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A363" s="89"/>
+      <c r="A363" s="77"/>
       <c r="B363" s="67"/>
       <c r="C363" s="52"/>
       <c r="D363" s="53"/>
@@ -10012,7 +10054,7 @@
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A364" s="90"/>
+      <c r="A364" s="78"/>
       <c r="B364" s="69"/>
       <c r="C364" s="59"/>
       <c r="D364" s="60"/>
@@ -10035,7 +10077,7 @@
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A365" s="89"/>
+      <c r="A365" s="77"/>
       <c r="B365" s="65"/>
       <c r="C365" s="71"/>
       <c r="D365" s="72"/>
@@ -10058,7 +10100,7 @@
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A366" s="89"/>
+      <c r="A366" s="77"/>
       <c r="B366" s="67"/>
       <c r="C366" s="52"/>
       <c r="D366" s="53"/>
@@ -10081,7 +10123,7 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A367" s="89"/>
+      <c r="A367" s="77"/>
       <c r="B367" s="67"/>
       <c r="C367" s="52"/>
       <c r="D367" s="53"/>
@@ -10104,7 +10146,7 @@
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A368" s="89"/>
+      <c r="A368" s="77"/>
       <c r="B368" s="67"/>
       <c r="C368" s="52"/>
       <c r="D368" s="53"/>
@@ -10127,7 +10169,7 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A369" s="89"/>
+      <c r="A369" s="77"/>
       <c r="B369" s="67"/>
       <c r="C369" s="52"/>
       <c r="D369" s="53"/>
@@ -10150,7 +10192,7 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A370" s="90"/>
+      <c r="A370" s="78"/>
       <c r="B370" s="69"/>
       <c r="C370" s="59"/>
       <c r="D370" s="60"/>
@@ -10173,7 +10215,7 @@
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A371" s="89"/>
+      <c r="A371" s="77"/>
       <c r="B371" s="65"/>
       <c r="C371" s="71"/>
       <c r="D371" s="72"/>
@@ -10196,7 +10238,7 @@
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A372" s="89"/>
+      <c r="A372" s="77"/>
       <c r="B372" s="67"/>
       <c r="C372" s="52"/>
       <c r="D372" s="53"/>
@@ -10219,7 +10261,7 @@
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A373" s="89"/>
+      <c r="A373" s="77"/>
       <c r="B373" s="67"/>
       <c r="C373" s="52"/>
       <c r="D373" s="53"/>
@@ -10242,7 +10284,7 @@
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A374" s="89"/>
+      <c r="A374" s="77"/>
       <c r="B374" s="67"/>
       <c r="C374" s="52"/>
       <c r="D374" s="53"/>
@@ -10265,7 +10307,7 @@
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A375" s="89"/>
+      <c r="A375" s="77"/>
       <c r="B375" s="67"/>
       <c r="C375" s="52"/>
       <c r="D375" s="53"/>
@@ -10288,7 +10330,7 @@
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A376" s="90"/>
+      <c r="A376" s="78"/>
       <c r="B376" s="69"/>
       <c r="C376" s="59"/>
       <c r="D376" s="60"/>
@@ -10311,7 +10353,7 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A377" s="89"/>
+      <c r="A377" s="77"/>
       <c r="B377" s="65"/>
       <c r="C377" s="71"/>
       <c r="D377" s="72"/>
@@ -10334,7 +10376,7 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A378" s="89"/>
+      <c r="A378" s="77"/>
       <c r="B378" s="67"/>
       <c r="C378" s="52"/>
       <c r="D378" s="53"/>
@@ -10357,7 +10399,7 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A379" s="89"/>
+      <c r="A379" s="77"/>
       <c r="B379" s="67"/>
       <c r="C379" s="52"/>
       <c r="D379" s="53"/>
@@ -10380,7 +10422,7 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A380" s="89"/>
+      <c r="A380" s="77"/>
       <c r="B380" s="67"/>
       <c r="C380" s="52"/>
       <c r="D380" s="53"/>
@@ -10403,7 +10445,7 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A381" s="89"/>
+      <c r="A381" s="77"/>
       <c r="B381" s="67"/>
       <c r="C381" s="52"/>
       <c r="D381" s="53"/>
@@ -10426,7 +10468,7 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A382" s="90"/>
+      <c r="A382" s="78"/>
       <c r="B382" s="69"/>
       <c r="C382" s="59"/>
       <c r="D382" s="60"/>
@@ -10449,7 +10491,7 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A383" s="89"/>
+      <c r="A383" s="77"/>
       <c r="B383" s="65"/>
       <c r="C383" s="71"/>
       <c r="D383" s="72"/>
@@ -10472,7 +10514,7 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A384" s="89"/>
+      <c r="A384" s="77"/>
       <c r="B384" s="67"/>
       <c r="C384" s="52"/>
       <c r="D384" s="53"/>
@@ -10495,7 +10537,7 @@
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A385" s="89"/>
+      <c r="A385" s="77"/>
       <c r="B385" s="67"/>
       <c r="C385" s="52"/>
       <c r="D385" s="53"/>
@@ -10518,7 +10560,7 @@
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A386" s="89"/>
+      <c r="A386" s="77"/>
       <c r="B386" s="67"/>
       <c r="C386" s="52"/>
       <c r="D386" s="53"/>
@@ -10541,7 +10583,7 @@
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A387" s="89"/>
+      <c r="A387" s="77"/>
       <c r="B387" s="67"/>
       <c r="C387" s="52"/>
       <c r="D387" s="53"/>
@@ -10564,7 +10606,7 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A388" s="90"/>
+      <c r="A388" s="78"/>
       <c r="B388" s="69"/>
       <c r="C388" s="59"/>
       <c r="D388" s="60"/>
@@ -10587,7 +10629,7 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A389" s="89"/>
+      <c r="A389" s="77"/>
       <c r="B389" s="65"/>
       <c r="C389" s="71"/>
       <c r="D389" s="72"/>
@@ -10610,7 +10652,7 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A390" s="89"/>
+      <c r="A390" s="77"/>
       <c r="B390" s="67"/>
       <c r="C390" s="52"/>
       <c r="D390" s="53"/>
@@ -10633,7 +10675,7 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A391" s="89"/>
+      <c r="A391" s="77"/>
       <c r="B391" s="67"/>
       <c r="C391" s="52"/>
       <c r="D391" s="53"/>
@@ -10656,7 +10698,7 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A392" s="89"/>
+      <c r="A392" s="77"/>
       <c r="B392" s="67"/>
       <c r="C392" s="52"/>
       <c r="D392" s="53"/>
@@ -10679,7 +10721,7 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A393" s="89"/>
+      <c r="A393" s="77"/>
       <c r="B393" s="67"/>
       <c r="C393" s="52"/>
       <c r="D393" s="53"/>
@@ -10702,7 +10744,7 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A394" s="90"/>
+      <c r="A394" s="78"/>
       <c r="B394" s="69"/>
       <c r="C394" s="59"/>
       <c r="D394" s="60"/>
@@ -10725,7 +10767,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A395" s="89"/>
+      <c r="A395" s="77"/>
       <c r="B395" s="65"/>
       <c r="C395" s="71"/>
       <c r="D395" s="72"/>
@@ -10748,7 +10790,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A396" s="89"/>
+      <c r="A396" s="77"/>
       <c r="B396" s="67"/>
       <c r="C396" s="52"/>
       <c r="D396" s="53"/>
@@ -10771,7 +10813,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A397" s="89"/>
+      <c r="A397" s="77"/>
       <c r="B397" s="67"/>
       <c r="C397" s="52"/>
       <c r="D397" s="53"/>
@@ -10794,7 +10836,7 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A398" s="89"/>
+      <c r="A398" s="77"/>
       <c r="B398" s="67"/>
       <c r="C398" s="52"/>
       <c r="D398" s="53"/>
@@ -10817,7 +10859,7 @@
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A399" s="89"/>
+      <c r="A399" s="77"/>
       <c r="B399" s="67"/>
       <c r="C399" s="52"/>
       <c r="D399" s="53"/>
@@ -10840,7 +10882,7 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A400" s="90"/>
+      <c r="A400" s="78"/>
       <c r="B400" s="69"/>
       <c r="C400" s="59"/>
       <c r="D400" s="60"/>
@@ -10863,7 +10905,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A401" s="89"/>
+      <c r="A401" s="77"/>
       <c r="B401" s="65"/>
       <c r="C401" s="71"/>
       <c r="D401" s="72"/>
@@ -10886,7 +10928,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A402" s="89"/>
+      <c r="A402" s="77"/>
       <c r="B402" s="67"/>
       <c r="C402" s="52"/>
       <c r="D402" s="53"/>
@@ -10909,7 +10951,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A403" s="89"/>
+      <c r="A403" s="77"/>
       <c r="B403" s="67"/>
       <c r="C403" s="52"/>
       <c r="D403" s="53"/>
@@ -10932,7 +10974,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A404" s="89"/>
+      <c r="A404" s="77"/>
       <c r="B404" s="67"/>
       <c r="C404" s="52"/>
       <c r="D404" s="53"/>
@@ -10955,7 +10997,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A405" s="89"/>
+      <c r="A405" s="77"/>
       <c r="B405" s="67"/>
       <c r="C405" s="52"/>
       <c r="D405" s="53"/>
@@ -10978,7 +11020,7 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A406" s="90"/>
+      <c r="A406" s="78"/>
       <c r="B406" s="69"/>
       <c r="C406" s="59"/>
       <c r="D406" s="60"/>
@@ -11001,7 +11043,7 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A407" s="89"/>
+      <c r="A407" s="77"/>
       <c r="B407" s="65"/>
       <c r="C407" s="71"/>
       <c r="D407" s="72"/>
@@ -11024,7 +11066,7 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A408" s="89"/>
+      <c r="A408" s="77"/>
       <c r="B408" s="67"/>
       <c r="C408" s="52"/>
       <c r="D408" s="53"/>
@@ -11047,7 +11089,7 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A409" s="89"/>
+      <c r="A409" s="77"/>
       <c r="B409" s="67"/>
       <c r="C409" s="52"/>
       <c r="D409" s="53"/>
@@ -11070,7 +11112,7 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A410" s="89"/>
+      <c r="A410" s="77"/>
       <c r="B410" s="67"/>
       <c r="C410" s="52"/>
       <c r="D410" s="53"/>
@@ -11093,7 +11135,7 @@
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A411" s="89"/>
+      <c r="A411" s="77"/>
       <c r="B411" s="67"/>
       <c r="C411" s="52"/>
       <c r="D411" s="53"/>
@@ -11116,7 +11158,7 @@
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A412" s="90"/>
+      <c r="A412" s="78"/>
       <c r="B412" s="69"/>
       <c r="C412" s="59"/>
       <c r="D412" s="60"/>
@@ -11139,7 +11181,7 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A413" s="89"/>
+      <c r="A413" s="77"/>
       <c r="B413" s="65"/>
       <c r="C413" s="71"/>
       <c r="D413" s="72"/>
@@ -11162,7 +11204,7 @@
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A414" s="89"/>
+      <c r="A414" s="77"/>
       <c r="B414" s="67"/>
       <c r="C414" s="52"/>
       <c r="D414" s="53"/>
@@ -11185,7 +11227,7 @@
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A415" s="89"/>
+      <c r="A415" s="77"/>
       <c r="B415" s="67"/>
       <c r="C415" s="52"/>
       <c r="D415" s="53"/>
@@ -11208,7 +11250,7 @@
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A416" s="89"/>
+      <c r="A416" s="77"/>
       <c r="B416" s="67"/>
       <c r="C416" s="52"/>
       <c r="D416" s="53"/>
@@ -11231,7 +11273,7 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A417" s="89"/>
+      <c r="A417" s="77"/>
       <c r="B417" s="67"/>
       <c r="C417" s="52"/>
       <c r="D417" s="53"/>
@@ -11254,7 +11296,7 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A418" s="90"/>
+      <c r="A418" s="78"/>
       <c r="B418" s="69"/>
       <c r="C418" s="59"/>
       <c r="D418" s="60"/>
@@ -11277,7 +11319,7 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A419" s="89"/>
+      <c r="A419" s="77"/>
       <c r="B419" s="65"/>
       <c r="C419" s="71"/>
       <c r="D419" s="72"/>
@@ -11300,7 +11342,7 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A420" s="89"/>
+      <c r="A420" s="77"/>
       <c r="B420" s="67"/>
       <c r="C420" s="52"/>
       <c r="D420" s="53"/>
@@ -11323,7 +11365,7 @@
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A421" s="89"/>
+      <c r="A421" s="77"/>
       <c r="B421" s="67"/>
       <c r="C421" s="52"/>
       <c r="D421" s="53"/>
@@ -11346,7 +11388,7 @@
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A422" s="89"/>
+      <c r="A422" s="77"/>
       <c r="B422" s="67"/>
       <c r="C422" s="52"/>
       <c r="D422" s="53"/>
@@ -11369,7 +11411,7 @@
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A423" s="89"/>
+      <c r="A423" s="77"/>
       <c r="B423" s="67"/>
       <c r="C423" s="52"/>
       <c r="D423" s="53"/>
@@ -11392,7 +11434,7 @@
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A424" s="90"/>
+      <c r="A424" s="78"/>
       <c r="B424" s="69"/>
       <c r="C424" s="59"/>
       <c r="D424" s="60"/>
@@ -11415,7 +11457,7 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A425" s="89"/>
+      <c r="A425" s="77"/>
       <c r="B425" s="65"/>
       <c r="C425" s="71"/>
       <c r="D425" s="72"/>
@@ -11438,7 +11480,7 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A426" s="89"/>
+      <c r="A426" s="77"/>
       <c r="B426" s="67"/>
       <c r="C426" s="52"/>
       <c r="D426" s="53"/>
@@ -11461,7 +11503,7 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A427" s="89"/>
+      <c r="A427" s="77"/>
       <c r="B427" s="67"/>
       <c r="C427" s="52"/>
       <c r="D427" s="53"/>
@@ -11484,7 +11526,7 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A428" s="89"/>
+      <c r="A428" s="77"/>
       <c r="B428" s="67"/>
       <c r="C428" s="52"/>
       <c r="D428" s="53"/>
@@ -11507,7 +11549,7 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A429" s="89"/>
+      <c r="A429" s="77"/>
       <c r="B429" s="67"/>
       <c r="C429" s="52"/>
       <c r="D429" s="53"/>
@@ -11530,7 +11572,7 @@
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A430" s="90"/>
+      <c r="A430" s="78"/>
       <c r="B430" s="69"/>
       <c r="C430" s="59"/>
       <c r="D430" s="60"/>
@@ -11553,7 +11595,7 @@
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A431" s="89"/>
+      <c r="A431" s="77"/>
       <c r="B431" s="65"/>
       <c r="C431" s="71"/>
       <c r="D431" s="72"/>
@@ -11576,7 +11618,7 @@
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A432" s="89"/>
+      <c r="A432" s="77"/>
       <c r="B432" s="67"/>
       <c r="C432" s="52"/>
       <c r="D432" s="53"/>
@@ -11599,7 +11641,7 @@
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A433" s="89"/>
+      <c r="A433" s="77"/>
       <c r="B433" s="67"/>
       <c r="C433" s="52"/>
       <c r="D433" s="53"/>
@@ -11622,7 +11664,7 @@
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A434" s="89"/>
+      <c r="A434" s="77"/>
       <c r="B434" s="67"/>
       <c r="C434" s="52"/>
       <c r="D434" s="53"/>
@@ -11645,7 +11687,7 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A435" s="89"/>
+      <c r="A435" s="77"/>
       <c r="B435" s="67"/>
       <c r="C435" s="52"/>
       <c r="D435" s="53"/>
@@ -11668,7 +11710,7 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A436" s="90"/>
+      <c r="A436" s="78"/>
       <c r="B436" s="69"/>
       <c r="C436" s="59"/>
       <c r="D436" s="60"/>
@@ -11691,7 +11733,7 @@
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A437" s="89"/>
+      <c r="A437" s="77"/>
       <c r="B437" s="65"/>
       <c r="C437" s="71"/>
       <c r="D437" s="72"/>
@@ -11714,7 +11756,7 @@
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A438" s="89"/>
+      <c r="A438" s="77"/>
       <c r="B438" s="67"/>
       <c r="C438" s="52"/>
       <c r="D438" s="53"/>
@@ -11737,7 +11779,7 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A439" s="89"/>
+      <c r="A439" s="77"/>
       <c r="B439" s="67"/>
       <c r="C439" s="52"/>
       <c r="D439" s="53"/>
@@ -11760,7 +11802,7 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A440" s="89"/>
+      <c r="A440" s="77"/>
       <c r="B440" s="67"/>
       <c r="C440" s="52"/>
       <c r="D440" s="53"/>
@@ -11783,7 +11825,7 @@
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A441" s="89"/>
+      <c r="A441" s="77"/>
       <c r="B441" s="67"/>
       <c r="C441" s="52"/>
       <c r="D441" s="53"/>
@@ -11806,7 +11848,7 @@
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A442" s="90"/>
+      <c r="A442" s="78"/>
       <c r="B442" s="69"/>
       <c r="C442" s="59"/>
       <c r="D442" s="60"/>
@@ -11829,7 +11871,7 @@
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A443" s="89"/>
+      <c r="A443" s="77"/>
       <c r="B443" s="65"/>
       <c r="C443" s="71"/>
       <c r="D443" s="72"/>
@@ -11852,7 +11894,7 @@
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A444" s="89"/>
+      <c r="A444" s="77"/>
       <c r="B444" s="67"/>
       <c r="C444" s="52"/>
       <c r="D444" s="53"/>
@@ -11875,7 +11917,7 @@
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A445" s="89"/>
+      <c r="A445" s="77"/>
       <c r="B445" s="67"/>
       <c r="C445" s="52"/>
       <c r="D445" s="53"/>
@@ -11898,7 +11940,7 @@
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A446" s="89"/>
+      <c r="A446" s="77"/>
       <c r="B446" s="67"/>
       <c r="C446" s="52"/>
       <c r="D446" s="53"/>
@@ -11921,7 +11963,7 @@
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A447" s="89"/>
+      <c r="A447" s="77"/>
       <c r="B447" s="67"/>
       <c r="C447" s="52"/>
       <c r="D447" s="53"/>
@@ -11944,7 +11986,7 @@
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A448" s="90"/>
+      <c r="A448" s="78"/>
       <c r="B448" s="69"/>
       <c r="C448" s="59"/>
       <c r="D448" s="60"/>
@@ -11967,7 +12009,7 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A449" s="89"/>
+      <c r="A449" s="77"/>
       <c r="B449" s="65"/>
       <c r="C449" s="71"/>
       <c r="D449" s="72"/>
@@ -11990,7 +12032,7 @@
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A450" s="89"/>
+      <c r="A450" s="77"/>
       <c r="B450" s="67"/>
       <c r="C450" s="52"/>
       <c r="D450" s="53"/>
@@ -12013,7 +12055,7 @@
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A451" s="89"/>
+      <c r="A451" s="77"/>
       <c r="B451" s="67"/>
       <c r="C451" s="52"/>
       <c r="D451" s="53"/>
@@ -12036,7 +12078,7 @@
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A452" s="89"/>
+      <c r="A452" s="77"/>
       <c r="B452" s="67"/>
       <c r="C452" s="52"/>
       <c r="D452" s="53"/>
@@ -12059,7 +12101,7 @@
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A453" s="89"/>
+      <c r="A453" s="77"/>
       <c r="B453" s="67"/>
       <c r="C453" s="52"/>
       <c r="D453" s="53"/>
@@ -12082,7 +12124,7 @@
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A454" s="90"/>
+      <c r="A454" s="78"/>
       <c r="B454" s="69"/>
       <c r="C454" s="59"/>
       <c r="D454" s="60"/>
@@ -12105,7 +12147,7 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A455" s="89"/>
+      <c r="A455" s="77"/>
       <c r="B455" s="65"/>
       <c r="C455" s="71"/>
       <c r="D455" s="72"/>
@@ -12128,7 +12170,7 @@
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A456" s="89"/>
+      <c r="A456" s="77"/>
       <c r="B456" s="67"/>
       <c r="C456" s="52"/>
       <c r="D456" s="53"/>
@@ -12151,7 +12193,7 @@
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A457" s="89"/>
+      <c r="A457" s="77"/>
       <c r="B457" s="67"/>
       <c r="C457" s="52"/>
       <c r="D457" s="53"/>
@@ -12174,7 +12216,7 @@
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A458" s="89"/>
+      <c r="A458" s="77"/>
       <c r="B458" s="67"/>
       <c r="C458" s="52"/>
       <c r="D458" s="53"/>
@@ -12197,7 +12239,7 @@
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A459" s="89"/>
+      <c r="A459" s="77"/>
       <c r="B459" s="67"/>
       <c r="C459" s="52"/>
       <c r="D459" s="53"/>
@@ -12220,7 +12262,7 @@
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A460" s="90"/>
+      <c r="A460" s="78"/>
       <c r="B460" s="69"/>
       <c r="C460" s="59"/>
       <c r="D460" s="60"/>
@@ -12243,7 +12285,7 @@
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A461" s="89"/>
+      <c r="A461" s="77"/>
       <c r="B461" s="65"/>
       <c r="C461" s="71"/>
       <c r="D461" s="72"/>
@@ -12266,7 +12308,7 @@
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A462" s="89"/>
+      <c r="A462" s="77"/>
       <c r="B462" s="67"/>
       <c r="C462" s="52"/>
       <c r="D462" s="53"/>
@@ -12289,7 +12331,7 @@
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A463" s="89"/>
+      <c r="A463" s="77"/>
       <c r="B463" s="67"/>
       <c r="C463" s="52"/>
       <c r="D463" s="53"/>
@@ -12312,7 +12354,7 @@
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A464" s="89"/>
+      <c r="A464" s="77"/>
       <c r="B464" s="67"/>
       <c r="C464" s="52"/>
       <c r="D464" s="53"/>
@@ -12335,7 +12377,7 @@
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A465" s="89"/>
+      <c r="A465" s="77"/>
       <c r="B465" s="67"/>
       <c r="C465" s="52"/>
       <c r="D465" s="53"/>
@@ -12358,7 +12400,7 @@
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A466" s="90"/>
+      <c r="A466" s="78"/>
       <c r="B466" s="69"/>
       <c r="C466" s="59"/>
       <c r="D466" s="60"/>
@@ -12381,7 +12423,7 @@
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A467" s="89"/>
+      <c r="A467" s="77"/>
       <c r="B467" s="65"/>
       <c r="C467" s="71"/>
       <c r="D467" s="72"/>
@@ -12404,7 +12446,7 @@
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A468" s="89"/>
+      <c r="A468" s="77"/>
       <c r="B468" s="67"/>
       <c r="C468" s="52"/>
       <c r="D468" s="53"/>
@@ -12427,7 +12469,7 @@
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A469" s="89"/>
+      <c r="A469" s="77"/>
       <c r="B469" s="67"/>
       <c r="C469" s="52"/>
       <c r="D469" s="53"/>
@@ -12450,7 +12492,7 @@
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A470" s="89"/>
+      <c r="A470" s="77"/>
       <c r="B470" s="67"/>
       <c r="C470" s="52"/>
       <c r="D470" s="53"/>
@@ -12473,7 +12515,7 @@
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A471" s="89"/>
+      <c r="A471" s="77"/>
       <c r="B471" s="67"/>
       <c r="C471" s="52"/>
       <c r="D471" s="53"/>
@@ -12496,7 +12538,7 @@
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A472" s="90"/>
+      <c r="A472" s="78"/>
       <c r="B472" s="69"/>
       <c r="C472" s="59"/>
       <c r="D472" s="60"/>
@@ -12519,7 +12561,7 @@
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A473" s="89"/>
+      <c r="A473" s="77"/>
       <c r="B473" s="65"/>
       <c r="C473" s="71"/>
       <c r="D473" s="72"/>
@@ -12542,7 +12584,7 @@
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A474" s="89"/>
+      <c r="A474" s="77"/>
       <c r="B474" s="67"/>
       <c r="C474" s="52"/>
       <c r="D474" s="53"/>
@@ -12565,7 +12607,7 @@
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A475" s="89"/>
+      <c r="A475" s="77"/>
       <c r="B475" s="67"/>
       <c r="C475" s="52"/>
       <c r="D475" s="53"/>
@@ -12588,7 +12630,7 @@
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A476" s="89"/>
+      <c r="A476" s="77"/>
       <c r="B476" s="67"/>
       <c r="C476" s="52"/>
       <c r="D476" s="53"/>
@@ -12611,7 +12653,7 @@
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A477" s="89"/>
+      <c r="A477" s="77"/>
       <c r="B477" s="67"/>
       <c r="C477" s="52"/>
       <c r="D477" s="53"/>
@@ -12634,7 +12676,7 @@
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A478" s="90"/>
+      <c r="A478" s="78"/>
       <c r="B478" s="69"/>
       <c r="C478" s="59"/>
       <c r="D478" s="60"/>
@@ -12657,7 +12699,7 @@
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A479" s="89"/>
+      <c r="A479" s="77"/>
       <c r="B479" s="65"/>
       <c r="C479" s="71"/>
       <c r="D479" s="72"/>
@@ -12680,7 +12722,7 @@
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A480" s="89"/>
+      <c r="A480" s="77"/>
       <c r="B480" s="67"/>
       <c r="C480" s="52"/>
       <c r="D480" s="53"/>
@@ -12703,7 +12745,7 @@
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A481" s="89"/>
+      <c r="A481" s="77"/>
       <c r="B481" s="67"/>
       <c r="C481" s="52"/>
       <c r="D481" s="53"/>
@@ -12726,7 +12768,7 @@
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A482" s="89"/>
+      <c r="A482" s="77"/>
       <c r="B482" s="67"/>
       <c r="C482" s="52"/>
       <c r="D482" s="53"/>
@@ -12749,7 +12791,7 @@
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A483" s="89"/>
+      <c r="A483" s="77"/>
       <c r="B483" s="67"/>
       <c r="C483" s="52"/>
       <c r="D483" s="53"/>
@@ -12772,7 +12814,7 @@
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A484" s="90"/>
+      <c r="A484" s="78"/>
       <c r="B484" s="69"/>
       <c r="C484" s="59"/>
       <c r="D484" s="60"/>
@@ -12795,7 +12837,7 @@
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A485" s="89"/>
+      <c r="A485" s="77"/>
       <c r="B485" s="65"/>
       <c r="C485" s="71"/>
       <c r="D485" s="72"/>
@@ -12818,7 +12860,7 @@
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A486" s="89"/>
+      <c r="A486" s="77"/>
       <c r="B486" s="67"/>
       <c r="C486" s="52"/>
       <c r="D486" s="53"/>
@@ -12841,7 +12883,7 @@
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A487" s="89"/>
+      <c r="A487" s="77"/>
       <c r="B487" s="67"/>
       <c r="C487" s="52"/>
       <c r="D487" s="53"/>
@@ -12864,7 +12906,7 @@
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A488" s="89"/>
+      <c r="A488" s="77"/>
       <c r="B488" s="67"/>
       <c r="C488" s="52"/>
       <c r="D488" s="53"/>
@@ -12887,7 +12929,7 @@
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A489" s="89"/>
+      <c r="A489" s="77"/>
       <c r="B489" s="67"/>
       <c r="C489" s="52"/>
       <c r="D489" s="53"/>
@@ -12910,7 +12952,7 @@
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A490" s="90"/>
+      <c r="A490" s="78"/>
       <c r="B490" s="69"/>
       <c r="C490" s="59"/>
       <c r="D490" s="60"/>
@@ -12933,7 +12975,7 @@
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A491" s="89"/>
+      <c r="A491" s="77"/>
       <c r="B491" s="65"/>
       <c r="C491" s="71"/>
       <c r="D491" s="72"/>
@@ -12956,7 +12998,7 @@
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A492" s="89"/>
+      <c r="A492" s="77"/>
       <c r="B492" s="67"/>
       <c r="C492" s="52"/>
       <c r="D492" s="53"/>
@@ -12979,7 +13021,7 @@
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A493" s="89"/>
+      <c r="A493" s="77"/>
       <c r="B493" s="67"/>
       <c r="C493" s="52"/>
       <c r="D493" s="53"/>
@@ -13002,7 +13044,7 @@
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A494" s="89"/>
+      <c r="A494" s="77"/>
       <c r="B494" s="67"/>
       <c r="C494" s="52"/>
       <c r="D494" s="53"/>
@@ -13025,7 +13067,7 @@
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A495" s="89"/>
+      <c r="A495" s="77"/>
       <c r="B495" s="67"/>
       <c r="C495" s="52"/>
       <c r="D495" s="53"/>
@@ -13048,7 +13090,7 @@
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A496" s="90"/>
+      <c r="A496" s="78"/>
       <c r="B496" s="69"/>
       <c r="C496" s="59"/>
       <c r="D496" s="60"/>
@@ -13071,7 +13113,7 @@
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A497" s="89"/>
+      <c r="A497" s="77"/>
       <c r="B497" s="65"/>
       <c r="C497" s="71"/>
       <c r="D497" s="72"/>
@@ -13094,7 +13136,7 @@
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A498" s="89"/>
+      <c r="A498" s="77"/>
       <c r="B498" s="67"/>
       <c r="C498" s="52"/>
       <c r="D498" s="53"/>
@@ -13117,7 +13159,7 @@
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A499" s="89"/>
+      <c r="A499" s="77"/>
       <c r="B499" s="67"/>
       <c r="C499" s="52"/>
       <c r="D499" s="53"/>
@@ -13140,7 +13182,7 @@
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A500" s="89"/>
+      <c r="A500" s="77"/>
       <c r="B500" s="67"/>
       <c r="C500" s="52"/>
       <c r="D500" s="53"/>
@@ -13163,7 +13205,7 @@
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A501" s="89"/>
+      <c r="A501" s="77"/>
       <c r="B501" s="67"/>
       <c r="C501" s="52"/>
       <c r="D501" s="53"/>
@@ -13186,7 +13228,7 @@
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A502" s="90"/>
+      <c r="A502" s="78"/>
       <c r="B502" s="69"/>
       <c r="C502" s="59"/>
       <c r="D502" s="60"/>
@@ -13209,7 +13251,7 @@
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A503" s="89"/>
+      <c r="A503" s="77"/>
       <c r="B503" s="65"/>
       <c r="C503" s="71"/>
       <c r="D503" s="72"/>
@@ -13232,7 +13274,7 @@
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A504" s="89"/>
+      <c r="A504" s="77"/>
       <c r="B504" s="67"/>
       <c r="C504" s="52"/>
       <c r="D504" s="53"/>
@@ -13255,7 +13297,7 @@
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A505" s="89"/>
+      <c r="A505" s="77"/>
       <c r="B505" s="67"/>
       <c r="C505" s="52"/>
       <c r="D505" s="53"/>
@@ -13278,7 +13320,7 @@
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A506" s="89"/>
+      <c r="A506" s="77"/>
       <c r="B506" s="67"/>
       <c r="C506" s="52"/>
       <c r="D506" s="53"/>
@@ -13301,7 +13343,7 @@
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A507" s="89"/>
+      <c r="A507" s="77"/>
       <c r="B507" s="67"/>
       <c r="C507" s="52"/>
       <c r="D507" s="53"/>
@@ -13324,7 +13366,7 @@
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A508" s="90"/>
+      <c r="A508" s="78"/>
       <c r="B508" s="69"/>
       <c r="C508" s="59"/>
       <c r="D508" s="60"/>
@@ -13347,7 +13389,7 @@
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A509" s="89"/>
+      <c r="A509" s="77"/>
       <c r="B509" s="65"/>
       <c r="C509" s="71"/>
       <c r="D509" s="72"/>
@@ -13370,7 +13412,7 @@
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A510" s="89"/>
+      <c r="A510" s="77"/>
       <c r="B510" s="67"/>
       <c r="C510" s="52"/>
       <c r="D510" s="53"/>
@@ -13393,7 +13435,7 @@
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A511" s="89"/>
+      <c r="A511" s="77"/>
       <c r="B511" s="67"/>
       <c r="C511" s="52"/>
       <c r="D511" s="53"/>
@@ -13416,7 +13458,7 @@
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A512" s="89"/>
+      <c r="A512" s="77"/>
       <c r="B512" s="67"/>
       <c r="C512" s="52"/>
       <c r="D512" s="53"/>
@@ -13439,7 +13481,7 @@
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A513" s="89"/>
+      <c r="A513" s="77"/>
       <c r="B513" s="67"/>
       <c r="C513" s="52"/>
       <c r="D513" s="53"/>
@@ -13462,7 +13504,7 @@
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A514" s="90"/>
+      <c r="A514" s="78"/>
       <c r="B514" s="69"/>
       <c r="C514" s="59"/>
       <c r="D514" s="60"/>
@@ -13485,7 +13527,7 @@
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A515" s="89"/>
+      <c r="A515" s="77"/>
       <c r="B515" s="65"/>
       <c r="C515" s="71"/>
       <c r="D515" s="72"/>
@@ -13508,7 +13550,7 @@
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A516" s="89"/>
+      <c r="A516" s="77"/>
       <c r="B516" s="67"/>
       <c r="C516" s="52"/>
       <c r="D516" s="53"/>
@@ -13531,7 +13573,7 @@
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A517" s="89"/>
+      <c r="A517" s="77"/>
       <c r="B517" s="67"/>
       <c r="C517" s="52"/>
       <c r="D517" s="53"/>
@@ -13554,7 +13596,7 @@
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A518" s="89"/>
+      <c r="A518" s="77"/>
       <c r="B518" s="67"/>
       <c r="C518" s="52"/>
       <c r="D518" s="53"/>
@@ -13577,7 +13619,7 @@
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A519" s="89"/>
+      <c r="A519" s="77"/>
       <c r="B519" s="67"/>
       <c r="C519" s="52"/>
       <c r="D519" s="53"/>
@@ -13600,7 +13642,7 @@
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A520" s="90"/>
+      <c r="A520" s="78"/>
       <c r="B520" s="69"/>
       <c r="C520" s="59"/>
       <c r="D520" s="60"/>
@@ -13623,7 +13665,7 @@
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A521" s="89"/>
+      <c r="A521" s="77"/>
       <c r="B521" s="65"/>
       <c r="C521" s="71"/>
       <c r="D521" s="72"/>
@@ -13646,7 +13688,7 @@
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A522" s="89"/>
+      <c r="A522" s="77"/>
       <c r="B522" s="67"/>
       <c r="C522" s="52"/>
       <c r="D522" s="53"/>
@@ -13669,7 +13711,7 @@
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A523" s="89"/>
+      <c r="A523" s="77"/>
       <c r="B523" s="67"/>
       <c r="C523" s="52"/>
       <c r="D523" s="53"/>
@@ -13692,7 +13734,7 @@
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A524" s="89"/>
+      <c r="A524" s="77"/>
       <c r="B524" s="67"/>
       <c r="C524" s="52"/>
       <c r="D524" s="53"/>
@@ -13715,7 +13757,7 @@
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A525" s="89"/>
+      <c r="A525" s="77"/>
       <c r="B525" s="67"/>
       <c r="C525" s="52"/>
       <c r="D525" s="53"/>
@@ -13738,7 +13780,7 @@
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A526" s="90"/>
+      <c r="A526" s="78"/>
       <c r="B526" s="69"/>
       <c r="C526" s="59"/>
       <c r="D526" s="60"/>
@@ -13761,7 +13803,7 @@
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A527" s="89"/>
+      <c r="A527" s="77"/>
       <c r="B527" s="65"/>
       <c r="C527" s="71"/>
       <c r="D527" s="72"/>
@@ -13784,7 +13826,7 @@
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A528" s="89"/>
+      <c r="A528" s="77"/>
       <c r="B528" s="67"/>
       <c r="C528" s="52"/>
       <c r="D528" s="53"/>
@@ -13807,7 +13849,7 @@
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A529" s="89"/>
+      <c r="A529" s="77"/>
       <c r="B529" s="67"/>
       <c r="C529" s="52"/>
       <c r="D529" s="53"/>
@@ -13830,7 +13872,7 @@
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A530" s="89"/>
+      <c r="A530" s="77"/>
       <c r="B530" s="67"/>
       <c r="C530" s="52"/>
       <c r="D530" s="53"/>
@@ -13853,7 +13895,7 @@
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A531" s="89"/>
+      <c r="A531" s="77"/>
       <c r="B531" s="67"/>
       <c r="C531" s="52"/>
       <c r="D531" s="53"/>
@@ -13876,7 +13918,7 @@
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A532" s="90"/>
+      <c r="A532" s="78"/>
       <c r="B532" s="69"/>
       <c r="C532" s="59"/>
       <c r="D532" s="60"/>
@@ -13899,7 +13941,7 @@
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A533" s="89"/>
+      <c r="A533" s="77"/>
       <c r="B533" s="65"/>
       <c r="C533" s="71"/>
       <c r="D533" s="72"/>
@@ -13922,7 +13964,7 @@
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A534" s="89"/>
+      <c r="A534" s="77"/>
       <c r="B534" s="67"/>
       <c r="C534" s="52"/>
       <c r="D534" s="53"/>
@@ -13945,7 +13987,7 @@
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A535" s="89"/>
+      <c r="A535" s="77"/>
       <c r="B535" s="67"/>
       <c r="C535" s="52"/>
       <c r="D535" s="53"/>
@@ -13968,7 +14010,7 @@
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A536" s="89"/>
+      <c r="A536" s="77"/>
       <c r="B536" s="67"/>
       <c r="C536" s="52"/>
       <c r="D536" s="53"/>
@@ -13991,7 +14033,7 @@
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A537" s="89"/>
+      <c r="A537" s="77"/>
       <c r="B537" s="67"/>
       <c r="C537" s="52"/>
       <c r="D537" s="53"/>
@@ -14014,7 +14056,7 @@
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A538" s="90"/>
+      <c r="A538" s="78"/>
       <c r="B538" s="69"/>
       <c r="C538" s="59"/>
       <c r="D538" s="60"/>
@@ -14037,7 +14079,7 @@
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A539" s="89"/>
+      <c r="A539" s="77"/>
       <c r="B539" s="65"/>
       <c r="C539" s="71"/>
       <c r="D539" s="72"/>
@@ -14060,7 +14102,7 @@
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A540" s="89"/>
+      <c r="A540" s="77"/>
       <c r="B540" s="67"/>
       <c r="C540" s="52"/>
       <c r="D540" s="53"/>
@@ -14083,7 +14125,7 @@
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A541" s="89"/>
+      <c r="A541" s="77"/>
       <c r="B541" s="67"/>
       <c r="C541" s="52"/>
       <c r="D541" s="53"/>
@@ -14106,7 +14148,7 @@
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A542" s="89"/>
+      <c r="A542" s="77"/>
       <c r="B542" s="67"/>
       <c r="C542" s="52"/>
       <c r="D542" s="53"/>
@@ -14129,7 +14171,7 @@
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A543" s="89"/>
+      <c r="A543" s="77"/>
       <c r="B543" s="67"/>
       <c r="C543" s="52"/>
       <c r="D543" s="53"/>
@@ -14152,7 +14194,7 @@
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A544" s="90"/>
+      <c r="A544" s="78"/>
       <c r="B544" s="69"/>
       <c r="C544" s="59"/>
       <c r="D544" s="60"/>
@@ -14175,7 +14217,7 @@
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A545" s="89"/>
+      <c r="A545" s="77"/>
       <c r="B545" s="65"/>
       <c r="C545" s="71"/>
       <c r="D545" s="72"/>
@@ -14198,7 +14240,7 @@
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A546" s="89"/>
+      <c r="A546" s="77"/>
       <c r="B546" s="67"/>
       <c r="C546" s="52"/>
       <c r="D546" s="53"/>
@@ -14221,7 +14263,7 @@
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A547" s="89"/>
+      <c r="A547" s="77"/>
       <c r="B547" s="67"/>
       <c r="C547" s="52"/>
       <c r="D547" s="53"/>
@@ -14244,7 +14286,7 @@
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A548" s="89"/>
+      <c r="A548" s="77"/>
       <c r="B548" s="67"/>
       <c r="C548" s="52"/>
       <c r="D548" s="53"/>
@@ -14267,7 +14309,7 @@
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A549" s="89"/>
+      <c r="A549" s="77"/>
       <c r="B549" s="67"/>
       <c r="C549" s="52"/>
       <c r="D549" s="53"/>
@@ -14290,7 +14332,7 @@
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A550" s="90"/>
+      <c r="A550" s="78"/>
       <c r="B550" s="69"/>
       <c r="C550" s="59"/>
       <c r="D550" s="60"/>
@@ -14313,7 +14355,7 @@
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A551" s="89"/>
+      <c r="A551" s="77"/>
       <c r="B551" s="65"/>
       <c r="C551" s="71"/>
       <c r="D551" s="72"/>
@@ -14336,7 +14378,7 @@
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A552" s="89"/>
+      <c r="A552" s="77"/>
       <c r="B552" s="67"/>
       <c r="C552" s="52"/>
       <c r="D552" s="53"/>
@@ -14359,7 +14401,7 @@
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A553" s="89"/>
+      <c r="A553" s="77"/>
       <c r="B553" s="67"/>
       <c r="C553" s="52"/>
       <c r="D553" s="53"/>
@@ -14382,7 +14424,7 @@
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A554" s="89"/>
+      <c r="A554" s="77"/>
       <c r="B554" s="67"/>
       <c r="C554" s="52"/>
       <c r="D554" s="53"/>
@@ -14405,7 +14447,7 @@
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A555" s="89"/>
+      <c r="A555" s="77"/>
       <c r="B555" s="67"/>
       <c r="C555" s="52"/>
       <c r="D555" s="53"/>
@@ -14428,7 +14470,7 @@
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A556" s="90"/>
+      <c r="A556" s="78"/>
       <c r="B556" s="69"/>
       <c r="C556" s="59"/>
       <c r="D556" s="60"/>
@@ -14451,7 +14493,7 @@
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A557" s="89"/>
+      <c r="A557" s="77"/>
       <c r="B557" s="65"/>
       <c r="C557" s="71"/>
       <c r="D557" s="72"/>
@@ -14474,7 +14516,7 @@
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A558" s="89"/>
+      <c r="A558" s="77"/>
       <c r="B558" s="67"/>
       <c r="C558" s="52"/>
       <c r="D558" s="53"/>
@@ -14497,7 +14539,7 @@
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A559" s="89"/>
+      <c r="A559" s="77"/>
       <c r="B559" s="67"/>
       <c r="C559" s="52"/>
       <c r="D559" s="53"/>
@@ -14520,7 +14562,7 @@
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A560" s="89"/>
+      <c r="A560" s="77"/>
       <c r="B560" s="67"/>
       <c r="C560" s="52"/>
       <c r="D560" s="53"/>
@@ -14543,7 +14585,7 @@
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A561" s="89"/>
+      <c r="A561" s="77"/>
       <c r="B561" s="67"/>
       <c r="C561" s="52"/>
       <c r="D561" s="53"/>
@@ -14566,7 +14608,7 @@
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A562" s="90"/>
+      <c r="A562" s="78"/>
       <c r="B562" s="69"/>
       <c r="C562" s="59"/>
       <c r="D562" s="60"/>
@@ -14589,7 +14631,7 @@
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A563" s="89"/>
+      <c r="A563" s="77"/>
       <c r="B563" s="65"/>
       <c r="C563" s="71"/>
       <c r="D563" s="72"/>
@@ -14612,7 +14654,7 @@
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A564" s="89"/>
+      <c r="A564" s="77"/>
       <c r="B564" s="67"/>
       <c r="C564" s="52"/>
       <c r="D564" s="53"/>
@@ -14635,7 +14677,7 @@
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A565" s="89"/>
+      <c r="A565" s="77"/>
       <c r="B565" s="67"/>
       <c r="C565" s="52"/>
       <c r="D565" s="53"/>
@@ -14658,7 +14700,7 @@
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A566" s="89"/>
+      <c r="A566" s="77"/>
       <c r="B566" s="67"/>
       <c r="C566" s="52"/>
       <c r="D566" s="53"/>
@@ -14681,7 +14723,7 @@
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A567" s="89"/>
+      <c r="A567" s="77"/>
       <c r="B567" s="67"/>
       <c r="C567" s="52"/>
       <c r="D567" s="53"/>
@@ -14704,7 +14746,7 @@
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A568" s="90"/>
+      <c r="A568" s="78"/>
       <c r="B568" s="69"/>
       <c r="C568" s="59"/>
       <c r="D568" s="60"/>
@@ -14727,7 +14769,7 @@
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A569" s="89"/>
+      <c r="A569" s="77"/>
       <c r="B569" s="65"/>
       <c r="C569" s="71"/>
       <c r="D569" s="72"/>
@@ -14750,7 +14792,7 @@
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A570" s="89"/>
+      <c r="A570" s="77"/>
       <c r="B570" s="67"/>
       <c r="C570" s="52"/>
       <c r="D570" s="53"/>
@@ -14773,7 +14815,7 @@
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A571" s="89"/>
+      <c r="A571" s="77"/>
       <c r="B571" s="67"/>
       <c r="C571" s="52"/>
       <c r="D571" s="53"/>
@@ -14796,7 +14838,7 @@
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A572" s="89"/>
+      <c r="A572" s="77"/>
       <c r="B572" s="67"/>
       <c r="C572" s="52"/>
       <c r="D572" s="53"/>
@@ -14819,7 +14861,7 @@
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A573" s="89"/>
+      <c r="A573" s="77"/>
       <c r="B573" s="67"/>
       <c r="C573" s="52"/>
       <c r="D573" s="53"/>
@@ -14842,7 +14884,7 @@
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A574" s="90"/>
+      <c r="A574" s="78"/>
       <c r="B574" s="69"/>
       <c r="C574" s="59"/>
       <c r="D574" s="60"/>
@@ -14865,7 +14907,7 @@
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A575" s="89"/>
+      <c r="A575" s="77"/>
       <c r="B575" s="65"/>
       <c r="C575" s="71"/>
       <c r="D575" s="72"/>
@@ -14888,7 +14930,7 @@
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A576" s="89"/>
+      <c r="A576" s="77"/>
       <c r="B576" s="67"/>
       <c r="C576" s="52"/>
       <c r="D576" s="53"/>
@@ -14911,7 +14953,7 @@
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A577" s="89"/>
+      <c r="A577" s="77"/>
       <c r="B577" s="67"/>
       <c r="C577" s="52"/>
       <c r="D577" s="53"/>
@@ -14934,7 +14976,7 @@
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A578" s="89"/>
+      <c r="A578" s="77"/>
       <c r="B578" s="67"/>
       <c r="C578" s="52"/>
       <c r="D578" s="53"/>
@@ -14957,7 +14999,7 @@
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A579" s="89"/>
+      <c r="A579" s="77"/>
       <c r="B579" s="67"/>
       <c r="C579" s="52"/>
       <c r="D579" s="53"/>
@@ -14980,7 +15022,7 @@
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A580" s="90"/>
+      <c r="A580" s="78"/>
       <c r="B580" s="69"/>
       <c r="C580" s="59"/>
       <c r="D580" s="60"/>
@@ -15003,7 +15045,7 @@
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A581" s="89"/>
+      <c r="A581" s="77"/>
       <c r="B581" s="65"/>
       <c r="C581" s="71"/>
       <c r="D581" s="72"/>
@@ -15026,7 +15068,7 @@
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A582" s="89"/>
+      <c r="A582" s="77"/>
       <c r="B582" s="67"/>
       <c r="C582" s="52"/>
       <c r="D582" s="53"/>
@@ -15049,7 +15091,7 @@
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A583" s="89"/>
+      <c r="A583" s="77"/>
       <c r="B583" s="67"/>
       <c r="C583" s="52"/>
       <c r="D583" s="53"/>
@@ -15072,7 +15114,7 @@
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A584" s="89"/>
+      <c r="A584" s="77"/>
       <c r="B584" s="67"/>
       <c r="C584" s="52"/>
       <c r="D584" s="53"/>
@@ -15095,7 +15137,7 @@
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A585" s="89"/>
+      <c r="A585" s="77"/>
       <c r="B585" s="67"/>
       <c r="C585" s="52"/>
       <c r="D585" s="53"/>
@@ -15118,7 +15160,7 @@
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A586" s="90"/>
+      <c r="A586" s="78"/>
       <c r="B586" s="69"/>
       <c r="C586" s="59"/>
       <c r="D586" s="60"/>
@@ -15141,7 +15183,7 @@
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A587" s="89"/>
+      <c r="A587" s="77"/>
       <c r="B587" s="65"/>
       <c r="C587" s="71"/>
       <c r="D587" s="72"/>
@@ -15164,7 +15206,7 @@
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A588" s="89"/>
+      <c r="A588" s="77"/>
       <c r="B588" s="67"/>
       <c r="C588" s="52"/>
       <c r="D588" s="53"/>
@@ -15187,7 +15229,7 @@
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A589" s="89"/>
+      <c r="A589" s="77"/>
       <c r="B589" s="67"/>
       <c r="C589" s="52"/>
       <c r="D589" s="53"/>
@@ -15210,7 +15252,7 @@
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A590" s="89"/>
+      <c r="A590" s="77"/>
       <c r="B590" s="67"/>
       <c r="C590" s="52"/>
       <c r="D590" s="53"/>
@@ -15233,7 +15275,7 @@
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A591" s="89"/>
+      <c r="A591" s="77"/>
       <c r="B591" s="67"/>
       <c r="C591" s="52"/>
       <c r="D591" s="53"/>
@@ -15256,7 +15298,7 @@
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A592" s="90"/>
+      <c r="A592" s="78"/>
       <c r="B592" s="69"/>
       <c r="C592" s="59"/>
       <c r="D592" s="60"/>
@@ -15279,7 +15321,7 @@
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A593" s="89"/>
+      <c r="A593" s="77"/>
       <c r="B593" s="65"/>
       <c r="C593" s="71"/>
       <c r="D593" s="72"/>
@@ -15302,7 +15344,7 @@
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A594" s="89"/>
+      <c r="A594" s="77"/>
       <c r="B594" s="67"/>
       <c r="C594" s="52"/>
       <c r="D594" s="53"/>
@@ -15325,7 +15367,7 @@
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A595" s="89"/>
+      <c r="A595" s="77"/>
       <c r="B595" s="67"/>
       <c r="C595" s="52"/>
       <c r="D595" s="53"/>
@@ -15348,7 +15390,7 @@
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A596" s="89"/>
+      <c r="A596" s="77"/>
       <c r="B596" s="67"/>
       <c r="C596" s="52"/>
       <c r="D596" s="53"/>
@@ -15371,7 +15413,7 @@
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A597" s="89"/>
+      <c r="A597" s="77"/>
       <c r="B597" s="67"/>
       <c r="C597" s="52"/>
       <c r="D597" s="53"/>
@@ -15394,7 +15436,7 @@
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A598" s="90"/>
+      <c r="A598" s="78"/>
       <c r="B598" s="69"/>
       <c r="C598" s="59"/>
       <c r="D598" s="60"/>
@@ -15419,6 +15461,91 @@
   </sheetData>
   <sheetProtection password="C66B" sheet="1" objects="1"/>
   <mergeCells count="109">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="A131:A136"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="A191:A196"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="A209:A214"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A239:A244"/>
+    <mergeCell ref="A245:A250"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="A257:A262"/>
+    <mergeCell ref="A263:A268"/>
+    <mergeCell ref="A269:A274"/>
+    <mergeCell ref="A275:A280"/>
+    <mergeCell ref="A281:A286"/>
+    <mergeCell ref="A287:A292"/>
+    <mergeCell ref="A293:A298"/>
+    <mergeCell ref="A299:A304"/>
+    <mergeCell ref="A305:A310"/>
+    <mergeCell ref="A311:A316"/>
+    <mergeCell ref="A317:A322"/>
+    <mergeCell ref="A323:A328"/>
+    <mergeCell ref="A329:A334"/>
+    <mergeCell ref="A335:A340"/>
+    <mergeCell ref="A341:A346"/>
+    <mergeCell ref="A347:A352"/>
+    <mergeCell ref="A353:A358"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="A365:A370"/>
+    <mergeCell ref="A371:A376"/>
+    <mergeCell ref="A377:A382"/>
+    <mergeCell ref="A383:A388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="A395:A400"/>
+    <mergeCell ref="A401:A406"/>
+    <mergeCell ref="A407:A412"/>
+    <mergeCell ref="A503:A508"/>
+    <mergeCell ref="A509:A514"/>
+    <mergeCell ref="A515:A520"/>
+    <mergeCell ref="A413:A418"/>
+    <mergeCell ref="A419:A424"/>
+    <mergeCell ref="A425:A430"/>
+    <mergeCell ref="A431:A436"/>
+    <mergeCell ref="A437:A442"/>
+    <mergeCell ref="A443:A448"/>
+    <mergeCell ref="A449:A454"/>
+    <mergeCell ref="A455:A460"/>
+    <mergeCell ref="A461:A466"/>
     <mergeCell ref="A575:A580"/>
     <mergeCell ref="A581:A586"/>
     <mergeCell ref="A587:A592"/>
@@ -15443,91 +15570,6 @@
     <mergeCell ref="A485:A490"/>
     <mergeCell ref="A491:A496"/>
     <mergeCell ref="A497:A502"/>
-    <mergeCell ref="A503:A508"/>
-    <mergeCell ref="A509:A514"/>
-    <mergeCell ref="A515:A520"/>
-    <mergeCell ref="A413:A418"/>
-    <mergeCell ref="A419:A424"/>
-    <mergeCell ref="A425:A430"/>
-    <mergeCell ref="A431:A436"/>
-    <mergeCell ref="A437:A442"/>
-    <mergeCell ref="A443:A448"/>
-    <mergeCell ref="A449:A454"/>
-    <mergeCell ref="A455:A460"/>
-    <mergeCell ref="A461:A466"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="A365:A370"/>
-    <mergeCell ref="A371:A376"/>
-    <mergeCell ref="A377:A382"/>
-    <mergeCell ref="A383:A388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="A395:A400"/>
-    <mergeCell ref="A401:A406"/>
-    <mergeCell ref="A407:A412"/>
-    <mergeCell ref="A305:A310"/>
-    <mergeCell ref="A311:A316"/>
-    <mergeCell ref="A317:A322"/>
-    <mergeCell ref="A323:A328"/>
-    <mergeCell ref="A329:A334"/>
-    <mergeCell ref="A335:A340"/>
-    <mergeCell ref="A341:A346"/>
-    <mergeCell ref="A347:A352"/>
-    <mergeCell ref="A353:A358"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="A257:A262"/>
-    <mergeCell ref="A263:A268"/>
-    <mergeCell ref="A269:A274"/>
-    <mergeCell ref="A275:A280"/>
-    <mergeCell ref="A281:A286"/>
-    <mergeCell ref="A287:A292"/>
-    <mergeCell ref="A293:A298"/>
-    <mergeCell ref="A299:A304"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="A209:A214"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A239:A244"/>
-    <mergeCell ref="A245:A250"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="A191:A196"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -15540,7 +15582,7 @@
   <dimension ref="A1:O293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15550,8 +15592,8 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="25.25" style="29" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="15" style="13" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15" style="29" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="112" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="29" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
@@ -15575,10 +15617,10 @@
       <c r="E1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="110" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -15607,7 +15649,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="108">
+      <c r="A2" s="103">
         <v>17</v>
       </c>
       <c r="B2" s="32">
@@ -15654,7 +15696,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="103"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="32">
         <v>43217</v>
       </c>
@@ -15667,10 +15709,10 @@
       <c r="E3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="111">
         <v>76133752</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -15699,7 +15741,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="32">
         <v>43217</v>
       </c>
@@ -15712,10 +15754,10 @@
       <c r="E4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="111">
         <v>76156911</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -15744,7 +15786,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="32">
         <v>43217</v>
       </c>
@@ -15757,10 +15799,10 @@
       <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="111">
         <v>76157133</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -15789,7 +15831,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="103"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="32">
         <v>43217</v>
       </c>
@@ -15802,10 +15844,10 @@
       <c r="E6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="111">
         <v>76133002</v>
       </c>
       <c r="H6" s="20" t="s">
@@ -15834,7 +15876,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="32">
         <v>43217</v>
       </c>
@@ -15847,10 +15889,10 @@
       <c r="E7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="111">
         <v>76152937</v>
       </c>
       <c r="H7" s="20" t="s">
@@ -15879,7 +15921,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="103">
+      <c r="A8" s="104">
         <v>22</v>
       </c>
       <c r="B8" s="36">
@@ -15894,10 +15936,10 @@
       <c r="E8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="111">
         <v>76152939</v>
       </c>
       <c r="H8" s="20" t="s">
@@ -15926,7 +15968,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="103"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="36">
         <v>43244</v>
       </c>
@@ -15939,10 +15981,10 @@
       <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="111">
         <v>76138830</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -15984,10 +16026,10 @@
       <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="111">
         <v>76132999</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -16016,38 +16058,94 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="36">
+        <v>43250</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="111">
+        <v>76133012</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="33">
+        <v>15161100932</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="1">
+        <v>18020275120</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="36">
+        <v>43250</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="111">
+        <v>76157131</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="33">
+        <v>15161100933</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="1">
+        <v>18020275121</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -16055,12 +16153,12 @@
       <c r="C13" s="1"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="37"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -16072,8 +16170,8 @@
       <c r="C14" s="1"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="37"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -16089,8 +16187,8 @@
       <c r="C15" s="1"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="37"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -16106,8 +16204,8 @@
       <c r="C16" s="1"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="37"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -16123,8 +16221,8 @@
       <c r="C17" s="1"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="37"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -16140,8 +16238,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="37"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -16157,8 +16255,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="37"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -16174,8 +16272,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="111"/>
       <c r="H20" s="37"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -16191,8 +16289,8 @@
       <c r="C21" s="1"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="111"/>
       <c r="H21" s="37"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -16208,8 +16306,8 @@
       <c r="C22" s="1"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="37"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -16225,8 +16323,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="37"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -16242,8 +16340,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="111"/>
       <c r="H24" s="37"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -16259,8 +16357,8 @@
       <c r="C25" s="1"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="111"/>
       <c r="H25" s="37"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -16276,8 +16374,8 @@
       <c r="C26" s="1"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="111"/>
       <c r="H26" s="37"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -16293,8 +16391,8 @@
       <c r="C27" s="1"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="111"/>
       <c r="H27" s="37"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -16310,8 +16408,8 @@
       <c r="C28" s="1"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="111"/>
       <c r="H28" s="37"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -16327,8 +16425,8 @@
       <c r="C29" s="1"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="111"/>
       <c r="H29" s="37"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -16344,8 +16442,8 @@
       <c r="C30" s="1"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="111"/>
       <c r="H30" s="37"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -16361,8 +16459,8 @@
       <c r="C31" s="1"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="111"/>
       <c r="H31" s="37"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -16378,8 +16476,8 @@
       <c r="C32" s="1"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="111"/>
       <c r="H32" s="37"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -16395,8 +16493,8 @@
       <c r="C33" s="1"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="111"/>
       <c r="H33" s="37"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -16412,8 +16510,8 @@
       <c r="C34" s="1"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="111"/>
       <c r="H34" s="37"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -16429,8 +16527,8 @@
       <c r="C35" s="1"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="111"/>
       <c r="H35" s="37"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -16446,8 +16544,8 @@
       <c r="C36" s="1"/>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="111"/>
       <c r="H36" s="37"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -16463,8 +16561,8 @@
       <c r="C37" s="1"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="111"/>
       <c r="H37" s="37"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -16480,8 +16578,8 @@
       <c r="C38" s="1"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="111"/>
       <c r="H38" s="37"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -16497,8 +16595,8 @@
       <c r="C39" s="1"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="111"/>
       <c r="H39" s="37"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -16514,8 +16612,8 @@
       <c r="C40" s="1"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="111"/>
       <c r="H40" s="37"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -16531,8 +16629,8 @@
       <c r="C41" s="1"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="111"/>
       <c r="H41" s="37"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -16548,8 +16646,8 @@
       <c r="C42" s="1"/>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="111"/>
       <c r="H42" s="37"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -16565,8 +16663,8 @@
       <c r="C43" s="1"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="111"/>
       <c r="H43" s="37"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -16582,8 +16680,8 @@
       <c r="C44" s="1"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="111"/>
       <c r="H44" s="37"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -16599,8 +16697,8 @@
       <c r="C45" s="1"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="111"/>
       <c r="H45" s="37"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -16616,8 +16714,8 @@
       <c r="C46" s="1"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="111"/>
       <c r="H46" s="37"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -16633,8 +16731,8 @@
       <c r="C47" s="1"/>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="111"/>
       <c r="H47" s="37"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -16650,8 +16748,8 @@
       <c r="C48" s="1"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="111"/>
       <c r="H48" s="37"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -16667,8 +16765,8 @@
       <c r="C49" s="1"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="111"/>
       <c r="H49" s="37"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -16684,8 +16782,8 @@
       <c r="C50" s="1"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="111"/>
       <c r="H50" s="37"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -16701,8 +16799,8 @@
       <c r="C51" s="1"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="111"/>
       <c r="H51" s="37"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -16718,8 +16816,8 @@
       <c r="C52" s="1"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="111"/>
       <c r="H52" s="37"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -16735,8 +16833,8 @@
       <c r="C53" s="1"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="111"/>
       <c r="H53" s="37"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -16752,8 +16850,8 @@
       <c r="C54" s="1"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="111"/>
       <c r="H54" s="37"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -16769,8 +16867,8 @@
       <c r="C55" s="1"/>
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="111"/>
       <c r="H55" s="37"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -16786,8 +16884,8 @@
       <c r="C56" s="1"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="111"/>
       <c r="H56" s="37"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -16803,8 +16901,8 @@
       <c r="C57" s="1"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="111"/>
       <c r="H57" s="37"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -16820,8 +16918,8 @@
       <c r="C58" s="1"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="111"/>
       <c r="H58" s="37"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -16837,8 +16935,8 @@
       <c r="C59" s="1"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="111"/>
       <c r="H59" s="37"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -16854,8 +16952,8 @@
       <c r="C60" s="1"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="111"/>
       <c r="H60" s="37"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -16871,8 +16969,8 @@
       <c r="C61" s="1"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="111"/>
       <c r="H61" s="37"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -16888,8 +16986,8 @@
       <c r="C62" s="1"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="111"/>
       <c r="H62" s="37"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -16905,8 +17003,8 @@
       <c r="C63" s="1"/>
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="111"/>
       <c r="H63" s="37"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -16922,8 +17020,8 @@
       <c r="C64" s="1"/>
       <c r="D64" s="37"/>
       <c r="E64" s="37"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="111"/>
       <c r="H64" s="37"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -16939,8 +17037,8 @@
       <c r="C65" s="1"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="111"/>
       <c r="H65" s="37"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -16956,8 +17054,8 @@
       <c r="C66" s="1"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="111"/>
       <c r="H66" s="37"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -16973,8 +17071,8 @@
       <c r="C67" s="1"/>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="111"/>
       <c r="H67" s="37"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -16990,8 +17088,8 @@
       <c r="C68" s="1"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="111"/>
       <c r="H68" s="37"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -17007,8 +17105,8 @@
       <c r="C69" s="1"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="111"/>
       <c r="H69" s="37"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -17024,8 +17122,8 @@
       <c r="C70" s="1"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="111"/>
       <c r="H70" s="37"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -17041,8 +17139,8 @@
       <c r="C71" s="1"/>
       <c r="D71" s="37"/>
       <c r="E71" s="37"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="111"/>
       <c r="H71" s="37"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -17058,8 +17156,8 @@
       <c r="C72" s="1"/>
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="111"/>
       <c r="H72" s="37"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -17075,8 +17173,8 @@
       <c r="C73" s="1"/>
       <c r="D73" s="37"/>
       <c r="E73" s="37"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="111"/>
       <c r="H73" s="37"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -17092,8 +17190,8 @@
       <c r="C74" s="1"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="111"/>
       <c r="H74" s="37"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -17109,8 +17207,8 @@
       <c r="C75" s="1"/>
       <c r="D75" s="37"/>
       <c r="E75" s="37"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="111"/>
       <c r="H75" s="37"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -17126,8 +17224,8 @@
       <c r="C76" s="1"/>
       <c r="D76" s="37"/>
       <c r="E76" s="37"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="111"/>
       <c r="H76" s="37"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -17143,8 +17241,8 @@
       <c r="C77" s="1"/>
       <c r="D77" s="37"/>
       <c r="E77" s="37"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="111"/>
       <c r="H77" s="37"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -17160,8 +17258,8 @@
       <c r="C78" s="1"/>
       <c r="D78" s="37"/>
       <c r="E78" s="37"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="111"/>
       <c r="H78" s="37"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -17177,8 +17275,8 @@
       <c r="C79" s="1"/>
       <c r="D79" s="37"/>
       <c r="E79" s="37"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="111"/>
       <c r="H79" s="37"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -17194,8 +17292,8 @@
       <c r="C80" s="1"/>
       <c r="D80" s="37"/>
       <c r="E80" s="37"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="111"/>
       <c r="H80" s="37"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -17211,8 +17309,8 @@
       <c r="C81" s="1"/>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="111"/>
       <c r="H81" s="37"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -17228,8 +17326,8 @@
       <c r="C82" s="1"/>
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="111"/>
       <c r="H82" s="37"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -17245,8 +17343,8 @@
       <c r="C83" s="1"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="111"/>
       <c r="H83" s="37"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -17262,8 +17360,8 @@
       <c r="C84" s="1"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="111"/>
       <c r="H84" s="37"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -17279,8 +17377,8 @@
       <c r="C85" s="1"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="111"/>
       <c r="H85" s="37"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -17296,8 +17394,8 @@
       <c r="C86" s="1"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="111"/>
       <c r="H86" s="37"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -17313,8 +17411,8 @@
       <c r="C87" s="1"/>
       <c r="D87" s="37"/>
       <c r="E87" s="37"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="111"/>
       <c r="H87" s="37"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -17330,8 +17428,8 @@
       <c r="C88" s="1"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="111"/>
       <c r="H88" s="37"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -17347,8 +17445,8 @@
       <c r="C89" s="1"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="111"/>
       <c r="H89" s="37"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -17364,8 +17462,8 @@
       <c r="C90" s="1"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="111"/>
       <c r="H90" s="37"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -17381,8 +17479,8 @@
       <c r="C91" s="1"/>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="111"/>
       <c r="H91" s="37"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -17398,8 +17496,8 @@
       <c r="C92" s="1"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="111"/>
       <c r="H92" s="37"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -17415,8 +17513,8 @@
       <c r="C93" s="1"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="111"/>
       <c r="H93" s="37"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -17432,8 +17530,8 @@
       <c r="C94" s="1"/>
       <c r="D94" s="37"/>
       <c r="E94" s="37"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="111"/>
       <c r="H94" s="37"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -17449,8 +17547,8 @@
       <c r="C95" s="1"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="111"/>
       <c r="H95" s="37"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -17466,8 +17564,8 @@
       <c r="C96" s="1"/>
       <c r="D96" s="37"/>
       <c r="E96" s="37"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="111"/>
       <c r="H96" s="37"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -17483,8 +17581,8 @@
       <c r="C97" s="1"/>
       <c r="D97" s="37"/>
       <c r="E97" s="37"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="111"/>
       <c r="H97" s="37"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -17500,8 +17598,8 @@
       <c r="C98" s="1"/>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="111"/>
       <c r="H98" s="37"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -17517,8 +17615,8 @@
       <c r="C99" s="1"/>
       <c r="D99" s="37"/>
       <c r="E99" s="37"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="111"/>
       <c r="H99" s="37"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -17534,8 +17632,8 @@
       <c r="C100" s="1"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="111"/>
       <c r="H100" s="37"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -17551,8 +17649,8 @@
       <c r="C101" s="1"/>
       <c r="D101" s="37"/>
       <c r="E101" s="37"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="111"/>
       <c r="H101" s="37"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -17568,8 +17666,8 @@
       <c r="C102" s="1"/>
       <c r="D102" s="37"/>
       <c r="E102" s="37"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="111"/>
       <c r="H102" s="37"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -17585,8 +17683,8 @@
       <c r="C103" s="1"/>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="111"/>
       <c r="H103" s="37"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -17602,8 +17700,8 @@
       <c r="C104" s="1"/>
       <c r="D104" s="37"/>
       <c r="E104" s="37"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="111"/>
       <c r="H104" s="37"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -17619,8 +17717,8 @@
       <c r="C105" s="1"/>
       <c r="D105" s="37"/>
       <c r="E105" s="37"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="111"/>
       <c r="H105" s="37"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -17636,8 +17734,8 @@
       <c r="C106" s="1"/>
       <c r="D106" s="37"/>
       <c r="E106" s="37"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="111"/>
       <c r="H106" s="37"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -17653,8 +17751,8 @@
       <c r="C107" s="1"/>
       <c r="D107" s="37"/>
       <c r="E107" s="37"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="111"/>
       <c r="H107" s="37"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -17670,8 +17768,8 @@
       <c r="C108" s="1"/>
       <c r="D108" s="37"/>
       <c r="E108" s="37"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="111"/>
       <c r="H108" s="37"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -17687,8 +17785,8 @@
       <c r="C109" s="1"/>
       <c r="D109" s="37"/>
       <c r="E109" s="37"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="111"/>
       <c r="H109" s="37"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -17704,8 +17802,8 @@
       <c r="C110" s="1"/>
       <c r="D110" s="37"/>
       <c r="E110" s="37"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="111"/>
       <c r="H110" s="37"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -17721,8 +17819,8 @@
       <c r="C111" s="1"/>
       <c r="D111" s="37"/>
       <c r="E111" s="37"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="111"/>
       <c r="H111" s="37"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -17738,8 +17836,8 @@
       <c r="C112" s="1"/>
       <c r="D112" s="37"/>
       <c r="E112" s="37"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="111"/>
       <c r="H112" s="37"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -17755,8 +17853,8 @@
       <c r="C113" s="1"/>
       <c r="D113" s="37"/>
       <c r="E113" s="37"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="111"/>
       <c r="H113" s="37"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -17772,8 +17870,8 @@
       <c r="C114" s="1"/>
       <c r="D114" s="37"/>
       <c r="E114" s="37"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="111"/>
       <c r="H114" s="37"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -17789,8 +17887,8 @@
       <c r="C115" s="1"/>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="111"/>
       <c r="H115" s="37"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -17806,8 +17904,8 @@
       <c r="C116" s="1"/>
       <c r="D116" s="37"/>
       <c r="E116" s="37"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="111"/>
       <c r="H116" s="37"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -17823,8 +17921,8 @@
       <c r="C117" s="1"/>
       <c r="D117" s="37"/>
       <c r="E117" s="37"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="111"/>
       <c r="H117" s="37"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -17840,8 +17938,8 @@
       <c r="C118" s="1"/>
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="111"/>
       <c r="H118" s="37"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -17857,8 +17955,8 @@
       <c r="C119" s="1"/>
       <c r="D119" s="37"/>
       <c r="E119" s="37"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="111"/>
       <c r="H119" s="37"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -17874,8 +17972,8 @@
       <c r="C120" s="1"/>
       <c r="D120" s="37"/>
       <c r="E120" s="37"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="111"/>
       <c r="H120" s="37"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -17891,8 +17989,8 @@
       <c r="C121" s="1"/>
       <c r="D121" s="37"/>
       <c r="E121" s="37"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="111"/>
       <c r="H121" s="37"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -17908,8 +18006,8 @@
       <c r="C122" s="1"/>
       <c r="D122" s="37"/>
       <c r="E122" s="37"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="111"/>
       <c r="H122" s="37"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -17925,8 +18023,8 @@
       <c r="C123" s="1"/>
       <c r="D123" s="37"/>
       <c r="E123" s="37"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="111"/>
       <c r="H123" s="37"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -17942,8 +18040,8 @@
       <c r="C124" s="1"/>
       <c r="D124" s="37"/>
       <c r="E124" s="37"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="111"/>
       <c r="H124" s="37"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -17959,8 +18057,8 @@
       <c r="C125" s="1"/>
       <c r="D125" s="37"/>
       <c r="E125" s="37"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="111"/>
       <c r="H125" s="37"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -17976,8 +18074,8 @@
       <c r="C126" s="1"/>
       <c r="D126" s="37"/>
       <c r="E126" s="37"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="111"/>
       <c r="H126" s="37"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -17993,8 +18091,8 @@
       <c r="C127" s="1"/>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="111"/>
       <c r="H127" s="37"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -18010,8 +18108,8 @@
       <c r="C128" s="1"/>
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="111"/>
       <c r="H128" s="37"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -18027,8 +18125,8 @@
       <c r="C129" s="1"/>
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="111"/>
       <c r="H129" s="37"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -18044,8 +18142,8 @@
       <c r="C130" s="1"/>
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="111"/>
       <c r="H130" s="37"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -18061,8 +18159,8 @@
       <c r="C131" s="1"/>
       <c r="D131" s="37"/>
       <c r="E131" s="37"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="111"/>
       <c r="H131" s="37"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -18078,8 +18176,8 @@
       <c r="C132" s="1"/>
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="111"/>
       <c r="H132" s="37"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -18095,8 +18193,8 @@
       <c r="C133" s="1"/>
       <c r="D133" s="37"/>
       <c r="E133" s="37"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="111"/>
       <c r="H133" s="37"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -18112,8 +18210,8 @@
       <c r="C134" s="1"/>
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="111"/>
       <c r="H134" s="37"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -18129,8 +18227,8 @@
       <c r="C135" s="1"/>
       <c r="D135" s="37"/>
       <c r="E135" s="37"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="111"/>
       <c r="H135" s="37"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -18146,8 +18244,8 @@
       <c r="C136" s="1"/>
       <c r="D136" s="37"/>
       <c r="E136" s="37"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="111"/>
       <c r="H136" s="37"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -18163,8 +18261,8 @@
       <c r="C137" s="1"/>
       <c r="D137" s="37"/>
       <c r="E137" s="37"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="111"/>
       <c r="H137" s="37"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -18180,8 +18278,8 @@
       <c r="C138" s="1"/>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="111"/>
       <c r="H138" s="37"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -18197,8 +18295,8 @@
       <c r="C139" s="1"/>
       <c r="D139" s="37"/>
       <c r="E139" s="37"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="111"/>
       <c r="H139" s="37"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -18214,8 +18312,8 @@
       <c r="C140" s="1"/>
       <c r="D140" s="37"/>
       <c r="E140" s="37"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="111"/>
       <c r="H140" s="37"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -18231,8 +18329,8 @@
       <c r="C141" s="1"/>
       <c r="D141" s="37"/>
       <c r="E141" s="37"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="111"/>
       <c r="H141" s="37"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -18248,8 +18346,8 @@
       <c r="C142" s="1"/>
       <c r="D142" s="37"/>
       <c r="E142" s="37"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="111"/>
       <c r="H142" s="37"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -18265,8 +18363,8 @@
       <c r="C143" s="1"/>
       <c r="D143" s="37"/>
       <c r="E143" s="37"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="111"/>
       <c r="H143" s="37"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -18282,8 +18380,8 @@
       <c r="C144" s="1"/>
       <c r="D144" s="37"/>
       <c r="E144" s="37"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="111"/>
       <c r="H144" s="37"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -18299,8 +18397,8 @@
       <c r="C145" s="1"/>
       <c r="D145" s="37"/>
       <c r="E145" s="37"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="111"/>
       <c r="H145" s="37"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -18316,8 +18414,8 @@
       <c r="C146" s="1"/>
       <c r="D146" s="37"/>
       <c r="E146" s="37"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="111"/>
       <c r="H146" s="37"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -18333,8 +18431,8 @@
       <c r="C147" s="1"/>
       <c r="D147" s="37"/>
       <c r="E147" s="37"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="111"/>
       <c r="H147" s="37"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -18350,8 +18448,8 @@
       <c r="C148" s="1"/>
       <c r="D148" s="37"/>
       <c r="E148" s="37"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="111"/>
       <c r="H148" s="37"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -18367,8 +18465,8 @@
       <c r="C149" s="1"/>
       <c r="D149" s="37"/>
       <c r="E149" s="37"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="111"/>
       <c r="H149" s="37"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -18384,8 +18482,8 @@
       <c r="C150" s="1"/>
       <c r="D150" s="37"/>
       <c r="E150" s="37"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="111"/>
       <c r="H150" s="37"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -18401,8 +18499,8 @@
       <c r="C151" s="1"/>
       <c r="D151" s="37"/>
       <c r="E151" s="37"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="111"/>
       <c r="H151" s="37"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -18418,8 +18516,8 @@
       <c r="C152" s="1"/>
       <c r="D152" s="37"/>
       <c r="E152" s="37"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="111"/>
       <c r="H152" s="37"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -18435,8 +18533,8 @@
       <c r="C153" s="1"/>
       <c r="D153" s="37"/>
       <c r="E153" s="37"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="111"/>
       <c r="H153" s="37"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -18452,8 +18550,8 @@
       <c r="C154" s="1"/>
       <c r="D154" s="37"/>
       <c r="E154" s="37"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="111"/>
       <c r="H154" s="37"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -18469,8 +18567,8 @@
       <c r="C155" s="1"/>
       <c r="D155" s="37"/>
       <c r="E155" s="37"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="111"/>
       <c r="H155" s="37"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -18486,8 +18584,8 @@
       <c r="C156" s="1"/>
       <c r="D156" s="37"/>
       <c r="E156" s="37"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="111"/>
       <c r="H156" s="37"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -18503,8 +18601,8 @@
       <c r="C157" s="1"/>
       <c r="D157" s="37"/>
       <c r="E157" s="37"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="111"/>
       <c r="H157" s="37"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -18520,8 +18618,8 @@
       <c r="C158" s="1"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="111"/>
       <c r="H158" s="37"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -18537,8 +18635,8 @@
       <c r="C159" s="1"/>
       <c r="D159" s="37"/>
       <c r="E159" s="37"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="111"/>
       <c r="H159" s="37"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -18554,8 +18652,8 @@
       <c r="C160" s="1"/>
       <c r="D160" s="37"/>
       <c r="E160" s="37"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="111"/>
       <c r="H160" s="37"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -18571,8 +18669,8 @@
       <c r="C161" s="1"/>
       <c r="D161" s="37"/>
       <c r="E161" s="37"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="111"/>
       <c r="H161" s="37"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -18588,8 +18686,8 @@
       <c r="C162" s="1"/>
       <c r="D162" s="37"/>
       <c r="E162" s="37"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="111"/>
       <c r="H162" s="37"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -18605,8 +18703,8 @@
       <c r="C163" s="1"/>
       <c r="D163" s="37"/>
       <c r="E163" s="37"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="111"/>
       <c r="H163" s="37"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -18622,8 +18720,8 @@
       <c r="C164" s="1"/>
       <c r="D164" s="37"/>
       <c r="E164" s="37"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="111"/>
       <c r="H164" s="37"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -18639,8 +18737,8 @@
       <c r="C165" s="1"/>
       <c r="D165" s="37"/>
       <c r="E165" s="37"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="111"/>
       <c r="H165" s="37"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -18656,8 +18754,8 @@
       <c r="C166" s="1"/>
       <c r="D166" s="37"/>
       <c r="E166" s="37"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="111"/>
       <c r="H166" s="37"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -18673,8 +18771,8 @@
       <c r="C167" s="1"/>
       <c r="D167" s="37"/>
       <c r="E167" s="37"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="111"/>
       <c r="H167" s="37"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -18690,8 +18788,8 @@
       <c r="C168" s="1"/>
       <c r="D168" s="37"/>
       <c r="E168" s="37"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="111"/>
       <c r="H168" s="37"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -18707,8 +18805,8 @@
       <c r="C169" s="1"/>
       <c r="D169" s="37"/>
       <c r="E169" s="37"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="111"/>
       <c r="H169" s="37"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -18724,8 +18822,8 @@
       <c r="C170" s="1"/>
       <c r="D170" s="37"/>
       <c r="E170" s="37"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="111"/>
       <c r="H170" s="37"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -18741,8 +18839,8 @@
       <c r="C171" s="1"/>
       <c r="D171" s="37"/>
       <c r="E171" s="37"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="111"/>
       <c r="H171" s="37"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -18758,8 +18856,8 @@
       <c r="C172" s="1"/>
       <c r="D172" s="37"/>
       <c r="E172" s="37"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="111"/>
       <c r="H172" s="37"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -18775,8 +18873,8 @@
       <c r="C173" s="1"/>
       <c r="D173" s="37"/>
       <c r="E173" s="37"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="111"/>
       <c r="H173" s="37"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -18792,8 +18890,8 @@
       <c r="C174" s="1"/>
       <c r="D174" s="37"/>
       <c r="E174" s="37"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="111"/>
       <c r="H174" s="37"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -18809,8 +18907,8 @@
       <c r="C175" s="1"/>
       <c r="D175" s="37"/>
       <c r="E175" s="37"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="111"/>
       <c r="H175" s="37"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -18826,8 +18924,8 @@
       <c r="C176" s="1"/>
       <c r="D176" s="37"/>
       <c r="E176" s="37"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="111"/>
       <c r="H176" s="37"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -18843,8 +18941,8 @@
       <c r="C177" s="1"/>
       <c r="D177" s="37"/>
       <c r="E177" s="37"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
+      <c r="F177" s="37"/>
+      <c r="G177" s="111"/>
       <c r="H177" s="37"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -18860,8 +18958,8 @@
       <c r="C178" s="1"/>
       <c r="D178" s="37"/>
       <c r="E178" s="37"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="111"/>
       <c r="H178" s="37"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -18877,8 +18975,8 @@
       <c r="C179" s="1"/>
       <c r="D179" s="37"/>
       <c r="E179" s="37"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
+      <c r="F179" s="37"/>
+      <c r="G179" s="111"/>
       <c r="H179" s="37"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -18894,8 +18992,8 @@
       <c r="C180" s="1"/>
       <c r="D180" s="37"/>
       <c r="E180" s="37"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
+      <c r="F180" s="37"/>
+      <c r="G180" s="111"/>
       <c r="H180" s="37"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -18911,8 +19009,8 @@
       <c r="C181" s="1"/>
       <c r="D181" s="37"/>
       <c r="E181" s="37"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
+      <c r="F181" s="37"/>
+      <c r="G181" s="111"/>
       <c r="H181" s="37"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -18928,8 +19026,8 @@
       <c r="C182" s="1"/>
       <c r="D182" s="37"/>
       <c r="E182" s="37"/>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="111"/>
       <c r="H182" s="37"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -18945,8 +19043,8 @@
       <c r="C183" s="1"/>
       <c r="D183" s="37"/>
       <c r="E183" s="37"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="111"/>
       <c r="H183" s="37"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -18962,8 +19060,8 @@
       <c r="C184" s="1"/>
       <c r="D184" s="37"/>
       <c r="E184" s="37"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="111"/>
       <c r="H184" s="37"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -18979,8 +19077,8 @@
       <c r="C185" s="1"/>
       <c r="D185" s="37"/>
       <c r="E185" s="37"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
+      <c r="F185" s="37"/>
+      <c r="G185" s="111"/>
       <c r="H185" s="37"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -18996,8 +19094,8 @@
       <c r="C186" s="1"/>
       <c r="D186" s="37"/>
       <c r="E186" s="37"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="111"/>
       <c r="H186" s="37"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -19013,8 +19111,8 @@
       <c r="C187" s="1"/>
       <c r="D187" s="37"/>
       <c r="E187" s="37"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
+      <c r="F187" s="37"/>
+      <c r="G187" s="111"/>
       <c r="H187" s="37"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -19030,8 +19128,8 @@
       <c r="C188" s="1"/>
       <c r="D188" s="37"/>
       <c r="E188" s="37"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="111"/>
       <c r="H188" s="37"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -19047,8 +19145,8 @@
       <c r="C189" s="1"/>
       <c r="D189" s="37"/>
       <c r="E189" s="37"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
+      <c r="F189" s="37"/>
+      <c r="G189" s="111"/>
       <c r="H189" s="37"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -19064,8 +19162,8 @@
       <c r="C190" s="1"/>
       <c r="D190" s="37"/>
       <c r="E190" s="37"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
+      <c r="F190" s="37"/>
+      <c r="G190" s="111"/>
       <c r="H190" s="37"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -19081,8 +19179,8 @@
       <c r="C191" s="1"/>
       <c r="D191" s="37"/>
       <c r="E191" s="37"/>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
+      <c r="F191" s="37"/>
+      <c r="G191" s="111"/>
       <c r="H191" s="37"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -19098,8 +19196,8 @@
       <c r="C192" s="1"/>
       <c r="D192" s="37"/>
       <c r="E192" s="37"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="111"/>
       <c r="H192" s="37"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -19115,8 +19213,8 @@
       <c r="C193" s="1"/>
       <c r="D193" s="37"/>
       <c r="E193" s="37"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="111"/>
       <c r="H193" s="37"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -19132,8 +19230,8 @@
       <c r="C194" s="1"/>
       <c r="D194" s="37"/>
       <c r="E194" s="37"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="111"/>
       <c r="H194" s="37"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -19149,8 +19247,8 @@
       <c r="C195" s="1"/>
       <c r="D195" s="37"/>
       <c r="E195" s="37"/>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
+      <c r="F195" s="37"/>
+      <c r="G195" s="111"/>
       <c r="H195" s="37"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -19166,8 +19264,8 @@
       <c r="C196" s="1"/>
       <c r="D196" s="37"/>
       <c r="E196" s="37"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="111"/>
       <c r="H196" s="37"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -19183,8 +19281,8 @@
       <c r="C197" s="1"/>
       <c r="D197" s="37"/>
       <c r="E197" s="37"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
+      <c r="F197" s="37"/>
+      <c r="G197" s="111"/>
       <c r="H197" s="37"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -19200,8 +19298,8 @@
       <c r="C198" s="1"/>
       <c r="D198" s="37"/>
       <c r="E198" s="37"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
+      <c r="F198" s="37"/>
+      <c r="G198" s="111"/>
       <c r="H198" s="37"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -19217,8 +19315,8 @@
       <c r="C199" s="1"/>
       <c r="D199" s="37"/>
       <c r="E199" s="37"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
+      <c r="F199" s="37"/>
+      <c r="G199" s="111"/>
       <c r="H199" s="37"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -19234,8 +19332,8 @@
       <c r="C200" s="1"/>
       <c r="D200" s="37"/>
       <c r="E200" s="37"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
+      <c r="F200" s="37"/>
+      <c r="G200" s="111"/>
       <c r="H200" s="37"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -19251,8 +19349,8 @@
       <c r="C201" s="1"/>
       <c r="D201" s="37"/>
       <c r="E201" s="37"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
+      <c r="F201" s="37"/>
+      <c r="G201" s="111"/>
       <c r="H201" s="37"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -19268,8 +19366,8 @@
       <c r="C202" s="1"/>
       <c r="D202" s="37"/>
       <c r="E202" s="37"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="111"/>
       <c r="H202" s="37"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -19285,8 +19383,8 @@
       <c r="C203" s="1"/>
       <c r="D203" s="37"/>
       <c r="E203" s="37"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="111"/>
       <c r="H203" s="37"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -19302,8 +19400,8 @@
       <c r="C204" s="1"/>
       <c r="D204" s="37"/>
       <c r="E204" s="37"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
+      <c r="F204" s="37"/>
+      <c r="G204" s="111"/>
       <c r="H204" s="37"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -19319,8 +19417,8 @@
       <c r="C205" s="1"/>
       <c r="D205" s="37"/>
       <c r="E205" s="37"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="111"/>
       <c r="H205" s="37"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -19336,8 +19434,8 @@
       <c r="C206" s="1"/>
       <c r="D206" s="37"/>
       <c r="E206" s="37"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
+      <c r="F206" s="37"/>
+      <c r="G206" s="111"/>
       <c r="H206" s="37"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -19353,8 +19451,8 @@
       <c r="C207" s="1"/>
       <c r="D207" s="37"/>
       <c r="E207" s="37"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
+      <c r="F207" s="37"/>
+      <c r="G207" s="111"/>
       <c r="H207" s="37"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -19370,8 +19468,8 @@
       <c r="C208" s="1"/>
       <c r="D208" s="37"/>
       <c r="E208" s="37"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
+      <c r="F208" s="37"/>
+      <c r="G208" s="111"/>
       <c r="H208" s="37"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -19387,8 +19485,8 @@
       <c r="C209" s="1"/>
       <c r="D209" s="37"/>
       <c r="E209" s="37"/>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
+      <c r="F209" s="37"/>
+      <c r="G209" s="111"/>
       <c r="H209" s="37"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -19404,8 +19502,8 @@
       <c r="C210" s="1"/>
       <c r="D210" s="37"/>
       <c r="E210" s="37"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
+      <c r="F210" s="37"/>
+      <c r="G210" s="111"/>
       <c r="H210" s="37"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -19421,8 +19519,8 @@
       <c r="C211" s="1"/>
       <c r="D211" s="37"/>
       <c r="E211" s="37"/>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
+      <c r="F211" s="37"/>
+      <c r="G211" s="111"/>
       <c r="H211" s="37"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -19438,8 +19536,8 @@
       <c r="C212" s="1"/>
       <c r="D212" s="37"/>
       <c r="E212" s="37"/>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
+      <c r="F212" s="37"/>
+      <c r="G212" s="111"/>
       <c r="H212" s="37"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -19455,8 +19553,8 @@
       <c r="C213" s="1"/>
       <c r="D213" s="37"/>
       <c r="E213" s="37"/>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
+      <c r="F213" s="37"/>
+      <c r="G213" s="111"/>
       <c r="H213" s="37"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -19472,8 +19570,8 @@
       <c r="C214" s="1"/>
       <c r="D214" s="37"/>
       <c r="E214" s="37"/>
-      <c r="F214" s="11"/>
-      <c r="G214" s="11"/>
+      <c r="F214" s="37"/>
+      <c r="G214" s="111"/>
       <c r="H214" s="37"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -19489,8 +19587,8 @@
       <c r="C215" s="1"/>
       <c r="D215" s="37"/>
       <c r="E215" s="37"/>
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
+      <c r="F215" s="37"/>
+      <c r="G215" s="111"/>
       <c r="H215" s="37"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -19506,8 +19604,8 @@
       <c r="C216" s="1"/>
       <c r="D216" s="37"/>
       <c r="E216" s="37"/>
-      <c r="F216" s="11"/>
-      <c r="G216" s="11"/>
+      <c r="F216" s="37"/>
+      <c r="G216" s="111"/>
       <c r="H216" s="37"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -19523,8 +19621,8 @@
       <c r="C217" s="1"/>
       <c r="D217" s="37"/>
       <c r="E217" s="37"/>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
+      <c r="F217" s="37"/>
+      <c r="G217" s="111"/>
       <c r="H217" s="37"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -19540,8 +19638,8 @@
       <c r="C218" s="1"/>
       <c r="D218" s="37"/>
       <c r="E218" s="37"/>
-      <c r="F218" s="11"/>
-      <c r="G218" s="11"/>
+      <c r="F218" s="37"/>
+      <c r="G218" s="111"/>
       <c r="H218" s="37"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -19557,8 +19655,8 @@
       <c r="C219" s="1"/>
       <c r="D219" s="37"/>
       <c r="E219" s="37"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
+      <c r="F219" s="37"/>
+      <c r="G219" s="111"/>
       <c r="H219" s="37"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -19574,8 +19672,8 @@
       <c r="C220" s="1"/>
       <c r="D220" s="37"/>
       <c r="E220" s="37"/>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
+      <c r="F220" s="37"/>
+      <c r="G220" s="111"/>
       <c r="H220" s="37"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -19591,8 +19689,8 @@
       <c r="C221" s="1"/>
       <c r="D221" s="37"/>
       <c r="E221" s="37"/>
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
+      <c r="F221" s="37"/>
+      <c r="G221" s="111"/>
       <c r="H221" s="37"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -19608,8 +19706,8 @@
       <c r="C222" s="1"/>
       <c r="D222" s="37"/>
       <c r="E222" s="37"/>
-      <c r="F222" s="11"/>
-      <c r="G222" s="11"/>
+      <c r="F222" s="37"/>
+      <c r="G222" s="111"/>
       <c r="H222" s="37"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -19625,8 +19723,8 @@
       <c r="C223" s="1"/>
       <c r="D223" s="37"/>
       <c r="E223" s="37"/>
-      <c r="F223" s="11"/>
-      <c r="G223" s="11"/>
+      <c r="F223" s="37"/>
+      <c r="G223" s="111"/>
       <c r="H223" s="37"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -19642,8 +19740,8 @@
       <c r="C224" s="1"/>
       <c r="D224" s="37"/>
       <c r="E224" s="37"/>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
+      <c r="F224" s="37"/>
+      <c r="G224" s="111"/>
       <c r="H224" s="37"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -19659,8 +19757,8 @@
       <c r="C225" s="1"/>
       <c r="D225" s="37"/>
       <c r="E225" s="37"/>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
+      <c r="F225" s="37"/>
+      <c r="G225" s="111"/>
       <c r="H225" s="37"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -19676,8 +19774,8 @@
       <c r="C226" s="1"/>
       <c r="D226" s="37"/>
       <c r="E226" s="37"/>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
+      <c r="F226" s="37"/>
+      <c r="G226" s="111"/>
       <c r="H226" s="37"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -19693,8 +19791,8 @@
       <c r="C227" s="1"/>
       <c r="D227" s="37"/>
       <c r="E227" s="37"/>
-      <c r="F227" s="11"/>
-      <c r="G227" s="11"/>
+      <c r="F227" s="37"/>
+      <c r="G227" s="111"/>
       <c r="H227" s="37"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -19710,8 +19808,8 @@
       <c r="C228" s="1"/>
       <c r="D228" s="37"/>
       <c r="E228" s="37"/>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
+      <c r="F228" s="37"/>
+      <c r="G228" s="111"/>
       <c r="H228" s="37"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -19727,8 +19825,8 @@
       <c r="C229" s="1"/>
       <c r="D229" s="37"/>
       <c r="E229" s="37"/>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
+      <c r="F229" s="37"/>
+      <c r="G229" s="111"/>
       <c r="H229" s="37"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -19744,8 +19842,8 @@
       <c r="C230" s="1"/>
       <c r="D230" s="37"/>
       <c r="E230" s="37"/>
-      <c r="F230" s="11"/>
-      <c r="G230" s="11"/>
+      <c r="F230" s="37"/>
+      <c r="G230" s="111"/>
       <c r="H230" s="37"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -19761,8 +19859,8 @@
       <c r="C231" s="1"/>
       <c r="D231" s="37"/>
       <c r="E231" s="37"/>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
+      <c r="F231" s="37"/>
+      <c r="G231" s="111"/>
       <c r="H231" s="37"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -19778,8 +19876,8 @@
       <c r="C232" s="1"/>
       <c r="D232" s="37"/>
       <c r="E232" s="37"/>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
+      <c r="F232" s="37"/>
+      <c r="G232" s="111"/>
       <c r="H232" s="37"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -19795,8 +19893,8 @@
       <c r="C233" s="1"/>
       <c r="D233" s="37"/>
       <c r="E233" s="37"/>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
+      <c r="F233" s="37"/>
+      <c r="G233" s="111"/>
       <c r="H233" s="37"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -19812,8 +19910,8 @@
       <c r="C234" s="1"/>
       <c r="D234" s="37"/>
       <c r="E234" s="37"/>
-      <c r="F234" s="11"/>
-      <c r="G234" s="11"/>
+      <c r="F234" s="37"/>
+      <c r="G234" s="111"/>
       <c r="H234" s="37"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -19829,8 +19927,8 @@
       <c r="C235" s="1"/>
       <c r="D235" s="37"/>
       <c r="E235" s="37"/>
-      <c r="F235" s="11"/>
-      <c r="G235" s="11"/>
+      <c r="F235" s="37"/>
+      <c r="G235" s="111"/>
       <c r="H235" s="37"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -19846,8 +19944,8 @@
       <c r="C236" s="1"/>
       <c r="D236" s="37"/>
       <c r="E236" s="37"/>
-      <c r="F236" s="11"/>
-      <c r="G236" s="11"/>
+      <c r="F236" s="37"/>
+      <c r="G236" s="111"/>
       <c r="H236" s="37"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -19863,8 +19961,8 @@
       <c r="C237" s="1"/>
       <c r="D237" s="37"/>
       <c r="E237" s="37"/>
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
+      <c r="F237" s="37"/>
+      <c r="G237" s="111"/>
       <c r="H237" s="37"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -19880,8 +19978,8 @@
       <c r="C238" s="1"/>
       <c r="D238" s="37"/>
       <c r="E238" s="37"/>
-      <c r="F238" s="11"/>
-      <c r="G238" s="11"/>
+      <c r="F238" s="37"/>
+      <c r="G238" s="111"/>
       <c r="H238" s="37"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -19897,8 +19995,8 @@
       <c r="C239" s="1"/>
       <c r="D239" s="37"/>
       <c r="E239" s="37"/>
-      <c r="F239" s="11"/>
-      <c r="G239" s="11"/>
+      <c r="F239" s="37"/>
+      <c r="G239" s="111"/>
       <c r="H239" s="37"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -19914,8 +20012,8 @@
       <c r="C240" s="1"/>
       <c r="D240" s="37"/>
       <c r="E240" s="37"/>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11"/>
+      <c r="F240" s="37"/>
+      <c r="G240" s="111"/>
       <c r="H240" s="37"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -19931,8 +20029,8 @@
       <c r="C241" s="1"/>
       <c r="D241" s="37"/>
       <c r="E241" s="37"/>
-      <c r="F241" s="11"/>
-      <c r="G241" s="11"/>
+      <c r="F241" s="37"/>
+      <c r="G241" s="111"/>
       <c r="H241" s="37"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -19948,8 +20046,8 @@
       <c r="C242" s="1"/>
       <c r="D242" s="37"/>
       <c r="E242" s="37"/>
-      <c r="F242" s="11"/>
-      <c r="G242" s="11"/>
+      <c r="F242" s="37"/>
+      <c r="G242" s="111"/>
       <c r="H242" s="37"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -19965,8 +20063,8 @@
       <c r="C243" s="1"/>
       <c r="D243" s="37"/>
       <c r="E243" s="37"/>
-      <c r="F243" s="11"/>
-      <c r="G243" s="11"/>
+      <c r="F243" s="37"/>
+      <c r="G243" s="111"/>
       <c r="H243" s="37"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -19982,8 +20080,8 @@
       <c r="C244" s="1"/>
       <c r="D244" s="37"/>
       <c r="E244" s="37"/>
-      <c r="F244" s="11"/>
-      <c r="G244" s="11"/>
+      <c r="F244" s="37"/>
+      <c r="G244" s="111"/>
       <c r="H244" s="37"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -19999,8 +20097,8 @@
       <c r="C245" s="1"/>
       <c r="D245" s="37"/>
       <c r="E245" s="37"/>
-      <c r="F245" s="11"/>
-      <c r="G245" s="11"/>
+      <c r="F245" s="37"/>
+      <c r="G245" s="111"/>
       <c r="H245" s="37"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -20016,8 +20114,8 @@
       <c r="C246" s="1"/>
       <c r="D246" s="37"/>
       <c r="E246" s="37"/>
-      <c r="F246" s="11"/>
-      <c r="G246" s="11"/>
+      <c r="F246" s="37"/>
+      <c r="G246" s="111"/>
       <c r="H246" s="37"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -20033,8 +20131,8 @@
       <c r="C247" s="1"/>
       <c r="D247" s="37"/>
       <c r="E247" s="37"/>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
+      <c r="F247" s="37"/>
+      <c r="G247" s="111"/>
       <c r="H247" s="37"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -20050,8 +20148,8 @@
       <c r="C248" s="1"/>
       <c r="D248" s="37"/>
       <c r="E248" s="37"/>
-      <c r="F248" s="11"/>
-      <c r="G248" s="11"/>
+      <c r="F248" s="37"/>
+      <c r="G248" s="111"/>
       <c r="H248" s="37"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -20067,8 +20165,8 @@
       <c r="C249" s="1"/>
       <c r="D249" s="37"/>
       <c r="E249" s="37"/>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
+      <c r="F249" s="37"/>
+      <c r="G249" s="111"/>
       <c r="H249" s="37"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -20084,8 +20182,8 @@
       <c r="C250" s="1"/>
       <c r="D250" s="37"/>
       <c r="E250" s="37"/>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
+      <c r="F250" s="37"/>
+      <c r="G250" s="111"/>
       <c r="H250" s="37"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -20101,8 +20199,8 @@
       <c r="C251" s="1"/>
       <c r="D251" s="37"/>
       <c r="E251" s="37"/>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
+      <c r="F251" s="37"/>
+      <c r="G251" s="111"/>
       <c r="H251" s="37"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -20118,8 +20216,8 @@
       <c r="C252" s="1"/>
       <c r="D252" s="37"/>
       <c r="E252" s="37"/>
-      <c r="F252" s="11"/>
-      <c r="G252" s="11"/>
+      <c r="F252" s="37"/>
+      <c r="G252" s="111"/>
       <c r="H252" s="37"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -20135,8 +20233,8 @@
       <c r="C253" s="1"/>
       <c r="D253" s="37"/>
       <c r="E253" s="37"/>
-      <c r="F253" s="11"/>
-      <c r="G253" s="11"/>
+      <c r="F253" s="37"/>
+      <c r="G253" s="111"/>
       <c r="H253" s="37"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -20152,8 +20250,8 @@
       <c r="C254" s="1"/>
       <c r="D254" s="37"/>
       <c r="E254" s="37"/>
-      <c r="F254" s="11"/>
-      <c r="G254" s="11"/>
+      <c r="F254" s="37"/>
+      <c r="G254" s="111"/>
       <c r="H254" s="37"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -20169,8 +20267,8 @@
       <c r="C255" s="1"/>
       <c r="D255" s="37"/>
       <c r="E255" s="37"/>
-      <c r="F255" s="11"/>
-      <c r="G255" s="11"/>
+      <c r="F255" s="37"/>
+      <c r="G255" s="111"/>
       <c r="H255" s="37"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -20186,8 +20284,8 @@
       <c r="C256" s="1"/>
       <c r="D256" s="37"/>
       <c r="E256" s="37"/>
-      <c r="F256" s="11"/>
-      <c r="G256" s="11"/>
+      <c r="F256" s="37"/>
+      <c r="G256" s="111"/>
       <c r="H256" s="37"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -20203,8 +20301,8 @@
       <c r="C257" s="1"/>
       <c r="D257" s="37"/>
       <c r="E257" s="37"/>
-      <c r="F257" s="11"/>
-      <c r="G257" s="11"/>
+      <c r="F257" s="37"/>
+      <c r="G257" s="111"/>
       <c r="H257" s="37"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -20220,8 +20318,8 @@
       <c r="C258" s="1"/>
       <c r="D258" s="37"/>
       <c r="E258" s="37"/>
-      <c r="F258" s="11"/>
-      <c r="G258" s="11"/>
+      <c r="F258" s="37"/>
+      <c r="G258" s="111"/>
       <c r="H258" s="37"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -20237,8 +20335,8 @@
       <c r="C259" s="1"/>
       <c r="D259" s="37"/>
       <c r="E259" s="37"/>
-      <c r="F259" s="11"/>
-      <c r="G259" s="11"/>
+      <c r="F259" s="37"/>
+      <c r="G259" s="111"/>
       <c r="H259" s="37"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -20254,8 +20352,8 @@
       <c r="C260" s="1"/>
       <c r="D260" s="37"/>
       <c r="E260" s="37"/>
-      <c r="F260" s="11"/>
-      <c r="G260" s="11"/>
+      <c r="F260" s="37"/>
+      <c r="G260" s="111"/>
       <c r="H260" s="37"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -20271,8 +20369,8 @@
       <c r="C261" s="1"/>
       <c r="D261" s="37"/>
       <c r="E261" s="37"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="11"/>
+      <c r="F261" s="37"/>
+      <c r="G261" s="111"/>
       <c r="H261" s="37"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -20288,8 +20386,8 @@
       <c r="C262" s="1"/>
       <c r="D262" s="37"/>
       <c r="E262" s="37"/>
-      <c r="F262" s="11"/>
-      <c r="G262" s="11"/>
+      <c r="F262" s="37"/>
+      <c r="G262" s="111"/>
       <c r="H262" s="37"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -20305,8 +20403,8 @@
       <c r="C263" s="1"/>
       <c r="D263" s="37"/>
       <c r="E263" s="37"/>
-      <c r="F263" s="11"/>
-      <c r="G263" s="11"/>
+      <c r="F263" s="37"/>
+      <c r="G263" s="111"/>
       <c r="H263" s="37"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
@@ -20322,8 +20420,8 @@
       <c r="C264" s="1"/>
       <c r="D264" s="37"/>
       <c r="E264" s="37"/>
-      <c r="F264" s="11"/>
-      <c r="G264" s="11"/>
+      <c r="F264" s="37"/>
+      <c r="G264" s="111"/>
       <c r="H264" s="37"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
@@ -20339,8 +20437,8 @@
       <c r="C265" s="1"/>
       <c r="D265" s="37"/>
       <c r="E265" s="37"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11"/>
+      <c r="F265" s="37"/>
+      <c r="G265" s="111"/>
       <c r="H265" s="37"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -20356,8 +20454,8 @@
       <c r="C266" s="1"/>
       <c r="D266" s="37"/>
       <c r="E266" s="37"/>
-      <c r="F266" s="11"/>
-      <c r="G266" s="11"/>
+      <c r="F266" s="37"/>
+      <c r="G266" s="111"/>
       <c r="H266" s="37"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
@@ -20373,8 +20471,8 @@
       <c r="C267" s="1"/>
       <c r="D267" s="37"/>
       <c r="E267" s="37"/>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11"/>
+      <c r="F267" s="37"/>
+      <c r="G267" s="111"/>
       <c r="H267" s="37"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -20390,8 +20488,8 @@
       <c r="C268" s="1"/>
       <c r="D268" s="37"/>
       <c r="E268" s="37"/>
-      <c r="F268" s="11"/>
-      <c r="G268" s="11"/>
+      <c r="F268" s="37"/>
+      <c r="G268" s="111"/>
       <c r="H268" s="37"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -20407,8 +20505,8 @@
       <c r="C269" s="1"/>
       <c r="D269" s="37"/>
       <c r="E269" s="37"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
+      <c r="F269" s="37"/>
+      <c r="G269" s="111"/>
       <c r="H269" s="37"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -20424,8 +20522,8 @@
       <c r="C270" s="1"/>
       <c r="D270" s="37"/>
       <c r="E270" s="37"/>
-      <c r="F270" s="11"/>
-      <c r="G270" s="11"/>
+      <c r="F270" s="37"/>
+      <c r="G270" s="111"/>
       <c r="H270" s="37"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -20441,8 +20539,8 @@
       <c r="C271" s="1"/>
       <c r="D271" s="37"/>
       <c r="E271" s="37"/>
-      <c r="F271" s="11"/>
-      <c r="G271" s="11"/>
+      <c r="F271" s="37"/>
+      <c r="G271" s="111"/>
       <c r="H271" s="37"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -20458,8 +20556,8 @@
       <c r="C272" s="1"/>
       <c r="D272" s="37"/>
       <c r="E272" s="37"/>
-      <c r="F272" s="11"/>
-      <c r="G272" s="11"/>
+      <c r="F272" s="37"/>
+      <c r="G272" s="111"/>
       <c r="H272" s="37"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -20475,8 +20573,8 @@
       <c r="C273" s="1"/>
       <c r="D273" s="37"/>
       <c r="E273" s="37"/>
-      <c r="F273" s="11"/>
-      <c r="G273" s="11"/>
+      <c r="F273" s="37"/>
+      <c r="G273" s="111"/>
       <c r="H273" s="37"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -20492,8 +20590,8 @@
       <c r="C274" s="1"/>
       <c r="D274" s="37"/>
       <c r="E274" s="37"/>
-      <c r="F274" s="11"/>
-      <c r="G274" s="11"/>
+      <c r="F274" s="37"/>
+      <c r="G274" s="111"/>
       <c r="H274" s="37"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -20509,8 +20607,8 @@
       <c r="C275" s="1"/>
       <c r="D275" s="37"/>
       <c r="E275" s="37"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
+      <c r="F275" s="37"/>
+      <c r="G275" s="111"/>
       <c r="H275" s="37"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -20526,8 +20624,8 @@
       <c r="C276" s="1"/>
       <c r="D276" s="37"/>
       <c r="E276" s="37"/>
-      <c r="F276" s="11"/>
-      <c r="G276" s="11"/>
+      <c r="F276" s="37"/>
+      <c r="G276" s="111"/>
       <c r="H276" s="37"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -20543,8 +20641,8 @@
       <c r="C277" s="1"/>
       <c r="D277" s="37"/>
       <c r="E277" s="37"/>
-      <c r="F277" s="11"/>
-      <c r="G277" s="11"/>
+      <c r="F277" s="37"/>
+      <c r="G277" s="111"/>
       <c r="H277" s="37"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -20560,8 +20658,8 @@
       <c r="C278" s="1"/>
       <c r="D278" s="37"/>
       <c r="E278" s="37"/>
-      <c r="F278" s="11"/>
-      <c r="G278" s="11"/>
+      <c r="F278" s="37"/>
+      <c r="G278" s="111"/>
       <c r="H278" s="37"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -20577,8 +20675,8 @@
       <c r="C279" s="1"/>
       <c r="D279" s="37"/>
       <c r="E279" s="37"/>
-      <c r="F279" s="11"/>
-      <c r="G279" s="11"/>
+      <c r="F279" s="37"/>
+      <c r="G279" s="111"/>
       <c r="H279" s="37"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -20594,8 +20692,8 @@
       <c r="C280" s="1"/>
       <c r="D280" s="37"/>
       <c r="E280" s="37"/>
-      <c r="F280" s="11"/>
-      <c r="G280" s="11"/>
+      <c r="F280" s="37"/>
+      <c r="G280" s="111"/>
       <c r="H280" s="37"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -20611,8 +20709,8 @@
       <c r="C281" s="1"/>
       <c r="D281" s="37"/>
       <c r="E281" s="37"/>
-      <c r="F281" s="11"/>
-      <c r="G281" s="11"/>
+      <c r="F281" s="37"/>
+      <c r="G281" s="111"/>
       <c r="H281" s="37"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -20628,8 +20726,8 @@
       <c r="C282" s="1"/>
       <c r="D282" s="37"/>
       <c r="E282" s="37"/>
-      <c r="F282" s="11"/>
-      <c r="G282" s="11"/>
+      <c r="F282" s="37"/>
+      <c r="G282" s="111"/>
       <c r="H282" s="37"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -20645,8 +20743,8 @@
       <c r="C283" s="1"/>
       <c r="D283" s="37"/>
       <c r="E283" s="37"/>
-      <c r="F283" s="11"/>
-      <c r="G283" s="11"/>
+      <c r="F283" s="37"/>
+      <c r="G283" s="111"/>
       <c r="H283" s="37"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -20662,8 +20760,8 @@
       <c r="C284" s="1"/>
       <c r="D284" s="37"/>
       <c r="E284" s="37"/>
-      <c r="F284" s="11"/>
-      <c r="G284" s="11"/>
+      <c r="F284" s="37"/>
+      <c r="G284" s="111"/>
       <c r="H284" s="37"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -20679,8 +20777,8 @@
       <c r="C285" s="1"/>
       <c r="D285" s="37"/>
       <c r="E285" s="37"/>
-      <c r="F285" s="11"/>
-      <c r="G285" s="11"/>
+      <c r="F285" s="37"/>
+      <c r="G285" s="111"/>
       <c r="H285" s="37"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -20696,8 +20794,8 @@
       <c r="C286" s="1"/>
       <c r="D286" s="37"/>
       <c r="E286" s="37"/>
-      <c r="F286" s="11"/>
-      <c r="G286" s="11"/>
+      <c r="F286" s="37"/>
+      <c r="G286" s="111"/>
       <c r="H286" s="37"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -20713,8 +20811,8 @@
       <c r="C287" s="1"/>
       <c r="D287" s="37"/>
       <c r="E287" s="37"/>
-      <c r="F287" s="11"/>
-      <c r="G287" s="11"/>
+      <c r="F287" s="37"/>
+      <c r="G287" s="111"/>
       <c r="H287" s="37"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -20730,8 +20828,8 @@
       <c r="C288" s="1"/>
       <c r="D288" s="37"/>
       <c r="E288" s="37"/>
-      <c r="F288" s="11"/>
-      <c r="G288" s="11"/>
+      <c r="F288" s="37"/>
+      <c r="G288" s="111"/>
       <c r="H288" s="37"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -20747,8 +20845,8 @@
       <c r="C289" s="1"/>
       <c r="D289" s="37"/>
       <c r="E289" s="37"/>
-      <c r="F289" s="11"/>
-      <c r="G289" s="11"/>
+      <c r="F289" s="37"/>
+      <c r="G289" s="111"/>
       <c r="H289" s="37"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -20764,8 +20862,8 @@
       <c r="C290" s="1"/>
       <c r="D290" s="37"/>
       <c r="E290" s="37"/>
-      <c r="F290" s="11"/>
-      <c r="G290" s="11"/>
+      <c r="F290" s="37"/>
+      <c r="G290" s="111"/>
       <c r="H290" s="37"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -20781,8 +20879,8 @@
       <c r="C291" s="1"/>
       <c r="D291" s="37"/>
       <c r="E291" s="37"/>
-      <c r="F291" s="11"/>
-      <c r="G291" s="11"/>
+      <c r="F291" s="37"/>
+      <c r="G291" s="111"/>
       <c r="H291" s="37"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -20798,8 +20896,8 @@
       <c r="C292" s="1"/>
       <c r="D292" s="37"/>
       <c r="E292" s="37"/>
-      <c r="F292" s="11"/>
-      <c r="G292" s="11"/>
+      <c r="F292" s="37"/>
+      <c r="G292" s="111"/>
       <c r="H292" s="37"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
@@ -20815,8 +20913,8 @@
       <c r="C293" s="1"/>
       <c r="D293" s="37"/>
       <c r="E293" s="37"/>
-      <c r="F293" s="11"/>
-      <c r="G293" s="11"/>
+      <c r="F293" s="37"/>
+      <c r="G293" s="111"/>
       <c r="H293" s="37"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
@@ -20828,7 +20926,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="3">
@@ -20913,7 +21011,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="105">
+      <c r="A3" s="106">
         <v>20</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -20934,7 +21032,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="17" t="s">
         <v>67</v>
       </c>
@@ -20955,7 +21053,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
@@ -21027,7 +21125,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -21036,7 +21134,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="105"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
@@ -21144,7 +21242,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="106"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="25"/>
@@ -21153,7 +21251,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="105"/>
+      <c r="A27" s="106"/>
       <c r="B27" s="21"/>
       <c r="C27" s="24"/>
       <c r="D27" s="23"/>
@@ -21279,7 +21377,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="106"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="25"/>
@@ -21288,7 +21386,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="105"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="17"/>
       <c r="C42" s="24"/>
       <c r="D42" s="23"/>
@@ -21414,7 +21512,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="106"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="25"/>
@@ -21423,7 +21521,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="105"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="17"/>
       <c r="C57" s="24"/>
       <c r="D57" s="23"/>
@@ -21522,7 +21620,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="106"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="25"/>
@@ -21531,7 +21629,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="105"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="17"/>
       <c r="C69" s="24"/>
       <c r="D69" s="23"/>
@@ -21630,7 +21728,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="106"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="25"/>
@@ -21720,7 +21818,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="106"/>
+      <c r="A90" s="108"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="25"/>

--- a/周数据/《实施上线数据统计表》-沈蒙.xlsx
+++ b/周数据/《实施上线数据统计表》-沈蒙.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -282,6 +282,62 @@
   <si>
     <t>三千粉吴江万宝大润发店</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>06月</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉常州吾悦国际广场店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>王化洲</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T负责人</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需回访</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉常熟大润发店</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,47 +1348,17 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1378,10 +1404,52 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1402,17 +1470,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1692,7 +1751,7 @@
   <dimension ref="A1:I598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1707,75 +1766,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="83" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="95" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="100"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="82"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="45">
@@ -1806,7 +1865,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="45">
         <v>18</v>
       </c>
@@ -1835,7 +1894,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="45"/>
       <c r="C7" s="52"/>
       <c r="D7" s="53"/>
@@ -1858,7 +1917,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="45"/>
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
@@ -1881,7 +1940,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="45"/>
       <c r="C9" s="52"/>
       <c r="D9" s="53"/>
@@ -1904,7 +1963,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="58"/>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -1927,7 +1986,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="65">
@@ -1958,7 +2017,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="67"/>
       <c r="C12" s="68"/>
       <c r="D12" s="53"/>
@@ -1981,7 +2040,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="67"/>
       <c r="C13" s="68"/>
       <c r="D13" s="53"/>
@@ -2004,7 +2063,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
       <c r="D14" s="53"/>
@@ -2027,7 +2086,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="67"/>
       <c r="C15" s="68"/>
       <c r="D15" s="53"/>
@@ -2050,7 +2109,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="69"/>
       <c r="C16" s="70"/>
       <c r="D16" s="60"/>
@@ -2073,30 +2132,38 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="47"/>
+      <c r="A17" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="65">
+        <v>23</v>
+      </c>
+      <c r="C17" s="66">
+        <v>2</v>
+      </c>
+      <c r="D17" s="47">
+        <v>2</v>
+      </c>
       <c r="E17" s="48"/>
       <c r="F17" s="49">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H17" s="51" t="e">
+      <c r="H17" s="51">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="74" t="e">
+        <v>0</v>
+      </c>
+      <c r="I17" s="74">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="67"/>
       <c r="C18" s="68"/>
       <c r="D18" s="53"/>
@@ -2119,7 +2186,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="67"/>
       <c r="C19" s="68"/>
       <c r="D19" s="53"/>
@@ -2142,7 +2209,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68"/>
       <c r="D20" s="53"/>
@@ -2165,7 +2232,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="67"/>
       <c r="C21" s="68"/>
       <c r="D21" s="53"/>
@@ -2188,7 +2255,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="78"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="69"/>
       <c r="C22" s="70"/>
       <c r="D22" s="60"/>
@@ -2211,7 +2278,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="65"/>
       <c r="C23" s="71"/>
       <c r="D23" s="72"/>
@@ -2234,7 +2301,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="67"/>
       <c r="C24" s="52"/>
       <c r="D24" s="53"/>
@@ -2257,7 +2324,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="67"/>
       <c r="C25" s="52"/>
       <c r="D25" s="53"/>
@@ -2280,7 +2347,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="53"/>
@@ -2303,7 +2370,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="77"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="67"/>
       <c r="C27" s="52"/>
       <c r="D27" s="53"/>
@@ -2326,7 +2393,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="69"/>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
@@ -2349,7 +2416,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="65"/>
       <c r="C29" s="71"/>
       <c r="D29" s="72"/>
@@ -2372,7 +2439,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="53"/>
@@ -2395,7 +2462,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="67"/>
       <c r="C31" s="52"/>
       <c r="D31" s="53"/>
@@ -2418,7 +2485,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="67"/>
       <c r="C32" s="52"/>
       <c r="D32" s="53"/>
@@ -2441,7 +2508,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="67"/>
       <c r="C33" s="52"/>
       <c r="D33" s="53"/>
@@ -2464,7 +2531,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="69"/>
       <c r="C34" s="59"/>
       <c r="D34" s="60"/>
@@ -2487,7 +2554,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="77"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="65"/>
       <c r="C35" s="71"/>
       <c r="D35" s="72"/>
@@ -2510,7 +2577,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="77"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="67"/>
       <c r="C36" s="52"/>
       <c r="D36" s="53"/>
@@ -2533,7 +2600,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="77"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="67"/>
       <c r="C37" s="52"/>
       <c r="D37" s="53"/>
@@ -2556,7 +2623,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="77"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="53"/>
@@ -2579,7 +2646,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="77"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="67"/>
       <c r="C39" s="52"/>
       <c r="D39" s="53"/>
@@ -2602,7 +2669,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="78"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="69"/>
       <c r="C40" s="59"/>
       <c r="D40" s="60"/>
@@ -2625,7 +2692,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="77"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="65"/>
       <c r="C41" s="71"/>
       <c r="D41" s="72"/>
@@ -2648,7 +2715,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="53"/>
@@ -2671,7 +2738,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="77"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="67"/>
       <c r="C43" s="52"/>
       <c r="D43" s="53"/>
@@ -2694,7 +2761,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="77"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="67"/>
       <c r="C44" s="52"/>
       <c r="D44" s="53"/>
@@ -2717,7 +2784,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="77"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="67"/>
       <c r="C45" s="52"/>
       <c r="D45" s="53"/>
@@ -2740,7 +2807,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="78"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="69"/>
       <c r="C46" s="59"/>
       <c r="D46" s="60"/>
@@ -2763,7 +2830,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="77"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="65"/>
       <c r="C47" s="71"/>
       <c r="D47" s="72"/>
@@ -2786,7 +2853,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="77"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="67"/>
       <c r="C48" s="52"/>
       <c r="D48" s="53"/>
@@ -2809,7 +2876,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="77"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="67"/>
       <c r="C49" s="52"/>
       <c r="D49" s="53"/>
@@ -2832,7 +2899,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="77"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="67"/>
       <c r="C50" s="52"/>
       <c r="D50" s="53"/>
@@ -2855,7 +2922,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="77"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="67"/>
       <c r="C51" s="52"/>
       <c r="D51" s="53"/>
@@ -2878,7 +2945,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="78"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="69"/>
       <c r="C52" s="59"/>
       <c r="D52" s="60"/>
@@ -2901,7 +2968,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="77"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="65"/>
       <c r="C53" s="71"/>
       <c r="D53" s="72"/>
@@ -2924,7 +2991,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="77"/>
+      <c r="A54" s="93"/>
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="53"/>
@@ -2947,7 +3014,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="77"/>
+      <c r="A55" s="93"/>
       <c r="B55" s="67"/>
       <c r="C55" s="52"/>
       <c r="D55" s="53"/>
@@ -2970,7 +3037,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="77"/>
+      <c r="A56" s="93"/>
       <c r="B56" s="67"/>
       <c r="C56" s="52"/>
       <c r="D56" s="53"/>
@@ -2993,7 +3060,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="77"/>
+      <c r="A57" s="93"/>
       <c r="B57" s="67"/>
       <c r="C57" s="52"/>
       <c r="D57" s="53"/>
@@ -3016,7 +3083,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="78"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="69"/>
       <c r="C58" s="59"/>
       <c r="D58" s="60"/>
@@ -3039,7 +3106,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="77"/>
+      <c r="A59" s="93"/>
       <c r="B59" s="65"/>
       <c r="C59" s="71"/>
       <c r="D59" s="72"/>
@@ -3062,7 +3129,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="77"/>
+      <c r="A60" s="93"/>
       <c r="B60" s="67"/>
       <c r="C60" s="52"/>
       <c r="D60" s="53"/>
@@ -3085,7 +3152,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="77"/>
+      <c r="A61" s="93"/>
       <c r="B61" s="67"/>
       <c r="C61" s="52"/>
       <c r="D61" s="53"/>
@@ -3108,7 +3175,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="77"/>
+      <c r="A62" s="93"/>
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="53"/>
@@ -3131,7 +3198,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="77"/>
+      <c r="A63" s="93"/>
       <c r="B63" s="67"/>
       <c r="C63" s="52"/>
       <c r="D63" s="53"/>
@@ -3154,7 +3221,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="78"/>
+      <c r="A64" s="94"/>
       <c r="B64" s="69"/>
       <c r="C64" s="59"/>
       <c r="D64" s="60"/>
@@ -3177,7 +3244,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="77"/>
+      <c r="A65" s="93"/>
       <c r="B65" s="65"/>
       <c r="C65" s="71"/>
       <c r="D65" s="72"/>
@@ -3200,7 +3267,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="77"/>
+      <c r="A66" s="93"/>
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
       <c r="D66" s="53"/>
@@ -3223,7 +3290,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="77"/>
+      <c r="A67" s="93"/>
       <c r="B67" s="67"/>
       <c r="C67" s="52"/>
       <c r="D67" s="53"/>
@@ -3246,7 +3313,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="77"/>
+      <c r="A68" s="93"/>
       <c r="B68" s="67"/>
       <c r="C68" s="52"/>
       <c r="D68" s="53"/>
@@ -3269,7 +3336,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="77"/>
+      <c r="A69" s="93"/>
       <c r="B69" s="67"/>
       <c r="C69" s="52"/>
       <c r="D69" s="53"/>
@@ -3292,7 +3359,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="78"/>
+      <c r="A70" s="94"/>
       <c r="B70" s="69"/>
       <c r="C70" s="59"/>
       <c r="D70" s="60"/>
@@ -3315,7 +3382,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="77"/>
+      <c r="A71" s="93"/>
       <c r="B71" s="65"/>
       <c r="C71" s="71"/>
       <c r="D71" s="72"/>
@@ -3338,7 +3405,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="77"/>
+      <c r="A72" s="93"/>
       <c r="B72" s="67"/>
       <c r="C72" s="52"/>
       <c r="D72" s="53"/>
@@ -3361,7 +3428,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="77"/>
+      <c r="A73" s="93"/>
       <c r="B73" s="67"/>
       <c r="C73" s="52"/>
       <c r="D73" s="53"/>
@@ -3384,7 +3451,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="77"/>
+      <c r="A74" s="93"/>
       <c r="B74" s="67"/>
       <c r="C74" s="52"/>
       <c r="D74" s="53"/>
@@ -3407,7 +3474,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="77"/>
+      <c r="A75" s="93"/>
       <c r="B75" s="67"/>
       <c r="C75" s="52"/>
       <c r="D75" s="53"/>
@@ -3430,7 +3497,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="78"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="69"/>
       <c r="C76" s="59"/>
       <c r="D76" s="60"/>
@@ -3453,7 +3520,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="77"/>
+      <c r="A77" s="93"/>
       <c r="B77" s="65"/>
       <c r="C77" s="71"/>
       <c r="D77" s="72"/>
@@ -3476,7 +3543,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="77"/>
+      <c r="A78" s="93"/>
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="53"/>
@@ -3499,7 +3566,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="77"/>
+      <c r="A79" s="93"/>
       <c r="B79" s="67"/>
       <c r="C79" s="52"/>
       <c r="D79" s="53"/>
@@ -3522,7 +3589,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="77"/>
+      <c r="A80" s="93"/>
       <c r="B80" s="67"/>
       <c r="C80" s="52"/>
       <c r="D80" s="53"/>
@@ -3545,7 +3612,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="77"/>
+      <c r="A81" s="93"/>
       <c r="B81" s="67"/>
       <c r="C81" s="52"/>
       <c r="D81" s="53"/>
@@ -3568,7 +3635,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="78"/>
+      <c r="A82" s="94"/>
       <c r="B82" s="69"/>
       <c r="C82" s="59"/>
       <c r="D82" s="60"/>
@@ -3591,7 +3658,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="77"/>
+      <c r="A83" s="93"/>
       <c r="B83" s="65"/>
       <c r="C83" s="71"/>
       <c r="D83" s="72"/>
@@ -3614,7 +3681,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="77"/>
+      <c r="A84" s="93"/>
       <c r="B84" s="67"/>
       <c r="C84" s="52"/>
       <c r="D84" s="53"/>
@@ -3637,7 +3704,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="77"/>
+      <c r="A85" s="93"/>
       <c r="B85" s="67"/>
       <c r="C85" s="52"/>
       <c r="D85" s="53"/>
@@ -3660,7 +3727,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="77"/>
+      <c r="A86" s="93"/>
       <c r="B86" s="67"/>
       <c r="C86" s="52"/>
       <c r="D86" s="53"/>
@@ -3683,7 +3750,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="77"/>
+      <c r="A87" s="93"/>
       <c r="B87" s="67"/>
       <c r="C87" s="52"/>
       <c r="D87" s="53"/>
@@ -3706,7 +3773,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="78"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="69"/>
       <c r="C88" s="59"/>
       <c r="D88" s="60"/>
@@ -3729,7 +3796,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="77"/>
+      <c r="A89" s="93"/>
       <c r="B89" s="65"/>
       <c r="C89" s="71"/>
       <c r="D89" s="72"/>
@@ -3752,7 +3819,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="77"/>
+      <c r="A90" s="93"/>
       <c r="B90" s="67"/>
       <c r="C90" s="52"/>
       <c r="D90" s="53"/>
@@ -3775,7 +3842,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="77"/>
+      <c r="A91" s="93"/>
       <c r="B91" s="67"/>
       <c r="C91" s="52"/>
       <c r="D91" s="53"/>
@@ -3798,7 +3865,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="77"/>
+      <c r="A92" s="93"/>
       <c r="B92" s="67"/>
       <c r="C92" s="52"/>
       <c r="D92" s="53"/>
@@ -3821,7 +3888,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="77"/>
+      <c r="A93" s="93"/>
       <c r="B93" s="67"/>
       <c r="C93" s="52"/>
       <c r="D93" s="53"/>
@@ -3844,7 +3911,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="78"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="69"/>
       <c r="C94" s="59"/>
       <c r="D94" s="60"/>
@@ -3867,7 +3934,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="77"/>
+      <c r="A95" s="93"/>
       <c r="B95" s="65"/>
       <c r="C95" s="71"/>
       <c r="D95" s="72"/>
@@ -3890,7 +3957,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="77"/>
+      <c r="A96" s="93"/>
       <c r="B96" s="67"/>
       <c r="C96" s="52"/>
       <c r="D96" s="53"/>
@@ -3913,7 +3980,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="77"/>
+      <c r="A97" s="93"/>
       <c r="B97" s="67"/>
       <c r="C97" s="52"/>
       <c r="D97" s="53"/>
@@ -3936,7 +4003,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="77"/>
+      <c r="A98" s="93"/>
       <c r="B98" s="67"/>
       <c r="C98" s="52"/>
       <c r="D98" s="53"/>
@@ -3959,7 +4026,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="77"/>
+      <c r="A99" s="93"/>
       <c r="B99" s="67"/>
       <c r="C99" s="52"/>
       <c r="D99" s="53"/>
@@ -3982,7 +4049,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="78"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="69"/>
       <c r="C100" s="59"/>
       <c r="D100" s="60"/>
@@ -4005,7 +4072,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="77"/>
+      <c r="A101" s="93"/>
       <c r="B101" s="65"/>
       <c r="C101" s="71"/>
       <c r="D101" s="72"/>
@@ -4028,7 +4095,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="77"/>
+      <c r="A102" s="93"/>
       <c r="B102" s="67"/>
       <c r="C102" s="52"/>
       <c r="D102" s="53"/>
@@ -4051,7 +4118,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="77"/>
+      <c r="A103" s="93"/>
       <c r="B103" s="67"/>
       <c r="C103" s="52"/>
       <c r="D103" s="53"/>
@@ -4074,7 +4141,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="77"/>
+      <c r="A104" s="93"/>
       <c r="B104" s="67"/>
       <c r="C104" s="52"/>
       <c r="D104" s="53"/>
@@ -4097,7 +4164,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="77"/>
+      <c r="A105" s="93"/>
       <c r="B105" s="67"/>
       <c r="C105" s="52"/>
       <c r="D105" s="53"/>
@@ -4120,7 +4187,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="78"/>
+      <c r="A106" s="94"/>
       <c r="B106" s="69"/>
       <c r="C106" s="59"/>
       <c r="D106" s="60"/>
@@ -4143,7 +4210,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="77"/>
+      <c r="A107" s="93"/>
       <c r="B107" s="65"/>
       <c r="C107" s="71"/>
       <c r="D107" s="72"/>
@@ -4166,7 +4233,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="77"/>
+      <c r="A108" s="93"/>
       <c r="B108" s="67"/>
       <c r="C108" s="52"/>
       <c r="D108" s="53"/>
@@ -4189,7 +4256,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="77"/>
+      <c r="A109" s="93"/>
       <c r="B109" s="67"/>
       <c r="C109" s="52"/>
       <c r="D109" s="53"/>
@@ -4212,7 +4279,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="77"/>
+      <c r="A110" s="93"/>
       <c r="B110" s="67"/>
       <c r="C110" s="52"/>
       <c r="D110" s="53"/>
@@ -4235,7 +4302,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="77"/>
+      <c r="A111" s="93"/>
       <c r="B111" s="67"/>
       <c r="C111" s="52"/>
       <c r="D111" s="53"/>
@@ -4258,7 +4325,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="78"/>
+      <c r="A112" s="94"/>
       <c r="B112" s="69"/>
       <c r="C112" s="59"/>
       <c r="D112" s="60"/>
@@ -4281,7 +4348,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="77"/>
+      <c r="A113" s="93"/>
       <c r="B113" s="65"/>
       <c r="C113" s="71"/>
       <c r="D113" s="72"/>
@@ -4304,7 +4371,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="77"/>
+      <c r="A114" s="93"/>
       <c r="B114" s="67"/>
       <c r="C114" s="52"/>
       <c r="D114" s="53"/>
@@ -4327,7 +4394,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="77"/>
+      <c r="A115" s="93"/>
       <c r="B115" s="67"/>
       <c r="C115" s="52"/>
       <c r="D115" s="53"/>
@@ -4350,7 +4417,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="77"/>
+      <c r="A116" s="93"/>
       <c r="B116" s="67"/>
       <c r="C116" s="52"/>
       <c r="D116" s="53"/>
@@ -4373,7 +4440,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="77"/>
+      <c r="A117" s="93"/>
       <c r="B117" s="67"/>
       <c r="C117" s="52"/>
       <c r="D117" s="53"/>
@@ -4396,7 +4463,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="78"/>
+      <c r="A118" s="94"/>
       <c r="B118" s="69"/>
       <c r="C118" s="59"/>
       <c r="D118" s="60"/>
@@ -4419,7 +4486,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="77"/>
+      <c r="A119" s="93"/>
       <c r="B119" s="65"/>
       <c r="C119" s="71"/>
       <c r="D119" s="72"/>
@@ -4442,7 +4509,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="77"/>
+      <c r="A120" s="93"/>
       <c r="B120" s="67"/>
       <c r="C120" s="52"/>
       <c r="D120" s="53"/>
@@ -4465,7 +4532,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="77"/>
+      <c r="A121" s="93"/>
       <c r="B121" s="67"/>
       <c r="C121" s="52"/>
       <c r="D121" s="53"/>
@@ -4488,7 +4555,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="77"/>
+      <c r="A122" s="93"/>
       <c r="B122" s="67"/>
       <c r="C122" s="52"/>
       <c r="D122" s="53"/>
@@ -4511,7 +4578,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="77"/>
+      <c r="A123" s="93"/>
       <c r="B123" s="67"/>
       <c r="C123" s="52"/>
       <c r="D123" s="53"/>
@@ -4534,7 +4601,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="78"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="69"/>
       <c r="C124" s="59"/>
       <c r="D124" s="60"/>
@@ -4557,7 +4624,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="77"/>
+      <c r="A125" s="93"/>
       <c r="B125" s="65"/>
       <c r="C125" s="71"/>
       <c r="D125" s="72"/>
@@ -4580,7 +4647,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="77"/>
+      <c r="A126" s="93"/>
       <c r="B126" s="67"/>
       <c r="C126" s="52"/>
       <c r="D126" s="53"/>
@@ -4603,7 +4670,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="77"/>
+      <c r="A127" s="93"/>
       <c r="B127" s="67"/>
       <c r="C127" s="52"/>
       <c r="D127" s="53"/>
@@ -4626,7 +4693,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="77"/>
+      <c r="A128" s="93"/>
       <c r="B128" s="67"/>
       <c r="C128" s="52"/>
       <c r="D128" s="53"/>
@@ -4649,7 +4716,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="77"/>
+      <c r="A129" s="93"/>
       <c r="B129" s="67"/>
       <c r="C129" s="52"/>
       <c r="D129" s="53"/>
@@ -4672,7 +4739,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="78"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="69"/>
       <c r="C130" s="59"/>
       <c r="D130" s="60"/>
@@ -4695,7 +4762,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="77"/>
+      <c r="A131" s="93"/>
       <c r="B131" s="65"/>
       <c r="C131" s="71"/>
       <c r="D131" s="72"/>
@@ -4718,7 +4785,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="77"/>
+      <c r="A132" s="93"/>
       <c r="B132" s="67"/>
       <c r="C132" s="52"/>
       <c r="D132" s="53"/>
@@ -4741,7 +4808,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="77"/>
+      <c r="A133" s="93"/>
       <c r="B133" s="67"/>
       <c r="C133" s="52"/>
       <c r="D133" s="53"/>
@@ -4764,7 +4831,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="77"/>
+      <c r="A134" s="93"/>
       <c r="B134" s="67"/>
       <c r="C134" s="52"/>
       <c r="D134" s="53"/>
@@ -4787,7 +4854,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="77"/>
+      <c r="A135" s="93"/>
       <c r="B135" s="67"/>
       <c r="C135" s="52"/>
       <c r="D135" s="53"/>
@@ -4810,7 +4877,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="78"/>
+      <c r="A136" s="94"/>
       <c r="B136" s="69"/>
       <c r="C136" s="59"/>
       <c r="D136" s="60"/>
@@ -4833,7 +4900,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="77"/>
+      <c r="A137" s="93"/>
       <c r="B137" s="65"/>
       <c r="C137" s="71"/>
       <c r="D137" s="72"/>
@@ -4856,7 +4923,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A138" s="77"/>
+      <c r="A138" s="93"/>
       <c r="B138" s="67"/>
       <c r="C138" s="52"/>
       <c r="D138" s="53"/>
@@ -4879,7 +4946,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A139" s="77"/>
+      <c r="A139" s="93"/>
       <c r="B139" s="67"/>
       <c r="C139" s="52"/>
       <c r="D139" s="53"/>
@@ -4902,7 +4969,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A140" s="77"/>
+      <c r="A140" s="93"/>
       <c r="B140" s="67"/>
       <c r="C140" s="52"/>
       <c r="D140" s="53"/>
@@ -4925,7 +4992,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A141" s="77"/>
+      <c r="A141" s="93"/>
       <c r="B141" s="67"/>
       <c r="C141" s="52"/>
       <c r="D141" s="53"/>
@@ -4948,7 +5015,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A142" s="78"/>
+      <c r="A142" s="94"/>
       <c r="B142" s="69"/>
       <c r="C142" s="59"/>
       <c r="D142" s="60"/>
@@ -4971,7 +5038,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A143" s="77"/>
+      <c r="A143" s="93"/>
       <c r="B143" s="65"/>
       <c r="C143" s="71"/>
       <c r="D143" s="72"/>
@@ -4994,7 +5061,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="77"/>
+      <c r="A144" s="93"/>
       <c r="B144" s="67"/>
       <c r="C144" s="52"/>
       <c r="D144" s="53"/>
@@ -5017,7 +5084,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="77"/>
+      <c r="A145" s="93"/>
       <c r="B145" s="67"/>
       <c r="C145" s="52"/>
       <c r="D145" s="53"/>
@@ -5040,7 +5107,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A146" s="77"/>
+      <c r="A146" s="93"/>
       <c r="B146" s="67"/>
       <c r="C146" s="52"/>
       <c r="D146" s="53"/>
@@ -5063,7 +5130,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="77"/>
+      <c r="A147" s="93"/>
       <c r="B147" s="67"/>
       <c r="C147" s="52"/>
       <c r="D147" s="53"/>
@@ -5086,7 +5153,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="78"/>
+      <c r="A148" s="94"/>
       <c r="B148" s="69"/>
       <c r="C148" s="59"/>
       <c r="D148" s="60"/>
@@ -5109,7 +5176,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="77"/>
+      <c r="A149" s="93"/>
       <c r="B149" s="65"/>
       <c r="C149" s="71"/>
       <c r="D149" s="72"/>
@@ -5132,7 +5199,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A150" s="77"/>
+      <c r="A150" s="93"/>
       <c r="B150" s="67"/>
       <c r="C150" s="52"/>
       <c r="D150" s="53"/>
@@ -5155,7 +5222,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="77"/>
+      <c r="A151" s="93"/>
       <c r="B151" s="67"/>
       <c r="C151" s="52"/>
       <c r="D151" s="53"/>
@@ -5178,7 +5245,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A152" s="77"/>
+      <c r="A152" s="93"/>
       <c r="B152" s="67"/>
       <c r="C152" s="52"/>
       <c r="D152" s="53"/>
@@ -5201,7 +5268,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="77"/>
+      <c r="A153" s="93"/>
       <c r="B153" s="67"/>
       <c r="C153" s="52"/>
       <c r="D153" s="53"/>
@@ -5224,7 +5291,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="78"/>
+      <c r="A154" s="94"/>
       <c r="B154" s="69"/>
       <c r="C154" s="59"/>
       <c r="D154" s="60"/>
@@ -5247,7 +5314,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A155" s="77"/>
+      <c r="A155" s="93"/>
       <c r="B155" s="65"/>
       <c r="C155" s="71"/>
       <c r="D155" s="72"/>
@@ -5270,7 +5337,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A156" s="77"/>
+      <c r="A156" s="93"/>
       <c r="B156" s="67"/>
       <c r="C156" s="52"/>
       <c r="D156" s="53"/>
@@ -5293,7 +5360,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A157" s="77"/>
+      <c r="A157" s="93"/>
       <c r="B157" s="67"/>
       <c r="C157" s="52"/>
       <c r="D157" s="53"/>
@@ -5316,7 +5383,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A158" s="77"/>
+      <c r="A158" s="93"/>
       <c r="B158" s="67"/>
       <c r="C158" s="52"/>
       <c r="D158" s="53"/>
@@ -5339,7 +5406,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A159" s="77"/>
+      <c r="A159" s="93"/>
       <c r="B159" s="67"/>
       <c r="C159" s="52"/>
       <c r="D159" s="53"/>
@@ -5362,7 +5429,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A160" s="78"/>
+      <c r="A160" s="94"/>
       <c r="B160" s="69"/>
       <c r="C160" s="59"/>
       <c r="D160" s="60"/>
@@ -5385,7 +5452,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A161" s="77"/>
+      <c r="A161" s="93"/>
       <c r="B161" s="65"/>
       <c r="C161" s="71"/>
       <c r="D161" s="72"/>
@@ -5408,7 +5475,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A162" s="77"/>
+      <c r="A162" s="93"/>
       <c r="B162" s="67"/>
       <c r="C162" s="52"/>
       <c r="D162" s="53"/>
@@ -5431,7 +5498,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A163" s="77"/>
+      <c r="A163" s="93"/>
       <c r="B163" s="67"/>
       <c r="C163" s="52"/>
       <c r="D163" s="53"/>
@@ -5454,7 +5521,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A164" s="77"/>
+      <c r="A164" s="93"/>
       <c r="B164" s="67"/>
       <c r="C164" s="52"/>
       <c r="D164" s="53"/>
@@ -5477,7 +5544,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" s="77"/>
+      <c r="A165" s="93"/>
       <c r="B165" s="67"/>
       <c r="C165" s="52"/>
       <c r="D165" s="53"/>
@@ -5500,7 +5567,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A166" s="78"/>
+      <c r="A166" s="94"/>
       <c r="B166" s="69"/>
       <c r="C166" s="59"/>
       <c r="D166" s="60"/>
@@ -5523,7 +5590,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" s="77"/>
+      <c r="A167" s="93"/>
       <c r="B167" s="65"/>
       <c r="C167" s="71"/>
       <c r="D167" s="72"/>
@@ -5546,7 +5613,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" s="77"/>
+      <c r="A168" s="93"/>
       <c r="B168" s="67"/>
       <c r="C168" s="52"/>
       <c r="D168" s="53"/>
@@ -5569,7 +5636,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A169" s="77"/>
+      <c r="A169" s="93"/>
       <c r="B169" s="67"/>
       <c r="C169" s="52"/>
       <c r="D169" s="53"/>
@@ -5592,7 +5659,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A170" s="77"/>
+      <c r="A170" s="93"/>
       <c r="B170" s="67"/>
       <c r="C170" s="52"/>
       <c r="D170" s="53"/>
@@ -5615,7 +5682,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A171" s="77"/>
+      <c r="A171" s="93"/>
       <c r="B171" s="67"/>
       <c r="C171" s="52"/>
       <c r="D171" s="53"/>
@@ -5638,7 +5705,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A172" s="78"/>
+      <c r="A172" s="94"/>
       <c r="B172" s="69"/>
       <c r="C172" s="59"/>
       <c r="D172" s="60"/>
@@ -5661,7 +5728,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A173" s="77"/>
+      <c r="A173" s="93"/>
       <c r="B173" s="65"/>
       <c r="C173" s="71"/>
       <c r="D173" s="72"/>
@@ -5684,7 +5751,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A174" s="77"/>
+      <c r="A174" s="93"/>
       <c r="B174" s="67"/>
       <c r="C174" s="52"/>
       <c r="D174" s="53"/>
@@ -5707,7 +5774,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A175" s="77"/>
+      <c r="A175" s="93"/>
       <c r="B175" s="67"/>
       <c r="C175" s="52"/>
       <c r="D175" s="53"/>
@@ -5730,7 +5797,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A176" s="77"/>
+      <c r="A176" s="93"/>
       <c r="B176" s="67"/>
       <c r="C176" s="52"/>
       <c r="D176" s="53"/>
@@ -5753,7 +5820,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A177" s="77"/>
+      <c r="A177" s="93"/>
       <c r="B177" s="67"/>
       <c r="C177" s="52"/>
       <c r="D177" s="53"/>
@@ -5776,7 +5843,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A178" s="78"/>
+      <c r="A178" s="94"/>
       <c r="B178" s="69"/>
       <c r="C178" s="59"/>
       <c r="D178" s="60"/>
@@ -5799,7 +5866,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A179" s="77"/>
+      <c r="A179" s="93"/>
       <c r="B179" s="65"/>
       <c r="C179" s="71"/>
       <c r="D179" s="72"/>
@@ -5822,7 +5889,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A180" s="77"/>
+      <c r="A180" s="93"/>
       <c r="B180" s="67"/>
       <c r="C180" s="52"/>
       <c r="D180" s="53"/>
@@ -5845,7 +5912,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A181" s="77"/>
+      <c r="A181" s="93"/>
       <c r="B181" s="67"/>
       <c r="C181" s="52"/>
       <c r="D181" s="53"/>
@@ -5868,7 +5935,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A182" s="77"/>
+      <c r="A182" s="93"/>
       <c r="B182" s="67"/>
       <c r="C182" s="52"/>
       <c r="D182" s="53"/>
@@ -5891,7 +5958,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A183" s="77"/>
+      <c r="A183" s="93"/>
       <c r="B183" s="67"/>
       <c r="C183" s="52"/>
       <c r="D183" s="53"/>
@@ -5914,7 +5981,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A184" s="78"/>
+      <c r="A184" s="94"/>
       <c r="B184" s="69"/>
       <c r="C184" s="59"/>
       <c r="D184" s="60"/>
@@ -5937,7 +6004,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A185" s="77"/>
+      <c r="A185" s="93"/>
       <c r="B185" s="65"/>
       <c r="C185" s="71"/>
       <c r="D185" s="72"/>
@@ -5960,7 +6027,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A186" s="77"/>
+      <c r="A186" s="93"/>
       <c r="B186" s="67"/>
       <c r="C186" s="52"/>
       <c r="D186" s="53"/>
@@ -5983,7 +6050,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A187" s="77"/>
+      <c r="A187" s="93"/>
       <c r="B187" s="67"/>
       <c r="C187" s="52"/>
       <c r="D187" s="53"/>
@@ -6006,7 +6073,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A188" s="77"/>
+      <c r="A188" s="93"/>
       <c r="B188" s="67"/>
       <c r="C188" s="52"/>
       <c r="D188" s="53"/>
@@ -6029,7 +6096,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A189" s="77"/>
+      <c r="A189" s="93"/>
       <c r="B189" s="67"/>
       <c r="C189" s="52"/>
       <c r="D189" s="53"/>
@@ -6052,7 +6119,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A190" s="78"/>
+      <c r="A190" s="94"/>
       <c r="B190" s="69"/>
       <c r="C190" s="59"/>
       <c r="D190" s="60"/>
@@ -6075,7 +6142,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A191" s="77"/>
+      <c r="A191" s="93"/>
       <c r="B191" s="65"/>
       <c r="C191" s="71"/>
       <c r="D191" s="72"/>
@@ -6098,7 +6165,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A192" s="77"/>
+      <c r="A192" s="93"/>
       <c r="B192" s="67"/>
       <c r="C192" s="52"/>
       <c r="D192" s="53"/>
@@ -6121,7 +6188,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A193" s="77"/>
+      <c r="A193" s="93"/>
       <c r="B193" s="67"/>
       <c r="C193" s="52"/>
       <c r="D193" s="53"/>
@@ -6144,7 +6211,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A194" s="77"/>
+      <c r="A194" s="93"/>
       <c r="B194" s="67"/>
       <c r="C194" s="52"/>
       <c r="D194" s="53"/>
@@ -6167,7 +6234,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A195" s="77"/>
+      <c r="A195" s="93"/>
       <c r="B195" s="67"/>
       <c r="C195" s="52"/>
       <c r="D195" s="53"/>
@@ -6190,7 +6257,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A196" s="78"/>
+      <c r="A196" s="94"/>
       <c r="B196" s="69"/>
       <c r="C196" s="59"/>
       <c r="D196" s="60"/>
@@ -6213,7 +6280,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A197" s="77"/>
+      <c r="A197" s="93"/>
       <c r="B197" s="65"/>
       <c r="C197" s="71"/>
       <c r="D197" s="72"/>
@@ -6236,7 +6303,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A198" s="77"/>
+      <c r="A198" s="93"/>
       <c r="B198" s="67"/>
       <c r="C198" s="52"/>
       <c r="D198" s="53"/>
@@ -6259,7 +6326,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A199" s="77"/>
+      <c r="A199" s="93"/>
       <c r="B199" s="67"/>
       <c r="C199" s="52"/>
       <c r="D199" s="53"/>
@@ -6282,7 +6349,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A200" s="77"/>
+      <c r="A200" s="93"/>
       <c r="B200" s="67"/>
       <c r="C200" s="52"/>
       <c r="D200" s="53"/>
@@ -6305,7 +6372,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A201" s="77"/>
+      <c r="A201" s="93"/>
       <c r="B201" s="67"/>
       <c r="C201" s="52"/>
       <c r="D201" s="53"/>
@@ -6328,7 +6395,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A202" s="78"/>
+      <c r="A202" s="94"/>
       <c r="B202" s="69"/>
       <c r="C202" s="59"/>
       <c r="D202" s="60"/>
@@ -6351,7 +6418,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A203" s="77"/>
+      <c r="A203" s="93"/>
       <c r="B203" s="65"/>
       <c r="C203" s="71"/>
       <c r="D203" s="72"/>
@@ -6374,7 +6441,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A204" s="77"/>
+      <c r="A204" s="93"/>
       <c r="B204" s="67"/>
       <c r="C204" s="52"/>
       <c r="D204" s="53"/>
@@ -6397,7 +6464,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A205" s="77"/>
+      <c r="A205" s="93"/>
       <c r="B205" s="67"/>
       <c r="C205" s="52"/>
       <c r="D205" s="53"/>
@@ -6420,7 +6487,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A206" s="77"/>
+      <c r="A206" s="93"/>
       <c r="B206" s="67"/>
       <c r="C206" s="52"/>
       <c r="D206" s="53"/>
@@ -6443,7 +6510,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A207" s="77"/>
+      <c r="A207" s="93"/>
       <c r="B207" s="67"/>
       <c r="C207" s="52"/>
       <c r="D207" s="53"/>
@@ -6466,7 +6533,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A208" s="78"/>
+      <c r="A208" s="94"/>
       <c r="B208" s="69"/>
       <c r="C208" s="59"/>
       <c r="D208" s="60"/>
@@ -6489,7 +6556,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A209" s="77"/>
+      <c r="A209" s="93"/>
       <c r="B209" s="65"/>
       <c r="C209" s="71"/>
       <c r="D209" s="72"/>
@@ -6512,7 +6579,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A210" s="77"/>
+      <c r="A210" s="93"/>
       <c r="B210" s="67"/>
       <c r="C210" s="52"/>
       <c r="D210" s="53"/>
@@ -6535,7 +6602,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A211" s="77"/>
+      <c r="A211" s="93"/>
       <c r="B211" s="67"/>
       <c r="C211" s="52"/>
       <c r="D211" s="53"/>
@@ -6558,7 +6625,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A212" s="77"/>
+      <c r="A212" s="93"/>
       <c r="B212" s="67"/>
       <c r="C212" s="52"/>
       <c r="D212" s="53"/>
@@ -6581,7 +6648,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A213" s="77"/>
+      <c r="A213" s="93"/>
       <c r="B213" s="67"/>
       <c r="C213" s="52"/>
       <c r="D213" s="53"/>
@@ -6604,7 +6671,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A214" s="78"/>
+      <c r="A214" s="94"/>
       <c r="B214" s="69"/>
       <c r="C214" s="59"/>
       <c r="D214" s="60"/>
@@ -6627,7 +6694,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A215" s="77"/>
+      <c r="A215" s="93"/>
       <c r="B215" s="65"/>
       <c r="C215" s="71"/>
       <c r="D215" s="72"/>
@@ -6650,7 +6717,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A216" s="77"/>
+      <c r="A216" s="93"/>
       <c r="B216" s="67"/>
       <c r="C216" s="52"/>
       <c r="D216" s="53"/>
@@ -6673,7 +6740,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A217" s="77"/>
+      <c r="A217" s="93"/>
       <c r="B217" s="67"/>
       <c r="C217" s="52"/>
       <c r="D217" s="53"/>
@@ -6696,7 +6763,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A218" s="77"/>
+      <c r="A218" s="93"/>
       <c r="B218" s="67"/>
       <c r="C218" s="52"/>
       <c r="D218" s="53"/>
@@ -6719,7 +6786,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A219" s="77"/>
+      <c r="A219" s="93"/>
       <c r="B219" s="67"/>
       <c r="C219" s="52"/>
       <c r="D219" s="53"/>
@@ -6742,7 +6809,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A220" s="78"/>
+      <c r="A220" s="94"/>
       <c r="B220" s="69"/>
       <c r="C220" s="59"/>
       <c r="D220" s="60"/>
@@ -6765,7 +6832,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A221" s="77"/>
+      <c r="A221" s="93"/>
       <c r="B221" s="65"/>
       <c r="C221" s="71"/>
       <c r="D221" s="72"/>
@@ -6788,7 +6855,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A222" s="77"/>
+      <c r="A222" s="93"/>
       <c r="B222" s="67"/>
       <c r="C222" s="52"/>
       <c r="D222" s="53"/>
@@ -6811,7 +6878,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A223" s="77"/>
+      <c r="A223" s="93"/>
       <c r="B223" s="67"/>
       <c r="C223" s="52"/>
       <c r="D223" s="53"/>
@@ -6834,7 +6901,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A224" s="77"/>
+      <c r="A224" s="93"/>
       <c r="B224" s="67"/>
       <c r="C224" s="52"/>
       <c r="D224" s="53"/>
@@ -6857,7 +6924,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A225" s="77"/>
+      <c r="A225" s="93"/>
       <c r="B225" s="67"/>
       <c r="C225" s="52"/>
       <c r="D225" s="53"/>
@@ -6880,7 +6947,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A226" s="78"/>
+      <c r="A226" s="94"/>
       <c r="B226" s="69"/>
       <c r="C226" s="59"/>
       <c r="D226" s="60"/>
@@ -6903,7 +6970,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A227" s="77"/>
+      <c r="A227" s="93"/>
       <c r="B227" s="65"/>
       <c r="C227" s="71"/>
       <c r="D227" s="72"/>
@@ -6926,7 +6993,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A228" s="77"/>
+      <c r="A228" s="93"/>
       <c r="B228" s="67"/>
       <c r="C228" s="52"/>
       <c r="D228" s="53"/>
@@ -6949,7 +7016,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A229" s="77"/>
+      <c r="A229" s="93"/>
       <c r="B229" s="67"/>
       <c r="C229" s="52"/>
       <c r="D229" s="53"/>
@@ -6972,7 +7039,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A230" s="77"/>
+      <c r="A230" s="93"/>
       <c r="B230" s="67"/>
       <c r="C230" s="52"/>
       <c r="D230" s="53"/>
@@ -6995,7 +7062,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A231" s="77"/>
+      <c r="A231" s="93"/>
       <c r="B231" s="67"/>
       <c r="C231" s="52"/>
       <c r="D231" s="53"/>
@@ -7018,7 +7085,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A232" s="78"/>
+      <c r="A232" s="94"/>
       <c r="B232" s="69"/>
       <c r="C232" s="59"/>
       <c r="D232" s="60"/>
@@ -7041,7 +7108,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A233" s="77"/>
+      <c r="A233" s="93"/>
       <c r="B233" s="65"/>
       <c r="C233" s="71"/>
       <c r="D233" s="72"/>
@@ -7064,7 +7131,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A234" s="77"/>
+      <c r="A234" s="93"/>
       <c r="B234" s="67"/>
       <c r="C234" s="52"/>
       <c r="D234" s="53"/>
@@ -7087,7 +7154,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A235" s="77"/>
+      <c r="A235" s="93"/>
       <c r="B235" s="67"/>
       <c r="C235" s="52"/>
       <c r="D235" s="53"/>
@@ -7110,7 +7177,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A236" s="77"/>
+      <c r="A236" s="93"/>
       <c r="B236" s="67"/>
       <c r="C236" s="52"/>
       <c r="D236" s="53"/>
@@ -7133,7 +7200,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A237" s="77"/>
+      <c r="A237" s="93"/>
       <c r="B237" s="67"/>
       <c r="C237" s="52"/>
       <c r="D237" s="53"/>
@@ -7156,7 +7223,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A238" s="78"/>
+      <c r="A238" s="94"/>
       <c r="B238" s="69"/>
       <c r="C238" s="59"/>
       <c r="D238" s="60"/>
@@ -7179,7 +7246,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A239" s="77"/>
+      <c r="A239" s="93"/>
       <c r="B239" s="65"/>
       <c r="C239" s="71"/>
       <c r="D239" s="72"/>
@@ -7202,7 +7269,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A240" s="77"/>
+      <c r="A240" s="93"/>
       <c r="B240" s="67"/>
       <c r="C240" s="52"/>
       <c r="D240" s="53"/>
@@ -7225,7 +7292,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A241" s="77"/>
+      <c r="A241" s="93"/>
       <c r="B241" s="67"/>
       <c r="C241" s="52"/>
       <c r="D241" s="53"/>
@@ -7248,7 +7315,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A242" s="77"/>
+      <c r="A242" s="93"/>
       <c r="B242" s="67"/>
       <c r="C242" s="52"/>
       <c r="D242" s="53"/>
@@ -7271,7 +7338,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A243" s="77"/>
+      <c r="A243" s="93"/>
       <c r="B243" s="67"/>
       <c r="C243" s="52"/>
       <c r="D243" s="53"/>
@@ -7294,7 +7361,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A244" s="78"/>
+      <c r="A244" s="94"/>
       <c r="B244" s="69"/>
       <c r="C244" s="59"/>
       <c r="D244" s="60"/>
@@ -7317,7 +7384,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A245" s="77"/>
+      <c r="A245" s="93"/>
       <c r="B245" s="65"/>
       <c r="C245" s="71"/>
       <c r="D245" s="72"/>
@@ -7340,7 +7407,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A246" s="77"/>
+      <c r="A246" s="93"/>
       <c r="B246" s="67"/>
       <c r="C246" s="52"/>
       <c r="D246" s="53"/>
@@ -7363,7 +7430,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A247" s="77"/>
+      <c r="A247" s="93"/>
       <c r="B247" s="67"/>
       <c r="C247" s="52"/>
       <c r="D247" s="53"/>
@@ -7386,7 +7453,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A248" s="77"/>
+      <c r="A248" s="93"/>
       <c r="B248" s="67"/>
       <c r="C248" s="52"/>
       <c r="D248" s="53"/>
@@ -7409,7 +7476,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A249" s="77"/>
+      <c r="A249" s="93"/>
       <c r="B249" s="67"/>
       <c r="C249" s="52"/>
       <c r="D249" s="53"/>
@@ -7432,7 +7499,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A250" s="78"/>
+      <c r="A250" s="94"/>
       <c r="B250" s="69"/>
       <c r="C250" s="59"/>
       <c r="D250" s="60"/>
@@ -7455,7 +7522,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A251" s="77"/>
+      <c r="A251" s="93"/>
       <c r="B251" s="65"/>
       <c r="C251" s="71"/>
       <c r="D251" s="72"/>
@@ -7478,7 +7545,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A252" s="77"/>
+      <c r="A252" s="93"/>
       <c r="B252" s="67"/>
       <c r="C252" s="52"/>
       <c r="D252" s="53"/>
@@ -7501,7 +7568,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A253" s="77"/>
+      <c r="A253" s="93"/>
       <c r="B253" s="67"/>
       <c r="C253" s="52"/>
       <c r="D253" s="53"/>
@@ -7524,7 +7591,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A254" s="77"/>
+      <c r="A254" s="93"/>
       <c r="B254" s="67"/>
       <c r="C254" s="52"/>
       <c r="D254" s="53"/>
@@ -7547,7 +7614,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A255" s="77"/>
+      <c r="A255" s="93"/>
       <c r="B255" s="67"/>
       <c r="C255" s="52"/>
       <c r="D255" s="53"/>
@@ -7570,7 +7637,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A256" s="78"/>
+      <c r="A256" s="94"/>
       <c r="B256" s="69"/>
       <c r="C256" s="59"/>
       <c r="D256" s="60"/>
@@ -7593,7 +7660,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A257" s="77"/>
+      <c r="A257" s="93"/>
       <c r="B257" s="65"/>
       <c r="C257" s="71"/>
       <c r="D257" s="72"/>
@@ -7616,7 +7683,7 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A258" s="77"/>
+      <c r="A258" s="93"/>
       <c r="B258" s="67"/>
       <c r="C258" s="52"/>
       <c r="D258" s="53"/>
@@ -7639,7 +7706,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A259" s="77"/>
+      <c r="A259" s="93"/>
       <c r="B259" s="67"/>
       <c r="C259" s="52"/>
       <c r="D259" s="53"/>
@@ -7662,7 +7729,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A260" s="77"/>
+      <c r="A260" s="93"/>
       <c r="B260" s="67"/>
       <c r="C260" s="52"/>
       <c r="D260" s="53"/>
@@ -7685,7 +7752,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A261" s="77"/>
+      <c r="A261" s="93"/>
       <c r="B261" s="67"/>
       <c r="C261" s="52"/>
       <c r="D261" s="53"/>
@@ -7708,7 +7775,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A262" s="78"/>
+      <c r="A262" s="94"/>
       <c r="B262" s="69"/>
       <c r="C262" s="59"/>
       <c r="D262" s="60"/>
@@ -7731,7 +7798,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A263" s="77"/>
+      <c r="A263" s="93"/>
       <c r="B263" s="65"/>
       <c r="C263" s="71"/>
       <c r="D263" s="72"/>
@@ -7754,7 +7821,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A264" s="77"/>
+      <c r="A264" s="93"/>
       <c r="B264" s="67"/>
       <c r="C264" s="52"/>
       <c r="D264" s="53"/>
@@ -7777,7 +7844,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A265" s="77"/>
+      <c r="A265" s="93"/>
       <c r="B265" s="67"/>
       <c r="C265" s="52"/>
       <c r="D265" s="53"/>
@@ -7800,7 +7867,7 @@
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A266" s="77"/>
+      <c r="A266" s="93"/>
       <c r="B266" s="67"/>
       <c r="C266" s="52"/>
       <c r="D266" s="53"/>
@@ -7823,7 +7890,7 @@
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A267" s="77"/>
+      <c r="A267" s="93"/>
       <c r="B267" s="67"/>
       <c r="C267" s="52"/>
       <c r="D267" s="53"/>
@@ -7846,7 +7913,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A268" s="78"/>
+      <c r="A268" s="94"/>
       <c r="B268" s="69"/>
       <c r="C268" s="59"/>
       <c r="D268" s="60"/>
@@ -7869,7 +7936,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A269" s="77"/>
+      <c r="A269" s="93"/>
       <c r="B269" s="65"/>
       <c r="C269" s="71"/>
       <c r="D269" s="72"/>
@@ -7892,7 +7959,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A270" s="77"/>
+      <c r="A270" s="93"/>
       <c r="B270" s="67"/>
       <c r="C270" s="52"/>
       <c r="D270" s="53"/>
@@ -7915,7 +7982,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A271" s="77"/>
+      <c r="A271" s="93"/>
       <c r="B271" s="67"/>
       <c r="C271" s="52"/>
       <c r="D271" s="53"/>
@@ -7938,7 +8005,7 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A272" s="77"/>
+      <c r="A272" s="93"/>
       <c r="B272" s="67"/>
       <c r="C272" s="52"/>
       <c r="D272" s="53"/>
@@ -7961,7 +8028,7 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A273" s="77"/>
+      <c r="A273" s="93"/>
       <c r="B273" s="67"/>
       <c r="C273" s="52"/>
       <c r="D273" s="53"/>
@@ -7984,7 +8051,7 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A274" s="78"/>
+      <c r="A274" s="94"/>
       <c r="B274" s="69"/>
       <c r="C274" s="59"/>
       <c r="D274" s="60"/>
@@ -8007,7 +8074,7 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A275" s="77"/>
+      <c r="A275" s="93"/>
       <c r="B275" s="65"/>
       <c r="C275" s="71"/>
       <c r="D275" s="72"/>
@@ -8030,7 +8097,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A276" s="77"/>
+      <c r="A276" s="93"/>
       <c r="B276" s="67"/>
       <c r="C276" s="52"/>
       <c r="D276" s="53"/>
@@ -8053,7 +8120,7 @@
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A277" s="77"/>
+      <c r="A277" s="93"/>
       <c r="B277" s="67"/>
       <c r="C277" s="52"/>
       <c r="D277" s="53"/>
@@ -8076,7 +8143,7 @@
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A278" s="77"/>
+      <c r="A278" s="93"/>
       <c r="B278" s="67"/>
       <c r="C278" s="52"/>
       <c r="D278" s="53"/>
@@ -8099,7 +8166,7 @@
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A279" s="77"/>
+      <c r="A279" s="93"/>
       <c r="B279" s="67"/>
       <c r="C279" s="52"/>
       <c r="D279" s="53"/>
@@ -8122,7 +8189,7 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A280" s="78"/>
+      <c r="A280" s="94"/>
       <c r="B280" s="69"/>
       <c r="C280" s="59"/>
       <c r="D280" s="60"/>
@@ -8145,7 +8212,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A281" s="77"/>
+      <c r="A281" s="93"/>
       <c r="B281" s="65"/>
       <c r="C281" s="71"/>
       <c r="D281" s="72"/>
@@ -8168,7 +8235,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A282" s="77"/>
+      <c r="A282" s="93"/>
       <c r="B282" s="67"/>
       <c r="C282" s="52"/>
       <c r="D282" s="53"/>
@@ -8191,7 +8258,7 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A283" s="77"/>
+      <c r="A283" s="93"/>
       <c r="B283" s="67"/>
       <c r="C283" s="52"/>
       <c r="D283" s="53"/>
@@ -8214,7 +8281,7 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A284" s="77"/>
+      <c r="A284" s="93"/>
       <c r="B284" s="67"/>
       <c r="C284" s="52"/>
       <c r="D284" s="53"/>
@@ -8237,7 +8304,7 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A285" s="77"/>
+      <c r="A285" s="93"/>
       <c r="B285" s="67"/>
       <c r="C285" s="52"/>
       <c r="D285" s="53"/>
@@ -8260,7 +8327,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A286" s="78"/>
+      <c r="A286" s="94"/>
       <c r="B286" s="69"/>
       <c r="C286" s="59"/>
       <c r="D286" s="60"/>
@@ -8283,7 +8350,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A287" s="77"/>
+      <c r="A287" s="93"/>
       <c r="B287" s="65"/>
       <c r="C287" s="71"/>
       <c r="D287" s="72"/>
@@ -8306,7 +8373,7 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A288" s="77"/>
+      <c r="A288" s="93"/>
       <c r="B288" s="67"/>
       <c r="C288" s="52"/>
       <c r="D288" s="53"/>
@@ -8329,7 +8396,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A289" s="77"/>
+      <c r="A289" s="93"/>
       <c r="B289" s="67"/>
       <c r="C289" s="52"/>
       <c r="D289" s="53"/>
@@ -8352,7 +8419,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A290" s="77"/>
+      <c r="A290" s="93"/>
       <c r="B290" s="67"/>
       <c r="C290" s="52"/>
       <c r="D290" s="53"/>
@@ -8375,7 +8442,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A291" s="77"/>
+      <c r="A291" s="93"/>
       <c r="B291" s="67"/>
       <c r="C291" s="52"/>
       <c r="D291" s="53"/>
@@ -8398,7 +8465,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A292" s="78"/>
+      <c r="A292" s="94"/>
       <c r="B292" s="69"/>
       <c r="C292" s="59"/>
       <c r="D292" s="60"/>
@@ -8421,7 +8488,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A293" s="77"/>
+      <c r="A293" s="93"/>
       <c r="B293" s="65"/>
       <c r="C293" s="71"/>
       <c r="D293" s="72"/>
@@ -8444,7 +8511,7 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A294" s="77"/>
+      <c r="A294" s="93"/>
       <c r="B294" s="67"/>
       <c r="C294" s="52"/>
       <c r="D294" s="53"/>
@@ -8467,7 +8534,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A295" s="77"/>
+      <c r="A295" s="93"/>
       <c r="B295" s="67"/>
       <c r="C295" s="52"/>
       <c r="D295" s="53"/>
@@ -8490,7 +8557,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A296" s="77"/>
+      <c r="A296" s="93"/>
       <c r="B296" s="67"/>
       <c r="C296" s="52"/>
       <c r="D296" s="53"/>
@@ -8513,7 +8580,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A297" s="77"/>
+      <c r="A297" s="93"/>
       <c r="B297" s="67"/>
       <c r="C297" s="52"/>
       <c r="D297" s="53"/>
@@ -8536,7 +8603,7 @@
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A298" s="78"/>
+      <c r="A298" s="94"/>
       <c r="B298" s="69"/>
       <c r="C298" s="59"/>
       <c r="D298" s="60"/>
@@ -8559,7 +8626,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A299" s="77"/>
+      <c r="A299" s="93"/>
       <c r="B299" s="65"/>
       <c r="C299" s="71"/>
       <c r="D299" s="72"/>
@@ -8582,7 +8649,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A300" s="77"/>
+      <c r="A300" s="93"/>
       <c r="B300" s="67"/>
       <c r="C300" s="52"/>
       <c r="D300" s="53"/>
@@ -8605,7 +8672,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A301" s="77"/>
+      <c r="A301" s="93"/>
       <c r="B301" s="67"/>
       <c r="C301" s="52"/>
       <c r="D301" s="53"/>
@@ -8628,7 +8695,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A302" s="77"/>
+      <c r="A302" s="93"/>
       <c r="B302" s="67"/>
       <c r="C302" s="52"/>
       <c r="D302" s="53"/>
@@ -8651,7 +8718,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A303" s="77"/>
+      <c r="A303" s="93"/>
       <c r="B303" s="67"/>
       <c r="C303" s="52"/>
       <c r="D303" s="53"/>
@@ -8674,7 +8741,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A304" s="78"/>
+      <c r="A304" s="94"/>
       <c r="B304" s="69"/>
       <c r="C304" s="59"/>
       <c r="D304" s="60"/>
@@ -8697,7 +8764,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A305" s="77"/>
+      <c r="A305" s="93"/>
       <c r="B305" s="65"/>
       <c r="C305" s="71"/>
       <c r="D305" s="72"/>
@@ -8720,7 +8787,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A306" s="77"/>
+      <c r="A306" s="93"/>
       <c r="B306" s="67"/>
       <c r="C306" s="52"/>
       <c r="D306" s="53"/>
@@ -8743,7 +8810,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A307" s="77"/>
+      <c r="A307" s="93"/>
       <c r="B307" s="67"/>
       <c r="C307" s="52"/>
       <c r="D307" s="53"/>
@@ -8766,7 +8833,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A308" s="77"/>
+      <c r="A308" s="93"/>
       <c r="B308" s="67"/>
       <c r="C308" s="52"/>
       <c r="D308" s="53"/>
@@ -8789,7 +8856,7 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A309" s="77"/>
+      <c r="A309" s="93"/>
       <c r="B309" s="67"/>
       <c r="C309" s="52"/>
       <c r="D309" s="53"/>
@@ -8812,7 +8879,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A310" s="78"/>
+      <c r="A310" s="94"/>
       <c r="B310" s="69"/>
       <c r="C310" s="59"/>
       <c r="D310" s="60"/>
@@ -8835,7 +8902,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A311" s="77"/>
+      <c r="A311" s="93"/>
       <c r="B311" s="65"/>
       <c r="C311" s="71"/>
       <c r="D311" s="72"/>
@@ -8858,7 +8925,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A312" s="77"/>
+      <c r="A312" s="93"/>
       <c r="B312" s="67"/>
       <c r="C312" s="52"/>
       <c r="D312" s="53"/>
@@ -8881,7 +8948,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A313" s="77"/>
+      <c r="A313" s="93"/>
       <c r="B313" s="67"/>
       <c r="C313" s="52"/>
       <c r="D313" s="53"/>
@@ -8904,7 +8971,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A314" s="77"/>
+      <c r="A314" s="93"/>
       <c r="B314" s="67"/>
       <c r="C314" s="52"/>
       <c r="D314" s="53"/>
@@ -8927,7 +8994,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A315" s="77"/>
+      <c r="A315" s="93"/>
       <c r="B315" s="67"/>
       <c r="C315" s="52"/>
       <c r="D315" s="53"/>
@@ -8950,7 +9017,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A316" s="78"/>
+      <c r="A316" s="94"/>
       <c r="B316" s="69"/>
       <c r="C316" s="59"/>
       <c r="D316" s="60"/>
@@ -8973,7 +9040,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A317" s="77"/>
+      <c r="A317" s="93"/>
       <c r="B317" s="65"/>
       <c r="C317" s="71"/>
       <c r="D317" s="72"/>
@@ -8996,7 +9063,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A318" s="77"/>
+      <c r="A318" s="93"/>
       <c r="B318" s="67"/>
       <c r="C318" s="52"/>
       <c r="D318" s="53"/>
@@ -9019,7 +9086,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A319" s="77"/>
+      <c r="A319" s="93"/>
       <c r="B319" s="67"/>
       <c r="C319" s="52"/>
       <c r="D319" s="53"/>
@@ -9042,7 +9109,7 @@
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A320" s="77"/>
+      <c r="A320" s="93"/>
       <c r="B320" s="67"/>
       <c r="C320" s="52"/>
       <c r="D320" s="53"/>
@@ -9065,7 +9132,7 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A321" s="77"/>
+      <c r="A321" s="93"/>
       <c r="B321" s="67"/>
       <c r="C321" s="52"/>
       <c r="D321" s="53"/>
@@ -9088,7 +9155,7 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A322" s="78"/>
+      <c r="A322" s="94"/>
       <c r="B322" s="69"/>
       <c r="C322" s="59"/>
       <c r="D322" s="60"/>
@@ -9111,7 +9178,7 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A323" s="77"/>
+      <c r="A323" s="93"/>
       <c r="B323" s="65"/>
       <c r="C323" s="71"/>
       <c r="D323" s="72"/>
@@ -9134,7 +9201,7 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A324" s="77"/>
+      <c r="A324" s="93"/>
       <c r="B324" s="67"/>
       <c r="C324" s="52"/>
       <c r="D324" s="53"/>
@@ -9157,7 +9224,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A325" s="77"/>
+      <c r="A325" s="93"/>
       <c r="B325" s="67"/>
       <c r="C325" s="52"/>
       <c r="D325" s="53"/>
@@ -9180,7 +9247,7 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A326" s="77"/>
+      <c r="A326" s="93"/>
       <c r="B326" s="67"/>
       <c r="C326" s="52"/>
       <c r="D326" s="53"/>
@@ -9203,7 +9270,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A327" s="77"/>
+      <c r="A327" s="93"/>
       <c r="B327" s="67"/>
       <c r="C327" s="52"/>
       <c r="D327" s="53"/>
@@ -9226,7 +9293,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A328" s="78"/>
+      <c r="A328" s="94"/>
       <c r="B328" s="69"/>
       <c r="C328" s="59"/>
       <c r="D328" s="60"/>
@@ -9249,7 +9316,7 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A329" s="77"/>
+      <c r="A329" s="93"/>
       <c r="B329" s="65"/>
       <c r="C329" s="71"/>
       <c r="D329" s="72"/>
@@ -9272,7 +9339,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A330" s="77"/>
+      <c r="A330" s="93"/>
       <c r="B330" s="67"/>
       <c r="C330" s="52"/>
       <c r="D330" s="53"/>
@@ -9295,7 +9362,7 @@
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A331" s="77"/>
+      <c r="A331" s="93"/>
       <c r="B331" s="67"/>
       <c r="C331" s="52"/>
       <c r="D331" s="53"/>
@@ -9318,7 +9385,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A332" s="77"/>
+      <c r="A332" s="93"/>
       <c r="B332" s="67"/>
       <c r="C332" s="52"/>
       <c r="D332" s="53"/>
@@ -9341,7 +9408,7 @@
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A333" s="77"/>
+      <c r="A333" s="93"/>
       <c r="B333" s="67"/>
       <c r="C333" s="52"/>
       <c r="D333" s="53"/>
@@ -9364,7 +9431,7 @@
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A334" s="78"/>
+      <c r="A334" s="94"/>
       <c r="B334" s="69"/>
       <c r="C334" s="59"/>
       <c r="D334" s="60"/>
@@ -9387,7 +9454,7 @@
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A335" s="77"/>
+      <c r="A335" s="93"/>
       <c r="B335" s="65"/>
       <c r="C335" s="71"/>
       <c r="D335" s="72"/>
@@ -9410,7 +9477,7 @@
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A336" s="77"/>
+      <c r="A336" s="93"/>
       <c r="B336" s="67"/>
       <c r="C336" s="52"/>
       <c r="D336" s="53"/>
@@ -9433,7 +9500,7 @@
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A337" s="77"/>
+      <c r="A337" s="93"/>
       <c r="B337" s="67"/>
       <c r="C337" s="52"/>
       <c r="D337" s="53"/>
@@ -9456,7 +9523,7 @@
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A338" s="77"/>
+      <c r="A338" s="93"/>
       <c r="B338" s="67"/>
       <c r="C338" s="52"/>
       <c r="D338" s="53"/>
@@ -9479,7 +9546,7 @@
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A339" s="77"/>
+      <c r="A339" s="93"/>
       <c r="B339" s="67"/>
       <c r="C339" s="52"/>
       <c r="D339" s="53"/>
@@ -9502,7 +9569,7 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A340" s="78"/>
+      <c r="A340" s="94"/>
       <c r="B340" s="69"/>
       <c r="C340" s="59"/>
       <c r="D340" s="60"/>
@@ -9525,7 +9592,7 @@
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A341" s="77"/>
+      <c r="A341" s="93"/>
       <c r="B341" s="65"/>
       <c r="C341" s="71"/>
       <c r="D341" s="72"/>
@@ -9548,7 +9615,7 @@
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A342" s="77"/>
+      <c r="A342" s="93"/>
       <c r="B342" s="67"/>
       <c r="C342" s="52"/>
       <c r="D342" s="53"/>
@@ -9571,7 +9638,7 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A343" s="77"/>
+      <c r="A343" s="93"/>
       <c r="B343" s="67"/>
       <c r="C343" s="52"/>
       <c r="D343" s="53"/>
@@ -9594,7 +9661,7 @@
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A344" s="77"/>
+      <c r="A344" s="93"/>
       <c r="B344" s="67"/>
       <c r="C344" s="52"/>
       <c r="D344" s="53"/>
@@ -9617,7 +9684,7 @@
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A345" s="77"/>
+      <c r="A345" s="93"/>
       <c r="B345" s="67"/>
       <c r="C345" s="52"/>
       <c r="D345" s="53"/>
@@ -9640,7 +9707,7 @@
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A346" s="78"/>
+      <c r="A346" s="94"/>
       <c r="B346" s="69"/>
       <c r="C346" s="59"/>
       <c r="D346" s="60"/>
@@ -9663,7 +9730,7 @@
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A347" s="77"/>
+      <c r="A347" s="93"/>
       <c r="B347" s="65"/>
       <c r="C347" s="71"/>
       <c r="D347" s="72"/>
@@ -9686,7 +9753,7 @@
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A348" s="77"/>
+      <c r="A348" s="93"/>
       <c r="B348" s="67"/>
       <c r="C348" s="52"/>
       <c r="D348" s="53"/>
@@ -9709,7 +9776,7 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A349" s="77"/>
+      <c r="A349" s="93"/>
       <c r="B349" s="67"/>
       <c r="C349" s="52"/>
       <c r="D349" s="53"/>
@@ -9732,7 +9799,7 @@
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A350" s="77"/>
+      <c r="A350" s="93"/>
       <c r="B350" s="67"/>
       <c r="C350" s="52"/>
       <c r="D350" s="53"/>
@@ -9755,7 +9822,7 @@
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A351" s="77"/>
+      <c r="A351" s="93"/>
       <c r="B351" s="67"/>
       <c r="C351" s="52"/>
       <c r="D351" s="53"/>
@@ -9778,7 +9845,7 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A352" s="78"/>
+      <c r="A352" s="94"/>
       <c r="B352" s="69"/>
       <c r="C352" s="59"/>
       <c r="D352" s="60"/>
@@ -9801,7 +9868,7 @@
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A353" s="77"/>
+      <c r="A353" s="93"/>
       <c r="B353" s="65"/>
       <c r="C353" s="71"/>
       <c r="D353" s="72"/>
@@ -9824,7 +9891,7 @@
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A354" s="77"/>
+      <c r="A354" s="93"/>
       <c r="B354" s="67"/>
       <c r="C354" s="52"/>
       <c r="D354" s="53"/>
@@ -9847,7 +9914,7 @@
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A355" s="77"/>
+      <c r="A355" s="93"/>
       <c r="B355" s="67"/>
       <c r="C355" s="52"/>
       <c r="D355" s="53"/>
@@ -9870,7 +9937,7 @@
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A356" s="77"/>
+      <c r="A356" s="93"/>
       <c r="B356" s="67"/>
       <c r="C356" s="52"/>
       <c r="D356" s="53"/>
@@ -9893,7 +9960,7 @@
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A357" s="77"/>
+      <c r="A357" s="93"/>
       <c r="B357" s="67"/>
       <c r="C357" s="52"/>
       <c r="D357" s="53"/>
@@ -9916,7 +9983,7 @@
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A358" s="78"/>
+      <c r="A358" s="94"/>
       <c r="B358" s="69"/>
       <c r="C358" s="59"/>
       <c r="D358" s="60"/>
@@ -9939,7 +10006,7 @@
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A359" s="77"/>
+      <c r="A359" s="93"/>
       <c r="B359" s="65"/>
       <c r="C359" s="71"/>
       <c r="D359" s="72"/>
@@ -9962,7 +10029,7 @@
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A360" s="77"/>
+      <c r="A360" s="93"/>
       <c r="B360" s="67"/>
       <c r="C360" s="52"/>
       <c r="D360" s="53"/>
@@ -9985,7 +10052,7 @@
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A361" s="77"/>
+      <c r="A361" s="93"/>
       <c r="B361" s="67"/>
       <c r="C361" s="52"/>
       <c r="D361" s="53"/>
@@ -10008,7 +10075,7 @@
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A362" s="77"/>
+      <c r="A362" s="93"/>
       <c r="B362" s="67"/>
       <c r="C362" s="52"/>
       <c r="D362" s="53"/>
@@ -10031,7 +10098,7 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A363" s="77"/>
+      <c r="A363" s="93"/>
       <c r="B363" s="67"/>
       <c r="C363" s="52"/>
       <c r="D363" s="53"/>
@@ -10054,7 +10121,7 @@
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A364" s="78"/>
+      <c r="A364" s="94"/>
       <c r="B364" s="69"/>
       <c r="C364" s="59"/>
       <c r="D364" s="60"/>
@@ -10077,7 +10144,7 @@
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A365" s="77"/>
+      <c r="A365" s="93"/>
       <c r="B365" s="65"/>
       <c r="C365" s="71"/>
       <c r="D365" s="72"/>
@@ -10100,7 +10167,7 @@
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A366" s="77"/>
+      <c r="A366" s="93"/>
       <c r="B366" s="67"/>
       <c r="C366" s="52"/>
       <c r="D366" s="53"/>
@@ -10123,7 +10190,7 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A367" s="77"/>
+      <c r="A367" s="93"/>
       <c r="B367" s="67"/>
       <c r="C367" s="52"/>
       <c r="D367" s="53"/>
@@ -10146,7 +10213,7 @@
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A368" s="77"/>
+      <c r="A368" s="93"/>
       <c r="B368" s="67"/>
       <c r="C368" s="52"/>
       <c r="D368" s="53"/>
@@ -10169,7 +10236,7 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A369" s="77"/>
+      <c r="A369" s="93"/>
       <c r="B369" s="67"/>
       <c r="C369" s="52"/>
       <c r="D369" s="53"/>
@@ -10192,7 +10259,7 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A370" s="78"/>
+      <c r="A370" s="94"/>
       <c r="B370" s="69"/>
       <c r="C370" s="59"/>
       <c r="D370" s="60"/>
@@ -10215,7 +10282,7 @@
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A371" s="77"/>
+      <c r="A371" s="93"/>
       <c r="B371" s="65"/>
       <c r="C371" s="71"/>
       <c r="D371" s="72"/>
@@ -10238,7 +10305,7 @@
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A372" s="77"/>
+      <c r="A372" s="93"/>
       <c r="B372" s="67"/>
       <c r="C372" s="52"/>
       <c r="D372" s="53"/>
@@ -10261,7 +10328,7 @@
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A373" s="77"/>
+      <c r="A373" s="93"/>
       <c r="B373" s="67"/>
       <c r="C373" s="52"/>
       <c r="D373" s="53"/>
@@ -10284,7 +10351,7 @@
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A374" s="77"/>
+      <c r="A374" s="93"/>
       <c r="B374" s="67"/>
       <c r="C374" s="52"/>
       <c r="D374" s="53"/>
@@ -10307,7 +10374,7 @@
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A375" s="77"/>
+      <c r="A375" s="93"/>
       <c r="B375" s="67"/>
       <c r="C375" s="52"/>
       <c r="D375" s="53"/>
@@ -10330,7 +10397,7 @@
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A376" s="78"/>
+      <c r="A376" s="94"/>
       <c r="B376" s="69"/>
       <c r="C376" s="59"/>
       <c r="D376" s="60"/>
@@ -10353,7 +10420,7 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A377" s="77"/>
+      <c r="A377" s="93"/>
       <c r="B377" s="65"/>
       <c r="C377" s="71"/>
       <c r="D377" s="72"/>
@@ -10376,7 +10443,7 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A378" s="77"/>
+      <c r="A378" s="93"/>
       <c r="B378" s="67"/>
       <c r="C378" s="52"/>
       <c r="D378" s="53"/>
@@ -10399,7 +10466,7 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A379" s="77"/>
+      <c r="A379" s="93"/>
       <c r="B379" s="67"/>
       <c r="C379" s="52"/>
       <c r="D379" s="53"/>
@@ -10422,7 +10489,7 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A380" s="77"/>
+      <c r="A380" s="93"/>
       <c r="B380" s="67"/>
       <c r="C380" s="52"/>
       <c r="D380" s="53"/>
@@ -10445,7 +10512,7 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A381" s="77"/>
+      <c r="A381" s="93"/>
       <c r="B381" s="67"/>
       <c r="C381" s="52"/>
       <c r="D381" s="53"/>
@@ -10468,7 +10535,7 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A382" s="78"/>
+      <c r="A382" s="94"/>
       <c r="B382" s="69"/>
       <c r="C382" s="59"/>
       <c r="D382" s="60"/>
@@ -10491,7 +10558,7 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A383" s="77"/>
+      <c r="A383" s="93"/>
       <c r="B383" s="65"/>
       <c r="C383" s="71"/>
       <c r="D383" s="72"/>
@@ -10514,7 +10581,7 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A384" s="77"/>
+      <c r="A384" s="93"/>
       <c r="B384" s="67"/>
       <c r="C384" s="52"/>
       <c r="D384" s="53"/>
@@ -10537,7 +10604,7 @@
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A385" s="77"/>
+      <c r="A385" s="93"/>
       <c r="B385" s="67"/>
       <c r="C385" s="52"/>
       <c r="D385" s="53"/>
@@ -10560,7 +10627,7 @@
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A386" s="77"/>
+      <c r="A386" s="93"/>
       <c r="B386" s="67"/>
       <c r="C386" s="52"/>
       <c r="D386" s="53"/>
@@ -10583,7 +10650,7 @@
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A387" s="77"/>
+      <c r="A387" s="93"/>
       <c r="B387" s="67"/>
       <c r="C387" s="52"/>
       <c r="D387" s="53"/>
@@ -10606,7 +10673,7 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A388" s="78"/>
+      <c r="A388" s="94"/>
       <c r="B388" s="69"/>
       <c r="C388" s="59"/>
       <c r="D388" s="60"/>
@@ -10629,7 +10696,7 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A389" s="77"/>
+      <c r="A389" s="93"/>
       <c r="B389" s="65"/>
       <c r="C389" s="71"/>
       <c r="D389" s="72"/>
@@ -10652,7 +10719,7 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A390" s="77"/>
+      <c r="A390" s="93"/>
       <c r="B390" s="67"/>
       <c r="C390" s="52"/>
       <c r="D390" s="53"/>
@@ -10675,7 +10742,7 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A391" s="77"/>
+      <c r="A391" s="93"/>
       <c r="B391" s="67"/>
       <c r="C391" s="52"/>
       <c r="D391" s="53"/>
@@ -10698,7 +10765,7 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A392" s="77"/>
+      <c r="A392" s="93"/>
       <c r="B392" s="67"/>
       <c r="C392" s="52"/>
       <c r="D392" s="53"/>
@@ -10721,7 +10788,7 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A393" s="77"/>
+      <c r="A393" s="93"/>
       <c r="B393" s="67"/>
       <c r="C393" s="52"/>
       <c r="D393" s="53"/>
@@ -10744,7 +10811,7 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A394" s="78"/>
+      <c r="A394" s="94"/>
       <c r="B394" s="69"/>
       <c r="C394" s="59"/>
       <c r="D394" s="60"/>
@@ -10767,7 +10834,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A395" s="77"/>
+      <c r="A395" s="93"/>
       <c r="B395" s="65"/>
       <c r="C395" s="71"/>
       <c r="D395" s="72"/>
@@ -10790,7 +10857,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A396" s="77"/>
+      <c r="A396" s="93"/>
       <c r="B396" s="67"/>
       <c r="C396" s="52"/>
       <c r="D396" s="53"/>
@@ -10813,7 +10880,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A397" s="77"/>
+      <c r="A397" s="93"/>
       <c r="B397" s="67"/>
       <c r="C397" s="52"/>
       <c r="D397" s="53"/>
@@ -10836,7 +10903,7 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A398" s="77"/>
+      <c r="A398" s="93"/>
       <c r="B398" s="67"/>
       <c r="C398" s="52"/>
       <c r="D398" s="53"/>
@@ -10859,7 +10926,7 @@
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A399" s="77"/>
+      <c r="A399" s="93"/>
       <c r="B399" s="67"/>
       <c r="C399" s="52"/>
       <c r="D399" s="53"/>
@@ -10882,7 +10949,7 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A400" s="78"/>
+      <c r="A400" s="94"/>
       <c r="B400" s="69"/>
       <c r="C400" s="59"/>
       <c r="D400" s="60"/>
@@ -10905,7 +10972,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A401" s="77"/>
+      <c r="A401" s="93"/>
       <c r="B401" s="65"/>
       <c r="C401" s="71"/>
       <c r="D401" s="72"/>
@@ -10928,7 +10995,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A402" s="77"/>
+      <c r="A402" s="93"/>
       <c r="B402" s="67"/>
       <c r="C402" s="52"/>
       <c r="D402" s="53"/>
@@ -10951,7 +11018,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A403" s="77"/>
+      <c r="A403" s="93"/>
       <c r="B403" s="67"/>
       <c r="C403" s="52"/>
       <c r="D403" s="53"/>
@@ -10974,7 +11041,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A404" s="77"/>
+      <c r="A404" s="93"/>
       <c r="B404" s="67"/>
       <c r="C404" s="52"/>
       <c r="D404" s="53"/>
@@ -10997,7 +11064,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A405" s="77"/>
+      <c r="A405" s="93"/>
       <c r="B405" s="67"/>
       <c r="C405" s="52"/>
       <c r="D405" s="53"/>
@@ -11020,7 +11087,7 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A406" s="78"/>
+      <c r="A406" s="94"/>
       <c r="B406" s="69"/>
       <c r="C406" s="59"/>
       <c r="D406" s="60"/>
@@ -11043,7 +11110,7 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A407" s="77"/>
+      <c r="A407" s="93"/>
       <c r="B407" s="65"/>
       <c r="C407" s="71"/>
       <c r="D407" s="72"/>
@@ -11066,7 +11133,7 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A408" s="77"/>
+      <c r="A408" s="93"/>
       <c r="B408" s="67"/>
       <c r="C408" s="52"/>
       <c r="D408" s="53"/>
@@ -11089,7 +11156,7 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A409" s="77"/>
+      <c r="A409" s="93"/>
       <c r="B409" s="67"/>
       <c r="C409" s="52"/>
       <c r="D409" s="53"/>
@@ -11112,7 +11179,7 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A410" s="77"/>
+      <c r="A410" s="93"/>
       <c r="B410" s="67"/>
       <c r="C410" s="52"/>
       <c r="D410" s="53"/>
@@ -11135,7 +11202,7 @@
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A411" s="77"/>
+      <c r="A411" s="93"/>
       <c r="B411" s="67"/>
       <c r="C411" s="52"/>
       <c r="D411" s="53"/>
@@ -11158,7 +11225,7 @@
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A412" s="78"/>
+      <c r="A412" s="94"/>
       <c r="B412" s="69"/>
       <c r="C412" s="59"/>
       <c r="D412" s="60"/>
@@ -11181,7 +11248,7 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A413" s="77"/>
+      <c r="A413" s="93"/>
       <c r="B413" s="65"/>
       <c r="C413" s="71"/>
       <c r="D413" s="72"/>
@@ -11204,7 +11271,7 @@
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A414" s="77"/>
+      <c r="A414" s="93"/>
       <c r="B414" s="67"/>
       <c r="C414" s="52"/>
       <c r="D414" s="53"/>
@@ -11227,7 +11294,7 @@
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A415" s="77"/>
+      <c r="A415" s="93"/>
       <c r="B415" s="67"/>
       <c r="C415" s="52"/>
       <c r="D415" s="53"/>
@@ -11250,7 +11317,7 @@
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A416" s="77"/>
+      <c r="A416" s="93"/>
       <c r="B416" s="67"/>
       <c r="C416" s="52"/>
       <c r="D416" s="53"/>
@@ -11273,7 +11340,7 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A417" s="77"/>
+      <c r="A417" s="93"/>
       <c r="B417" s="67"/>
       <c r="C417" s="52"/>
       <c r="D417" s="53"/>
@@ -11296,7 +11363,7 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A418" s="78"/>
+      <c r="A418" s="94"/>
       <c r="B418" s="69"/>
       <c r="C418" s="59"/>
       <c r="D418" s="60"/>
@@ -11319,7 +11386,7 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A419" s="77"/>
+      <c r="A419" s="93"/>
       <c r="B419" s="65"/>
       <c r="C419" s="71"/>
       <c r="D419" s="72"/>
@@ -11342,7 +11409,7 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A420" s="77"/>
+      <c r="A420" s="93"/>
       <c r="B420" s="67"/>
       <c r="C420" s="52"/>
       <c r="D420" s="53"/>
@@ -11365,7 +11432,7 @@
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A421" s="77"/>
+      <c r="A421" s="93"/>
       <c r="B421" s="67"/>
       <c r="C421" s="52"/>
       <c r="D421" s="53"/>
@@ -11388,7 +11455,7 @@
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A422" s="77"/>
+      <c r="A422" s="93"/>
       <c r="B422" s="67"/>
       <c r="C422" s="52"/>
       <c r="D422" s="53"/>
@@ -11411,7 +11478,7 @@
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A423" s="77"/>
+      <c r="A423" s="93"/>
       <c r="B423" s="67"/>
       <c r="C423" s="52"/>
       <c r="D423" s="53"/>
@@ -11434,7 +11501,7 @@
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A424" s="78"/>
+      <c r="A424" s="94"/>
       <c r="B424" s="69"/>
       <c r="C424" s="59"/>
       <c r="D424" s="60"/>
@@ -11457,7 +11524,7 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A425" s="77"/>
+      <c r="A425" s="93"/>
       <c r="B425" s="65"/>
       <c r="C425" s="71"/>
       <c r="D425" s="72"/>
@@ -11480,7 +11547,7 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A426" s="77"/>
+      <c r="A426" s="93"/>
       <c r="B426" s="67"/>
       <c r="C426" s="52"/>
       <c r="D426" s="53"/>
@@ -11503,7 +11570,7 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A427" s="77"/>
+      <c r="A427" s="93"/>
       <c r="B427" s="67"/>
       <c r="C427" s="52"/>
       <c r="D427" s="53"/>
@@ -11526,7 +11593,7 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A428" s="77"/>
+      <c r="A428" s="93"/>
       <c r="B428" s="67"/>
       <c r="C428" s="52"/>
       <c r="D428" s="53"/>
@@ -11549,7 +11616,7 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A429" s="77"/>
+      <c r="A429" s="93"/>
       <c r="B429" s="67"/>
       <c r="C429" s="52"/>
       <c r="D429" s="53"/>
@@ -11572,7 +11639,7 @@
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A430" s="78"/>
+      <c r="A430" s="94"/>
       <c r="B430" s="69"/>
       <c r="C430" s="59"/>
       <c r="D430" s="60"/>
@@ -11595,7 +11662,7 @@
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A431" s="77"/>
+      <c r="A431" s="93"/>
       <c r="B431" s="65"/>
       <c r="C431" s="71"/>
       <c r="D431" s="72"/>
@@ -11618,7 +11685,7 @@
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A432" s="77"/>
+      <c r="A432" s="93"/>
       <c r="B432" s="67"/>
       <c r="C432" s="52"/>
       <c r="D432" s="53"/>
@@ -11641,7 +11708,7 @@
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A433" s="77"/>
+      <c r="A433" s="93"/>
       <c r="B433" s="67"/>
       <c r="C433" s="52"/>
       <c r="D433" s="53"/>
@@ -11664,7 +11731,7 @@
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A434" s="77"/>
+      <c r="A434" s="93"/>
       <c r="B434" s="67"/>
       <c r="C434" s="52"/>
       <c r="D434" s="53"/>
@@ -11687,7 +11754,7 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A435" s="77"/>
+      <c r="A435" s="93"/>
       <c r="B435" s="67"/>
       <c r="C435" s="52"/>
       <c r="D435" s="53"/>
@@ -11710,7 +11777,7 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A436" s="78"/>
+      <c r="A436" s="94"/>
       <c r="B436" s="69"/>
       <c r="C436" s="59"/>
       <c r="D436" s="60"/>
@@ -11733,7 +11800,7 @@
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A437" s="77"/>
+      <c r="A437" s="93"/>
       <c r="B437" s="65"/>
       <c r="C437" s="71"/>
       <c r="D437" s="72"/>
@@ -11756,7 +11823,7 @@
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A438" s="77"/>
+      <c r="A438" s="93"/>
       <c r="B438" s="67"/>
       <c r="C438" s="52"/>
       <c r="D438" s="53"/>
@@ -11779,7 +11846,7 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A439" s="77"/>
+      <c r="A439" s="93"/>
       <c r="B439" s="67"/>
       <c r="C439" s="52"/>
       <c r="D439" s="53"/>
@@ -11802,7 +11869,7 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A440" s="77"/>
+      <c r="A440" s="93"/>
       <c r="B440" s="67"/>
       <c r="C440" s="52"/>
       <c r="D440" s="53"/>
@@ -11825,7 +11892,7 @@
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A441" s="77"/>
+      <c r="A441" s="93"/>
       <c r="B441" s="67"/>
       <c r="C441" s="52"/>
       <c r="D441" s="53"/>
@@ -11848,7 +11915,7 @@
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A442" s="78"/>
+      <c r="A442" s="94"/>
       <c r="B442" s="69"/>
       <c r="C442" s="59"/>
       <c r="D442" s="60"/>
@@ -11871,7 +11938,7 @@
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A443" s="77"/>
+      <c r="A443" s="93"/>
       <c r="B443" s="65"/>
       <c r="C443" s="71"/>
       <c r="D443" s="72"/>
@@ -11894,7 +11961,7 @@
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A444" s="77"/>
+      <c r="A444" s="93"/>
       <c r="B444" s="67"/>
       <c r="C444" s="52"/>
       <c r="D444" s="53"/>
@@ -11917,7 +11984,7 @@
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A445" s="77"/>
+      <c r="A445" s="93"/>
       <c r="B445" s="67"/>
       <c r="C445" s="52"/>
       <c r="D445" s="53"/>
@@ -11940,7 +12007,7 @@
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A446" s="77"/>
+      <c r="A446" s="93"/>
       <c r="B446" s="67"/>
       <c r="C446" s="52"/>
       <c r="D446" s="53"/>
@@ -11963,7 +12030,7 @@
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A447" s="77"/>
+      <c r="A447" s="93"/>
       <c r="B447" s="67"/>
       <c r="C447" s="52"/>
       <c r="D447" s="53"/>
@@ -11986,7 +12053,7 @@
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A448" s="78"/>
+      <c r="A448" s="94"/>
       <c r="B448" s="69"/>
       <c r="C448" s="59"/>
       <c r="D448" s="60"/>
@@ -12009,7 +12076,7 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A449" s="77"/>
+      <c r="A449" s="93"/>
       <c r="B449" s="65"/>
       <c r="C449" s="71"/>
       <c r="D449" s="72"/>
@@ -12032,7 +12099,7 @@
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A450" s="77"/>
+      <c r="A450" s="93"/>
       <c r="B450" s="67"/>
       <c r="C450" s="52"/>
       <c r="D450" s="53"/>
@@ -12055,7 +12122,7 @@
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A451" s="77"/>
+      <c r="A451" s="93"/>
       <c r="B451" s="67"/>
       <c r="C451" s="52"/>
       <c r="D451" s="53"/>
@@ -12078,7 +12145,7 @@
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A452" s="77"/>
+      <c r="A452" s="93"/>
       <c r="B452" s="67"/>
       <c r="C452" s="52"/>
       <c r="D452" s="53"/>
@@ -12101,7 +12168,7 @@
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A453" s="77"/>
+      <c r="A453" s="93"/>
       <c r="B453" s="67"/>
       <c r="C453" s="52"/>
       <c r="D453" s="53"/>
@@ -12124,7 +12191,7 @@
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A454" s="78"/>
+      <c r="A454" s="94"/>
       <c r="B454" s="69"/>
       <c r="C454" s="59"/>
       <c r="D454" s="60"/>
@@ -12147,7 +12214,7 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A455" s="77"/>
+      <c r="A455" s="93"/>
       <c r="B455" s="65"/>
       <c r="C455" s="71"/>
       <c r="D455" s="72"/>
@@ -12170,7 +12237,7 @@
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A456" s="77"/>
+      <c r="A456" s="93"/>
       <c r="B456" s="67"/>
       <c r="C456" s="52"/>
       <c r="D456" s="53"/>
@@ -12193,7 +12260,7 @@
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A457" s="77"/>
+      <c r="A457" s="93"/>
       <c r="B457" s="67"/>
       <c r="C457" s="52"/>
       <c r="D457" s="53"/>
@@ -12216,7 +12283,7 @@
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A458" s="77"/>
+      <c r="A458" s="93"/>
       <c r="B458" s="67"/>
       <c r="C458" s="52"/>
       <c r="D458" s="53"/>
@@ -12239,7 +12306,7 @@
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A459" s="77"/>
+      <c r="A459" s="93"/>
       <c r="B459" s="67"/>
       <c r="C459" s="52"/>
       <c r="D459" s="53"/>
@@ -12262,7 +12329,7 @@
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A460" s="78"/>
+      <c r="A460" s="94"/>
       <c r="B460" s="69"/>
       <c r="C460" s="59"/>
       <c r="D460" s="60"/>
@@ -12285,7 +12352,7 @@
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A461" s="77"/>
+      <c r="A461" s="93"/>
       <c r="B461" s="65"/>
       <c r="C461" s="71"/>
       <c r="D461" s="72"/>
@@ -12308,7 +12375,7 @@
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A462" s="77"/>
+      <c r="A462" s="93"/>
       <c r="B462" s="67"/>
       <c r="C462" s="52"/>
       <c r="D462" s="53"/>
@@ -12331,7 +12398,7 @@
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A463" s="77"/>
+      <c r="A463" s="93"/>
       <c r="B463" s="67"/>
       <c r="C463" s="52"/>
       <c r="D463" s="53"/>
@@ -12354,7 +12421,7 @@
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A464" s="77"/>
+      <c r="A464" s="93"/>
       <c r="B464" s="67"/>
       <c r="C464" s="52"/>
       <c r="D464" s="53"/>
@@ -12377,7 +12444,7 @@
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A465" s="77"/>
+      <c r="A465" s="93"/>
       <c r="B465" s="67"/>
       <c r="C465" s="52"/>
       <c r="D465" s="53"/>
@@ -12400,7 +12467,7 @@
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A466" s="78"/>
+      <c r="A466" s="94"/>
       <c r="B466" s="69"/>
       <c r="C466" s="59"/>
       <c r="D466" s="60"/>
@@ -12423,7 +12490,7 @@
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A467" s="77"/>
+      <c r="A467" s="93"/>
       <c r="B467" s="65"/>
       <c r="C467" s="71"/>
       <c r="D467" s="72"/>
@@ -12446,7 +12513,7 @@
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A468" s="77"/>
+      <c r="A468" s="93"/>
       <c r="B468" s="67"/>
       <c r="C468" s="52"/>
       <c r="D468" s="53"/>
@@ -12469,7 +12536,7 @@
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A469" s="77"/>
+      <c r="A469" s="93"/>
       <c r="B469" s="67"/>
       <c r="C469" s="52"/>
       <c r="D469" s="53"/>
@@ -12492,7 +12559,7 @@
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A470" s="77"/>
+      <c r="A470" s="93"/>
       <c r="B470" s="67"/>
       <c r="C470" s="52"/>
       <c r="D470" s="53"/>
@@ -12515,7 +12582,7 @@
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A471" s="77"/>
+      <c r="A471" s="93"/>
       <c r="B471" s="67"/>
       <c r="C471" s="52"/>
       <c r="D471" s="53"/>
@@ -12538,7 +12605,7 @@
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A472" s="78"/>
+      <c r="A472" s="94"/>
       <c r="B472" s="69"/>
       <c r="C472" s="59"/>
       <c r="D472" s="60"/>
@@ -12561,7 +12628,7 @@
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A473" s="77"/>
+      <c r="A473" s="93"/>
       <c r="B473" s="65"/>
       <c r="C473" s="71"/>
       <c r="D473" s="72"/>
@@ -12584,7 +12651,7 @@
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A474" s="77"/>
+      <c r="A474" s="93"/>
       <c r="B474" s="67"/>
       <c r="C474" s="52"/>
       <c r="D474" s="53"/>
@@ -12607,7 +12674,7 @@
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A475" s="77"/>
+      <c r="A475" s="93"/>
       <c r="B475" s="67"/>
       <c r="C475" s="52"/>
       <c r="D475" s="53"/>
@@ -12630,7 +12697,7 @@
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A476" s="77"/>
+      <c r="A476" s="93"/>
       <c r="B476" s="67"/>
       <c r="C476" s="52"/>
       <c r="D476" s="53"/>
@@ -12653,7 +12720,7 @@
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A477" s="77"/>
+      <c r="A477" s="93"/>
       <c r="B477" s="67"/>
       <c r="C477" s="52"/>
       <c r="D477" s="53"/>
@@ -12676,7 +12743,7 @@
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A478" s="78"/>
+      <c r="A478" s="94"/>
       <c r="B478" s="69"/>
       <c r="C478" s="59"/>
       <c r="D478" s="60"/>
@@ -12699,7 +12766,7 @@
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A479" s="77"/>
+      <c r="A479" s="93"/>
       <c r="B479" s="65"/>
       <c r="C479" s="71"/>
       <c r="D479" s="72"/>
@@ -12722,7 +12789,7 @@
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A480" s="77"/>
+      <c r="A480" s="93"/>
       <c r="B480" s="67"/>
       <c r="C480" s="52"/>
       <c r="D480" s="53"/>
@@ -12745,7 +12812,7 @@
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A481" s="77"/>
+      <c r="A481" s="93"/>
       <c r="B481" s="67"/>
       <c r="C481" s="52"/>
       <c r="D481" s="53"/>
@@ -12768,7 +12835,7 @@
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A482" s="77"/>
+      <c r="A482" s="93"/>
       <c r="B482" s="67"/>
       <c r="C482" s="52"/>
       <c r="D482" s="53"/>
@@ -12791,7 +12858,7 @@
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A483" s="77"/>
+      <c r="A483" s="93"/>
       <c r="B483" s="67"/>
       <c r="C483" s="52"/>
       <c r="D483" s="53"/>
@@ -12814,7 +12881,7 @@
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A484" s="78"/>
+      <c r="A484" s="94"/>
       <c r="B484" s="69"/>
       <c r="C484" s="59"/>
       <c r="D484" s="60"/>
@@ -12837,7 +12904,7 @@
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A485" s="77"/>
+      <c r="A485" s="93"/>
       <c r="B485" s="65"/>
       <c r="C485" s="71"/>
       <c r="D485" s="72"/>
@@ -12860,7 +12927,7 @@
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A486" s="77"/>
+      <c r="A486" s="93"/>
       <c r="B486" s="67"/>
       <c r="C486" s="52"/>
       <c r="D486" s="53"/>
@@ -12883,7 +12950,7 @@
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A487" s="77"/>
+      <c r="A487" s="93"/>
       <c r="B487" s="67"/>
       <c r="C487" s="52"/>
       <c r="D487" s="53"/>
@@ -12906,7 +12973,7 @@
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A488" s="77"/>
+      <c r="A488" s="93"/>
       <c r="B488" s="67"/>
       <c r="C488" s="52"/>
       <c r="D488" s="53"/>
@@ -12929,7 +12996,7 @@
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A489" s="77"/>
+      <c r="A489" s="93"/>
       <c r="B489" s="67"/>
       <c r="C489" s="52"/>
       <c r="D489" s="53"/>
@@ -12952,7 +13019,7 @@
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A490" s="78"/>
+      <c r="A490" s="94"/>
       <c r="B490" s="69"/>
       <c r="C490" s="59"/>
       <c r="D490" s="60"/>
@@ -12975,7 +13042,7 @@
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A491" s="77"/>
+      <c r="A491" s="93"/>
       <c r="B491" s="65"/>
       <c r="C491" s="71"/>
       <c r="D491" s="72"/>
@@ -12998,7 +13065,7 @@
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A492" s="77"/>
+      <c r="A492" s="93"/>
       <c r="B492" s="67"/>
       <c r="C492" s="52"/>
       <c r="D492" s="53"/>
@@ -13021,7 +13088,7 @@
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A493" s="77"/>
+      <c r="A493" s="93"/>
       <c r="B493" s="67"/>
       <c r="C493" s="52"/>
       <c r="D493" s="53"/>
@@ -13044,7 +13111,7 @@
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A494" s="77"/>
+      <c r="A494" s="93"/>
       <c r="B494" s="67"/>
       <c r="C494" s="52"/>
       <c r="D494" s="53"/>
@@ -13067,7 +13134,7 @@
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A495" s="77"/>
+      <c r="A495" s="93"/>
       <c r="B495" s="67"/>
       <c r="C495" s="52"/>
       <c r="D495" s="53"/>
@@ -13090,7 +13157,7 @@
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A496" s="78"/>
+      <c r="A496" s="94"/>
       <c r="B496" s="69"/>
       <c r="C496" s="59"/>
       <c r="D496" s="60"/>
@@ -13113,7 +13180,7 @@
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A497" s="77"/>
+      <c r="A497" s="93"/>
       <c r="B497" s="65"/>
       <c r="C497" s="71"/>
       <c r="D497" s="72"/>
@@ -13136,7 +13203,7 @@
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A498" s="77"/>
+      <c r="A498" s="93"/>
       <c r="B498" s="67"/>
       <c r="C498" s="52"/>
       <c r="D498" s="53"/>
@@ -13159,7 +13226,7 @@
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A499" s="77"/>
+      <c r="A499" s="93"/>
       <c r="B499" s="67"/>
       <c r="C499" s="52"/>
       <c r="D499" s="53"/>
@@ -13182,7 +13249,7 @@
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A500" s="77"/>
+      <c r="A500" s="93"/>
       <c r="B500" s="67"/>
       <c r="C500" s="52"/>
       <c r="D500" s="53"/>
@@ -13205,7 +13272,7 @@
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A501" s="77"/>
+      <c r="A501" s="93"/>
       <c r="B501" s="67"/>
       <c r="C501" s="52"/>
       <c r="D501" s="53"/>
@@ -13228,7 +13295,7 @@
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A502" s="78"/>
+      <c r="A502" s="94"/>
       <c r="B502" s="69"/>
       <c r="C502" s="59"/>
       <c r="D502" s="60"/>
@@ -13251,7 +13318,7 @@
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A503" s="77"/>
+      <c r="A503" s="93"/>
       <c r="B503" s="65"/>
       <c r="C503" s="71"/>
       <c r="D503" s="72"/>
@@ -13274,7 +13341,7 @@
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A504" s="77"/>
+      <c r="A504" s="93"/>
       <c r="B504" s="67"/>
       <c r="C504" s="52"/>
       <c r="D504" s="53"/>
@@ -13297,7 +13364,7 @@
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A505" s="77"/>
+      <c r="A505" s="93"/>
       <c r="B505" s="67"/>
       <c r="C505" s="52"/>
       <c r="D505" s="53"/>
@@ -13320,7 +13387,7 @@
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A506" s="77"/>
+      <c r="A506" s="93"/>
       <c r="B506" s="67"/>
       <c r="C506" s="52"/>
       <c r="D506" s="53"/>
@@ -13343,7 +13410,7 @@
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A507" s="77"/>
+      <c r="A507" s="93"/>
       <c r="B507" s="67"/>
       <c r="C507" s="52"/>
       <c r="D507" s="53"/>
@@ -13366,7 +13433,7 @@
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A508" s="78"/>
+      <c r="A508" s="94"/>
       <c r="B508" s="69"/>
       <c r="C508" s="59"/>
       <c r="D508" s="60"/>
@@ -13389,7 +13456,7 @@
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A509" s="77"/>
+      <c r="A509" s="93"/>
       <c r="B509" s="65"/>
       <c r="C509" s="71"/>
       <c r="D509" s="72"/>
@@ -13412,7 +13479,7 @@
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A510" s="77"/>
+      <c r="A510" s="93"/>
       <c r="B510" s="67"/>
       <c r="C510" s="52"/>
       <c r="D510" s="53"/>
@@ -13435,7 +13502,7 @@
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A511" s="77"/>
+      <c r="A511" s="93"/>
       <c r="B511" s="67"/>
       <c r="C511" s="52"/>
       <c r="D511" s="53"/>
@@ -13458,7 +13525,7 @@
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A512" s="77"/>
+      <c r="A512" s="93"/>
       <c r="B512" s="67"/>
       <c r="C512" s="52"/>
       <c r="D512" s="53"/>
@@ -13481,7 +13548,7 @@
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A513" s="77"/>
+      <c r="A513" s="93"/>
       <c r="B513" s="67"/>
       <c r="C513" s="52"/>
       <c r="D513" s="53"/>
@@ -13504,7 +13571,7 @@
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A514" s="78"/>
+      <c r="A514" s="94"/>
       <c r="B514" s="69"/>
       <c r="C514" s="59"/>
       <c r="D514" s="60"/>
@@ -13527,7 +13594,7 @@
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A515" s="77"/>
+      <c r="A515" s="93"/>
       <c r="B515" s="65"/>
       <c r="C515" s="71"/>
       <c r="D515" s="72"/>
@@ -13550,7 +13617,7 @@
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A516" s="77"/>
+      <c r="A516" s="93"/>
       <c r="B516" s="67"/>
       <c r="C516" s="52"/>
       <c r="D516" s="53"/>
@@ -13573,7 +13640,7 @@
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A517" s="77"/>
+      <c r="A517" s="93"/>
       <c r="B517" s="67"/>
       <c r="C517" s="52"/>
       <c r="D517" s="53"/>
@@ -13596,7 +13663,7 @@
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A518" s="77"/>
+      <c r="A518" s="93"/>
       <c r="B518" s="67"/>
       <c r="C518" s="52"/>
       <c r="D518" s="53"/>
@@ -13619,7 +13686,7 @@
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A519" s="77"/>
+      <c r="A519" s="93"/>
       <c r="B519" s="67"/>
       <c r="C519" s="52"/>
       <c r="D519" s="53"/>
@@ -13642,7 +13709,7 @@
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A520" s="78"/>
+      <c r="A520" s="94"/>
       <c r="B520" s="69"/>
       <c r="C520" s="59"/>
       <c r="D520" s="60"/>
@@ -13665,7 +13732,7 @@
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A521" s="77"/>
+      <c r="A521" s="93"/>
       <c r="B521" s="65"/>
       <c r="C521" s="71"/>
       <c r="D521" s="72"/>
@@ -13688,7 +13755,7 @@
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A522" s="77"/>
+      <c r="A522" s="93"/>
       <c r="B522" s="67"/>
       <c r="C522" s="52"/>
       <c r="D522" s="53"/>
@@ -13711,7 +13778,7 @@
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A523" s="77"/>
+      <c r="A523" s="93"/>
       <c r="B523" s="67"/>
       <c r="C523" s="52"/>
       <c r="D523" s="53"/>
@@ -13734,7 +13801,7 @@
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A524" s="77"/>
+      <c r="A524" s="93"/>
       <c r="B524" s="67"/>
       <c r="C524" s="52"/>
       <c r="D524" s="53"/>
@@ -13757,7 +13824,7 @@
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A525" s="77"/>
+      <c r="A525" s="93"/>
       <c r="B525" s="67"/>
       <c r="C525" s="52"/>
       <c r="D525" s="53"/>
@@ -13780,7 +13847,7 @@
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A526" s="78"/>
+      <c r="A526" s="94"/>
       <c r="B526" s="69"/>
       <c r="C526" s="59"/>
       <c r="D526" s="60"/>
@@ -13803,7 +13870,7 @@
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A527" s="77"/>
+      <c r="A527" s="93"/>
       <c r="B527" s="65"/>
       <c r="C527" s="71"/>
       <c r="D527" s="72"/>
@@ -13826,7 +13893,7 @@
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A528" s="77"/>
+      <c r="A528" s="93"/>
       <c r="B528" s="67"/>
       <c r="C528" s="52"/>
       <c r="D528" s="53"/>
@@ -13849,7 +13916,7 @@
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A529" s="77"/>
+      <c r="A529" s="93"/>
       <c r="B529" s="67"/>
       <c r="C529" s="52"/>
       <c r="D529" s="53"/>
@@ -13872,7 +13939,7 @@
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A530" s="77"/>
+      <c r="A530" s="93"/>
       <c r="B530" s="67"/>
       <c r="C530" s="52"/>
       <c r="D530" s="53"/>
@@ -13895,7 +13962,7 @@
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A531" s="77"/>
+      <c r="A531" s="93"/>
       <c r="B531" s="67"/>
       <c r="C531" s="52"/>
       <c r="D531" s="53"/>
@@ -13918,7 +13985,7 @@
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A532" s="78"/>
+      <c r="A532" s="94"/>
       <c r="B532" s="69"/>
       <c r="C532" s="59"/>
       <c r="D532" s="60"/>
@@ -13941,7 +14008,7 @@
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A533" s="77"/>
+      <c r="A533" s="93"/>
       <c r="B533" s="65"/>
       <c r="C533" s="71"/>
       <c r="D533" s="72"/>
@@ -13964,7 +14031,7 @@
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A534" s="77"/>
+      <c r="A534" s="93"/>
       <c r="B534" s="67"/>
       <c r="C534" s="52"/>
       <c r="D534" s="53"/>
@@ -13987,7 +14054,7 @@
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A535" s="77"/>
+      <c r="A535" s="93"/>
       <c r="B535" s="67"/>
       <c r="C535" s="52"/>
       <c r="D535" s="53"/>
@@ -14010,7 +14077,7 @@
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A536" s="77"/>
+      <c r="A536" s="93"/>
       <c r="B536" s="67"/>
       <c r="C536" s="52"/>
       <c r="D536" s="53"/>
@@ -14033,7 +14100,7 @@
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A537" s="77"/>
+      <c r="A537" s="93"/>
       <c r="B537" s="67"/>
       <c r="C537" s="52"/>
       <c r="D537" s="53"/>
@@ -14056,7 +14123,7 @@
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A538" s="78"/>
+      <c r="A538" s="94"/>
       <c r="B538" s="69"/>
       <c r="C538" s="59"/>
       <c r="D538" s="60"/>
@@ -14079,7 +14146,7 @@
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A539" s="77"/>
+      <c r="A539" s="93"/>
       <c r="B539" s="65"/>
       <c r="C539" s="71"/>
       <c r="D539" s="72"/>
@@ -14102,7 +14169,7 @@
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A540" s="77"/>
+      <c r="A540" s="93"/>
       <c r="B540" s="67"/>
       <c r="C540" s="52"/>
       <c r="D540" s="53"/>
@@ -14125,7 +14192,7 @@
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A541" s="77"/>
+      <c r="A541" s="93"/>
       <c r="B541" s="67"/>
       <c r="C541" s="52"/>
       <c r="D541" s="53"/>
@@ -14148,7 +14215,7 @@
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A542" s="77"/>
+      <c r="A542" s="93"/>
       <c r="B542" s="67"/>
       <c r="C542" s="52"/>
       <c r="D542" s="53"/>
@@ -14171,7 +14238,7 @@
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A543" s="77"/>
+      <c r="A543" s="93"/>
       <c r="B543" s="67"/>
       <c r="C543" s="52"/>
       <c r="D543" s="53"/>
@@ -14194,7 +14261,7 @@
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A544" s="78"/>
+      <c r="A544" s="94"/>
       <c r="B544" s="69"/>
       <c r="C544" s="59"/>
       <c r="D544" s="60"/>
@@ -14217,7 +14284,7 @@
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A545" s="77"/>
+      <c r="A545" s="93"/>
       <c r="B545" s="65"/>
       <c r="C545" s="71"/>
       <c r="D545" s="72"/>
@@ -14240,7 +14307,7 @@
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A546" s="77"/>
+      <c r="A546" s="93"/>
       <c r="B546" s="67"/>
       <c r="C546" s="52"/>
       <c r="D546" s="53"/>
@@ -14263,7 +14330,7 @@
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A547" s="77"/>
+      <c r="A547" s="93"/>
       <c r="B547" s="67"/>
       <c r="C547" s="52"/>
       <c r="D547" s="53"/>
@@ -14286,7 +14353,7 @@
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A548" s="77"/>
+      <c r="A548" s="93"/>
       <c r="B548" s="67"/>
       <c r="C548" s="52"/>
       <c r="D548" s="53"/>
@@ -14309,7 +14376,7 @@
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A549" s="77"/>
+      <c r="A549" s="93"/>
       <c r="B549" s="67"/>
       <c r="C549" s="52"/>
       <c r="D549" s="53"/>
@@ -14332,7 +14399,7 @@
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A550" s="78"/>
+      <c r="A550" s="94"/>
       <c r="B550" s="69"/>
       <c r="C550" s="59"/>
       <c r="D550" s="60"/>
@@ -14355,7 +14422,7 @@
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A551" s="77"/>
+      <c r="A551" s="93"/>
       <c r="B551" s="65"/>
       <c r="C551" s="71"/>
       <c r="D551" s="72"/>
@@ -14378,7 +14445,7 @@
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A552" s="77"/>
+      <c r="A552" s="93"/>
       <c r="B552" s="67"/>
       <c r="C552" s="52"/>
       <c r="D552" s="53"/>
@@ -14401,7 +14468,7 @@
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A553" s="77"/>
+      <c r="A553" s="93"/>
       <c r="B553" s="67"/>
       <c r="C553" s="52"/>
       <c r="D553" s="53"/>
@@ -14424,7 +14491,7 @@
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A554" s="77"/>
+      <c r="A554" s="93"/>
       <c r="B554" s="67"/>
       <c r="C554" s="52"/>
       <c r="D554" s="53"/>
@@ -14447,7 +14514,7 @@
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A555" s="77"/>
+      <c r="A555" s="93"/>
       <c r="B555" s="67"/>
       <c r="C555" s="52"/>
       <c r="D555" s="53"/>
@@ -14470,7 +14537,7 @@
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A556" s="78"/>
+      <c r="A556" s="94"/>
       <c r="B556" s="69"/>
       <c r="C556" s="59"/>
       <c r="D556" s="60"/>
@@ -14493,7 +14560,7 @@
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A557" s="77"/>
+      <c r="A557" s="93"/>
       <c r="B557" s="65"/>
       <c r="C557" s="71"/>
       <c r="D557" s="72"/>
@@ -14516,7 +14583,7 @@
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A558" s="77"/>
+      <c r="A558" s="93"/>
       <c r="B558" s="67"/>
       <c r="C558" s="52"/>
       <c r="D558" s="53"/>
@@ -14539,7 +14606,7 @@
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A559" s="77"/>
+      <c r="A559" s="93"/>
       <c r="B559" s="67"/>
       <c r="C559" s="52"/>
       <c r="D559" s="53"/>
@@ -14562,7 +14629,7 @@
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A560" s="77"/>
+      <c r="A560" s="93"/>
       <c r="B560" s="67"/>
       <c r="C560" s="52"/>
       <c r="D560" s="53"/>
@@ -14585,7 +14652,7 @@
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A561" s="77"/>
+      <c r="A561" s="93"/>
       <c r="B561" s="67"/>
       <c r="C561" s="52"/>
       <c r="D561" s="53"/>
@@ -14608,7 +14675,7 @@
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A562" s="78"/>
+      <c r="A562" s="94"/>
       <c r="B562" s="69"/>
       <c r="C562" s="59"/>
       <c r="D562" s="60"/>
@@ -14631,7 +14698,7 @@
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A563" s="77"/>
+      <c r="A563" s="93"/>
       <c r="B563" s="65"/>
       <c r="C563" s="71"/>
       <c r="D563" s="72"/>
@@ -14654,7 +14721,7 @@
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A564" s="77"/>
+      <c r="A564" s="93"/>
       <c r="B564" s="67"/>
       <c r="C564" s="52"/>
       <c r="D564" s="53"/>
@@ -14677,7 +14744,7 @@
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A565" s="77"/>
+      <c r="A565" s="93"/>
       <c r="B565" s="67"/>
       <c r="C565" s="52"/>
       <c r="D565" s="53"/>
@@ -14700,7 +14767,7 @@
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A566" s="77"/>
+      <c r="A566" s="93"/>
       <c r="B566" s="67"/>
       <c r="C566" s="52"/>
       <c r="D566" s="53"/>
@@ -14723,7 +14790,7 @@
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A567" s="77"/>
+      <c r="A567" s="93"/>
       <c r="B567" s="67"/>
       <c r="C567" s="52"/>
       <c r="D567" s="53"/>
@@ -14746,7 +14813,7 @@
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A568" s="78"/>
+      <c r="A568" s="94"/>
       <c r="B568" s="69"/>
       <c r="C568" s="59"/>
       <c r="D568" s="60"/>
@@ -14769,7 +14836,7 @@
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A569" s="77"/>
+      <c r="A569" s="93"/>
       <c r="B569" s="65"/>
       <c r="C569" s="71"/>
       <c r="D569" s="72"/>
@@ -14792,7 +14859,7 @@
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A570" s="77"/>
+      <c r="A570" s="93"/>
       <c r="B570" s="67"/>
       <c r="C570" s="52"/>
       <c r="D570" s="53"/>
@@ -14815,7 +14882,7 @@
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A571" s="77"/>
+      <c r="A571" s="93"/>
       <c r="B571" s="67"/>
       <c r="C571" s="52"/>
       <c r="D571" s="53"/>
@@ -14838,7 +14905,7 @@
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A572" s="77"/>
+      <c r="A572" s="93"/>
       <c r="B572" s="67"/>
       <c r="C572" s="52"/>
       <c r="D572" s="53"/>
@@ -14861,7 +14928,7 @@
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A573" s="77"/>
+      <c r="A573" s="93"/>
       <c r="B573" s="67"/>
       <c r="C573" s="52"/>
       <c r="D573" s="53"/>
@@ -14884,7 +14951,7 @@
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A574" s="78"/>
+      <c r="A574" s="94"/>
       <c r="B574" s="69"/>
       <c r="C574" s="59"/>
       <c r="D574" s="60"/>
@@ -14907,7 +14974,7 @@
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A575" s="77"/>
+      <c r="A575" s="93"/>
       <c r="B575" s="65"/>
       <c r="C575" s="71"/>
       <c r="D575" s="72"/>
@@ -14930,7 +14997,7 @@
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A576" s="77"/>
+      <c r="A576" s="93"/>
       <c r="B576" s="67"/>
       <c r="C576" s="52"/>
       <c r="D576" s="53"/>
@@ -14953,7 +15020,7 @@
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A577" s="77"/>
+      <c r="A577" s="93"/>
       <c r="B577" s="67"/>
       <c r="C577" s="52"/>
       <c r="D577" s="53"/>
@@ -14976,7 +15043,7 @@
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A578" s="77"/>
+      <c r="A578" s="93"/>
       <c r="B578" s="67"/>
       <c r="C578" s="52"/>
       <c r="D578" s="53"/>
@@ -14999,7 +15066,7 @@
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A579" s="77"/>
+      <c r="A579" s="93"/>
       <c r="B579" s="67"/>
       <c r="C579" s="52"/>
       <c r="D579" s="53"/>
@@ -15022,7 +15089,7 @@
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A580" s="78"/>
+      <c r="A580" s="94"/>
       <c r="B580" s="69"/>
       <c r="C580" s="59"/>
       <c r="D580" s="60"/>
@@ -15045,7 +15112,7 @@
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A581" s="77"/>
+      <c r="A581" s="93"/>
       <c r="B581" s="65"/>
       <c r="C581" s="71"/>
       <c r="D581" s="72"/>
@@ -15068,7 +15135,7 @@
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A582" s="77"/>
+      <c r="A582" s="93"/>
       <c r="B582" s="67"/>
       <c r="C582" s="52"/>
       <c r="D582" s="53"/>
@@ -15091,7 +15158,7 @@
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A583" s="77"/>
+      <c r="A583" s="93"/>
       <c r="B583" s="67"/>
       <c r="C583" s="52"/>
       <c r="D583" s="53"/>
@@ -15114,7 +15181,7 @@
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A584" s="77"/>
+      <c r="A584" s="93"/>
       <c r="B584" s="67"/>
       <c r="C584" s="52"/>
       <c r="D584" s="53"/>
@@ -15137,7 +15204,7 @@
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A585" s="77"/>
+      <c r="A585" s="93"/>
       <c r="B585" s="67"/>
       <c r="C585" s="52"/>
       <c r="D585" s="53"/>
@@ -15160,7 +15227,7 @@
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A586" s="78"/>
+      <c r="A586" s="94"/>
       <c r="B586" s="69"/>
       <c r="C586" s="59"/>
       <c r="D586" s="60"/>
@@ -15183,7 +15250,7 @@
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A587" s="77"/>
+      <c r="A587" s="93"/>
       <c r="B587" s="65"/>
       <c r="C587" s="71"/>
       <c r="D587" s="72"/>
@@ -15206,7 +15273,7 @@
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A588" s="77"/>
+      <c r="A588" s="93"/>
       <c r="B588" s="67"/>
       <c r="C588" s="52"/>
       <c r="D588" s="53"/>
@@ -15229,7 +15296,7 @@
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A589" s="77"/>
+      <c r="A589" s="93"/>
       <c r="B589" s="67"/>
       <c r="C589" s="52"/>
       <c r="D589" s="53"/>
@@ -15252,7 +15319,7 @@
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A590" s="77"/>
+      <c r="A590" s="93"/>
       <c r="B590" s="67"/>
       <c r="C590" s="52"/>
       <c r="D590" s="53"/>
@@ -15275,7 +15342,7 @@
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A591" s="77"/>
+      <c r="A591" s="93"/>
       <c r="B591" s="67"/>
       <c r="C591" s="52"/>
       <c r="D591" s="53"/>
@@ -15298,7 +15365,7 @@
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A592" s="78"/>
+      <c r="A592" s="94"/>
       <c r="B592" s="69"/>
       <c r="C592" s="59"/>
       <c r="D592" s="60"/>
@@ -15321,7 +15388,7 @@
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A593" s="77"/>
+      <c r="A593" s="93"/>
       <c r="B593" s="65"/>
       <c r="C593" s="71"/>
       <c r="D593" s="72"/>
@@ -15344,7 +15411,7 @@
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A594" s="77"/>
+      <c r="A594" s="93"/>
       <c r="B594" s="67"/>
       <c r="C594" s="52"/>
       <c r="D594" s="53"/>
@@ -15367,7 +15434,7 @@
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A595" s="77"/>
+      <c r="A595" s="93"/>
       <c r="B595" s="67"/>
       <c r="C595" s="52"/>
       <c r="D595" s="53"/>
@@ -15390,7 +15457,7 @@
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A596" s="77"/>
+      <c r="A596" s="93"/>
       <c r="B596" s="67"/>
       <c r="C596" s="52"/>
       <c r="D596" s="53"/>
@@ -15413,7 +15480,7 @@
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A597" s="77"/>
+      <c r="A597" s="93"/>
       <c r="B597" s="67"/>
       <c r="C597" s="52"/>
       <c r="D597" s="53"/>
@@ -15436,7 +15503,7 @@
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A598" s="78"/>
+      <c r="A598" s="94"/>
       <c r="B598" s="69"/>
       <c r="C598" s="59"/>
       <c r="D598" s="60"/>
@@ -15461,91 +15528,6 @@
   </sheetData>
   <sheetProtection password="C66B" sheet="1" objects="1"/>
   <mergeCells count="109">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="A191:A196"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="A209:A214"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A239:A244"/>
-    <mergeCell ref="A245:A250"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="A257:A262"/>
-    <mergeCell ref="A263:A268"/>
-    <mergeCell ref="A269:A274"/>
-    <mergeCell ref="A275:A280"/>
-    <mergeCell ref="A281:A286"/>
-    <mergeCell ref="A287:A292"/>
-    <mergeCell ref="A293:A298"/>
-    <mergeCell ref="A299:A304"/>
-    <mergeCell ref="A305:A310"/>
-    <mergeCell ref="A311:A316"/>
-    <mergeCell ref="A317:A322"/>
-    <mergeCell ref="A323:A328"/>
-    <mergeCell ref="A329:A334"/>
-    <mergeCell ref="A335:A340"/>
-    <mergeCell ref="A341:A346"/>
-    <mergeCell ref="A347:A352"/>
-    <mergeCell ref="A353:A358"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="A365:A370"/>
-    <mergeCell ref="A371:A376"/>
-    <mergeCell ref="A377:A382"/>
-    <mergeCell ref="A383:A388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="A395:A400"/>
-    <mergeCell ref="A401:A406"/>
-    <mergeCell ref="A407:A412"/>
-    <mergeCell ref="A503:A508"/>
-    <mergeCell ref="A509:A514"/>
-    <mergeCell ref="A515:A520"/>
-    <mergeCell ref="A413:A418"/>
-    <mergeCell ref="A419:A424"/>
-    <mergeCell ref="A425:A430"/>
-    <mergeCell ref="A431:A436"/>
-    <mergeCell ref="A437:A442"/>
-    <mergeCell ref="A443:A448"/>
-    <mergeCell ref="A449:A454"/>
-    <mergeCell ref="A455:A460"/>
-    <mergeCell ref="A461:A466"/>
     <mergeCell ref="A575:A580"/>
     <mergeCell ref="A581:A586"/>
     <mergeCell ref="A587:A592"/>
@@ -15570,6 +15552,91 @@
     <mergeCell ref="A485:A490"/>
     <mergeCell ref="A491:A496"/>
     <mergeCell ref="A497:A502"/>
+    <mergeCell ref="A503:A508"/>
+    <mergeCell ref="A509:A514"/>
+    <mergeCell ref="A515:A520"/>
+    <mergeCell ref="A413:A418"/>
+    <mergeCell ref="A419:A424"/>
+    <mergeCell ref="A425:A430"/>
+    <mergeCell ref="A431:A436"/>
+    <mergeCell ref="A437:A442"/>
+    <mergeCell ref="A443:A448"/>
+    <mergeCell ref="A449:A454"/>
+    <mergeCell ref="A455:A460"/>
+    <mergeCell ref="A461:A466"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="A365:A370"/>
+    <mergeCell ref="A371:A376"/>
+    <mergeCell ref="A377:A382"/>
+    <mergeCell ref="A383:A388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="A395:A400"/>
+    <mergeCell ref="A401:A406"/>
+    <mergeCell ref="A407:A412"/>
+    <mergeCell ref="A305:A310"/>
+    <mergeCell ref="A311:A316"/>
+    <mergeCell ref="A317:A322"/>
+    <mergeCell ref="A323:A328"/>
+    <mergeCell ref="A329:A334"/>
+    <mergeCell ref="A335:A340"/>
+    <mergeCell ref="A341:A346"/>
+    <mergeCell ref="A347:A352"/>
+    <mergeCell ref="A353:A358"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="A257:A262"/>
+    <mergeCell ref="A263:A268"/>
+    <mergeCell ref="A269:A274"/>
+    <mergeCell ref="A275:A280"/>
+    <mergeCell ref="A281:A286"/>
+    <mergeCell ref="A287:A292"/>
+    <mergeCell ref="A293:A298"/>
+    <mergeCell ref="A299:A304"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="A209:A214"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A239:A244"/>
+    <mergeCell ref="A245:A250"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="A191:A196"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="A131:A136"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -15579,10 +15646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O293"/>
+  <dimension ref="A1:P293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15593,7 +15660,7 @@
     <col min="4" max="4" width="25.25" style="29" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="29" customWidth="1"/>
     <col min="6" max="6" width="15" style="29" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="112" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="80" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="29" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
@@ -15601,7 +15668,7 @@
     <col min="12" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -15617,10 +15684,10 @@
       <c r="E1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="78" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -15648,8 +15715,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="103">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="107">
         <v>17</v>
       </c>
       <c r="B2" s="32">
@@ -15695,8 +15762,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="108"/>
       <c r="B3" s="32">
         <v>43217</v>
       </c>
@@ -15712,7 +15779,7 @@
       <c r="F3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="111">
+      <c r="G3" s="79">
         <v>76133752</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -15740,8 +15807,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="104"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="108"/>
       <c r="B4" s="32">
         <v>43217</v>
       </c>
@@ -15757,7 +15824,7 @@
       <c r="F4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="79">
         <v>76156911</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -15785,8 +15852,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="108"/>
       <c r="B5" s="32">
         <v>43217</v>
       </c>
@@ -15802,7 +15869,7 @@
       <c r="F5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="79">
         <v>76157133</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -15830,8 +15897,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="108"/>
       <c r="B6" s="32">
         <v>43217</v>
       </c>
@@ -15847,7 +15914,7 @@
       <c r="F6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="79">
         <v>76133002</v>
       </c>
       <c r="H6" s="20" t="s">
@@ -15875,8 +15942,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="108"/>
       <c r="B7" s="32">
         <v>43217</v>
       </c>
@@ -15892,7 +15959,7 @@
       <c r="F7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="79">
         <v>76152937</v>
       </c>
       <c r="H7" s="20" t="s">
@@ -15920,8 +15987,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="104">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="108">
         <v>22</v>
       </c>
       <c r="B8" s="36">
@@ -15939,7 +16006,7 @@
       <c r="F8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="79">
         <v>76152939</v>
       </c>
       <c r="H8" s="20" t="s">
@@ -15967,8 +16034,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="104"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="108"/>
       <c r="B9" s="36">
         <v>43244</v>
       </c>
@@ -15984,7 +16051,7 @@
       <c r="F9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="79">
         <v>76138830</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -16012,8 +16079,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="104"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="108"/>
       <c r="B10" s="36">
         <v>43244</v>
       </c>
@@ -16029,7 +16096,7 @@
       <c r="F10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="79">
         <v>76132999</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -16057,8 +16124,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="108"/>
       <c r="B11" s="36">
         <v>43250</v>
       </c>
@@ -16074,7 +16141,7 @@
       <c r="F11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="79">
         <v>76133012</v>
       </c>
       <c r="H11" s="20" t="s">
@@ -16087,7 +16154,7 @@
         <v>32</v>
       </c>
       <c r="K11" s="33">
-        <v>15161100932</v>
+        <v>15161100931</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>41</v>
@@ -16096,14 +16163,14 @@
         <v>54</v>
       </c>
       <c r="N11" s="1">
-        <v>18020275120</v>
+        <v>18020275119</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="105"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="109"/>
       <c r="B12" s="36">
         <v>43250</v>
       </c>
@@ -16119,7 +16186,7 @@
       <c r="F12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="79">
         <v>76157131</v>
       </c>
       <c r="H12" s="20" t="s">
@@ -16132,7 +16199,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="33">
-        <v>15161100933</v>
+        <v>15161100931</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>41</v>
@@ -16141,54 +16208,118 @@
         <v>54</v>
       </c>
       <c r="N12" s="1">
-        <v>18020275121</v>
+        <v>18020275119</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="110">
+        <v>23</v>
+      </c>
+      <c r="B13" s="36">
+        <v>43257</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="20">
+        <v>76157571</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="33">
+        <v>15161100931</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="112"/>
+      <c r="B14" s="36">
+        <v>43257</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="20">
+        <v>76176032</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="33">
+        <v>15161100931</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="11"/>
       <c r="C15" s="1"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="79"/>
       <c r="H15" s="37"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -16198,14 +16329,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="11"/>
       <c r="C16" s="1"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
-      <c r="G16" s="111"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="37"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -16222,7 +16353,7 @@
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
-      <c r="G17" s="111"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="37"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -16239,7 +16370,7 @@
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="111"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="37"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -16256,7 +16387,7 @@
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="111"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="37"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -16273,7 +16404,7 @@
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="111"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="37"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -16290,7 +16421,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="111"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="37"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -16307,7 +16438,7 @@
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="111"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="37"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -16324,7 +16455,7 @@
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="111"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="37"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -16341,7 +16472,7 @@
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
-      <c r="G24" s="111"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="37"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -16358,7 +16489,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
-      <c r="G25" s="111"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="37"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -16375,7 +16506,7 @@
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
-      <c r="G26" s="111"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="37"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -16392,7 +16523,7 @@
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
-      <c r="G27" s="111"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="37"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -16409,7 +16540,7 @@
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
-      <c r="G28" s="111"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="37"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -16426,7 +16557,7 @@
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="111"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="37"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -16443,7 +16574,7 @@
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="111"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="37"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -16460,7 +16591,7 @@
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="111"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="37"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -16477,7 +16608,7 @@
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="111"/>
+      <c r="G32" s="79"/>
       <c r="H32" s="37"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -16494,7 +16625,7 @@
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="111"/>
+      <c r="G33" s="79"/>
       <c r="H33" s="37"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -16511,7 +16642,7 @@
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="111"/>
+      <c r="G34" s="79"/>
       <c r="H34" s="37"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -16528,7 +16659,7 @@
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="111"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="37"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -16545,7 +16676,7 @@
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="111"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="37"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -16562,7 +16693,7 @@
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
-      <c r="G37" s="111"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="37"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -16579,7 +16710,7 @@
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="111"/>
+      <c r="G38" s="79"/>
       <c r="H38" s="37"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -16596,7 +16727,7 @@
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="111"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="37"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -16613,7 +16744,7 @@
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="111"/>
+      <c r="G40" s="79"/>
       <c r="H40" s="37"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -16630,7 +16761,7 @@
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="111"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="37"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -16647,7 +16778,7 @@
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
-      <c r="G42" s="111"/>
+      <c r="G42" s="79"/>
       <c r="H42" s="37"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -16664,7 +16795,7 @@
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
-      <c r="G43" s="111"/>
+      <c r="G43" s="79"/>
       <c r="H43" s="37"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -16681,7 +16812,7 @@
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
-      <c r="G44" s="111"/>
+      <c r="G44" s="79"/>
       <c r="H44" s="37"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -16698,7 +16829,7 @@
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
-      <c r="G45" s="111"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="37"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -16715,7 +16846,7 @@
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
-      <c r="G46" s="111"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="37"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -16732,7 +16863,7 @@
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
-      <c r="G47" s="111"/>
+      <c r="G47" s="79"/>
       <c r="H47" s="37"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -16749,7 +16880,7 @@
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
-      <c r="G48" s="111"/>
+      <c r="G48" s="79"/>
       <c r="H48" s="37"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -16766,7 +16897,7 @@
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
-      <c r="G49" s="111"/>
+      <c r="G49" s="79"/>
       <c r="H49" s="37"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -16783,7 +16914,7 @@
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
-      <c r="G50" s="111"/>
+      <c r="G50" s="79"/>
       <c r="H50" s="37"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -16800,7 +16931,7 @@
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
-      <c r="G51" s="111"/>
+      <c r="G51" s="79"/>
       <c r="H51" s="37"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -16817,7 +16948,7 @@
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
-      <c r="G52" s="111"/>
+      <c r="G52" s="79"/>
       <c r="H52" s="37"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -16834,7 +16965,7 @@
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
-      <c r="G53" s="111"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="37"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -16851,7 +16982,7 @@
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
-      <c r="G54" s="111"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="37"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -16868,7 +16999,7 @@
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
-      <c r="G55" s="111"/>
+      <c r="G55" s="79"/>
       <c r="H55" s="37"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -16885,7 +17016,7 @@
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
-      <c r="G56" s="111"/>
+      <c r="G56" s="79"/>
       <c r="H56" s="37"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -16902,7 +17033,7 @@
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="111"/>
+      <c r="G57" s="79"/>
       <c r="H57" s="37"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -16919,7 +17050,7 @@
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
-      <c r="G58" s="111"/>
+      <c r="G58" s="79"/>
       <c r="H58" s="37"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -16936,7 +17067,7 @@
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
-      <c r="G59" s="111"/>
+      <c r="G59" s="79"/>
       <c r="H59" s="37"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -16953,7 +17084,7 @@
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
-      <c r="G60" s="111"/>
+      <c r="G60" s="79"/>
       <c r="H60" s="37"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -16970,7 +17101,7 @@
       <c r="D61" s="37"/>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
-      <c r="G61" s="111"/>
+      <c r="G61" s="79"/>
       <c r="H61" s="37"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -16987,7 +17118,7 @@
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
-      <c r="G62" s="111"/>
+      <c r="G62" s="79"/>
       <c r="H62" s="37"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -17004,7 +17135,7 @@
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
-      <c r="G63" s="111"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="37"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -17021,7 +17152,7 @@
       <c r="D64" s="37"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
-      <c r="G64" s="111"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="37"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -17038,7 +17169,7 @@
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
-      <c r="G65" s="111"/>
+      <c r="G65" s="79"/>
       <c r="H65" s="37"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -17055,7 +17186,7 @@
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
-      <c r="G66" s="111"/>
+      <c r="G66" s="79"/>
       <c r="H66" s="37"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -17072,7 +17203,7 @@
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
-      <c r="G67" s="111"/>
+      <c r="G67" s="79"/>
       <c r="H67" s="37"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -17089,7 +17220,7 @@
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
-      <c r="G68" s="111"/>
+      <c r="G68" s="79"/>
       <c r="H68" s="37"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -17106,7 +17237,7 @@
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
-      <c r="G69" s="111"/>
+      <c r="G69" s="79"/>
       <c r="H69" s="37"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -17123,7 +17254,7 @@
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
-      <c r="G70" s="111"/>
+      <c r="G70" s="79"/>
       <c r="H70" s="37"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -17140,7 +17271,7 @@
       <c r="D71" s="37"/>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
-      <c r="G71" s="111"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="37"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -17157,7 +17288,7 @@
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
-      <c r="G72" s="111"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="37"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -17174,7 +17305,7 @@
       <c r="D73" s="37"/>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
-      <c r="G73" s="111"/>
+      <c r="G73" s="79"/>
       <c r="H73" s="37"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -17191,7 +17322,7 @@
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
-      <c r="G74" s="111"/>
+      <c r="G74" s="79"/>
       <c r="H74" s="37"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -17208,7 +17339,7 @@
       <c r="D75" s="37"/>
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
-      <c r="G75" s="111"/>
+      <c r="G75" s="79"/>
       <c r="H75" s="37"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -17225,7 +17356,7 @@
       <c r="D76" s="37"/>
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
-      <c r="G76" s="111"/>
+      <c r="G76" s="79"/>
       <c r="H76" s="37"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -17242,7 +17373,7 @@
       <c r="D77" s="37"/>
       <c r="E77" s="37"/>
       <c r="F77" s="37"/>
-      <c r="G77" s="111"/>
+      <c r="G77" s="79"/>
       <c r="H77" s="37"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -17259,7 +17390,7 @@
       <c r="D78" s="37"/>
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
-      <c r="G78" s="111"/>
+      <c r="G78" s="79"/>
       <c r="H78" s="37"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -17276,7 +17407,7 @@
       <c r="D79" s="37"/>
       <c r="E79" s="37"/>
       <c r="F79" s="37"/>
-      <c r="G79" s="111"/>
+      <c r="G79" s="79"/>
       <c r="H79" s="37"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -17293,7 +17424,7 @@
       <c r="D80" s="37"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
-      <c r="G80" s="111"/>
+      <c r="G80" s="79"/>
       <c r="H80" s="37"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -17310,7 +17441,7 @@
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
-      <c r="G81" s="111"/>
+      <c r="G81" s="79"/>
       <c r="H81" s="37"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -17327,7 +17458,7 @@
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
-      <c r="G82" s="111"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="37"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -17344,7 +17475,7 @@
       <c r="D83" s="37"/>
       <c r="E83" s="37"/>
       <c r="F83" s="37"/>
-      <c r="G83" s="111"/>
+      <c r="G83" s="79"/>
       <c r="H83" s="37"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -17361,7 +17492,7 @@
       <c r="D84" s="37"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
-      <c r="G84" s="111"/>
+      <c r="G84" s="79"/>
       <c r="H84" s="37"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -17378,7 +17509,7 @@
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
-      <c r="G85" s="111"/>
+      <c r="G85" s="79"/>
       <c r="H85" s="37"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -17395,7 +17526,7 @@
       <c r="D86" s="37"/>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
-      <c r="G86" s="111"/>
+      <c r="G86" s="79"/>
       <c r="H86" s="37"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -17412,7 +17543,7 @@
       <c r="D87" s="37"/>
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
-      <c r="G87" s="111"/>
+      <c r="G87" s="79"/>
       <c r="H87" s="37"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -17429,7 +17560,7 @@
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
       <c r="F88" s="37"/>
-      <c r="G88" s="111"/>
+      <c r="G88" s="79"/>
       <c r="H88" s="37"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -17446,7 +17577,7 @@
       <c r="D89" s="37"/>
       <c r="E89" s="37"/>
       <c r="F89" s="37"/>
-      <c r="G89" s="111"/>
+      <c r="G89" s="79"/>
       <c r="H89" s="37"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -17463,7 +17594,7 @@
       <c r="D90" s="37"/>
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
-      <c r="G90" s="111"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="37"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -17480,7 +17611,7 @@
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
       <c r="F91" s="37"/>
-      <c r="G91" s="111"/>
+      <c r="G91" s="79"/>
       <c r="H91" s="37"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -17497,7 +17628,7 @@
       <c r="D92" s="37"/>
       <c r="E92" s="37"/>
       <c r="F92" s="37"/>
-      <c r="G92" s="111"/>
+      <c r="G92" s="79"/>
       <c r="H92" s="37"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -17514,7 +17645,7 @@
       <c r="D93" s="37"/>
       <c r="E93" s="37"/>
       <c r="F93" s="37"/>
-      <c r="G93" s="111"/>
+      <c r="G93" s="79"/>
       <c r="H93" s="37"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -17531,7 +17662,7 @@
       <c r="D94" s="37"/>
       <c r="E94" s="37"/>
       <c r="F94" s="37"/>
-      <c r="G94" s="111"/>
+      <c r="G94" s="79"/>
       <c r="H94" s="37"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -17548,7 +17679,7 @@
       <c r="D95" s="37"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
-      <c r="G95" s="111"/>
+      <c r="G95" s="79"/>
       <c r="H95" s="37"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -17565,7 +17696,7 @@
       <c r="D96" s="37"/>
       <c r="E96" s="37"/>
       <c r="F96" s="37"/>
-      <c r="G96" s="111"/>
+      <c r="G96" s="79"/>
       <c r="H96" s="37"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -17582,7 +17713,7 @@
       <c r="D97" s="37"/>
       <c r="E97" s="37"/>
       <c r="F97" s="37"/>
-      <c r="G97" s="111"/>
+      <c r="G97" s="79"/>
       <c r="H97" s="37"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -17599,7 +17730,7 @@
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
       <c r="F98" s="37"/>
-      <c r="G98" s="111"/>
+      <c r="G98" s="79"/>
       <c r="H98" s="37"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -17616,7 +17747,7 @@
       <c r="D99" s="37"/>
       <c r="E99" s="37"/>
       <c r="F99" s="37"/>
-      <c r="G99" s="111"/>
+      <c r="G99" s="79"/>
       <c r="H99" s="37"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -17633,7 +17764,7 @@
       <c r="D100" s="37"/>
       <c r="E100" s="37"/>
       <c r="F100" s="37"/>
-      <c r="G100" s="111"/>
+      <c r="G100" s="79"/>
       <c r="H100" s="37"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -17650,7 +17781,7 @@
       <c r="D101" s="37"/>
       <c r="E101" s="37"/>
       <c r="F101" s="37"/>
-      <c r="G101" s="111"/>
+      <c r="G101" s="79"/>
       <c r="H101" s="37"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -17667,7 +17798,7 @@
       <c r="D102" s="37"/>
       <c r="E102" s="37"/>
       <c r="F102" s="37"/>
-      <c r="G102" s="111"/>
+      <c r="G102" s="79"/>
       <c r="H102" s="37"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -17684,7 +17815,7 @@
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
       <c r="F103" s="37"/>
-      <c r="G103" s="111"/>
+      <c r="G103" s="79"/>
       <c r="H103" s="37"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -17701,7 +17832,7 @@
       <c r="D104" s="37"/>
       <c r="E104" s="37"/>
       <c r="F104" s="37"/>
-      <c r="G104" s="111"/>
+      <c r="G104" s="79"/>
       <c r="H104" s="37"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -17718,7 +17849,7 @@
       <c r="D105" s="37"/>
       <c r="E105" s="37"/>
       <c r="F105" s="37"/>
-      <c r="G105" s="111"/>
+      <c r="G105" s="79"/>
       <c r="H105" s="37"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -17735,7 +17866,7 @@
       <c r="D106" s="37"/>
       <c r="E106" s="37"/>
       <c r="F106" s="37"/>
-      <c r="G106" s="111"/>
+      <c r="G106" s="79"/>
       <c r="H106" s="37"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -17752,7 +17883,7 @@
       <c r="D107" s="37"/>
       <c r="E107" s="37"/>
       <c r="F107" s="37"/>
-      <c r="G107" s="111"/>
+      <c r="G107" s="79"/>
       <c r="H107" s="37"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -17769,7 +17900,7 @@
       <c r="D108" s="37"/>
       <c r="E108" s="37"/>
       <c r="F108" s="37"/>
-      <c r="G108" s="111"/>
+      <c r="G108" s="79"/>
       <c r="H108" s="37"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -17786,7 +17917,7 @@
       <c r="D109" s="37"/>
       <c r="E109" s="37"/>
       <c r="F109" s="37"/>
-      <c r="G109" s="111"/>
+      <c r="G109" s="79"/>
       <c r="H109" s="37"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -17803,7 +17934,7 @@
       <c r="D110" s="37"/>
       <c r="E110" s="37"/>
       <c r="F110" s="37"/>
-      <c r="G110" s="111"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="37"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -17820,7 +17951,7 @@
       <c r="D111" s="37"/>
       <c r="E111" s="37"/>
       <c r="F111" s="37"/>
-      <c r="G111" s="111"/>
+      <c r="G111" s="79"/>
       <c r="H111" s="37"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -17837,7 +17968,7 @@
       <c r="D112" s="37"/>
       <c r="E112" s="37"/>
       <c r="F112" s="37"/>
-      <c r="G112" s="111"/>
+      <c r="G112" s="79"/>
       <c r="H112" s="37"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -17854,7 +17985,7 @@
       <c r="D113" s="37"/>
       <c r="E113" s="37"/>
       <c r="F113" s="37"/>
-      <c r="G113" s="111"/>
+      <c r="G113" s="79"/>
       <c r="H113" s="37"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -17871,7 +18002,7 @@
       <c r="D114" s="37"/>
       <c r="E114" s="37"/>
       <c r="F114" s="37"/>
-      <c r="G114" s="111"/>
+      <c r="G114" s="79"/>
       <c r="H114" s="37"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -17888,7 +18019,7 @@
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
       <c r="F115" s="37"/>
-      <c r="G115" s="111"/>
+      <c r="G115" s="79"/>
       <c r="H115" s="37"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -17905,7 +18036,7 @@
       <c r="D116" s="37"/>
       <c r="E116" s="37"/>
       <c r="F116" s="37"/>
-      <c r="G116" s="111"/>
+      <c r="G116" s="79"/>
       <c r="H116" s="37"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -17922,7 +18053,7 @@
       <c r="D117" s="37"/>
       <c r="E117" s="37"/>
       <c r="F117" s="37"/>
-      <c r="G117" s="111"/>
+      <c r="G117" s="79"/>
       <c r="H117" s="37"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -17939,7 +18070,7 @@
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
       <c r="F118" s="37"/>
-      <c r="G118" s="111"/>
+      <c r="G118" s="79"/>
       <c r="H118" s="37"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -17956,7 +18087,7 @@
       <c r="D119" s="37"/>
       <c r="E119" s="37"/>
       <c r="F119" s="37"/>
-      <c r="G119" s="111"/>
+      <c r="G119" s="79"/>
       <c r="H119" s="37"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -17973,7 +18104,7 @@
       <c r="D120" s="37"/>
       <c r="E120" s="37"/>
       <c r="F120" s="37"/>
-      <c r="G120" s="111"/>
+      <c r="G120" s="79"/>
       <c r="H120" s="37"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -17990,7 +18121,7 @@
       <c r="D121" s="37"/>
       <c r="E121" s="37"/>
       <c r="F121" s="37"/>
-      <c r="G121" s="111"/>
+      <c r="G121" s="79"/>
       <c r="H121" s="37"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -18007,7 +18138,7 @@
       <c r="D122" s="37"/>
       <c r="E122" s="37"/>
       <c r="F122" s="37"/>
-      <c r="G122" s="111"/>
+      <c r="G122" s="79"/>
       <c r="H122" s="37"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -18024,7 +18155,7 @@
       <c r="D123" s="37"/>
       <c r="E123" s="37"/>
       <c r="F123" s="37"/>
-      <c r="G123" s="111"/>
+      <c r="G123" s="79"/>
       <c r="H123" s="37"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -18041,7 +18172,7 @@
       <c r="D124" s="37"/>
       <c r="E124" s="37"/>
       <c r="F124" s="37"/>
-      <c r="G124" s="111"/>
+      <c r="G124" s="79"/>
       <c r="H124" s="37"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -18058,7 +18189,7 @@
       <c r="D125" s="37"/>
       <c r="E125" s="37"/>
       <c r="F125" s="37"/>
-      <c r="G125" s="111"/>
+      <c r="G125" s="79"/>
       <c r="H125" s="37"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -18075,7 +18206,7 @@
       <c r="D126" s="37"/>
       <c r="E126" s="37"/>
       <c r="F126" s="37"/>
-      <c r="G126" s="111"/>
+      <c r="G126" s="79"/>
       <c r="H126" s="37"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -18092,7 +18223,7 @@
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
       <c r="F127" s="37"/>
-      <c r="G127" s="111"/>
+      <c r="G127" s="79"/>
       <c r="H127" s="37"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -18109,7 +18240,7 @@
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
       <c r="F128" s="37"/>
-      <c r="G128" s="111"/>
+      <c r="G128" s="79"/>
       <c r="H128" s="37"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -18126,7 +18257,7 @@
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
       <c r="F129" s="37"/>
-      <c r="G129" s="111"/>
+      <c r="G129" s="79"/>
       <c r="H129" s="37"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -18143,7 +18274,7 @@
       <c r="D130" s="37"/>
       <c r="E130" s="37"/>
       <c r="F130" s="37"/>
-      <c r="G130" s="111"/>
+      <c r="G130" s="79"/>
       <c r="H130" s="37"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -18160,7 +18291,7 @@
       <c r="D131" s="37"/>
       <c r="E131" s="37"/>
       <c r="F131" s="37"/>
-      <c r="G131" s="111"/>
+      <c r="G131" s="79"/>
       <c r="H131" s="37"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -18177,7 +18308,7 @@
       <c r="D132" s="37"/>
       <c r="E132" s="37"/>
       <c r="F132" s="37"/>
-      <c r="G132" s="111"/>
+      <c r="G132" s="79"/>
       <c r="H132" s="37"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -18194,7 +18325,7 @@
       <c r="D133" s="37"/>
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
-      <c r="G133" s="111"/>
+      <c r="G133" s="79"/>
       <c r="H133" s="37"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -18211,7 +18342,7 @@
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
       <c r="F134" s="37"/>
-      <c r="G134" s="111"/>
+      <c r="G134" s="79"/>
       <c r="H134" s="37"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -18228,7 +18359,7 @@
       <c r="D135" s="37"/>
       <c r="E135" s="37"/>
       <c r="F135" s="37"/>
-      <c r="G135" s="111"/>
+      <c r="G135" s="79"/>
       <c r="H135" s="37"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -18245,7 +18376,7 @@
       <c r="D136" s="37"/>
       <c r="E136" s="37"/>
       <c r="F136" s="37"/>
-      <c r="G136" s="111"/>
+      <c r="G136" s="79"/>
       <c r="H136" s="37"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -18262,7 +18393,7 @@
       <c r="D137" s="37"/>
       <c r="E137" s="37"/>
       <c r="F137" s="37"/>
-      <c r="G137" s="111"/>
+      <c r="G137" s="79"/>
       <c r="H137" s="37"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -18279,7 +18410,7 @@
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
       <c r="F138" s="37"/>
-      <c r="G138" s="111"/>
+      <c r="G138" s="79"/>
       <c r="H138" s="37"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -18296,7 +18427,7 @@
       <c r="D139" s="37"/>
       <c r="E139" s="37"/>
       <c r="F139" s="37"/>
-      <c r="G139" s="111"/>
+      <c r="G139" s="79"/>
       <c r="H139" s="37"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -18313,7 +18444,7 @@
       <c r="D140" s="37"/>
       <c r="E140" s="37"/>
       <c r="F140" s="37"/>
-      <c r="G140" s="111"/>
+      <c r="G140" s="79"/>
       <c r="H140" s="37"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -18330,7 +18461,7 @@
       <c r="D141" s="37"/>
       <c r="E141" s="37"/>
       <c r="F141" s="37"/>
-      <c r="G141" s="111"/>
+      <c r="G141" s="79"/>
       <c r="H141" s="37"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -18347,7 +18478,7 @@
       <c r="D142" s="37"/>
       <c r="E142" s="37"/>
       <c r="F142" s="37"/>
-      <c r="G142" s="111"/>
+      <c r="G142" s="79"/>
       <c r="H142" s="37"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -18364,7 +18495,7 @@
       <c r="D143" s="37"/>
       <c r="E143" s="37"/>
       <c r="F143" s="37"/>
-      <c r="G143" s="111"/>
+      <c r="G143" s="79"/>
       <c r="H143" s="37"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -18381,7 +18512,7 @@
       <c r="D144" s="37"/>
       <c r="E144" s="37"/>
       <c r="F144" s="37"/>
-      <c r="G144" s="111"/>
+      <c r="G144" s="79"/>
       <c r="H144" s="37"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -18398,7 +18529,7 @@
       <c r="D145" s="37"/>
       <c r="E145" s="37"/>
       <c r="F145" s="37"/>
-      <c r="G145" s="111"/>
+      <c r="G145" s="79"/>
       <c r="H145" s="37"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -18415,7 +18546,7 @@
       <c r="D146" s="37"/>
       <c r="E146" s="37"/>
       <c r="F146" s="37"/>
-      <c r="G146" s="111"/>
+      <c r="G146" s="79"/>
       <c r="H146" s="37"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -18432,7 +18563,7 @@
       <c r="D147" s="37"/>
       <c r="E147" s="37"/>
       <c r="F147" s="37"/>
-      <c r="G147" s="111"/>
+      <c r="G147" s="79"/>
       <c r="H147" s="37"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -18449,7 +18580,7 @@
       <c r="D148" s="37"/>
       <c r="E148" s="37"/>
       <c r="F148" s="37"/>
-      <c r="G148" s="111"/>
+      <c r="G148" s="79"/>
       <c r="H148" s="37"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -18466,7 +18597,7 @@
       <c r="D149" s="37"/>
       <c r="E149" s="37"/>
       <c r="F149" s="37"/>
-      <c r="G149" s="111"/>
+      <c r="G149" s="79"/>
       <c r="H149" s="37"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -18483,7 +18614,7 @@
       <c r="D150" s="37"/>
       <c r="E150" s="37"/>
       <c r="F150" s="37"/>
-      <c r="G150" s="111"/>
+      <c r="G150" s="79"/>
       <c r="H150" s="37"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -18500,7 +18631,7 @@
       <c r="D151" s="37"/>
       <c r="E151" s="37"/>
       <c r="F151" s="37"/>
-      <c r="G151" s="111"/>
+      <c r="G151" s="79"/>
       <c r="H151" s="37"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -18517,7 +18648,7 @@
       <c r="D152" s="37"/>
       <c r="E152" s="37"/>
       <c r="F152" s="37"/>
-      <c r="G152" s="111"/>
+      <c r="G152" s="79"/>
       <c r="H152" s="37"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -18534,7 +18665,7 @@
       <c r="D153" s="37"/>
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
-      <c r="G153" s="111"/>
+      <c r="G153" s="79"/>
       <c r="H153" s="37"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -18551,7 +18682,7 @@
       <c r="D154" s="37"/>
       <c r="E154" s="37"/>
       <c r="F154" s="37"/>
-      <c r="G154" s="111"/>
+      <c r="G154" s="79"/>
       <c r="H154" s="37"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -18568,7 +18699,7 @@
       <c r="D155" s="37"/>
       <c r="E155" s="37"/>
       <c r="F155" s="37"/>
-      <c r="G155" s="111"/>
+      <c r="G155" s="79"/>
       <c r="H155" s="37"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -18585,7 +18716,7 @@
       <c r="D156" s="37"/>
       <c r="E156" s="37"/>
       <c r="F156" s="37"/>
-      <c r="G156" s="111"/>
+      <c r="G156" s="79"/>
       <c r="H156" s="37"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -18602,7 +18733,7 @@
       <c r="D157" s="37"/>
       <c r="E157" s="37"/>
       <c r="F157" s="37"/>
-      <c r="G157" s="111"/>
+      <c r="G157" s="79"/>
       <c r="H157" s="37"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -18619,7 +18750,7 @@
       <c r="D158" s="37"/>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
-      <c r="G158" s="111"/>
+      <c r="G158" s="79"/>
       <c r="H158" s="37"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -18636,7 +18767,7 @@
       <c r="D159" s="37"/>
       <c r="E159" s="37"/>
       <c r="F159" s="37"/>
-      <c r="G159" s="111"/>
+      <c r="G159" s="79"/>
       <c r="H159" s="37"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -18653,7 +18784,7 @@
       <c r="D160" s="37"/>
       <c r="E160" s="37"/>
       <c r="F160" s="37"/>
-      <c r="G160" s="111"/>
+      <c r="G160" s="79"/>
       <c r="H160" s="37"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -18670,7 +18801,7 @@
       <c r="D161" s="37"/>
       <c r="E161" s="37"/>
       <c r="F161" s="37"/>
-      <c r="G161" s="111"/>
+      <c r="G161" s="79"/>
       <c r="H161" s="37"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -18687,7 +18818,7 @@
       <c r="D162" s="37"/>
       <c r="E162" s="37"/>
       <c r="F162" s="37"/>
-      <c r="G162" s="111"/>
+      <c r="G162" s="79"/>
       <c r="H162" s="37"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -18704,7 +18835,7 @@
       <c r="D163" s="37"/>
       <c r="E163" s="37"/>
       <c r="F163" s="37"/>
-      <c r="G163" s="111"/>
+      <c r="G163" s="79"/>
       <c r="H163" s="37"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -18721,7 +18852,7 @@
       <c r="D164" s="37"/>
       <c r="E164" s="37"/>
       <c r="F164" s="37"/>
-      <c r="G164" s="111"/>
+      <c r="G164" s="79"/>
       <c r="H164" s="37"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -18738,7 +18869,7 @@
       <c r="D165" s="37"/>
       <c r="E165" s="37"/>
       <c r="F165" s="37"/>
-      <c r="G165" s="111"/>
+      <c r="G165" s="79"/>
       <c r="H165" s="37"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -18755,7 +18886,7 @@
       <c r="D166" s="37"/>
       <c r="E166" s="37"/>
       <c r="F166" s="37"/>
-      <c r="G166" s="111"/>
+      <c r="G166" s="79"/>
       <c r="H166" s="37"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -18772,7 +18903,7 @@
       <c r="D167" s="37"/>
       <c r="E167" s="37"/>
       <c r="F167" s="37"/>
-      <c r="G167" s="111"/>
+      <c r="G167" s="79"/>
       <c r="H167" s="37"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -18789,7 +18920,7 @@
       <c r="D168" s="37"/>
       <c r="E168" s="37"/>
       <c r="F168" s="37"/>
-      <c r="G168" s="111"/>
+      <c r="G168" s="79"/>
       <c r="H168" s="37"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -18806,7 +18937,7 @@
       <c r="D169" s="37"/>
       <c r="E169" s="37"/>
       <c r="F169" s="37"/>
-      <c r="G169" s="111"/>
+      <c r="G169" s="79"/>
       <c r="H169" s="37"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -18823,7 +18954,7 @@
       <c r="D170" s="37"/>
       <c r="E170" s="37"/>
       <c r="F170" s="37"/>
-      <c r="G170" s="111"/>
+      <c r="G170" s="79"/>
       <c r="H170" s="37"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -18840,7 +18971,7 @@
       <c r="D171" s="37"/>
       <c r="E171" s="37"/>
       <c r="F171" s="37"/>
-      <c r="G171" s="111"/>
+      <c r="G171" s="79"/>
       <c r="H171" s="37"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -18857,7 +18988,7 @@
       <c r="D172" s="37"/>
       <c r="E172" s="37"/>
       <c r="F172" s="37"/>
-      <c r="G172" s="111"/>
+      <c r="G172" s="79"/>
       <c r="H172" s="37"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -18874,7 +19005,7 @@
       <c r="D173" s="37"/>
       <c r="E173" s="37"/>
       <c r="F173" s="37"/>
-      <c r="G173" s="111"/>
+      <c r="G173" s="79"/>
       <c r="H173" s="37"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -18891,7 +19022,7 @@
       <c r="D174" s="37"/>
       <c r="E174" s="37"/>
       <c r="F174" s="37"/>
-      <c r="G174" s="111"/>
+      <c r="G174" s="79"/>
       <c r="H174" s="37"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -18908,7 +19039,7 @@
       <c r="D175" s="37"/>
       <c r="E175" s="37"/>
       <c r="F175" s="37"/>
-      <c r="G175" s="111"/>
+      <c r="G175" s="79"/>
       <c r="H175" s="37"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -18925,7 +19056,7 @@
       <c r="D176" s="37"/>
       <c r="E176" s="37"/>
       <c r="F176" s="37"/>
-      <c r="G176" s="111"/>
+      <c r="G176" s="79"/>
       <c r="H176" s="37"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -18942,7 +19073,7 @@
       <c r="D177" s="37"/>
       <c r="E177" s="37"/>
       <c r="F177" s="37"/>
-      <c r="G177" s="111"/>
+      <c r="G177" s="79"/>
       <c r="H177" s="37"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -18959,7 +19090,7 @@
       <c r="D178" s="37"/>
       <c r="E178" s="37"/>
       <c r="F178" s="37"/>
-      <c r="G178" s="111"/>
+      <c r="G178" s="79"/>
       <c r="H178" s="37"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -18976,7 +19107,7 @@
       <c r="D179" s="37"/>
       <c r="E179" s="37"/>
       <c r="F179" s="37"/>
-      <c r="G179" s="111"/>
+      <c r="G179" s="79"/>
       <c r="H179" s="37"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -18993,7 +19124,7 @@
       <c r="D180" s="37"/>
       <c r="E180" s="37"/>
       <c r="F180" s="37"/>
-      <c r="G180" s="111"/>
+      <c r="G180" s="79"/>
       <c r="H180" s="37"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -19010,7 +19141,7 @@
       <c r="D181" s="37"/>
       <c r="E181" s="37"/>
       <c r="F181" s="37"/>
-      <c r="G181" s="111"/>
+      <c r="G181" s="79"/>
       <c r="H181" s="37"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -19027,7 +19158,7 @@
       <c r="D182" s="37"/>
       <c r="E182" s="37"/>
       <c r="F182" s="37"/>
-      <c r="G182" s="111"/>
+      <c r="G182" s="79"/>
       <c r="H182" s="37"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -19044,7 +19175,7 @@
       <c r="D183" s="37"/>
       <c r="E183" s="37"/>
       <c r="F183" s="37"/>
-      <c r="G183" s="111"/>
+      <c r="G183" s="79"/>
       <c r="H183" s="37"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -19061,7 +19192,7 @@
       <c r="D184" s="37"/>
       <c r="E184" s="37"/>
       <c r="F184" s="37"/>
-      <c r="G184" s="111"/>
+      <c r="G184" s="79"/>
       <c r="H184" s="37"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -19078,7 +19209,7 @@
       <c r="D185" s="37"/>
       <c r="E185" s="37"/>
       <c r="F185" s="37"/>
-      <c r="G185" s="111"/>
+      <c r="G185" s="79"/>
       <c r="H185" s="37"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -19095,7 +19226,7 @@
       <c r="D186" s="37"/>
       <c r="E186" s="37"/>
       <c r="F186" s="37"/>
-      <c r="G186" s="111"/>
+      <c r="G186" s="79"/>
       <c r="H186" s="37"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -19112,7 +19243,7 @@
       <c r="D187" s="37"/>
       <c r="E187" s="37"/>
       <c r="F187" s="37"/>
-      <c r="G187" s="111"/>
+      <c r="G187" s="79"/>
       <c r="H187" s="37"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -19129,7 +19260,7 @@
       <c r="D188" s="37"/>
       <c r="E188" s="37"/>
       <c r="F188" s="37"/>
-      <c r="G188" s="111"/>
+      <c r="G188" s="79"/>
       <c r="H188" s="37"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -19146,7 +19277,7 @@
       <c r="D189" s="37"/>
       <c r="E189" s="37"/>
       <c r="F189" s="37"/>
-      <c r="G189" s="111"/>
+      <c r="G189" s="79"/>
       <c r="H189" s="37"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -19163,7 +19294,7 @@
       <c r="D190" s="37"/>
       <c r="E190" s="37"/>
       <c r="F190" s="37"/>
-      <c r="G190" s="111"/>
+      <c r="G190" s="79"/>
       <c r="H190" s="37"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -19180,7 +19311,7 @@
       <c r="D191" s="37"/>
       <c r="E191" s="37"/>
       <c r="F191" s="37"/>
-      <c r="G191" s="111"/>
+      <c r="G191" s="79"/>
       <c r="H191" s="37"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -19197,7 +19328,7 @@
       <c r="D192" s="37"/>
       <c r="E192" s="37"/>
       <c r="F192" s="37"/>
-      <c r="G192" s="111"/>
+      <c r="G192" s="79"/>
       <c r="H192" s="37"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -19214,7 +19345,7 @@
       <c r="D193" s="37"/>
       <c r="E193" s="37"/>
       <c r="F193" s="37"/>
-      <c r="G193" s="111"/>
+      <c r="G193" s="79"/>
       <c r="H193" s="37"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -19231,7 +19362,7 @@
       <c r="D194" s="37"/>
       <c r="E194" s="37"/>
       <c r="F194" s="37"/>
-      <c r="G194" s="111"/>
+      <c r="G194" s="79"/>
       <c r="H194" s="37"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -19248,7 +19379,7 @@
       <c r="D195" s="37"/>
       <c r="E195" s="37"/>
       <c r="F195" s="37"/>
-      <c r="G195" s="111"/>
+      <c r="G195" s="79"/>
       <c r="H195" s="37"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -19265,7 +19396,7 @@
       <c r="D196" s="37"/>
       <c r="E196" s="37"/>
       <c r="F196" s="37"/>
-      <c r="G196" s="111"/>
+      <c r="G196" s="79"/>
       <c r="H196" s="37"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -19282,7 +19413,7 @@
       <c r="D197" s="37"/>
       <c r="E197" s="37"/>
       <c r="F197" s="37"/>
-      <c r="G197" s="111"/>
+      <c r="G197" s="79"/>
       <c r="H197" s="37"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -19299,7 +19430,7 @@
       <c r="D198" s="37"/>
       <c r="E198" s="37"/>
       <c r="F198" s="37"/>
-      <c r="G198" s="111"/>
+      <c r="G198" s="79"/>
       <c r="H198" s="37"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -19316,7 +19447,7 @@
       <c r="D199" s="37"/>
       <c r="E199" s="37"/>
       <c r="F199" s="37"/>
-      <c r="G199" s="111"/>
+      <c r="G199" s="79"/>
       <c r="H199" s="37"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -19333,7 +19464,7 @@
       <c r="D200" s="37"/>
       <c r="E200" s="37"/>
       <c r="F200" s="37"/>
-      <c r="G200" s="111"/>
+      <c r="G200" s="79"/>
       <c r="H200" s="37"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -19350,7 +19481,7 @@
       <c r="D201" s="37"/>
       <c r="E201" s="37"/>
       <c r="F201" s="37"/>
-      <c r="G201" s="111"/>
+      <c r="G201" s="79"/>
       <c r="H201" s="37"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -19367,7 +19498,7 @@
       <c r="D202" s="37"/>
       <c r="E202" s="37"/>
       <c r="F202" s="37"/>
-      <c r="G202" s="111"/>
+      <c r="G202" s="79"/>
       <c r="H202" s="37"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -19384,7 +19515,7 @@
       <c r="D203" s="37"/>
       <c r="E203" s="37"/>
       <c r="F203" s="37"/>
-      <c r="G203" s="111"/>
+      <c r="G203" s="79"/>
       <c r="H203" s="37"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -19401,7 +19532,7 @@
       <c r="D204" s="37"/>
       <c r="E204" s="37"/>
       <c r="F204" s="37"/>
-      <c r="G204" s="111"/>
+      <c r="G204" s="79"/>
       <c r="H204" s="37"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -19418,7 +19549,7 @@
       <c r="D205" s="37"/>
       <c r="E205" s="37"/>
       <c r="F205" s="37"/>
-      <c r="G205" s="111"/>
+      <c r="G205" s="79"/>
       <c r="H205" s="37"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -19435,7 +19566,7 @@
       <c r="D206" s="37"/>
       <c r="E206" s="37"/>
       <c r="F206" s="37"/>
-      <c r="G206" s="111"/>
+      <c r="G206" s="79"/>
       <c r="H206" s="37"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -19452,7 +19583,7 @@
       <c r="D207" s="37"/>
       <c r="E207" s="37"/>
       <c r="F207" s="37"/>
-      <c r="G207" s="111"/>
+      <c r="G207" s="79"/>
       <c r="H207" s="37"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -19469,7 +19600,7 @@
       <c r="D208" s="37"/>
       <c r="E208" s="37"/>
       <c r="F208" s="37"/>
-      <c r="G208" s="111"/>
+      <c r="G208" s="79"/>
       <c r="H208" s="37"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -19486,7 +19617,7 @@
       <c r="D209" s="37"/>
       <c r="E209" s="37"/>
       <c r="F209" s="37"/>
-      <c r="G209" s="111"/>
+      <c r="G209" s="79"/>
       <c r="H209" s="37"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -19503,7 +19634,7 @@
       <c r="D210" s="37"/>
       <c r="E210" s="37"/>
       <c r="F210" s="37"/>
-      <c r="G210" s="111"/>
+      <c r="G210" s="79"/>
       <c r="H210" s="37"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -19520,7 +19651,7 @@
       <c r="D211" s="37"/>
       <c r="E211" s="37"/>
       <c r="F211" s="37"/>
-      <c r="G211" s="111"/>
+      <c r="G211" s="79"/>
       <c r="H211" s="37"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -19537,7 +19668,7 @@
       <c r="D212" s="37"/>
       <c r="E212" s="37"/>
       <c r="F212" s="37"/>
-      <c r="G212" s="111"/>
+      <c r="G212" s="79"/>
       <c r="H212" s="37"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -19554,7 +19685,7 @@
       <c r="D213" s="37"/>
       <c r="E213" s="37"/>
       <c r="F213" s="37"/>
-      <c r="G213" s="111"/>
+      <c r="G213" s="79"/>
       <c r="H213" s="37"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -19571,7 +19702,7 @@
       <c r="D214" s="37"/>
       <c r="E214" s="37"/>
       <c r="F214" s="37"/>
-      <c r="G214" s="111"/>
+      <c r="G214" s="79"/>
       <c r="H214" s="37"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -19588,7 +19719,7 @@
       <c r="D215" s="37"/>
       <c r="E215" s="37"/>
       <c r="F215" s="37"/>
-      <c r="G215" s="111"/>
+      <c r="G215" s="79"/>
       <c r="H215" s="37"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -19605,7 +19736,7 @@
       <c r="D216" s="37"/>
       <c r="E216" s="37"/>
       <c r="F216" s="37"/>
-      <c r="G216" s="111"/>
+      <c r="G216" s="79"/>
       <c r="H216" s="37"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -19622,7 +19753,7 @@
       <c r="D217" s="37"/>
       <c r="E217" s="37"/>
       <c r="F217" s="37"/>
-      <c r="G217" s="111"/>
+      <c r="G217" s="79"/>
       <c r="H217" s="37"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -19639,7 +19770,7 @@
       <c r="D218" s="37"/>
       <c r="E218" s="37"/>
       <c r="F218" s="37"/>
-      <c r="G218" s="111"/>
+      <c r="G218" s="79"/>
       <c r="H218" s="37"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -19656,7 +19787,7 @@
       <c r="D219" s="37"/>
       <c r="E219" s="37"/>
       <c r="F219" s="37"/>
-      <c r="G219" s="111"/>
+      <c r="G219" s="79"/>
       <c r="H219" s="37"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -19673,7 +19804,7 @@
       <c r="D220" s="37"/>
       <c r="E220" s="37"/>
       <c r="F220" s="37"/>
-      <c r="G220" s="111"/>
+      <c r="G220" s="79"/>
       <c r="H220" s="37"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -19690,7 +19821,7 @@
       <c r="D221" s="37"/>
       <c r="E221" s="37"/>
       <c r="F221" s="37"/>
-      <c r="G221" s="111"/>
+      <c r="G221" s="79"/>
       <c r="H221" s="37"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -19707,7 +19838,7 @@
       <c r="D222" s="37"/>
       <c r="E222" s="37"/>
       <c r="F222" s="37"/>
-      <c r="G222" s="111"/>
+      <c r="G222" s="79"/>
       <c r="H222" s="37"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -19724,7 +19855,7 @@
       <c r="D223" s="37"/>
       <c r="E223" s="37"/>
       <c r="F223" s="37"/>
-      <c r="G223" s="111"/>
+      <c r="G223" s="79"/>
       <c r="H223" s="37"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -19741,7 +19872,7 @@
       <c r="D224" s="37"/>
       <c r="E224" s="37"/>
       <c r="F224" s="37"/>
-      <c r="G224" s="111"/>
+      <c r="G224" s="79"/>
       <c r="H224" s="37"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -19758,7 +19889,7 @@
       <c r="D225" s="37"/>
       <c r="E225" s="37"/>
       <c r="F225" s="37"/>
-      <c r="G225" s="111"/>
+      <c r="G225" s="79"/>
       <c r="H225" s="37"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -19775,7 +19906,7 @@
       <c r="D226" s="37"/>
       <c r="E226" s="37"/>
       <c r="F226" s="37"/>
-      <c r="G226" s="111"/>
+      <c r="G226" s="79"/>
       <c r="H226" s="37"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -19792,7 +19923,7 @@
       <c r="D227" s="37"/>
       <c r="E227" s="37"/>
       <c r="F227" s="37"/>
-      <c r="G227" s="111"/>
+      <c r="G227" s="79"/>
       <c r="H227" s="37"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -19809,7 +19940,7 @@
       <c r="D228" s="37"/>
       <c r="E228" s="37"/>
       <c r="F228" s="37"/>
-      <c r="G228" s="111"/>
+      <c r="G228" s="79"/>
       <c r="H228" s="37"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -19826,7 +19957,7 @@
       <c r="D229" s="37"/>
       <c r="E229" s="37"/>
       <c r="F229" s="37"/>
-      <c r="G229" s="111"/>
+      <c r="G229" s="79"/>
       <c r="H229" s="37"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -19843,7 +19974,7 @@
       <c r="D230" s="37"/>
       <c r="E230" s="37"/>
       <c r="F230" s="37"/>
-      <c r="G230" s="111"/>
+      <c r="G230" s="79"/>
       <c r="H230" s="37"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -19860,7 +19991,7 @@
       <c r="D231" s="37"/>
       <c r="E231" s="37"/>
       <c r="F231" s="37"/>
-      <c r="G231" s="111"/>
+      <c r="G231" s="79"/>
       <c r="H231" s="37"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -19877,7 +20008,7 @@
       <c r="D232" s="37"/>
       <c r="E232" s="37"/>
       <c r="F232" s="37"/>
-      <c r="G232" s="111"/>
+      <c r="G232" s="79"/>
       <c r="H232" s="37"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -19894,7 +20025,7 @@
       <c r="D233" s="37"/>
       <c r="E233" s="37"/>
       <c r="F233" s="37"/>
-      <c r="G233" s="111"/>
+      <c r="G233" s="79"/>
       <c r="H233" s="37"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -19911,7 +20042,7 @@
       <c r="D234" s="37"/>
       <c r="E234" s="37"/>
       <c r="F234" s="37"/>
-      <c r="G234" s="111"/>
+      <c r="G234" s="79"/>
       <c r="H234" s="37"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -19928,7 +20059,7 @@
       <c r="D235" s="37"/>
       <c r="E235" s="37"/>
       <c r="F235" s="37"/>
-      <c r="G235" s="111"/>
+      <c r="G235" s="79"/>
       <c r="H235" s="37"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -19945,7 +20076,7 @@
       <c r="D236" s="37"/>
       <c r="E236" s="37"/>
       <c r="F236" s="37"/>
-      <c r="G236" s="111"/>
+      <c r="G236" s="79"/>
       <c r="H236" s="37"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -19962,7 +20093,7 @@
       <c r="D237" s="37"/>
       <c r="E237" s="37"/>
       <c r="F237" s="37"/>
-      <c r="G237" s="111"/>
+      <c r="G237" s="79"/>
       <c r="H237" s="37"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -19979,7 +20110,7 @@
       <c r="D238" s="37"/>
       <c r="E238" s="37"/>
       <c r="F238" s="37"/>
-      <c r="G238" s="111"/>
+      <c r="G238" s="79"/>
       <c r="H238" s="37"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -19996,7 +20127,7 @@
       <c r="D239" s="37"/>
       <c r="E239" s="37"/>
       <c r="F239" s="37"/>
-      <c r="G239" s="111"/>
+      <c r="G239" s="79"/>
       <c r="H239" s="37"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -20013,7 +20144,7 @@
       <c r="D240" s="37"/>
       <c r="E240" s="37"/>
       <c r="F240" s="37"/>
-      <c r="G240" s="111"/>
+      <c r="G240" s="79"/>
       <c r="H240" s="37"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -20030,7 +20161,7 @@
       <c r="D241" s="37"/>
       <c r="E241" s="37"/>
       <c r="F241" s="37"/>
-      <c r="G241" s="111"/>
+      <c r="G241" s="79"/>
       <c r="H241" s="37"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -20047,7 +20178,7 @@
       <c r="D242" s="37"/>
       <c r="E242" s="37"/>
       <c r="F242" s="37"/>
-      <c r="G242" s="111"/>
+      <c r="G242" s="79"/>
       <c r="H242" s="37"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -20064,7 +20195,7 @@
       <c r="D243" s="37"/>
       <c r="E243" s="37"/>
       <c r="F243" s="37"/>
-      <c r="G243" s="111"/>
+      <c r="G243" s="79"/>
       <c r="H243" s="37"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -20081,7 +20212,7 @@
       <c r="D244" s="37"/>
       <c r="E244" s="37"/>
       <c r="F244" s="37"/>
-      <c r="G244" s="111"/>
+      <c r="G244" s="79"/>
       <c r="H244" s="37"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -20098,7 +20229,7 @@
       <c r="D245" s="37"/>
       <c r="E245" s="37"/>
       <c r="F245" s="37"/>
-      <c r="G245" s="111"/>
+      <c r="G245" s="79"/>
       <c r="H245" s="37"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -20115,7 +20246,7 @@
       <c r="D246" s="37"/>
       <c r="E246" s="37"/>
       <c r="F246" s="37"/>
-      <c r="G246" s="111"/>
+      <c r="G246" s="79"/>
       <c r="H246" s="37"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -20132,7 +20263,7 @@
       <c r="D247" s="37"/>
       <c r="E247" s="37"/>
       <c r="F247" s="37"/>
-      <c r="G247" s="111"/>
+      <c r="G247" s="79"/>
       <c r="H247" s="37"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -20149,7 +20280,7 @@
       <c r="D248" s="37"/>
       <c r="E248" s="37"/>
       <c r="F248" s="37"/>
-      <c r="G248" s="111"/>
+      <c r="G248" s="79"/>
       <c r="H248" s="37"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -20166,7 +20297,7 @@
       <c r="D249" s="37"/>
       <c r="E249" s="37"/>
       <c r="F249" s="37"/>
-      <c r="G249" s="111"/>
+      <c r="G249" s="79"/>
       <c r="H249" s="37"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -20183,7 +20314,7 @@
       <c r="D250" s="37"/>
       <c r="E250" s="37"/>
       <c r="F250" s="37"/>
-      <c r="G250" s="111"/>
+      <c r="G250" s="79"/>
       <c r="H250" s="37"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -20200,7 +20331,7 @@
       <c r="D251" s="37"/>
       <c r="E251" s="37"/>
       <c r="F251" s="37"/>
-      <c r="G251" s="111"/>
+      <c r="G251" s="79"/>
       <c r="H251" s="37"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -20217,7 +20348,7 @@
       <c r="D252" s="37"/>
       <c r="E252" s="37"/>
       <c r="F252" s="37"/>
-      <c r="G252" s="111"/>
+      <c r="G252" s="79"/>
       <c r="H252" s="37"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -20234,7 +20365,7 @@
       <c r="D253" s="37"/>
       <c r="E253" s="37"/>
       <c r="F253" s="37"/>
-      <c r="G253" s="111"/>
+      <c r="G253" s="79"/>
       <c r="H253" s="37"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -20251,7 +20382,7 @@
       <c r="D254" s="37"/>
       <c r="E254" s="37"/>
       <c r="F254" s="37"/>
-      <c r="G254" s="111"/>
+      <c r="G254" s="79"/>
       <c r="H254" s="37"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -20268,7 +20399,7 @@
       <c r="D255" s="37"/>
       <c r="E255" s="37"/>
       <c r="F255" s="37"/>
-      <c r="G255" s="111"/>
+      <c r="G255" s="79"/>
       <c r="H255" s="37"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -20285,7 +20416,7 @@
       <c r="D256" s="37"/>
       <c r="E256" s="37"/>
       <c r="F256" s="37"/>
-      <c r="G256" s="111"/>
+      <c r="G256" s="79"/>
       <c r="H256" s="37"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -20302,7 +20433,7 @@
       <c r="D257" s="37"/>
       <c r="E257" s="37"/>
       <c r="F257" s="37"/>
-      <c r="G257" s="111"/>
+      <c r="G257" s="79"/>
       <c r="H257" s="37"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -20319,7 +20450,7 @@
       <c r="D258" s="37"/>
       <c r="E258" s="37"/>
       <c r="F258" s="37"/>
-      <c r="G258" s="111"/>
+      <c r="G258" s="79"/>
       <c r="H258" s="37"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -20336,7 +20467,7 @@
       <c r="D259" s="37"/>
       <c r="E259" s="37"/>
       <c r="F259" s="37"/>
-      <c r="G259" s="111"/>
+      <c r="G259" s="79"/>
       <c r="H259" s="37"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -20353,7 +20484,7 @@
       <c r="D260" s="37"/>
       <c r="E260" s="37"/>
       <c r="F260" s="37"/>
-      <c r="G260" s="111"/>
+      <c r="G260" s="79"/>
       <c r="H260" s="37"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -20370,7 +20501,7 @@
       <c r="D261" s="37"/>
       <c r="E261" s="37"/>
       <c r="F261" s="37"/>
-      <c r="G261" s="111"/>
+      <c r="G261" s="79"/>
       <c r="H261" s="37"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -20387,7 +20518,7 @@
       <c r="D262" s="37"/>
       <c r="E262" s="37"/>
       <c r="F262" s="37"/>
-      <c r="G262" s="111"/>
+      <c r="G262" s="79"/>
       <c r="H262" s="37"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -20404,7 +20535,7 @@
       <c r="D263" s="37"/>
       <c r="E263" s="37"/>
       <c r="F263" s="37"/>
-      <c r="G263" s="111"/>
+      <c r="G263" s="79"/>
       <c r="H263" s="37"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
@@ -20421,7 +20552,7 @@
       <c r="D264" s="37"/>
       <c r="E264" s="37"/>
       <c r="F264" s="37"/>
-      <c r="G264" s="111"/>
+      <c r="G264" s="79"/>
       <c r="H264" s="37"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
@@ -20438,7 +20569,7 @@
       <c r="D265" s="37"/>
       <c r="E265" s="37"/>
       <c r="F265" s="37"/>
-      <c r="G265" s="111"/>
+      <c r="G265" s="79"/>
       <c r="H265" s="37"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -20455,7 +20586,7 @@
       <c r="D266" s="37"/>
       <c r="E266" s="37"/>
       <c r="F266" s="37"/>
-      <c r="G266" s="111"/>
+      <c r="G266" s="79"/>
       <c r="H266" s="37"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
@@ -20472,7 +20603,7 @@
       <c r="D267" s="37"/>
       <c r="E267" s="37"/>
       <c r="F267" s="37"/>
-      <c r="G267" s="111"/>
+      <c r="G267" s="79"/>
       <c r="H267" s="37"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -20489,7 +20620,7 @@
       <c r="D268" s="37"/>
       <c r="E268" s="37"/>
       <c r="F268" s="37"/>
-      <c r="G268" s="111"/>
+      <c r="G268" s="79"/>
       <c r="H268" s="37"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -20506,7 +20637,7 @@
       <c r="D269" s="37"/>
       <c r="E269" s="37"/>
       <c r="F269" s="37"/>
-      <c r="G269" s="111"/>
+      <c r="G269" s="79"/>
       <c r="H269" s="37"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -20523,7 +20654,7 @@
       <c r="D270" s="37"/>
       <c r="E270" s="37"/>
       <c r="F270" s="37"/>
-      <c r="G270" s="111"/>
+      <c r="G270" s="79"/>
       <c r="H270" s="37"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -20540,7 +20671,7 @@
       <c r="D271" s="37"/>
       <c r="E271" s="37"/>
       <c r="F271" s="37"/>
-      <c r="G271" s="111"/>
+      <c r="G271" s="79"/>
       <c r="H271" s="37"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -20557,7 +20688,7 @@
       <c r="D272" s="37"/>
       <c r="E272" s="37"/>
       <c r="F272" s="37"/>
-      <c r="G272" s="111"/>
+      <c r="G272" s="79"/>
       <c r="H272" s="37"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -20574,7 +20705,7 @@
       <c r="D273" s="37"/>
       <c r="E273" s="37"/>
       <c r="F273" s="37"/>
-      <c r="G273" s="111"/>
+      <c r="G273" s="79"/>
       <c r="H273" s="37"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -20591,7 +20722,7 @@
       <c r="D274" s="37"/>
       <c r="E274" s="37"/>
       <c r="F274" s="37"/>
-      <c r="G274" s="111"/>
+      <c r="G274" s="79"/>
       <c r="H274" s="37"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -20608,7 +20739,7 @@
       <c r="D275" s="37"/>
       <c r="E275" s="37"/>
       <c r="F275" s="37"/>
-      <c r="G275" s="111"/>
+      <c r="G275" s="79"/>
       <c r="H275" s="37"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -20625,7 +20756,7 @@
       <c r="D276" s="37"/>
       <c r="E276" s="37"/>
       <c r="F276" s="37"/>
-      <c r="G276" s="111"/>
+      <c r="G276" s="79"/>
       <c r="H276" s="37"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -20642,7 +20773,7 @@
       <c r="D277" s="37"/>
       <c r="E277" s="37"/>
       <c r="F277" s="37"/>
-      <c r="G277" s="111"/>
+      <c r="G277" s="79"/>
       <c r="H277" s="37"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -20659,7 +20790,7 @@
       <c r="D278" s="37"/>
       <c r="E278" s="37"/>
       <c r="F278" s="37"/>
-      <c r="G278" s="111"/>
+      <c r="G278" s="79"/>
       <c r="H278" s="37"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -20676,7 +20807,7 @@
       <c r="D279" s="37"/>
       <c r="E279" s="37"/>
       <c r="F279" s="37"/>
-      <c r="G279" s="111"/>
+      <c r="G279" s="79"/>
       <c r="H279" s="37"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -20693,7 +20824,7 @@
       <c r="D280" s="37"/>
       <c r="E280" s="37"/>
       <c r="F280" s="37"/>
-      <c r="G280" s="111"/>
+      <c r="G280" s="79"/>
       <c r="H280" s="37"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -20710,7 +20841,7 @@
       <c r="D281" s="37"/>
       <c r="E281" s="37"/>
       <c r="F281" s="37"/>
-      <c r="G281" s="111"/>
+      <c r="G281" s="79"/>
       <c r="H281" s="37"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -20727,7 +20858,7 @@
       <c r="D282" s="37"/>
       <c r="E282" s="37"/>
       <c r="F282" s="37"/>
-      <c r="G282" s="111"/>
+      <c r="G282" s="79"/>
       <c r="H282" s="37"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -20744,7 +20875,7 @@
       <c r="D283" s="37"/>
       <c r="E283" s="37"/>
       <c r="F283" s="37"/>
-      <c r="G283" s="111"/>
+      <c r="G283" s="79"/>
       <c r="H283" s="37"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -20761,7 +20892,7 @@
       <c r="D284" s="37"/>
       <c r="E284" s="37"/>
       <c r="F284" s="37"/>
-      <c r="G284" s="111"/>
+      <c r="G284" s="79"/>
       <c r="H284" s="37"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -20778,7 +20909,7 @@
       <c r="D285" s="37"/>
       <c r="E285" s="37"/>
       <c r="F285" s="37"/>
-      <c r="G285" s="111"/>
+      <c r="G285" s="79"/>
       <c r="H285" s="37"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -20795,7 +20926,7 @@
       <c r="D286" s="37"/>
       <c r="E286" s="37"/>
       <c r="F286" s="37"/>
-      <c r="G286" s="111"/>
+      <c r="G286" s="79"/>
       <c r="H286" s="37"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -20812,7 +20943,7 @@
       <c r="D287" s="37"/>
       <c r="E287" s="37"/>
       <c r="F287" s="37"/>
-      <c r="G287" s="111"/>
+      <c r="G287" s="79"/>
       <c r="H287" s="37"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -20829,7 +20960,7 @@
       <c r="D288" s="37"/>
       <c r="E288" s="37"/>
       <c r="F288" s="37"/>
-      <c r="G288" s="111"/>
+      <c r="G288" s="79"/>
       <c r="H288" s="37"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -20846,7 +20977,7 @@
       <c r="D289" s="37"/>
       <c r="E289" s="37"/>
       <c r="F289" s="37"/>
-      <c r="G289" s="111"/>
+      <c r="G289" s="79"/>
       <c r="H289" s="37"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -20863,7 +20994,7 @@
       <c r="D290" s="37"/>
       <c r="E290" s="37"/>
       <c r="F290" s="37"/>
-      <c r="G290" s="111"/>
+      <c r="G290" s="79"/>
       <c r="H290" s="37"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -20880,7 +21011,7 @@
       <c r="D291" s="37"/>
       <c r="E291" s="37"/>
       <c r="F291" s="37"/>
-      <c r="G291" s="111"/>
+      <c r="G291" s="79"/>
       <c r="H291" s="37"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -20897,7 +21028,7 @@
       <c r="D292" s="37"/>
       <c r="E292" s="37"/>
       <c r="F292" s="37"/>
-      <c r="G292" s="111"/>
+      <c r="G292" s="79"/>
       <c r="H292" s="37"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
@@ -20914,7 +21045,7 @@
       <c r="D293" s="37"/>
       <c r="E293" s="37"/>
       <c r="F293" s="37"/>
-      <c r="G293" s="111"/>
+      <c r="G293" s="79"/>
       <c r="H293" s="37"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
@@ -20924,9 +21055,10 @@
       <c r="N293" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="3">
@@ -21011,7 +21143,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="106">
+      <c r="A3" s="110">
         <v>20</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -21032,7 +21164,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="17" t="s">
         <v>67</v>
       </c>
@@ -21053,7 +21185,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
@@ -21062,7 +21194,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
@@ -21071,7 +21203,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
@@ -21080,7 +21212,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
@@ -21089,7 +21221,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="107"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
@@ -21098,7 +21230,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="107"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -21107,7 +21239,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
@@ -21116,7 +21248,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="107"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
@@ -21125,7 +21257,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -21134,7 +21266,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="106"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
@@ -21143,7 +21275,7 @@
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="107"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="21"/>
       <c r="C15" s="24"/>
       <c r="D15" s="23"/>
@@ -21152,7 +21284,7 @@
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="107"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
       <c r="D16" s="23"/>
@@ -21161,7 +21293,7 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="107"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="25"/>
@@ -21170,7 +21302,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="107"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="25"/>
@@ -21179,7 +21311,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="107"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="25"/>
@@ -21188,7 +21320,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="107"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="25"/>
@@ -21197,7 +21329,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="107"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="25"/>
@@ -21206,7 +21338,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="107"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="25"/>
@@ -21215,7 +21347,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="107"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="25"/>
@@ -21224,7 +21356,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="107"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="25"/>
@@ -21233,7 +21365,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="107"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="25"/>
@@ -21242,7 +21374,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="108"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="25"/>
@@ -21251,7 +21383,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="106"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="21"/>
       <c r="C27" s="24"/>
       <c r="D27" s="23"/>
@@ -21260,7 +21392,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="107"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="17"/>
       <c r="C28" s="24"/>
       <c r="D28" s="23"/>
@@ -21269,7 +21401,7 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="107"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="25"/>
@@ -21278,7 +21410,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="107"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="25"/>
@@ -21287,7 +21419,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="25"/>
@@ -21296,7 +21428,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="107"/>
+      <c r="A32" s="111"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="25"/>
@@ -21305,7 +21437,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="25"/>
@@ -21314,7 +21446,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="107"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="25"/>
@@ -21323,7 +21455,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="107"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="25"/>
@@ -21332,7 +21464,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="25"/>
@@ -21341,7 +21473,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="25"/>
@@ -21350,7 +21482,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="25"/>
@@ -21359,7 +21491,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="25"/>
@@ -21368,7 +21500,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="107"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="25"/>
@@ -21377,7 +21509,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="108"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="25"/>
@@ -21386,7 +21518,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="106"/>
+      <c r="A42" s="110"/>
       <c r="B42" s="17"/>
       <c r="C42" s="24"/>
       <c r="D42" s="23"/>
@@ -21395,7 +21527,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="107"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="17"/>
       <c r="C43" s="26"/>
       <c r="D43" s="23"/>
@@ -21404,7 +21536,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="107"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="25"/>
@@ -21413,7 +21545,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="107"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="25"/>
@@ -21422,7 +21554,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="107"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="25"/>
@@ -21431,7 +21563,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="25"/>
@@ -21440,7 +21572,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="107"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="25"/>
@@ -21449,7 +21581,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
+      <c r="A49" s="111"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="25"/>
@@ -21458,7 +21590,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="107"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="25"/>
@@ -21467,7 +21599,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
+      <c r="A51" s="111"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="25"/>
@@ -21476,7 +21608,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="107"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="25"/>
@@ -21485,7 +21617,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="107"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="25"/>
@@ -21494,7 +21626,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="107"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="25"/>
@@ -21503,7 +21635,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="107"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="25"/>
@@ -21512,7 +21644,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="108"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="25"/>
@@ -21521,7 +21653,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="106"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="17"/>
       <c r="C57" s="24"/>
       <c r="D57" s="23"/>
@@ -21530,7 +21662,7 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="107"/>
+      <c r="A58" s="111"/>
       <c r="B58" s="17"/>
       <c r="C58" s="26"/>
       <c r="D58" s="23"/>
@@ -21539,7 +21671,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="107"/>
+      <c r="A59" s="111"/>
       <c r="B59" s="17"/>
       <c r="C59" s="26"/>
       <c r="D59" s="23"/>
@@ -21548,7 +21680,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="107"/>
+      <c r="A60" s="111"/>
       <c r="B60" s="17"/>
       <c r="C60" s="26"/>
       <c r="D60" s="23"/>
@@ -21557,7 +21689,7 @@
       <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="107"/>
+      <c r="A61" s="111"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="25"/>
@@ -21566,7 +21698,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="107"/>
+      <c r="A62" s="111"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="25"/>
@@ -21575,7 +21707,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="107"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="25"/>
@@ -21584,7 +21716,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="107"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="25"/>
@@ -21593,7 +21725,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="107"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="25"/>
@@ -21602,7 +21734,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="107"/>
+      <c r="A66" s="111"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="25"/>
@@ -21611,7 +21743,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="107"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="25"/>
@@ -21620,7 +21752,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="108"/>
+      <c r="A68" s="112"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="25"/>
@@ -21629,7 +21761,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="106"/>
+      <c r="A69" s="110"/>
       <c r="B69" s="17"/>
       <c r="C69" s="24"/>
       <c r="D69" s="23"/>
@@ -21638,7 +21770,7 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="107"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="17"/>
       <c r="C70" s="26"/>
       <c r="D70" s="23"/>
@@ -21647,7 +21779,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="107"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="17"/>
       <c r="C71" s="26"/>
       <c r="D71" s="23"/>
@@ -21656,7 +21788,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="107"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="17"/>
       <c r="C72" s="26"/>
       <c r="D72" s="23"/>
@@ -21665,7 +21797,7 @@
       <c r="G72" s="27"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="107"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="25"/>
@@ -21674,7 +21806,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="107"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="25"/>
@@ -21683,7 +21815,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="107"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="25"/>
@@ -21692,7 +21824,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="107"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="25"/>
@@ -21701,7 +21833,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="107"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="25"/>
@@ -21710,7 +21842,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="107"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="25"/>
@@ -21719,7 +21851,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="107"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="25"/>
@@ -21728,7 +21860,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="108"/>
+      <c r="A80" s="112"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="25"/>
@@ -21737,7 +21869,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="107"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="17"/>
       <c r="C81" s="26"/>
       <c r="D81" s="23"/>
@@ -21746,7 +21878,7 @@
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="107"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="17"/>
       <c r="C82" s="26"/>
       <c r="D82" s="23"/>
@@ -21755,7 +21887,7 @@
       <c r="G82" s="27"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="107"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="25"/>
@@ -21764,7 +21896,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="107"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="25"/>
@@ -21773,7 +21905,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="107"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="25"/>
@@ -21782,7 +21914,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="107"/>
+      <c r="A86" s="111"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="25"/>
@@ -21791,7 +21923,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="107"/>
+      <c r="A87" s="111"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="25"/>
@@ -21800,7 +21932,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="107"/>
+      <c r="A88" s="111"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="25"/>
@@ -21809,7 +21941,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="107"/>
+      <c r="A89" s="111"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="25"/>
@@ -21818,7 +21950,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="108"/>
+      <c r="A90" s="112"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="25"/>

--- a/周数据/《实施上线数据统计表》-沈蒙.xlsx
+++ b/周数据/《实施上线数据统计表》-沈蒙.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="97">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -331,6 +331,55 @@
   </si>
   <si>
     <t>饺翻天南通印象城店</t>
+  </si>
+  <si>
+    <t>两个天堂餐饮管理有限公司</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天南通永旺店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>王化洲</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T负责人</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需回访</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天南通中南城店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1348,6 +1397,54 @@
     <xf numFmtId="9" fontId="0" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1392,48 +1489,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,12 +1512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,75 +1806,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="100" t="s">
+      <c r="E3" s="105"/>
+      <c r="F3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="108" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="99"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="107"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="84" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="50">
@@ -1856,7 +1905,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="94"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="50">
         <v>18</v>
       </c>
@@ -1885,7 +1934,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="94"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="50"/>
       <c r="C7" s="57"/>
       <c r="D7" s="58"/>
@@ -1908,7 +1957,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="94"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="50"/>
       <c r="C8" s="57"/>
       <c r="D8" s="58"/>
@@ -1931,7 +1980,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="94"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="50"/>
       <c r="C9" s="57"/>
       <c r="D9" s="58"/>
@@ -1954,7 +2003,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="95"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
       <c r="D10" s="65"/>
@@ -1977,7 +2026,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="84" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="70">
@@ -2008,7 +2057,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="94"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="58"/>
@@ -2031,7 +2080,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="94"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="72"/>
       <c r="C13" s="73"/>
       <c r="D13" s="58"/>
@@ -2054,7 +2103,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="94"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="72"/>
       <c r="C14" s="73"/>
       <c r="D14" s="58"/>
@@ -2077,7 +2126,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="94"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="72"/>
       <c r="C15" s="73"/>
       <c r="D15" s="58"/>
@@ -2100,7 +2149,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="74"/>
       <c r="C16" s="75"/>
       <c r="D16" s="65"/>
@@ -2123,7 +2172,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="84" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="70">
@@ -2154,7 +2203,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="94"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="72"/>
       <c r="C18" s="73"/>
       <c r="D18" s="58"/>
@@ -2177,7 +2226,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="94"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
       <c r="D19" s="58"/>
@@ -2200,7 +2249,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="94"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="72"/>
       <c r="C20" s="73"/>
       <c r="D20" s="58"/>
@@ -2223,7 +2272,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="94"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="72"/>
       <c r="C21" s="73"/>
       <c r="D21" s="58"/>
@@ -2246,7 +2295,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="95"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="74"/>
       <c r="C22" s="75"/>
       <c r="D22" s="65"/>
@@ -2269,7 +2318,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="94"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="70"/>
       <c r="C23" s="76"/>
       <c r="D23" s="77"/>
@@ -2292,7 +2341,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="94"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="72"/>
       <c r="C24" s="57"/>
       <c r="D24" s="58"/>
@@ -2315,7 +2364,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="94"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="72"/>
       <c r="C25" s="57"/>
       <c r="D25" s="58"/>
@@ -2338,7 +2387,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="94"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="72"/>
       <c r="C26" s="57"/>
       <c r="D26" s="58"/>
@@ -2361,7 +2410,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="94"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="72"/>
       <c r="C27" s="57"/>
       <c r="D27" s="58"/>
@@ -2384,7 +2433,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="95"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="74"/>
       <c r="C28" s="64"/>
       <c r="D28" s="65"/>
@@ -2407,7 +2456,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="94"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="70"/>
       <c r="C29" s="76"/>
       <c r="D29" s="77"/>
@@ -2430,7 +2479,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="94"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="72"/>
       <c r="C30" s="57"/>
       <c r="D30" s="58"/>
@@ -2453,7 +2502,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="94"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="72"/>
       <c r="C31" s="57"/>
       <c r="D31" s="58"/>
@@ -2476,7 +2525,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="94"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="72"/>
       <c r="C32" s="57"/>
       <c r="D32" s="58"/>
@@ -2499,7 +2548,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="94"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57"/>
       <c r="D33" s="58"/>
@@ -2522,7 +2571,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="95"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="74"/>
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
@@ -2545,7 +2594,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="94"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="70"/>
       <c r="C35" s="76"/>
       <c r="D35" s="77"/>
@@ -2568,7 +2617,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="94"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="72"/>
       <c r="C36" s="57"/>
       <c r="D36" s="58"/>
@@ -2591,7 +2640,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="94"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="72"/>
       <c r="C37" s="57"/>
       <c r="D37" s="58"/>
@@ -2614,7 +2663,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="94"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="72"/>
       <c r="C38" s="57"/>
       <c r="D38" s="58"/>
@@ -2637,7 +2686,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="94"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="72"/>
       <c r="C39" s="57"/>
       <c r="D39" s="58"/>
@@ -2660,7 +2709,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="95"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="74"/>
       <c r="C40" s="64"/>
       <c r="D40" s="65"/>
@@ -2683,7 +2732,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="94"/>
+      <c r="A41" s="84"/>
       <c r="B41" s="70"/>
       <c r="C41" s="76"/>
       <c r="D41" s="77"/>
@@ -2706,7 +2755,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="94"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="72"/>
       <c r="C42" s="57"/>
       <c r="D42" s="58"/>
@@ -2729,7 +2778,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="94"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="72"/>
       <c r="C43" s="57"/>
       <c r="D43" s="58"/>
@@ -2752,7 +2801,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="94"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="72"/>
       <c r="C44" s="57"/>
       <c r="D44" s="58"/>
@@ -2775,7 +2824,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="94"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="72"/>
       <c r="C45" s="57"/>
       <c r="D45" s="58"/>
@@ -2798,7 +2847,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="95"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="74"/>
       <c r="C46" s="64"/>
       <c r="D46" s="65"/>
@@ -2821,7 +2870,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="94"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="70"/>
       <c r="C47" s="76"/>
       <c r="D47" s="77"/>
@@ -2844,7 +2893,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="94"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="72"/>
       <c r="C48" s="57"/>
       <c r="D48" s="58"/>
@@ -2867,7 +2916,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="94"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="72"/>
       <c r="C49" s="57"/>
       <c r="D49" s="58"/>
@@ -2890,7 +2939,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="94"/>
+      <c r="A50" s="84"/>
       <c r="B50" s="72"/>
       <c r="C50" s="57"/>
       <c r="D50" s="58"/>
@@ -2913,7 +2962,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="94"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="72"/>
       <c r="C51" s="57"/>
       <c r="D51" s="58"/>
@@ -2936,7 +2985,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="95"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="74"/>
       <c r="C52" s="64"/>
       <c r="D52" s="65"/>
@@ -2959,7 +3008,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="94"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="70"/>
       <c r="C53" s="76"/>
       <c r="D53" s="77"/>
@@ -2982,7 +3031,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="94"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="72"/>
       <c r="C54" s="57"/>
       <c r="D54" s="58"/>
@@ -3005,7 +3054,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="94"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="72"/>
       <c r="C55" s="57"/>
       <c r="D55" s="58"/>
@@ -3028,7 +3077,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="94"/>
+      <c r="A56" s="84"/>
       <c r="B56" s="72"/>
       <c r="C56" s="57"/>
       <c r="D56" s="58"/>
@@ -3051,7 +3100,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="94"/>
+      <c r="A57" s="84"/>
       <c r="B57" s="72"/>
       <c r="C57" s="57"/>
       <c r="D57" s="58"/>
@@ -3074,7 +3123,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="95"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="74"/>
       <c r="C58" s="64"/>
       <c r="D58" s="65"/>
@@ -3097,7 +3146,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="94"/>
+      <c r="A59" s="84"/>
       <c r="B59" s="70"/>
       <c r="C59" s="76"/>
       <c r="D59" s="77"/>
@@ -3120,7 +3169,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="94"/>
+      <c r="A60" s="84"/>
       <c r="B60" s="72"/>
       <c r="C60" s="57"/>
       <c r="D60" s="58"/>
@@ -3143,7 +3192,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="94"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="72"/>
       <c r="C61" s="57"/>
       <c r="D61" s="58"/>
@@ -3166,7 +3215,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="94"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="72"/>
       <c r="C62" s="57"/>
       <c r="D62" s="58"/>
@@ -3189,7 +3238,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="94"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="72"/>
       <c r="C63" s="57"/>
       <c r="D63" s="58"/>
@@ -3212,7 +3261,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="95"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="74"/>
       <c r="C64" s="64"/>
       <c r="D64" s="65"/>
@@ -3235,7 +3284,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="94"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="70"/>
       <c r="C65" s="76"/>
       <c r="D65" s="77"/>
@@ -3258,7 +3307,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="94"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="72"/>
       <c r="C66" s="57"/>
       <c r="D66" s="58"/>
@@ -3281,7 +3330,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="94"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="72"/>
       <c r="C67" s="57"/>
       <c r="D67" s="58"/>
@@ -3304,7 +3353,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="94"/>
+      <c r="A68" s="84"/>
       <c r="B68" s="72"/>
       <c r="C68" s="57"/>
       <c r="D68" s="58"/>
@@ -3327,7 +3376,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="94"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="72"/>
       <c r="C69" s="57"/>
       <c r="D69" s="58"/>
@@ -3350,7 +3399,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="95"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="74"/>
       <c r="C70" s="64"/>
       <c r="D70" s="65"/>
@@ -3373,7 +3422,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="94"/>
+      <c r="A71" s="84"/>
       <c r="B71" s="70"/>
       <c r="C71" s="76"/>
       <c r="D71" s="77"/>
@@ -3396,7 +3445,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="94"/>
+      <c r="A72" s="84"/>
       <c r="B72" s="72"/>
       <c r="C72" s="57"/>
       <c r="D72" s="58"/>
@@ -3419,7 +3468,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="94"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="72"/>
       <c r="C73" s="57"/>
       <c r="D73" s="58"/>
@@ -3442,7 +3491,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="94"/>
+      <c r="A74" s="84"/>
       <c r="B74" s="72"/>
       <c r="C74" s="57"/>
       <c r="D74" s="58"/>
@@ -3465,7 +3514,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="94"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="72"/>
       <c r="C75" s="57"/>
       <c r="D75" s="58"/>
@@ -3488,7 +3537,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="95"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="74"/>
       <c r="C76" s="64"/>
       <c r="D76" s="65"/>
@@ -3511,7 +3560,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="94"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="70"/>
       <c r="C77" s="76"/>
       <c r="D77" s="77"/>
@@ -3534,7 +3583,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="94"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="72"/>
       <c r="C78" s="57"/>
       <c r="D78" s="58"/>
@@ -3557,7 +3606,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="94"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="72"/>
       <c r="C79" s="57"/>
       <c r="D79" s="58"/>
@@ -3580,7 +3629,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="94"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="72"/>
       <c r="C80" s="57"/>
       <c r="D80" s="58"/>
@@ -3603,7 +3652,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="94"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="72"/>
       <c r="C81" s="57"/>
       <c r="D81" s="58"/>
@@ -3626,7 +3675,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="95"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="74"/>
       <c r="C82" s="64"/>
       <c r="D82" s="65"/>
@@ -3649,7 +3698,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="94"/>
+      <c r="A83" s="84"/>
       <c r="B83" s="70"/>
       <c r="C83" s="76"/>
       <c r="D83" s="77"/>
@@ -3672,7 +3721,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="94"/>
+      <c r="A84" s="84"/>
       <c r="B84" s="72"/>
       <c r="C84" s="57"/>
       <c r="D84" s="58"/>
@@ -3695,7 +3744,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="94"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="72"/>
       <c r="C85" s="57"/>
       <c r="D85" s="58"/>
@@ -3718,7 +3767,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="94"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="72"/>
       <c r="C86" s="57"/>
       <c r="D86" s="58"/>
@@ -3741,7 +3790,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="94"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="72"/>
       <c r="C87" s="57"/>
       <c r="D87" s="58"/>
@@ -3764,7 +3813,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="95"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="74"/>
       <c r="C88" s="64"/>
       <c r="D88" s="65"/>
@@ -3787,7 +3836,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="94"/>
+      <c r="A89" s="84"/>
       <c r="B89" s="70"/>
       <c r="C89" s="76"/>
       <c r="D89" s="77"/>
@@ -3810,7 +3859,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="94"/>
+      <c r="A90" s="84"/>
       <c r="B90" s="72"/>
       <c r="C90" s="57"/>
       <c r="D90" s="58"/>
@@ -3833,7 +3882,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="94"/>
+      <c r="A91" s="84"/>
       <c r="B91" s="72"/>
       <c r="C91" s="57"/>
       <c r="D91" s="58"/>
@@ -3856,7 +3905,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="94"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="72"/>
       <c r="C92" s="57"/>
       <c r="D92" s="58"/>
@@ -3879,7 +3928,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="94"/>
+      <c r="A93" s="84"/>
       <c r="B93" s="72"/>
       <c r="C93" s="57"/>
       <c r="D93" s="58"/>
@@ -3902,7 +3951,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="95"/>
+      <c r="A94" s="85"/>
       <c r="B94" s="74"/>
       <c r="C94" s="64"/>
       <c r="D94" s="65"/>
@@ -3925,7 +3974,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="94"/>
+      <c r="A95" s="84"/>
       <c r="B95" s="70"/>
       <c r="C95" s="76"/>
       <c r="D95" s="77"/>
@@ -3948,7 +3997,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="94"/>
+      <c r="A96" s="84"/>
       <c r="B96" s="72"/>
       <c r="C96" s="57"/>
       <c r="D96" s="58"/>
@@ -3971,7 +4020,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="94"/>
+      <c r="A97" s="84"/>
       <c r="B97" s="72"/>
       <c r="C97" s="57"/>
       <c r="D97" s="58"/>
@@ -3994,7 +4043,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="94"/>
+      <c r="A98" s="84"/>
       <c r="B98" s="72"/>
       <c r="C98" s="57"/>
       <c r="D98" s="58"/>
@@ -4017,7 +4066,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="94"/>
+      <c r="A99" s="84"/>
       <c r="B99" s="72"/>
       <c r="C99" s="57"/>
       <c r="D99" s="58"/>
@@ -4040,7 +4089,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="95"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="74"/>
       <c r="C100" s="64"/>
       <c r="D100" s="65"/>
@@ -4063,7 +4112,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="94"/>
+      <c r="A101" s="84"/>
       <c r="B101" s="70"/>
       <c r="C101" s="76"/>
       <c r="D101" s="77"/>
@@ -4086,7 +4135,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="94"/>
+      <c r="A102" s="84"/>
       <c r="B102" s="72"/>
       <c r="C102" s="57"/>
       <c r="D102" s="58"/>
@@ -4109,7 +4158,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="94"/>
+      <c r="A103" s="84"/>
       <c r="B103" s="72"/>
       <c r="C103" s="57"/>
       <c r="D103" s="58"/>
@@ -4132,7 +4181,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="94"/>
+      <c r="A104" s="84"/>
       <c r="B104" s="72"/>
       <c r="C104" s="57"/>
       <c r="D104" s="58"/>
@@ -4155,7 +4204,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="94"/>
+      <c r="A105" s="84"/>
       <c r="B105" s="72"/>
       <c r="C105" s="57"/>
       <c r="D105" s="58"/>
@@ -4178,7 +4227,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="95"/>
+      <c r="A106" s="85"/>
       <c r="B106" s="74"/>
       <c r="C106" s="64"/>
       <c r="D106" s="65"/>
@@ -4201,7 +4250,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="94"/>
+      <c r="A107" s="84"/>
       <c r="B107" s="70"/>
       <c r="C107" s="76"/>
       <c r="D107" s="77"/>
@@ -4224,7 +4273,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="94"/>
+      <c r="A108" s="84"/>
       <c r="B108" s="72"/>
       <c r="C108" s="57"/>
       <c r="D108" s="58"/>
@@ -4247,7 +4296,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="94"/>
+      <c r="A109" s="84"/>
       <c r="B109" s="72"/>
       <c r="C109" s="57"/>
       <c r="D109" s="58"/>
@@ -4270,7 +4319,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="94"/>
+      <c r="A110" s="84"/>
       <c r="B110" s="72"/>
       <c r="C110" s="57"/>
       <c r="D110" s="58"/>
@@ -4293,7 +4342,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="94"/>
+      <c r="A111" s="84"/>
       <c r="B111" s="72"/>
       <c r="C111" s="57"/>
       <c r="D111" s="58"/>
@@ -4316,7 +4365,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="95"/>
+      <c r="A112" s="85"/>
       <c r="B112" s="74"/>
       <c r="C112" s="64"/>
       <c r="D112" s="65"/>
@@ -4339,7 +4388,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="94"/>
+      <c r="A113" s="84"/>
       <c r="B113" s="70"/>
       <c r="C113" s="76"/>
       <c r="D113" s="77"/>
@@ -4362,7 +4411,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="94"/>
+      <c r="A114" s="84"/>
       <c r="B114" s="72"/>
       <c r="C114" s="57"/>
       <c r="D114" s="58"/>
@@ -4385,7 +4434,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="94"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="72"/>
       <c r="C115" s="57"/>
       <c r="D115" s="58"/>
@@ -4408,7 +4457,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="94"/>
+      <c r="A116" s="84"/>
       <c r="B116" s="72"/>
       <c r="C116" s="57"/>
       <c r="D116" s="58"/>
@@ -4431,7 +4480,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="94"/>
+      <c r="A117" s="84"/>
       <c r="B117" s="72"/>
       <c r="C117" s="57"/>
       <c r="D117" s="58"/>
@@ -4454,7 +4503,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="95"/>
+      <c r="A118" s="85"/>
       <c r="B118" s="74"/>
       <c r="C118" s="64"/>
       <c r="D118" s="65"/>
@@ -4477,7 +4526,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="94"/>
+      <c r="A119" s="84"/>
       <c r="B119" s="70"/>
       <c r="C119" s="76"/>
       <c r="D119" s="77"/>
@@ -4500,7 +4549,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="94"/>
+      <c r="A120" s="84"/>
       <c r="B120" s="72"/>
       <c r="C120" s="57"/>
       <c r="D120" s="58"/>
@@ -4523,7 +4572,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="94"/>
+      <c r="A121" s="84"/>
       <c r="B121" s="72"/>
       <c r="C121" s="57"/>
       <c r="D121" s="58"/>
@@ -4546,7 +4595,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="94"/>
+      <c r="A122" s="84"/>
       <c r="B122" s="72"/>
       <c r="C122" s="57"/>
       <c r="D122" s="58"/>
@@ -4569,7 +4618,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="94"/>
+      <c r="A123" s="84"/>
       <c r="B123" s="72"/>
       <c r="C123" s="57"/>
       <c r="D123" s="58"/>
@@ -4592,7 +4641,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="95"/>
+      <c r="A124" s="85"/>
       <c r="B124" s="74"/>
       <c r="C124" s="64"/>
       <c r="D124" s="65"/>
@@ -4615,7 +4664,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="94"/>
+      <c r="A125" s="84"/>
       <c r="B125" s="70"/>
       <c r="C125" s="76"/>
       <c r="D125" s="77"/>
@@ -4638,7 +4687,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="94"/>
+      <c r="A126" s="84"/>
       <c r="B126" s="72"/>
       <c r="C126" s="57"/>
       <c r="D126" s="58"/>
@@ -4661,7 +4710,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="94"/>
+      <c r="A127" s="84"/>
       <c r="B127" s="72"/>
       <c r="C127" s="57"/>
       <c r="D127" s="58"/>
@@ -4684,7 +4733,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="94"/>
+      <c r="A128" s="84"/>
       <c r="B128" s="72"/>
       <c r="C128" s="57"/>
       <c r="D128" s="58"/>
@@ -4707,7 +4756,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="94"/>
+      <c r="A129" s="84"/>
       <c r="B129" s="72"/>
       <c r="C129" s="57"/>
       <c r="D129" s="58"/>
@@ -4730,7 +4779,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="95"/>
+      <c r="A130" s="85"/>
       <c r="B130" s="74"/>
       <c r="C130" s="64"/>
       <c r="D130" s="65"/>
@@ -4753,7 +4802,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="94"/>
+      <c r="A131" s="84"/>
       <c r="B131" s="70"/>
       <c r="C131" s="76"/>
       <c r="D131" s="77"/>
@@ -4776,7 +4825,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="94"/>
+      <c r="A132" s="84"/>
       <c r="B132" s="72"/>
       <c r="C132" s="57"/>
       <c r="D132" s="58"/>
@@ -4799,7 +4848,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="94"/>
+      <c r="A133" s="84"/>
       <c r="B133" s="72"/>
       <c r="C133" s="57"/>
       <c r="D133" s="58"/>
@@ -4822,7 +4871,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="94"/>
+      <c r="A134" s="84"/>
       <c r="B134" s="72"/>
       <c r="C134" s="57"/>
       <c r="D134" s="58"/>
@@ -4845,7 +4894,7 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="94"/>
+      <c r="A135" s="84"/>
       <c r="B135" s="72"/>
       <c r="C135" s="57"/>
       <c r="D135" s="58"/>
@@ -4868,7 +4917,7 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="95"/>
+      <c r="A136" s="85"/>
       <c r="B136" s="74"/>
       <c r="C136" s="64"/>
       <c r="D136" s="65"/>
@@ -4891,7 +4940,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="94"/>
+      <c r="A137" s="84"/>
       <c r="B137" s="70"/>
       <c r="C137" s="76"/>
       <c r="D137" s="77"/>
@@ -4914,7 +4963,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A138" s="94"/>
+      <c r="A138" s="84"/>
       <c r="B138" s="72"/>
       <c r="C138" s="57"/>
       <c r="D138" s="58"/>
@@ -4937,7 +4986,7 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A139" s="94"/>
+      <c r="A139" s="84"/>
       <c r="B139" s="72"/>
       <c r="C139" s="57"/>
       <c r="D139" s="58"/>
@@ -4960,7 +5009,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A140" s="94"/>
+      <c r="A140" s="84"/>
       <c r="B140" s="72"/>
       <c r="C140" s="57"/>
       <c r="D140" s="58"/>
@@ -4983,7 +5032,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A141" s="94"/>
+      <c r="A141" s="84"/>
       <c r="B141" s="72"/>
       <c r="C141" s="57"/>
       <c r="D141" s="58"/>
@@ -5006,7 +5055,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A142" s="95"/>
+      <c r="A142" s="85"/>
       <c r="B142" s="74"/>
       <c r="C142" s="64"/>
       <c r="D142" s="65"/>
@@ -5029,7 +5078,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A143" s="94"/>
+      <c r="A143" s="84"/>
       <c r="B143" s="70"/>
       <c r="C143" s="76"/>
       <c r="D143" s="77"/>
@@ -5052,7 +5101,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="94"/>
+      <c r="A144" s="84"/>
       <c r="B144" s="72"/>
       <c r="C144" s="57"/>
       <c r="D144" s="58"/>
@@ -5075,7 +5124,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="94"/>
+      <c r="A145" s="84"/>
       <c r="B145" s="72"/>
       <c r="C145" s="57"/>
       <c r="D145" s="58"/>
@@ -5098,7 +5147,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A146" s="94"/>
+      <c r="A146" s="84"/>
       <c r="B146" s="72"/>
       <c r="C146" s="57"/>
       <c r="D146" s="58"/>
@@ -5121,7 +5170,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="94"/>
+      <c r="A147" s="84"/>
       <c r="B147" s="72"/>
       <c r="C147" s="57"/>
       <c r="D147" s="58"/>
@@ -5144,7 +5193,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="95"/>
+      <c r="A148" s="85"/>
       <c r="B148" s="74"/>
       <c r="C148" s="64"/>
       <c r="D148" s="65"/>
@@ -5167,7 +5216,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="94"/>
+      <c r="A149" s="84"/>
       <c r="B149" s="70"/>
       <c r="C149" s="76"/>
       <c r="D149" s="77"/>
@@ -5190,7 +5239,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A150" s="94"/>
+      <c r="A150" s="84"/>
       <c r="B150" s="72"/>
       <c r="C150" s="57"/>
       <c r="D150" s="58"/>
@@ -5213,7 +5262,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="94"/>
+      <c r="A151" s="84"/>
       <c r="B151" s="72"/>
       <c r="C151" s="57"/>
       <c r="D151" s="58"/>
@@ -5236,7 +5285,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A152" s="94"/>
+      <c r="A152" s="84"/>
       <c r="B152" s="72"/>
       <c r="C152" s="57"/>
       <c r="D152" s="58"/>
@@ -5259,7 +5308,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="94"/>
+      <c r="A153" s="84"/>
       <c r="B153" s="72"/>
       <c r="C153" s="57"/>
       <c r="D153" s="58"/>
@@ -5282,7 +5331,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="95"/>
+      <c r="A154" s="85"/>
       <c r="B154" s="74"/>
       <c r="C154" s="64"/>
       <c r="D154" s="65"/>
@@ -5305,7 +5354,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A155" s="94"/>
+      <c r="A155" s="84"/>
       <c r="B155" s="70"/>
       <c r="C155" s="76"/>
       <c r="D155" s="77"/>
@@ -5328,7 +5377,7 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A156" s="94"/>
+      <c r="A156" s="84"/>
       <c r="B156" s="72"/>
       <c r="C156" s="57"/>
       <c r="D156" s="58"/>
@@ -5351,7 +5400,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A157" s="94"/>
+      <c r="A157" s="84"/>
       <c r="B157" s="72"/>
       <c r="C157" s="57"/>
       <c r="D157" s="58"/>
@@ -5374,7 +5423,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A158" s="94"/>
+      <c r="A158" s="84"/>
       <c r="B158" s="72"/>
       <c r="C158" s="57"/>
       <c r="D158" s="58"/>
@@ -5397,7 +5446,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A159" s="94"/>
+      <c r="A159" s="84"/>
       <c r="B159" s="72"/>
       <c r="C159" s="57"/>
       <c r="D159" s="58"/>
@@ -5420,7 +5469,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A160" s="95"/>
+      <c r="A160" s="85"/>
       <c r="B160" s="74"/>
       <c r="C160" s="64"/>
       <c r="D160" s="65"/>
@@ -5443,7 +5492,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A161" s="94"/>
+      <c r="A161" s="84"/>
       <c r="B161" s="70"/>
       <c r="C161" s="76"/>
       <c r="D161" s="77"/>
@@ -5466,7 +5515,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A162" s="94"/>
+      <c r="A162" s="84"/>
       <c r="B162" s="72"/>
       <c r="C162" s="57"/>
       <c r="D162" s="58"/>
@@ -5489,7 +5538,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A163" s="94"/>
+      <c r="A163" s="84"/>
       <c r="B163" s="72"/>
       <c r="C163" s="57"/>
       <c r="D163" s="58"/>
@@ -5512,7 +5561,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A164" s="94"/>
+      <c r="A164" s="84"/>
       <c r="B164" s="72"/>
       <c r="C164" s="57"/>
       <c r="D164" s="58"/>
@@ -5535,7 +5584,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" s="94"/>
+      <c r="A165" s="84"/>
       <c r="B165" s="72"/>
       <c r="C165" s="57"/>
       <c r="D165" s="58"/>
@@ -5558,7 +5607,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A166" s="95"/>
+      <c r="A166" s="85"/>
       <c r="B166" s="74"/>
       <c r="C166" s="64"/>
       <c r="D166" s="65"/>
@@ -5581,7 +5630,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" s="94"/>
+      <c r="A167" s="84"/>
       <c r="B167" s="70"/>
       <c r="C167" s="76"/>
       <c r="D167" s="77"/>
@@ -5604,7 +5653,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" s="94"/>
+      <c r="A168" s="84"/>
       <c r="B168" s="72"/>
       <c r="C168" s="57"/>
       <c r="D168" s="58"/>
@@ -5627,7 +5676,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A169" s="94"/>
+      <c r="A169" s="84"/>
       <c r="B169" s="72"/>
       <c r="C169" s="57"/>
       <c r="D169" s="58"/>
@@ -5650,7 +5699,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A170" s="94"/>
+      <c r="A170" s="84"/>
       <c r="B170" s="72"/>
       <c r="C170" s="57"/>
       <c r="D170" s="58"/>
@@ -5673,7 +5722,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A171" s="94"/>
+      <c r="A171" s="84"/>
       <c r="B171" s="72"/>
       <c r="C171" s="57"/>
       <c r="D171" s="58"/>
@@ -5696,7 +5745,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A172" s="95"/>
+      <c r="A172" s="85"/>
       <c r="B172" s="74"/>
       <c r="C172" s="64"/>
       <c r="D172" s="65"/>
@@ -5719,7 +5768,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A173" s="94"/>
+      <c r="A173" s="84"/>
       <c r="B173" s="70"/>
       <c r="C173" s="76"/>
       <c r="D173" s="77"/>
@@ -5742,7 +5791,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A174" s="94"/>
+      <c r="A174" s="84"/>
       <c r="B174" s="72"/>
       <c r="C174" s="57"/>
       <c r="D174" s="58"/>
@@ -5765,7 +5814,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A175" s="94"/>
+      <c r="A175" s="84"/>
       <c r="B175" s="72"/>
       <c r="C175" s="57"/>
       <c r="D175" s="58"/>
@@ -5788,7 +5837,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A176" s="94"/>
+      <c r="A176" s="84"/>
       <c r="B176" s="72"/>
       <c r="C176" s="57"/>
       <c r="D176" s="58"/>
@@ -5811,7 +5860,7 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A177" s="94"/>
+      <c r="A177" s="84"/>
       <c r="B177" s="72"/>
       <c r="C177" s="57"/>
       <c r="D177" s="58"/>
@@ -5834,7 +5883,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A178" s="95"/>
+      <c r="A178" s="85"/>
       <c r="B178" s="74"/>
       <c r="C178" s="64"/>
       <c r="D178" s="65"/>
@@ -5857,7 +5906,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A179" s="94"/>
+      <c r="A179" s="84"/>
       <c r="B179" s="70"/>
       <c r="C179" s="76"/>
       <c r="D179" s="77"/>
@@ -5880,7 +5929,7 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A180" s="94"/>
+      <c r="A180" s="84"/>
       <c r="B180" s="72"/>
       <c r="C180" s="57"/>
       <c r="D180" s="58"/>
@@ -5903,7 +5952,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A181" s="94"/>
+      <c r="A181" s="84"/>
       <c r="B181" s="72"/>
       <c r="C181" s="57"/>
       <c r="D181" s="58"/>
@@ -5926,7 +5975,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A182" s="94"/>
+      <c r="A182" s="84"/>
       <c r="B182" s="72"/>
       <c r="C182" s="57"/>
       <c r="D182" s="58"/>
@@ -5949,7 +5998,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A183" s="94"/>
+      <c r="A183" s="84"/>
       <c r="B183" s="72"/>
       <c r="C183" s="57"/>
       <c r="D183" s="58"/>
@@ -5972,7 +6021,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A184" s="95"/>
+      <c r="A184" s="85"/>
       <c r="B184" s="74"/>
       <c r="C184" s="64"/>
       <c r="D184" s="65"/>
@@ -5995,7 +6044,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A185" s="94"/>
+      <c r="A185" s="84"/>
       <c r="B185" s="70"/>
       <c r="C185" s="76"/>
       <c r="D185" s="77"/>
@@ -6018,7 +6067,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A186" s="94"/>
+      <c r="A186" s="84"/>
       <c r="B186" s="72"/>
       <c r="C186" s="57"/>
       <c r="D186" s="58"/>
@@ -6041,7 +6090,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A187" s="94"/>
+      <c r="A187" s="84"/>
       <c r="B187" s="72"/>
       <c r="C187" s="57"/>
       <c r="D187" s="58"/>
@@ -6064,7 +6113,7 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A188" s="94"/>
+      <c r="A188" s="84"/>
       <c r="B188" s="72"/>
       <c r="C188" s="57"/>
       <c r="D188" s="58"/>
@@ -6087,7 +6136,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A189" s="94"/>
+      <c r="A189" s="84"/>
       <c r="B189" s="72"/>
       <c r="C189" s="57"/>
       <c r="D189" s="58"/>
@@ -6110,7 +6159,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A190" s="95"/>
+      <c r="A190" s="85"/>
       <c r="B190" s="74"/>
       <c r="C190" s="64"/>
       <c r="D190" s="65"/>
@@ -6133,7 +6182,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A191" s="94"/>
+      <c r="A191" s="84"/>
       <c r="B191" s="70"/>
       <c r="C191" s="76"/>
       <c r="D191" s="77"/>
@@ -6156,7 +6205,7 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A192" s="94"/>
+      <c r="A192" s="84"/>
       <c r="B192" s="72"/>
       <c r="C192" s="57"/>
       <c r="D192" s="58"/>
@@ -6179,7 +6228,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A193" s="94"/>
+      <c r="A193" s="84"/>
       <c r="B193" s="72"/>
       <c r="C193" s="57"/>
       <c r="D193" s="58"/>
@@ -6202,7 +6251,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A194" s="94"/>
+      <c r="A194" s="84"/>
       <c r="B194" s="72"/>
       <c r="C194" s="57"/>
       <c r="D194" s="58"/>
@@ -6225,7 +6274,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A195" s="94"/>
+      <c r="A195" s="84"/>
       <c r="B195" s="72"/>
       <c r="C195" s="57"/>
       <c r="D195" s="58"/>
@@ -6248,7 +6297,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A196" s="95"/>
+      <c r="A196" s="85"/>
       <c r="B196" s="74"/>
       <c r="C196" s="64"/>
       <c r="D196" s="65"/>
@@ -6271,7 +6320,7 @@
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A197" s="94"/>
+      <c r="A197" s="84"/>
       <c r="B197" s="70"/>
       <c r="C197" s="76"/>
       <c r="D197" s="77"/>
@@ -6294,7 +6343,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A198" s="94"/>
+      <c r="A198" s="84"/>
       <c r="B198" s="72"/>
       <c r="C198" s="57"/>
       <c r="D198" s="58"/>
@@ -6317,7 +6366,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A199" s="94"/>
+      <c r="A199" s="84"/>
       <c r="B199" s="72"/>
       <c r="C199" s="57"/>
       <c r="D199" s="58"/>
@@ -6340,7 +6389,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A200" s="94"/>
+      <c r="A200" s="84"/>
       <c r="B200" s="72"/>
       <c r="C200" s="57"/>
       <c r="D200" s="58"/>
@@ -6363,7 +6412,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A201" s="94"/>
+      <c r="A201" s="84"/>
       <c r="B201" s="72"/>
       <c r="C201" s="57"/>
       <c r="D201" s="58"/>
@@ -6386,7 +6435,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A202" s="95"/>
+      <c r="A202" s="85"/>
       <c r="B202" s="74"/>
       <c r="C202" s="64"/>
       <c r="D202" s="65"/>
@@ -6409,7 +6458,7 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A203" s="94"/>
+      <c r="A203" s="84"/>
       <c r="B203" s="70"/>
       <c r="C203" s="76"/>
       <c r="D203" s="77"/>
@@ -6432,7 +6481,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A204" s="94"/>
+      <c r="A204" s="84"/>
       <c r="B204" s="72"/>
       <c r="C204" s="57"/>
       <c r="D204" s="58"/>
@@ -6455,7 +6504,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A205" s="94"/>
+      <c r="A205" s="84"/>
       <c r="B205" s="72"/>
       <c r="C205" s="57"/>
       <c r="D205" s="58"/>
@@ -6478,7 +6527,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A206" s="94"/>
+      <c r="A206" s="84"/>
       <c r="B206" s="72"/>
       <c r="C206" s="57"/>
       <c r="D206" s="58"/>
@@ -6501,7 +6550,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A207" s="94"/>
+      <c r="A207" s="84"/>
       <c r="B207" s="72"/>
       <c r="C207" s="57"/>
       <c r="D207" s="58"/>
@@ -6524,7 +6573,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A208" s="95"/>
+      <c r="A208" s="85"/>
       <c r="B208" s="74"/>
       <c r="C208" s="64"/>
       <c r="D208" s="65"/>
@@ -6547,7 +6596,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A209" s="94"/>
+      <c r="A209" s="84"/>
       <c r="B209" s="70"/>
       <c r="C209" s="76"/>
       <c r="D209" s="77"/>
@@ -6570,7 +6619,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A210" s="94"/>
+      <c r="A210" s="84"/>
       <c r="B210" s="72"/>
       <c r="C210" s="57"/>
       <c r="D210" s="58"/>
@@ -6593,7 +6642,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A211" s="94"/>
+      <c r="A211" s="84"/>
       <c r="B211" s="72"/>
       <c r="C211" s="57"/>
       <c r="D211" s="58"/>
@@ -6616,7 +6665,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A212" s="94"/>
+      <c r="A212" s="84"/>
       <c r="B212" s="72"/>
       <c r="C212" s="57"/>
       <c r="D212" s="58"/>
@@ -6639,7 +6688,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A213" s="94"/>
+      <c r="A213" s="84"/>
       <c r="B213" s="72"/>
       <c r="C213" s="57"/>
       <c r="D213" s="58"/>
@@ -6662,7 +6711,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A214" s="95"/>
+      <c r="A214" s="85"/>
       <c r="B214" s="74"/>
       <c r="C214" s="64"/>
       <c r="D214" s="65"/>
@@ -6685,7 +6734,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A215" s="94"/>
+      <c r="A215" s="84"/>
       <c r="B215" s="70"/>
       <c r="C215" s="76"/>
       <c r="D215" s="77"/>
@@ -6708,7 +6757,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A216" s="94"/>
+      <c r="A216" s="84"/>
       <c r="B216" s="72"/>
       <c r="C216" s="57"/>
       <c r="D216" s="58"/>
@@ -6731,7 +6780,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A217" s="94"/>
+      <c r="A217" s="84"/>
       <c r="B217" s="72"/>
       <c r="C217" s="57"/>
       <c r="D217" s="58"/>
@@ -6754,7 +6803,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A218" s="94"/>
+      <c r="A218" s="84"/>
       <c r="B218" s="72"/>
       <c r="C218" s="57"/>
       <c r="D218" s="58"/>
@@ -6777,7 +6826,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A219" s="94"/>
+      <c r="A219" s="84"/>
       <c r="B219" s="72"/>
       <c r="C219" s="57"/>
       <c r="D219" s="58"/>
@@ -6800,7 +6849,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A220" s="95"/>
+      <c r="A220" s="85"/>
       <c r="B220" s="74"/>
       <c r="C220" s="64"/>
       <c r="D220" s="65"/>
@@ -6823,7 +6872,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A221" s="94"/>
+      <c r="A221" s="84"/>
       <c r="B221" s="70"/>
       <c r="C221" s="76"/>
       <c r="D221" s="77"/>
@@ -6846,7 +6895,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A222" s="94"/>
+      <c r="A222" s="84"/>
       <c r="B222" s="72"/>
       <c r="C222" s="57"/>
       <c r="D222" s="58"/>
@@ -6869,7 +6918,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A223" s="94"/>
+      <c r="A223" s="84"/>
       <c r="B223" s="72"/>
       <c r="C223" s="57"/>
       <c r="D223" s="58"/>
@@ -6892,7 +6941,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A224" s="94"/>
+      <c r="A224" s="84"/>
       <c r="B224" s="72"/>
       <c r="C224" s="57"/>
       <c r="D224" s="58"/>
@@ -6915,7 +6964,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A225" s="94"/>
+      <c r="A225" s="84"/>
       <c r="B225" s="72"/>
       <c r="C225" s="57"/>
       <c r="D225" s="58"/>
@@ -6938,7 +6987,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A226" s="95"/>
+      <c r="A226" s="85"/>
       <c r="B226" s="74"/>
       <c r="C226" s="64"/>
       <c r="D226" s="65"/>
@@ -6961,7 +7010,7 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A227" s="94"/>
+      <c r="A227" s="84"/>
       <c r="B227" s="70"/>
       <c r="C227" s="76"/>
       <c r="D227" s="77"/>
@@ -6984,7 +7033,7 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A228" s="94"/>
+      <c r="A228" s="84"/>
       <c r="B228" s="72"/>
       <c r="C228" s="57"/>
       <c r="D228" s="58"/>
@@ -7007,7 +7056,7 @@
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A229" s="94"/>
+      <c r="A229" s="84"/>
       <c r="B229" s="72"/>
       <c r="C229" s="57"/>
       <c r="D229" s="58"/>
@@ -7030,7 +7079,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A230" s="94"/>
+      <c r="A230" s="84"/>
       <c r="B230" s="72"/>
       <c r="C230" s="57"/>
       <c r="D230" s="58"/>
@@ -7053,7 +7102,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A231" s="94"/>
+      <c r="A231" s="84"/>
       <c r="B231" s="72"/>
       <c r="C231" s="57"/>
       <c r="D231" s="58"/>
@@ -7076,7 +7125,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A232" s="95"/>
+      <c r="A232" s="85"/>
       <c r="B232" s="74"/>
       <c r="C232" s="64"/>
       <c r="D232" s="65"/>
@@ -7099,7 +7148,7 @@
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A233" s="94"/>
+      <c r="A233" s="84"/>
       <c r="B233" s="70"/>
       <c r="C233" s="76"/>
       <c r="D233" s="77"/>
@@ -7122,7 +7171,7 @@
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A234" s="94"/>
+      <c r="A234" s="84"/>
       <c r="B234" s="72"/>
       <c r="C234" s="57"/>
       <c r="D234" s="58"/>
@@ -7145,7 +7194,7 @@
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A235" s="94"/>
+      <c r="A235" s="84"/>
       <c r="B235" s="72"/>
       <c r="C235" s="57"/>
       <c r="D235" s="58"/>
@@ -7168,7 +7217,7 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A236" s="94"/>
+      <c r="A236" s="84"/>
       <c r="B236" s="72"/>
       <c r="C236" s="57"/>
       <c r="D236" s="58"/>
@@ -7191,7 +7240,7 @@
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A237" s="94"/>
+      <c r="A237" s="84"/>
       <c r="B237" s="72"/>
       <c r="C237" s="57"/>
       <c r="D237" s="58"/>
@@ -7214,7 +7263,7 @@
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A238" s="95"/>
+      <c r="A238" s="85"/>
       <c r="B238" s="74"/>
       <c r="C238" s="64"/>
       <c r="D238" s="65"/>
@@ -7237,7 +7286,7 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A239" s="94"/>
+      <c r="A239" s="84"/>
       <c r="B239" s="70"/>
       <c r="C239" s="76"/>
       <c r="D239" s="77"/>
@@ -7260,7 +7309,7 @@
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A240" s="94"/>
+      <c r="A240" s="84"/>
       <c r="B240" s="72"/>
       <c r="C240" s="57"/>
       <c r="D240" s="58"/>
@@ -7283,7 +7332,7 @@
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A241" s="94"/>
+      <c r="A241" s="84"/>
       <c r="B241" s="72"/>
       <c r="C241" s="57"/>
       <c r="D241" s="58"/>
@@ -7306,7 +7355,7 @@
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A242" s="94"/>
+      <c r="A242" s="84"/>
       <c r="B242" s="72"/>
       <c r="C242" s="57"/>
       <c r="D242" s="58"/>
@@ -7329,7 +7378,7 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A243" s="94"/>
+      <c r="A243" s="84"/>
       <c r="B243" s="72"/>
       <c r="C243" s="57"/>
       <c r="D243" s="58"/>
@@ -7352,7 +7401,7 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A244" s="95"/>
+      <c r="A244" s="85"/>
       <c r="B244" s="74"/>
       <c r="C244" s="64"/>
       <c r="D244" s="65"/>
@@ -7375,7 +7424,7 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A245" s="94"/>
+      <c r="A245" s="84"/>
       <c r="B245" s="70"/>
       <c r="C245" s="76"/>
       <c r="D245" s="77"/>
@@ -7398,7 +7447,7 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A246" s="94"/>
+      <c r="A246" s="84"/>
       <c r="B246" s="72"/>
       <c r="C246" s="57"/>
       <c r="D246" s="58"/>
@@ -7421,7 +7470,7 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A247" s="94"/>
+      <c r="A247" s="84"/>
       <c r="B247" s="72"/>
       <c r="C247" s="57"/>
       <c r="D247" s="58"/>
@@ -7444,7 +7493,7 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A248" s="94"/>
+      <c r="A248" s="84"/>
       <c r="B248" s="72"/>
       <c r="C248" s="57"/>
       <c r="D248" s="58"/>
@@ -7467,7 +7516,7 @@
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A249" s="94"/>
+      <c r="A249" s="84"/>
       <c r="B249" s="72"/>
       <c r="C249" s="57"/>
       <c r="D249" s="58"/>
@@ -7490,7 +7539,7 @@
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A250" s="95"/>
+      <c r="A250" s="85"/>
       <c r="B250" s="74"/>
       <c r="C250" s="64"/>
       <c r="D250" s="65"/>
@@ -7513,7 +7562,7 @@
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A251" s="94"/>
+      <c r="A251" s="84"/>
       <c r="B251" s="70"/>
       <c r="C251" s="76"/>
       <c r="D251" s="77"/>
@@ -7536,7 +7585,7 @@
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A252" s="94"/>
+      <c r="A252" s="84"/>
       <c r="B252" s="72"/>
       <c r="C252" s="57"/>
       <c r="D252" s="58"/>
@@ -7559,7 +7608,7 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A253" s="94"/>
+      <c r="A253" s="84"/>
       <c r="B253" s="72"/>
       <c r="C253" s="57"/>
       <c r="D253" s="58"/>
@@ -7582,7 +7631,7 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A254" s="94"/>
+      <c r="A254" s="84"/>
       <c r="B254" s="72"/>
       <c r="C254" s="57"/>
       <c r="D254" s="58"/>
@@ -7605,7 +7654,7 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A255" s="94"/>
+      <c r="A255" s="84"/>
       <c r="B255" s="72"/>
       <c r="C255" s="57"/>
       <c r="D255" s="58"/>
@@ -7628,7 +7677,7 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A256" s="95"/>
+      <c r="A256" s="85"/>
       <c r="B256" s="74"/>
       <c r="C256" s="64"/>
       <c r="D256" s="65"/>
@@ -7651,7 +7700,7 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A257" s="94"/>
+      <c r="A257" s="84"/>
       <c r="B257" s="70"/>
       <c r="C257" s="76"/>
       <c r="D257" s="77"/>
@@ -7674,7 +7723,7 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A258" s="94"/>
+      <c r="A258" s="84"/>
       <c r="B258" s="72"/>
       <c r="C258" s="57"/>
       <c r="D258" s="58"/>
@@ -7697,7 +7746,7 @@
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A259" s="94"/>
+      <c r="A259" s="84"/>
       <c r="B259" s="72"/>
       <c r="C259" s="57"/>
       <c r="D259" s="58"/>
@@ -7720,7 +7769,7 @@
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A260" s="94"/>
+      <c r="A260" s="84"/>
       <c r="B260" s="72"/>
       <c r="C260" s="57"/>
       <c r="D260" s="58"/>
@@ -7743,7 +7792,7 @@
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A261" s="94"/>
+      <c r="A261" s="84"/>
       <c r="B261" s="72"/>
       <c r="C261" s="57"/>
       <c r="D261" s="58"/>
@@ -7766,7 +7815,7 @@
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A262" s="95"/>
+      <c r="A262" s="85"/>
       <c r="B262" s="74"/>
       <c r="C262" s="64"/>
       <c r="D262" s="65"/>
@@ -7789,7 +7838,7 @@
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A263" s="94"/>
+      <c r="A263" s="84"/>
       <c r="B263" s="70"/>
       <c r="C263" s="76"/>
       <c r="D263" s="77"/>
@@ -7812,7 +7861,7 @@
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A264" s="94"/>
+      <c r="A264" s="84"/>
       <c r="B264" s="72"/>
       <c r="C264" s="57"/>
       <c r="D264" s="58"/>
@@ -7835,7 +7884,7 @@
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A265" s="94"/>
+      <c r="A265" s="84"/>
       <c r="B265" s="72"/>
       <c r="C265" s="57"/>
       <c r="D265" s="58"/>
@@ -7858,7 +7907,7 @@
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A266" s="94"/>
+      <c r="A266" s="84"/>
       <c r="B266" s="72"/>
       <c r="C266" s="57"/>
       <c r="D266" s="58"/>
@@ -7881,7 +7930,7 @@
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A267" s="94"/>
+      <c r="A267" s="84"/>
       <c r="B267" s="72"/>
       <c r="C267" s="57"/>
       <c r="D267" s="58"/>
@@ -7904,7 +7953,7 @@
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A268" s="95"/>
+      <c r="A268" s="85"/>
       <c r="B268" s="74"/>
       <c r="C268" s="64"/>
       <c r="D268" s="65"/>
@@ -7927,7 +7976,7 @@
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A269" s="94"/>
+      <c r="A269" s="84"/>
       <c r="B269" s="70"/>
       <c r="C269" s="76"/>
       <c r="D269" s="77"/>
@@ -7950,7 +7999,7 @@
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A270" s="94"/>
+      <c r="A270" s="84"/>
       <c r="B270" s="72"/>
       <c r="C270" s="57"/>
       <c r="D270" s="58"/>
@@ -7973,7 +8022,7 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A271" s="94"/>
+      <c r="A271" s="84"/>
       <c r="B271" s="72"/>
       <c r="C271" s="57"/>
       <c r="D271" s="58"/>
@@ -7996,7 +8045,7 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A272" s="94"/>
+      <c r="A272" s="84"/>
       <c r="B272" s="72"/>
       <c r="C272" s="57"/>
       <c r="D272" s="58"/>
@@ -8019,7 +8068,7 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A273" s="94"/>
+      <c r="A273" s="84"/>
       <c r="B273" s="72"/>
       <c r="C273" s="57"/>
       <c r="D273" s="58"/>
@@ -8042,7 +8091,7 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A274" s="95"/>
+      <c r="A274" s="85"/>
       <c r="B274" s="74"/>
       <c r="C274" s="64"/>
       <c r="D274" s="65"/>
@@ -8065,7 +8114,7 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A275" s="94"/>
+      <c r="A275" s="84"/>
       <c r="B275" s="70"/>
       <c r="C275" s="76"/>
       <c r="D275" s="77"/>
@@ -8088,7 +8137,7 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A276" s="94"/>
+      <c r="A276" s="84"/>
       <c r="B276" s="72"/>
       <c r="C276" s="57"/>
       <c r="D276" s="58"/>
@@ -8111,7 +8160,7 @@
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A277" s="94"/>
+      <c r="A277" s="84"/>
       <c r="B277" s="72"/>
       <c r="C277" s="57"/>
       <c r="D277" s="58"/>
@@ -8134,7 +8183,7 @@
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A278" s="94"/>
+      <c r="A278" s="84"/>
       <c r="B278" s="72"/>
       <c r="C278" s="57"/>
       <c r="D278" s="58"/>
@@ -8157,7 +8206,7 @@
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A279" s="94"/>
+      <c r="A279" s="84"/>
       <c r="B279" s="72"/>
       <c r="C279" s="57"/>
       <c r="D279" s="58"/>
@@ -8180,7 +8229,7 @@
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A280" s="95"/>
+      <c r="A280" s="85"/>
       <c r="B280" s="74"/>
       <c r="C280" s="64"/>
       <c r="D280" s="65"/>
@@ -8203,7 +8252,7 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A281" s="94"/>
+      <c r="A281" s="84"/>
       <c r="B281" s="70"/>
       <c r="C281" s="76"/>
       <c r="D281" s="77"/>
@@ -8226,7 +8275,7 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A282" s="94"/>
+      <c r="A282" s="84"/>
       <c r="B282" s="72"/>
       <c r="C282" s="57"/>
       <c r="D282" s="58"/>
@@ -8249,7 +8298,7 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A283" s="94"/>
+      <c r="A283" s="84"/>
       <c r="B283" s="72"/>
       <c r="C283" s="57"/>
       <c r="D283" s="58"/>
@@ -8272,7 +8321,7 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A284" s="94"/>
+      <c r="A284" s="84"/>
       <c r="B284" s="72"/>
       <c r="C284" s="57"/>
       <c r="D284" s="58"/>
@@ -8295,7 +8344,7 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A285" s="94"/>
+      <c r="A285" s="84"/>
       <c r="B285" s="72"/>
       <c r="C285" s="57"/>
       <c r="D285" s="58"/>
@@ -8318,7 +8367,7 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A286" s="95"/>
+      <c r="A286" s="85"/>
       <c r="B286" s="74"/>
       <c r="C286" s="64"/>
       <c r="D286" s="65"/>
@@ -8341,7 +8390,7 @@
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A287" s="94"/>
+      <c r="A287" s="84"/>
       <c r="B287" s="70"/>
       <c r="C287" s="76"/>
       <c r="D287" s="77"/>
@@ -8364,7 +8413,7 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A288" s="94"/>
+      <c r="A288" s="84"/>
       <c r="B288" s="72"/>
       <c r="C288" s="57"/>
       <c r="D288" s="58"/>
@@ -8387,7 +8436,7 @@
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A289" s="94"/>
+      <c r="A289" s="84"/>
       <c r="B289" s="72"/>
       <c r="C289" s="57"/>
       <c r="D289" s="58"/>
@@ -8410,7 +8459,7 @@
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A290" s="94"/>
+      <c r="A290" s="84"/>
       <c r="B290" s="72"/>
       <c r="C290" s="57"/>
       <c r="D290" s="58"/>
@@ -8433,7 +8482,7 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A291" s="94"/>
+      <c r="A291" s="84"/>
       <c r="B291" s="72"/>
       <c r="C291" s="57"/>
       <c r="D291" s="58"/>
@@ -8456,7 +8505,7 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A292" s="95"/>
+      <c r="A292" s="85"/>
       <c r="B292" s="74"/>
       <c r="C292" s="64"/>
       <c r="D292" s="65"/>
@@ -8479,7 +8528,7 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A293" s="94"/>
+      <c r="A293" s="84"/>
       <c r="B293" s="70"/>
       <c r="C293" s="76"/>
       <c r="D293" s="77"/>
@@ -8502,7 +8551,7 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A294" s="94"/>
+      <c r="A294" s="84"/>
       <c r="B294" s="72"/>
       <c r="C294" s="57"/>
       <c r="D294" s="58"/>
@@ -8525,7 +8574,7 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A295" s="94"/>
+      <c r="A295" s="84"/>
       <c r="B295" s="72"/>
       <c r="C295" s="57"/>
       <c r="D295" s="58"/>
@@ -8548,7 +8597,7 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A296" s="94"/>
+      <c r="A296" s="84"/>
       <c r="B296" s="72"/>
       <c r="C296" s="57"/>
       <c r="D296" s="58"/>
@@ -8571,7 +8620,7 @@
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A297" s="94"/>
+      <c r="A297" s="84"/>
       <c r="B297" s="72"/>
       <c r="C297" s="57"/>
       <c r="D297" s="58"/>
@@ -8594,7 +8643,7 @@
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A298" s="95"/>
+      <c r="A298" s="85"/>
       <c r="B298" s="74"/>
       <c r="C298" s="64"/>
       <c r="D298" s="65"/>
@@ -8617,7 +8666,7 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A299" s="94"/>
+      <c r="A299" s="84"/>
       <c r="B299" s="70"/>
       <c r="C299" s="76"/>
       <c r="D299" s="77"/>
@@ -8640,7 +8689,7 @@
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A300" s="94"/>
+      <c r="A300" s="84"/>
       <c r="B300" s="72"/>
       <c r="C300" s="57"/>
       <c r="D300" s="58"/>
@@ -8663,7 +8712,7 @@
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A301" s="94"/>
+      <c r="A301" s="84"/>
       <c r="B301" s="72"/>
       <c r="C301" s="57"/>
       <c r="D301" s="58"/>
@@ -8686,7 +8735,7 @@
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A302" s="94"/>
+      <c r="A302" s="84"/>
       <c r="B302" s="72"/>
       <c r="C302" s="57"/>
       <c r="D302" s="58"/>
@@ -8709,7 +8758,7 @@
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A303" s="94"/>
+      <c r="A303" s="84"/>
       <c r="B303" s="72"/>
       <c r="C303" s="57"/>
       <c r="D303" s="58"/>
@@ -8732,7 +8781,7 @@
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A304" s="95"/>
+      <c r="A304" s="85"/>
       <c r="B304" s="74"/>
       <c r="C304" s="64"/>
       <c r="D304" s="65"/>
@@ -8755,7 +8804,7 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A305" s="94"/>
+      <c r="A305" s="84"/>
       <c r="B305" s="70"/>
       <c r="C305" s="76"/>
       <c r="D305" s="77"/>
@@ -8778,7 +8827,7 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A306" s="94"/>
+      <c r="A306" s="84"/>
       <c r="B306" s="72"/>
       <c r="C306" s="57"/>
       <c r="D306" s="58"/>
@@ -8801,7 +8850,7 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A307" s="94"/>
+      <c r="A307" s="84"/>
       <c r="B307" s="72"/>
       <c r="C307" s="57"/>
       <c r="D307" s="58"/>
@@ -8824,7 +8873,7 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A308" s="94"/>
+      <c r="A308" s="84"/>
       <c r="B308" s="72"/>
       <c r="C308" s="57"/>
       <c r="D308" s="58"/>
@@ -8847,7 +8896,7 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A309" s="94"/>
+      <c r="A309" s="84"/>
       <c r="B309" s="72"/>
       <c r="C309" s="57"/>
       <c r="D309" s="58"/>
@@ -8870,7 +8919,7 @@
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A310" s="95"/>
+      <c r="A310" s="85"/>
       <c r="B310" s="74"/>
       <c r="C310" s="64"/>
       <c r="D310" s="65"/>
@@ -8893,7 +8942,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A311" s="94"/>
+      <c r="A311" s="84"/>
       <c r="B311" s="70"/>
       <c r="C311" s="76"/>
       <c r="D311" s="77"/>
@@ -8916,7 +8965,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A312" s="94"/>
+      <c r="A312" s="84"/>
       <c r="B312" s="72"/>
       <c r="C312" s="57"/>
       <c r="D312" s="58"/>
@@ -8939,7 +8988,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A313" s="94"/>
+      <c r="A313" s="84"/>
       <c r="B313" s="72"/>
       <c r="C313" s="57"/>
       <c r="D313" s="58"/>
@@ -8962,7 +9011,7 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A314" s="94"/>
+      <c r="A314" s="84"/>
       <c r="B314" s="72"/>
       <c r="C314" s="57"/>
       <c r="D314" s="58"/>
@@ -8985,7 +9034,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A315" s="94"/>
+      <c r="A315" s="84"/>
       <c r="B315" s="72"/>
       <c r="C315" s="57"/>
       <c r="D315" s="58"/>
@@ -9008,7 +9057,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A316" s="95"/>
+      <c r="A316" s="85"/>
       <c r="B316" s="74"/>
       <c r="C316" s="64"/>
       <c r="D316" s="65"/>
@@ -9031,7 +9080,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A317" s="94"/>
+      <c r="A317" s="84"/>
       <c r="B317" s="70"/>
       <c r="C317" s="76"/>
       <c r="D317" s="77"/>
@@ -9054,7 +9103,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A318" s="94"/>
+      <c r="A318" s="84"/>
       <c r="B318" s="72"/>
       <c r="C318" s="57"/>
       <c r="D318" s="58"/>
@@ -9077,7 +9126,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A319" s="94"/>
+      <c r="A319" s="84"/>
       <c r="B319" s="72"/>
       <c r="C319" s="57"/>
       <c r="D319" s="58"/>
@@ -9100,7 +9149,7 @@
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A320" s="94"/>
+      <c r="A320" s="84"/>
       <c r="B320" s="72"/>
       <c r="C320" s="57"/>
       <c r="D320" s="58"/>
@@ -9123,7 +9172,7 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A321" s="94"/>
+      <c r="A321" s="84"/>
       <c r="B321" s="72"/>
       <c r="C321" s="57"/>
       <c r="D321" s="58"/>
@@ -9146,7 +9195,7 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A322" s="95"/>
+      <c r="A322" s="85"/>
       <c r="B322" s="74"/>
       <c r="C322" s="64"/>
       <c r="D322" s="65"/>
@@ -9169,7 +9218,7 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A323" s="94"/>
+      <c r="A323" s="84"/>
       <c r="B323" s="70"/>
       <c r="C323" s="76"/>
       <c r="D323" s="77"/>
@@ -9192,7 +9241,7 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A324" s="94"/>
+      <c r="A324" s="84"/>
       <c r="B324" s="72"/>
       <c r="C324" s="57"/>
       <c r="D324" s="58"/>
@@ -9215,7 +9264,7 @@
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A325" s="94"/>
+      <c r="A325" s="84"/>
       <c r="B325" s="72"/>
       <c r="C325" s="57"/>
       <c r="D325" s="58"/>
@@ -9238,7 +9287,7 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A326" s="94"/>
+      <c r="A326" s="84"/>
       <c r="B326" s="72"/>
       <c r="C326" s="57"/>
       <c r="D326" s="58"/>
@@ -9261,7 +9310,7 @@
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A327" s="94"/>
+      <c r="A327" s="84"/>
       <c r="B327" s="72"/>
       <c r="C327" s="57"/>
       <c r="D327" s="58"/>
@@ -9284,7 +9333,7 @@
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A328" s="95"/>
+      <c r="A328" s="85"/>
       <c r="B328" s="74"/>
       <c r="C328" s="64"/>
       <c r="D328" s="65"/>
@@ -9307,7 +9356,7 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A329" s="94"/>
+      <c r="A329" s="84"/>
       <c r="B329" s="70"/>
       <c r="C329" s="76"/>
       <c r="D329" s="77"/>
@@ -9330,7 +9379,7 @@
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A330" s="94"/>
+      <c r="A330" s="84"/>
       <c r="B330" s="72"/>
       <c r="C330" s="57"/>
       <c r="D330" s="58"/>
@@ -9353,7 +9402,7 @@
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A331" s="94"/>
+      <c r="A331" s="84"/>
       <c r="B331" s="72"/>
       <c r="C331" s="57"/>
       <c r="D331" s="58"/>
@@ -9376,7 +9425,7 @@
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A332" s="94"/>
+      <c r="A332" s="84"/>
       <c r="B332" s="72"/>
       <c r="C332" s="57"/>
       <c r="D332" s="58"/>
@@ -9399,7 +9448,7 @@
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A333" s="94"/>
+      <c r="A333" s="84"/>
       <c r="B333" s="72"/>
       <c r="C333" s="57"/>
       <c r="D333" s="58"/>
@@ -9422,7 +9471,7 @@
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A334" s="95"/>
+      <c r="A334" s="85"/>
       <c r="B334" s="74"/>
       <c r="C334" s="64"/>
       <c r="D334" s="65"/>
@@ -9445,7 +9494,7 @@
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A335" s="94"/>
+      <c r="A335" s="84"/>
       <c r="B335" s="70"/>
       <c r="C335" s="76"/>
       <c r="D335" s="77"/>
@@ -9468,7 +9517,7 @@
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A336" s="94"/>
+      <c r="A336" s="84"/>
       <c r="B336" s="72"/>
       <c r="C336" s="57"/>
       <c r="D336" s="58"/>
@@ -9491,7 +9540,7 @@
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A337" s="94"/>
+      <c r="A337" s="84"/>
       <c r="B337" s="72"/>
       <c r="C337" s="57"/>
       <c r="D337" s="58"/>
@@ -9514,7 +9563,7 @@
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A338" s="94"/>
+      <c r="A338" s="84"/>
       <c r="B338" s="72"/>
       <c r="C338" s="57"/>
       <c r="D338" s="58"/>
@@ -9537,7 +9586,7 @@
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A339" s="94"/>
+      <c r="A339" s="84"/>
       <c r="B339" s="72"/>
       <c r="C339" s="57"/>
       <c r="D339" s="58"/>
@@ -9560,7 +9609,7 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A340" s="95"/>
+      <c r="A340" s="85"/>
       <c r="B340" s="74"/>
       <c r="C340" s="64"/>
       <c r="D340" s="65"/>
@@ -9583,7 +9632,7 @@
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A341" s="94"/>
+      <c r="A341" s="84"/>
       <c r="B341" s="70"/>
       <c r="C341" s="76"/>
       <c r="D341" s="77"/>
@@ -9606,7 +9655,7 @@
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A342" s="94"/>
+      <c r="A342" s="84"/>
       <c r="B342" s="72"/>
       <c r="C342" s="57"/>
       <c r="D342" s="58"/>
@@ -9629,7 +9678,7 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A343" s="94"/>
+      <c r="A343" s="84"/>
       <c r="B343" s="72"/>
       <c r="C343" s="57"/>
       <c r="D343" s="58"/>
@@ -9652,7 +9701,7 @@
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A344" s="94"/>
+      <c r="A344" s="84"/>
       <c r="B344" s="72"/>
       <c r="C344" s="57"/>
       <c r="D344" s="58"/>
@@ -9675,7 +9724,7 @@
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A345" s="94"/>
+      <c r="A345" s="84"/>
       <c r="B345" s="72"/>
       <c r="C345" s="57"/>
       <c r="D345" s="58"/>
@@ -9698,7 +9747,7 @@
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A346" s="95"/>
+      <c r="A346" s="85"/>
       <c r="B346" s="74"/>
       <c r="C346" s="64"/>
       <c r="D346" s="65"/>
@@ -9721,7 +9770,7 @@
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A347" s="94"/>
+      <c r="A347" s="84"/>
       <c r="B347" s="70"/>
       <c r="C347" s="76"/>
       <c r="D347" s="77"/>
@@ -9744,7 +9793,7 @@
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A348" s="94"/>
+      <c r="A348" s="84"/>
       <c r="B348" s="72"/>
       <c r="C348" s="57"/>
       <c r="D348" s="58"/>
@@ -9767,7 +9816,7 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A349" s="94"/>
+      <c r="A349" s="84"/>
       <c r="B349" s="72"/>
       <c r="C349" s="57"/>
       <c r="D349" s="58"/>
@@ -9790,7 +9839,7 @@
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A350" s="94"/>
+      <c r="A350" s="84"/>
       <c r="B350" s="72"/>
       <c r="C350" s="57"/>
       <c r="D350" s="58"/>
@@ -9813,7 +9862,7 @@
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A351" s="94"/>
+      <c r="A351" s="84"/>
       <c r="B351" s="72"/>
       <c r="C351" s="57"/>
       <c r="D351" s="58"/>
@@ -9836,7 +9885,7 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A352" s="95"/>
+      <c r="A352" s="85"/>
       <c r="B352" s="74"/>
       <c r="C352" s="64"/>
       <c r="D352" s="65"/>
@@ -9859,7 +9908,7 @@
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A353" s="94"/>
+      <c r="A353" s="84"/>
       <c r="B353" s="70"/>
       <c r="C353" s="76"/>
       <c r="D353" s="77"/>
@@ -9882,7 +9931,7 @@
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A354" s="94"/>
+      <c r="A354" s="84"/>
       <c r="B354" s="72"/>
       <c r="C354" s="57"/>
       <c r="D354" s="58"/>
@@ -9905,7 +9954,7 @@
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A355" s="94"/>
+      <c r="A355" s="84"/>
       <c r="B355" s="72"/>
       <c r="C355" s="57"/>
       <c r="D355" s="58"/>
@@ -9928,7 +9977,7 @@
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A356" s="94"/>
+      <c r="A356" s="84"/>
       <c r="B356" s="72"/>
       <c r="C356" s="57"/>
       <c r="D356" s="58"/>
@@ -9951,7 +10000,7 @@
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A357" s="94"/>
+      <c r="A357" s="84"/>
       <c r="B357" s="72"/>
       <c r="C357" s="57"/>
       <c r="D357" s="58"/>
@@ -9974,7 +10023,7 @@
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A358" s="95"/>
+      <c r="A358" s="85"/>
       <c r="B358" s="74"/>
       <c r="C358" s="64"/>
       <c r="D358" s="65"/>
@@ -9997,7 +10046,7 @@
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A359" s="94"/>
+      <c r="A359" s="84"/>
       <c r="B359" s="70"/>
       <c r="C359" s="76"/>
       <c r="D359" s="77"/>
@@ -10020,7 +10069,7 @@
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A360" s="94"/>
+      <c r="A360" s="84"/>
       <c r="B360" s="72"/>
       <c r="C360" s="57"/>
       <c r="D360" s="58"/>
@@ -10043,7 +10092,7 @@
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A361" s="94"/>
+      <c r="A361" s="84"/>
       <c r="B361" s="72"/>
       <c r="C361" s="57"/>
       <c r="D361" s="58"/>
@@ -10066,7 +10115,7 @@
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A362" s="94"/>
+      <c r="A362" s="84"/>
       <c r="B362" s="72"/>
       <c r="C362" s="57"/>
       <c r="D362" s="58"/>
@@ -10089,7 +10138,7 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A363" s="94"/>
+      <c r="A363" s="84"/>
       <c r="B363" s="72"/>
       <c r="C363" s="57"/>
       <c r="D363" s="58"/>
@@ -10112,7 +10161,7 @@
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A364" s="95"/>
+      <c r="A364" s="85"/>
       <c r="B364" s="74"/>
       <c r="C364" s="64"/>
       <c r="D364" s="65"/>
@@ -10135,7 +10184,7 @@
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A365" s="94"/>
+      <c r="A365" s="84"/>
       <c r="B365" s="70"/>
       <c r="C365" s="76"/>
       <c r="D365" s="77"/>
@@ -10158,7 +10207,7 @@
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A366" s="94"/>
+      <c r="A366" s="84"/>
       <c r="B366" s="72"/>
       <c r="C366" s="57"/>
       <c r="D366" s="58"/>
@@ -10181,7 +10230,7 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A367" s="94"/>
+      <c r="A367" s="84"/>
       <c r="B367" s="72"/>
       <c r="C367" s="57"/>
       <c r="D367" s="58"/>
@@ -10204,7 +10253,7 @@
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A368" s="94"/>
+      <c r="A368" s="84"/>
       <c r="B368" s="72"/>
       <c r="C368" s="57"/>
       <c r="D368" s="58"/>
@@ -10227,7 +10276,7 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A369" s="94"/>
+      <c r="A369" s="84"/>
       <c r="B369" s="72"/>
       <c r="C369" s="57"/>
       <c r="D369" s="58"/>
@@ -10250,7 +10299,7 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A370" s="95"/>
+      <c r="A370" s="85"/>
       <c r="B370" s="74"/>
       <c r="C370" s="64"/>
       <c r="D370" s="65"/>
@@ -10273,7 +10322,7 @@
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A371" s="94"/>
+      <c r="A371" s="84"/>
       <c r="B371" s="70"/>
       <c r="C371" s="76"/>
       <c r="D371" s="77"/>
@@ -10296,7 +10345,7 @@
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A372" s="94"/>
+      <c r="A372" s="84"/>
       <c r="B372" s="72"/>
       <c r="C372" s="57"/>
       <c r="D372" s="58"/>
@@ -10319,7 +10368,7 @@
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A373" s="94"/>
+      <c r="A373" s="84"/>
       <c r="B373" s="72"/>
       <c r="C373" s="57"/>
       <c r="D373" s="58"/>
@@ -10342,7 +10391,7 @@
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A374" s="94"/>
+      <c r="A374" s="84"/>
       <c r="B374" s="72"/>
       <c r="C374" s="57"/>
       <c r="D374" s="58"/>
@@ -10365,7 +10414,7 @@
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A375" s="94"/>
+      <c r="A375" s="84"/>
       <c r="B375" s="72"/>
       <c r="C375" s="57"/>
       <c r="D375" s="58"/>
@@ -10388,7 +10437,7 @@
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A376" s="95"/>
+      <c r="A376" s="85"/>
       <c r="B376" s="74"/>
       <c r="C376" s="64"/>
       <c r="D376" s="65"/>
@@ -10411,7 +10460,7 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A377" s="94"/>
+      <c r="A377" s="84"/>
       <c r="B377" s="70"/>
       <c r="C377" s="76"/>
       <c r="D377" s="77"/>
@@ -10434,7 +10483,7 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A378" s="94"/>
+      <c r="A378" s="84"/>
       <c r="B378" s="72"/>
       <c r="C378" s="57"/>
       <c r="D378" s="58"/>
@@ -10457,7 +10506,7 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A379" s="94"/>
+      <c r="A379" s="84"/>
       <c r="B379" s="72"/>
       <c r="C379" s="57"/>
       <c r="D379" s="58"/>
@@ -10480,7 +10529,7 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A380" s="94"/>
+      <c r="A380" s="84"/>
       <c r="B380" s="72"/>
       <c r="C380" s="57"/>
       <c r="D380" s="58"/>
@@ -10503,7 +10552,7 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A381" s="94"/>
+      <c r="A381" s="84"/>
       <c r="B381" s="72"/>
       <c r="C381" s="57"/>
       <c r="D381" s="58"/>
@@ -10526,7 +10575,7 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A382" s="95"/>
+      <c r="A382" s="85"/>
       <c r="B382" s="74"/>
       <c r="C382" s="64"/>
       <c r="D382" s="65"/>
@@ -10549,7 +10598,7 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A383" s="94"/>
+      <c r="A383" s="84"/>
       <c r="B383" s="70"/>
       <c r="C383" s="76"/>
       <c r="D383" s="77"/>
@@ -10572,7 +10621,7 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A384" s="94"/>
+      <c r="A384" s="84"/>
       <c r="B384" s="72"/>
       <c r="C384" s="57"/>
       <c r="D384" s="58"/>
@@ -10595,7 +10644,7 @@
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A385" s="94"/>
+      <c r="A385" s="84"/>
       <c r="B385" s="72"/>
       <c r="C385" s="57"/>
       <c r="D385" s="58"/>
@@ -10618,7 +10667,7 @@
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A386" s="94"/>
+      <c r="A386" s="84"/>
       <c r="B386" s="72"/>
       <c r="C386" s="57"/>
       <c r="D386" s="58"/>
@@ -10641,7 +10690,7 @@
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A387" s="94"/>
+      <c r="A387" s="84"/>
       <c r="B387" s="72"/>
       <c r="C387" s="57"/>
       <c r="D387" s="58"/>
@@ -10664,7 +10713,7 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A388" s="95"/>
+      <c r="A388" s="85"/>
       <c r="B388" s="74"/>
       <c r="C388" s="64"/>
       <c r="D388" s="65"/>
@@ -10687,7 +10736,7 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A389" s="94"/>
+      <c r="A389" s="84"/>
       <c r="B389" s="70"/>
       <c r="C389" s="76"/>
       <c r="D389" s="77"/>
@@ -10710,7 +10759,7 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A390" s="94"/>
+      <c r="A390" s="84"/>
       <c r="B390" s="72"/>
       <c r="C390" s="57"/>
       <c r="D390" s="58"/>
@@ -10733,7 +10782,7 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A391" s="94"/>
+      <c r="A391" s="84"/>
       <c r="B391" s="72"/>
       <c r="C391" s="57"/>
       <c r="D391" s="58"/>
@@ -10756,7 +10805,7 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A392" s="94"/>
+      <c r="A392" s="84"/>
       <c r="B392" s="72"/>
       <c r="C392" s="57"/>
       <c r="D392" s="58"/>
@@ -10779,7 +10828,7 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A393" s="94"/>
+      <c r="A393" s="84"/>
       <c r="B393" s="72"/>
       <c r="C393" s="57"/>
       <c r="D393" s="58"/>
@@ -10802,7 +10851,7 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A394" s="95"/>
+      <c r="A394" s="85"/>
       <c r="B394" s="74"/>
       <c r="C394" s="64"/>
       <c r="D394" s="65"/>
@@ -10825,7 +10874,7 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A395" s="94"/>
+      <c r="A395" s="84"/>
       <c r="B395" s="70"/>
       <c r="C395" s="76"/>
       <c r="D395" s="77"/>
@@ -10848,7 +10897,7 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A396" s="94"/>
+      <c r="A396" s="84"/>
       <c r="B396" s="72"/>
       <c r="C396" s="57"/>
       <c r="D396" s="58"/>
@@ -10871,7 +10920,7 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A397" s="94"/>
+      <c r="A397" s="84"/>
       <c r="B397" s="72"/>
       <c r="C397" s="57"/>
       <c r="D397" s="58"/>
@@ -10894,7 +10943,7 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A398" s="94"/>
+      <c r="A398" s="84"/>
       <c r="B398" s="72"/>
       <c r="C398" s="57"/>
       <c r="D398" s="58"/>
@@ -10917,7 +10966,7 @@
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A399" s="94"/>
+      <c r="A399" s="84"/>
       <c r="B399" s="72"/>
       <c r="C399" s="57"/>
       <c r="D399" s="58"/>
@@ -10940,7 +10989,7 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A400" s="95"/>
+      <c r="A400" s="85"/>
       <c r="B400" s="74"/>
       <c r="C400" s="64"/>
       <c r="D400" s="65"/>
@@ -10963,7 +11012,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A401" s="94"/>
+      <c r="A401" s="84"/>
       <c r="B401" s="70"/>
       <c r="C401" s="76"/>
       <c r="D401" s="77"/>
@@ -10986,7 +11035,7 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A402" s="94"/>
+      <c r="A402" s="84"/>
       <c r="B402" s="72"/>
       <c r="C402" s="57"/>
       <c r="D402" s="58"/>
@@ -11009,7 +11058,7 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A403" s="94"/>
+      <c r="A403" s="84"/>
       <c r="B403" s="72"/>
       <c r="C403" s="57"/>
       <c r="D403" s="58"/>
@@ -11032,7 +11081,7 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A404" s="94"/>
+      <c r="A404" s="84"/>
       <c r="B404" s="72"/>
       <c r="C404" s="57"/>
       <c r="D404" s="58"/>
@@ -11055,7 +11104,7 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A405" s="94"/>
+      <c r="A405" s="84"/>
       <c r="B405" s="72"/>
       <c r="C405" s="57"/>
       <c r="D405" s="58"/>
@@ -11078,7 +11127,7 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A406" s="95"/>
+      <c r="A406" s="85"/>
       <c r="B406" s="74"/>
       <c r="C406" s="64"/>
       <c r="D406" s="65"/>
@@ -11101,7 +11150,7 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A407" s="94"/>
+      <c r="A407" s="84"/>
       <c r="B407" s="70"/>
       <c r="C407" s="76"/>
       <c r="D407" s="77"/>
@@ -11124,7 +11173,7 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A408" s="94"/>
+      <c r="A408" s="84"/>
       <c r="B408" s="72"/>
       <c r="C408" s="57"/>
       <c r="D408" s="58"/>
@@ -11147,7 +11196,7 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A409" s="94"/>
+      <c r="A409" s="84"/>
       <c r="B409" s="72"/>
       <c r="C409" s="57"/>
       <c r="D409" s="58"/>
@@ -11170,7 +11219,7 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A410" s="94"/>
+      <c r="A410" s="84"/>
       <c r="B410" s="72"/>
       <c r="C410" s="57"/>
       <c r="D410" s="58"/>
@@ -11193,7 +11242,7 @@
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A411" s="94"/>
+      <c r="A411" s="84"/>
       <c r="B411" s="72"/>
       <c r="C411" s="57"/>
       <c r="D411" s="58"/>
@@ -11216,7 +11265,7 @@
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A412" s="95"/>
+      <c r="A412" s="85"/>
       <c r="B412" s="74"/>
       <c r="C412" s="64"/>
       <c r="D412" s="65"/>
@@ -11239,7 +11288,7 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A413" s="94"/>
+      <c r="A413" s="84"/>
       <c r="B413" s="70"/>
       <c r="C413" s="76"/>
       <c r="D413" s="77"/>
@@ -11262,7 +11311,7 @@
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A414" s="94"/>
+      <c r="A414" s="84"/>
       <c r="B414" s="72"/>
       <c r="C414" s="57"/>
       <c r="D414" s="58"/>
@@ -11285,7 +11334,7 @@
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A415" s="94"/>
+      <c r="A415" s="84"/>
       <c r="B415" s="72"/>
       <c r="C415" s="57"/>
       <c r="D415" s="58"/>
@@ -11308,7 +11357,7 @@
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A416" s="94"/>
+      <c r="A416" s="84"/>
       <c r="B416" s="72"/>
       <c r="C416" s="57"/>
       <c r="D416" s="58"/>
@@ -11331,7 +11380,7 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A417" s="94"/>
+      <c r="A417" s="84"/>
       <c r="B417" s="72"/>
       <c r="C417" s="57"/>
       <c r="D417" s="58"/>
@@ -11354,7 +11403,7 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A418" s="95"/>
+      <c r="A418" s="85"/>
       <c r="B418" s="74"/>
       <c r="C418" s="64"/>
       <c r="D418" s="65"/>
@@ -11377,7 +11426,7 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A419" s="94"/>
+      <c r="A419" s="84"/>
       <c r="B419" s="70"/>
       <c r="C419" s="76"/>
       <c r="D419" s="77"/>
@@ -11400,7 +11449,7 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A420" s="94"/>
+      <c r="A420" s="84"/>
       <c r="B420" s="72"/>
       <c r="C420" s="57"/>
       <c r="D420" s="58"/>
@@ -11423,7 +11472,7 @@
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A421" s="94"/>
+      <c r="A421" s="84"/>
       <c r="B421" s="72"/>
       <c r="C421" s="57"/>
       <c r="D421" s="58"/>
@@ -11446,7 +11495,7 @@
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A422" s="94"/>
+      <c r="A422" s="84"/>
       <c r="B422" s="72"/>
       <c r="C422" s="57"/>
       <c r="D422" s="58"/>
@@ -11469,7 +11518,7 @@
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A423" s="94"/>
+      <c r="A423" s="84"/>
       <c r="B423" s="72"/>
       <c r="C423" s="57"/>
       <c r="D423" s="58"/>
@@ -11492,7 +11541,7 @@
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A424" s="95"/>
+      <c r="A424" s="85"/>
       <c r="B424" s="74"/>
       <c r="C424" s="64"/>
       <c r="D424" s="65"/>
@@ -11515,7 +11564,7 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A425" s="94"/>
+      <c r="A425" s="84"/>
       <c r="B425" s="70"/>
       <c r="C425" s="76"/>
       <c r="D425" s="77"/>
@@ -11538,7 +11587,7 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A426" s="94"/>
+      <c r="A426" s="84"/>
       <c r="B426" s="72"/>
       <c r="C426" s="57"/>
       <c r="D426" s="58"/>
@@ -11561,7 +11610,7 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A427" s="94"/>
+      <c r="A427" s="84"/>
       <c r="B427" s="72"/>
       <c r="C427" s="57"/>
       <c r="D427" s="58"/>
@@ -11584,7 +11633,7 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A428" s="94"/>
+      <c r="A428" s="84"/>
       <c r="B428" s="72"/>
       <c r="C428" s="57"/>
       <c r="D428" s="58"/>
@@ -11607,7 +11656,7 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A429" s="94"/>
+      <c r="A429" s="84"/>
       <c r="B429" s="72"/>
       <c r="C429" s="57"/>
       <c r="D429" s="58"/>
@@ -11630,7 +11679,7 @@
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A430" s="95"/>
+      <c r="A430" s="85"/>
       <c r="B430" s="74"/>
       <c r="C430" s="64"/>
       <c r="D430" s="65"/>
@@ -11653,7 +11702,7 @@
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A431" s="94"/>
+      <c r="A431" s="84"/>
       <c r="B431" s="70"/>
       <c r="C431" s="76"/>
       <c r="D431" s="77"/>
@@ -11676,7 +11725,7 @@
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A432" s="94"/>
+      <c r="A432" s="84"/>
       <c r="B432" s="72"/>
       <c r="C432" s="57"/>
       <c r="D432" s="58"/>
@@ -11699,7 +11748,7 @@
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A433" s="94"/>
+      <c r="A433" s="84"/>
       <c r="B433" s="72"/>
       <c r="C433" s="57"/>
       <c r="D433" s="58"/>
@@ -11722,7 +11771,7 @@
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A434" s="94"/>
+      <c r="A434" s="84"/>
       <c r="B434" s="72"/>
       <c r="C434" s="57"/>
       <c r="D434" s="58"/>
@@ -11745,7 +11794,7 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A435" s="94"/>
+      <c r="A435" s="84"/>
       <c r="B435" s="72"/>
       <c r="C435" s="57"/>
       <c r="D435" s="58"/>
@@ -11768,7 +11817,7 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A436" s="95"/>
+      <c r="A436" s="85"/>
       <c r="B436" s="74"/>
       <c r="C436" s="64"/>
       <c r="D436" s="65"/>
@@ -11791,7 +11840,7 @@
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A437" s="94"/>
+      <c r="A437" s="84"/>
       <c r="B437" s="70"/>
       <c r="C437" s="76"/>
       <c r="D437" s="77"/>
@@ -11814,7 +11863,7 @@
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A438" s="94"/>
+      <c r="A438" s="84"/>
       <c r="B438" s="72"/>
       <c r="C438" s="57"/>
       <c r="D438" s="58"/>
@@ -11837,7 +11886,7 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A439" s="94"/>
+      <c r="A439" s="84"/>
       <c r="B439" s="72"/>
       <c r="C439" s="57"/>
       <c r="D439" s="58"/>
@@ -11860,7 +11909,7 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A440" s="94"/>
+      <c r="A440" s="84"/>
       <c r="B440" s="72"/>
       <c r="C440" s="57"/>
       <c r="D440" s="58"/>
@@ -11883,7 +11932,7 @@
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A441" s="94"/>
+      <c r="A441" s="84"/>
       <c r="B441" s="72"/>
       <c r="C441" s="57"/>
       <c r="D441" s="58"/>
@@ -11906,7 +11955,7 @@
       </c>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A442" s="95"/>
+      <c r="A442" s="85"/>
       <c r="B442" s="74"/>
       <c r="C442" s="64"/>
       <c r="D442" s="65"/>
@@ -11929,7 +11978,7 @@
       </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A443" s="94"/>
+      <c r="A443" s="84"/>
       <c r="B443" s="70"/>
       <c r="C443" s="76"/>
       <c r="D443" s="77"/>
@@ -11952,7 +12001,7 @@
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A444" s="94"/>
+      <c r="A444" s="84"/>
       <c r="B444" s="72"/>
       <c r="C444" s="57"/>
       <c r="D444" s="58"/>
@@ -11975,7 +12024,7 @@
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A445" s="94"/>
+      <c r="A445" s="84"/>
       <c r="B445" s="72"/>
       <c r="C445" s="57"/>
       <c r="D445" s="58"/>
@@ -11998,7 +12047,7 @@
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A446" s="94"/>
+      <c r="A446" s="84"/>
       <c r="B446" s="72"/>
       <c r="C446" s="57"/>
       <c r="D446" s="58"/>
@@ -12021,7 +12070,7 @@
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A447" s="94"/>
+      <c r="A447" s="84"/>
       <c r="B447" s="72"/>
       <c r="C447" s="57"/>
       <c r="D447" s="58"/>
@@ -12044,7 +12093,7 @@
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A448" s="95"/>
+      <c r="A448" s="85"/>
       <c r="B448" s="74"/>
       <c r="C448" s="64"/>
       <c r="D448" s="65"/>
@@ -12067,7 +12116,7 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A449" s="94"/>
+      <c r="A449" s="84"/>
       <c r="B449" s="70"/>
       <c r="C449" s="76"/>
       <c r="D449" s="77"/>
@@ -12090,7 +12139,7 @@
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A450" s="94"/>
+      <c r="A450" s="84"/>
       <c r="B450" s="72"/>
       <c r="C450" s="57"/>
       <c r="D450" s="58"/>
@@ -12113,7 +12162,7 @@
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A451" s="94"/>
+      <c r="A451" s="84"/>
       <c r="B451" s="72"/>
       <c r="C451" s="57"/>
       <c r="D451" s="58"/>
@@ -12136,7 +12185,7 @@
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A452" s="94"/>
+      <c r="A452" s="84"/>
       <c r="B452" s="72"/>
       <c r="C452" s="57"/>
       <c r="D452" s="58"/>
@@ -12159,7 +12208,7 @@
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A453" s="94"/>
+      <c r="A453" s="84"/>
       <c r="B453" s="72"/>
       <c r="C453" s="57"/>
       <c r="D453" s="58"/>
@@ -12182,7 +12231,7 @@
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A454" s="95"/>
+      <c r="A454" s="85"/>
       <c r="B454" s="74"/>
       <c r="C454" s="64"/>
       <c r="D454" s="65"/>
@@ -12205,7 +12254,7 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A455" s="94"/>
+      <c r="A455" s="84"/>
       <c r="B455" s="70"/>
       <c r="C455" s="76"/>
       <c r="D455" s="77"/>
@@ -12228,7 +12277,7 @@
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A456" s="94"/>
+      <c r="A456" s="84"/>
       <c r="B456" s="72"/>
       <c r="C456" s="57"/>
       <c r="D456" s="58"/>
@@ -12251,7 +12300,7 @@
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A457" s="94"/>
+      <c r="A457" s="84"/>
       <c r="B457" s="72"/>
       <c r="C457" s="57"/>
       <c r="D457" s="58"/>
@@ -12274,7 +12323,7 @@
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A458" s="94"/>
+      <c r="A458" s="84"/>
       <c r="B458" s="72"/>
       <c r="C458" s="57"/>
       <c r="D458" s="58"/>
@@ -12297,7 +12346,7 @@
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A459" s="94"/>
+      <c r="A459" s="84"/>
       <c r="B459" s="72"/>
       <c r="C459" s="57"/>
       <c r="D459" s="58"/>
@@ -12320,7 +12369,7 @@
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A460" s="95"/>
+      <c r="A460" s="85"/>
       <c r="B460" s="74"/>
       <c r="C460" s="64"/>
       <c r="D460" s="65"/>
@@ -12343,7 +12392,7 @@
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A461" s="94"/>
+      <c r="A461" s="84"/>
       <c r="B461" s="70"/>
       <c r="C461" s="76"/>
       <c r="D461" s="77"/>
@@ -12366,7 +12415,7 @@
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A462" s="94"/>
+      <c r="A462" s="84"/>
       <c r="B462" s="72"/>
       <c r="C462" s="57"/>
       <c r="D462" s="58"/>
@@ -12389,7 +12438,7 @@
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A463" s="94"/>
+      <c r="A463" s="84"/>
       <c r="B463" s="72"/>
       <c r="C463" s="57"/>
       <c r="D463" s="58"/>
@@ -12412,7 +12461,7 @@
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A464" s="94"/>
+      <c r="A464" s="84"/>
       <c r="B464" s="72"/>
       <c r="C464" s="57"/>
       <c r="D464" s="58"/>
@@ -12435,7 +12484,7 @@
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A465" s="94"/>
+      <c r="A465" s="84"/>
       <c r="B465" s="72"/>
       <c r="C465" s="57"/>
       <c r="D465" s="58"/>
@@ -12458,7 +12507,7 @@
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A466" s="95"/>
+      <c r="A466" s="85"/>
       <c r="B466" s="74"/>
       <c r="C466" s="64"/>
       <c r="D466" s="65"/>
@@ -12481,7 +12530,7 @@
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A467" s="94"/>
+      <c r="A467" s="84"/>
       <c r="B467" s="70"/>
       <c r="C467" s="76"/>
       <c r="D467" s="77"/>
@@ -12504,7 +12553,7 @@
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A468" s="94"/>
+      <c r="A468" s="84"/>
       <c r="B468" s="72"/>
       <c r="C468" s="57"/>
       <c r="D468" s="58"/>
@@ -12527,7 +12576,7 @@
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A469" s="94"/>
+      <c r="A469" s="84"/>
       <c r="B469" s="72"/>
       <c r="C469" s="57"/>
       <c r="D469" s="58"/>
@@ -12550,7 +12599,7 @@
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A470" s="94"/>
+      <c r="A470" s="84"/>
       <c r="B470" s="72"/>
       <c r="C470" s="57"/>
       <c r="D470" s="58"/>
@@ -12573,7 +12622,7 @@
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A471" s="94"/>
+      <c r="A471" s="84"/>
       <c r="B471" s="72"/>
       <c r="C471" s="57"/>
       <c r="D471" s="58"/>
@@ -12596,7 +12645,7 @@
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A472" s="95"/>
+      <c r="A472" s="85"/>
       <c r="B472" s="74"/>
       <c r="C472" s="64"/>
       <c r="D472" s="65"/>
@@ -12619,7 +12668,7 @@
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A473" s="94"/>
+      <c r="A473" s="84"/>
       <c r="B473" s="70"/>
       <c r="C473" s="76"/>
       <c r="D473" s="77"/>
@@ -12642,7 +12691,7 @@
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A474" s="94"/>
+      <c r="A474" s="84"/>
       <c r="B474" s="72"/>
       <c r="C474" s="57"/>
       <c r="D474" s="58"/>
@@ -12665,7 +12714,7 @@
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A475" s="94"/>
+      <c r="A475" s="84"/>
       <c r="B475" s="72"/>
       <c r="C475" s="57"/>
       <c r="D475" s="58"/>
@@ -12688,7 +12737,7 @@
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A476" s="94"/>
+      <c r="A476" s="84"/>
       <c r="B476" s="72"/>
       <c r="C476" s="57"/>
       <c r="D476" s="58"/>
@@ -12711,7 +12760,7 @@
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A477" s="94"/>
+      <c r="A477" s="84"/>
       <c r="B477" s="72"/>
       <c r="C477" s="57"/>
       <c r="D477" s="58"/>
@@ -12734,7 +12783,7 @@
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A478" s="95"/>
+      <c r="A478" s="85"/>
       <c r="B478" s="74"/>
       <c r="C478" s="64"/>
       <c r="D478" s="65"/>
@@ -12757,7 +12806,7 @@
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A479" s="94"/>
+      <c r="A479" s="84"/>
       <c r="B479" s="70"/>
       <c r="C479" s="76"/>
       <c r="D479" s="77"/>
@@ -12780,7 +12829,7 @@
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A480" s="94"/>
+      <c r="A480" s="84"/>
       <c r="B480" s="72"/>
       <c r="C480" s="57"/>
       <c r="D480" s="58"/>
@@ -12803,7 +12852,7 @@
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A481" s="94"/>
+      <c r="A481" s="84"/>
       <c r="B481" s="72"/>
       <c r="C481" s="57"/>
       <c r="D481" s="58"/>
@@ -12826,7 +12875,7 @@
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A482" s="94"/>
+      <c r="A482" s="84"/>
       <c r="B482" s="72"/>
       <c r="C482" s="57"/>
       <c r="D482" s="58"/>
@@ -12849,7 +12898,7 @@
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A483" s="94"/>
+      <c r="A483" s="84"/>
       <c r="B483" s="72"/>
       <c r="C483" s="57"/>
       <c r="D483" s="58"/>
@@ -12872,7 +12921,7 @@
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A484" s="95"/>
+      <c r="A484" s="85"/>
       <c r="B484" s="74"/>
       <c r="C484" s="64"/>
       <c r="D484" s="65"/>
@@ -12895,7 +12944,7 @@
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A485" s="94"/>
+      <c r="A485" s="84"/>
       <c r="B485" s="70"/>
       <c r="C485" s="76"/>
       <c r="D485" s="77"/>
@@ -12918,7 +12967,7 @@
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A486" s="94"/>
+      <c r="A486" s="84"/>
       <c r="B486" s="72"/>
       <c r="C486" s="57"/>
       <c r="D486" s="58"/>
@@ -12941,7 +12990,7 @@
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A487" s="94"/>
+      <c r="A487" s="84"/>
       <c r="B487" s="72"/>
       <c r="C487" s="57"/>
       <c r="D487" s="58"/>
@@ -12964,7 +13013,7 @@
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A488" s="94"/>
+      <c r="A488" s="84"/>
       <c r="B488" s="72"/>
       <c r="C488" s="57"/>
       <c r="D488" s="58"/>
@@ -12987,7 +13036,7 @@
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A489" s="94"/>
+      <c r="A489" s="84"/>
       <c r="B489" s="72"/>
       <c r="C489" s="57"/>
       <c r="D489" s="58"/>
@@ -13010,7 +13059,7 @@
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A490" s="95"/>
+      <c r="A490" s="85"/>
       <c r="B490" s="74"/>
       <c r="C490" s="64"/>
       <c r="D490" s="65"/>
@@ -13033,7 +13082,7 @@
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A491" s="94"/>
+      <c r="A491" s="84"/>
       <c r="B491" s="70"/>
       <c r="C491" s="76"/>
       <c r="D491" s="77"/>
@@ -13056,7 +13105,7 @@
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A492" s="94"/>
+      <c r="A492" s="84"/>
       <c r="B492" s="72"/>
       <c r="C492" s="57"/>
       <c r="D492" s="58"/>
@@ -13079,7 +13128,7 @@
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A493" s="94"/>
+      <c r="A493" s="84"/>
       <c r="B493" s="72"/>
       <c r="C493" s="57"/>
       <c r="D493" s="58"/>
@@ -13102,7 +13151,7 @@
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A494" s="94"/>
+      <c r="A494" s="84"/>
       <c r="B494" s="72"/>
       <c r="C494" s="57"/>
       <c r="D494" s="58"/>
@@ -13125,7 +13174,7 @@
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A495" s="94"/>
+      <c r="A495" s="84"/>
       <c r="B495" s="72"/>
       <c r="C495" s="57"/>
       <c r="D495" s="58"/>
@@ -13148,7 +13197,7 @@
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A496" s="95"/>
+      <c r="A496" s="85"/>
       <c r="B496" s="74"/>
       <c r="C496" s="64"/>
       <c r="D496" s="65"/>
@@ -13171,7 +13220,7 @@
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A497" s="94"/>
+      <c r="A497" s="84"/>
       <c r="B497" s="70"/>
       <c r="C497" s="76"/>
       <c r="D497" s="77"/>
@@ -13194,7 +13243,7 @@
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A498" s="94"/>
+      <c r="A498" s="84"/>
       <c r="B498" s="72"/>
       <c r="C498" s="57"/>
       <c r="D498" s="58"/>
@@ -13217,7 +13266,7 @@
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A499" s="94"/>
+      <c r="A499" s="84"/>
       <c r="B499" s="72"/>
       <c r="C499" s="57"/>
       <c r="D499" s="58"/>
@@ -13240,7 +13289,7 @@
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A500" s="94"/>
+      <c r="A500" s="84"/>
       <c r="B500" s="72"/>
       <c r="C500" s="57"/>
       <c r="D500" s="58"/>
@@ -13263,7 +13312,7 @@
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A501" s="94"/>
+      <c r="A501" s="84"/>
       <c r="B501" s="72"/>
       <c r="C501" s="57"/>
       <c r="D501" s="58"/>
@@ -13286,7 +13335,7 @@
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A502" s="95"/>
+      <c r="A502" s="85"/>
       <c r="B502" s="74"/>
       <c r="C502" s="64"/>
       <c r="D502" s="65"/>
@@ -13309,7 +13358,7 @@
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A503" s="94"/>
+      <c r="A503" s="84"/>
       <c r="B503" s="70"/>
       <c r="C503" s="76"/>
       <c r="D503" s="77"/>
@@ -13332,7 +13381,7 @@
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A504" s="94"/>
+      <c r="A504" s="84"/>
       <c r="B504" s="72"/>
       <c r="C504" s="57"/>
       <c r="D504" s="58"/>
@@ -13355,7 +13404,7 @@
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A505" s="94"/>
+      <c r="A505" s="84"/>
       <c r="B505" s="72"/>
       <c r="C505" s="57"/>
       <c r="D505" s="58"/>
@@ -13378,7 +13427,7 @@
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A506" s="94"/>
+      <c r="A506" s="84"/>
       <c r="B506" s="72"/>
       <c r="C506" s="57"/>
       <c r="D506" s="58"/>
@@ -13401,7 +13450,7 @@
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A507" s="94"/>
+      <c r="A507" s="84"/>
       <c r="B507" s="72"/>
       <c r="C507" s="57"/>
       <c r="D507" s="58"/>
@@ -13424,7 +13473,7 @@
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A508" s="95"/>
+      <c r="A508" s="85"/>
       <c r="B508" s="74"/>
       <c r="C508" s="64"/>
       <c r="D508" s="65"/>
@@ -13447,7 +13496,7 @@
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A509" s="94"/>
+      <c r="A509" s="84"/>
       <c r="B509" s="70"/>
       <c r="C509" s="76"/>
       <c r="D509" s="77"/>
@@ -13470,7 +13519,7 @@
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A510" s="94"/>
+      <c r="A510" s="84"/>
       <c r="B510" s="72"/>
       <c r="C510" s="57"/>
       <c r="D510" s="58"/>
@@ -13493,7 +13542,7 @@
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A511" s="94"/>
+      <c r="A511" s="84"/>
       <c r="B511" s="72"/>
       <c r="C511" s="57"/>
       <c r="D511" s="58"/>
@@ -13516,7 +13565,7 @@
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A512" s="94"/>
+      <c r="A512" s="84"/>
       <c r="B512" s="72"/>
       <c r="C512" s="57"/>
       <c r="D512" s="58"/>
@@ -13539,7 +13588,7 @@
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A513" s="94"/>
+      <c r="A513" s="84"/>
       <c r="B513" s="72"/>
       <c r="C513" s="57"/>
       <c r="D513" s="58"/>
@@ -13562,7 +13611,7 @@
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A514" s="95"/>
+      <c r="A514" s="85"/>
       <c r="B514" s="74"/>
       <c r="C514" s="64"/>
       <c r="D514" s="65"/>
@@ -13585,7 +13634,7 @@
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A515" s="94"/>
+      <c r="A515" s="84"/>
       <c r="B515" s="70"/>
       <c r="C515" s="76"/>
       <c r="D515" s="77"/>
@@ -13608,7 +13657,7 @@
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A516" s="94"/>
+      <c r="A516" s="84"/>
       <c r="B516" s="72"/>
       <c r="C516" s="57"/>
       <c r="D516" s="58"/>
@@ -13631,7 +13680,7 @@
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A517" s="94"/>
+      <c r="A517" s="84"/>
       <c r="B517" s="72"/>
       <c r="C517" s="57"/>
       <c r="D517" s="58"/>
@@ -13654,7 +13703,7 @@
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A518" s="94"/>
+      <c r="A518" s="84"/>
       <c r="B518" s="72"/>
       <c r="C518" s="57"/>
       <c r="D518" s="58"/>
@@ -13677,7 +13726,7 @@
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A519" s="94"/>
+      <c r="A519" s="84"/>
       <c r="B519" s="72"/>
       <c r="C519" s="57"/>
       <c r="D519" s="58"/>
@@ -13700,7 +13749,7 @@
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A520" s="95"/>
+      <c r="A520" s="85"/>
       <c r="B520" s="74"/>
       <c r="C520" s="64"/>
       <c r="D520" s="65"/>
@@ -13723,7 +13772,7 @@
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A521" s="94"/>
+      <c r="A521" s="84"/>
       <c r="B521" s="70"/>
       <c r="C521" s="76"/>
       <c r="D521" s="77"/>
@@ -13746,7 +13795,7 @@
       </c>
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A522" s="94"/>
+      <c r="A522" s="84"/>
       <c r="B522" s="72"/>
       <c r="C522" s="57"/>
       <c r="D522" s="58"/>
@@ -13769,7 +13818,7 @@
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A523" s="94"/>
+      <c r="A523" s="84"/>
       <c r="B523" s="72"/>
       <c r="C523" s="57"/>
       <c r="D523" s="58"/>
@@ -13792,7 +13841,7 @@
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A524" s="94"/>
+      <c r="A524" s="84"/>
       <c r="B524" s="72"/>
       <c r="C524" s="57"/>
       <c r="D524" s="58"/>
@@ -13815,7 +13864,7 @@
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A525" s="94"/>
+      <c r="A525" s="84"/>
       <c r="B525" s="72"/>
       <c r="C525" s="57"/>
       <c r="D525" s="58"/>
@@ -13838,7 +13887,7 @@
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A526" s="95"/>
+      <c r="A526" s="85"/>
       <c r="B526" s="74"/>
       <c r="C526" s="64"/>
       <c r="D526" s="65"/>
@@ -13861,7 +13910,7 @@
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A527" s="94"/>
+      <c r="A527" s="84"/>
       <c r="B527" s="70"/>
       <c r="C527" s="76"/>
       <c r="D527" s="77"/>
@@ -13884,7 +13933,7 @@
       </c>
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A528" s="94"/>
+      <c r="A528" s="84"/>
       <c r="B528" s="72"/>
       <c r="C528" s="57"/>
       <c r="D528" s="58"/>
@@ -13907,7 +13956,7 @@
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A529" s="94"/>
+      <c r="A529" s="84"/>
       <c r="B529" s="72"/>
       <c r="C529" s="57"/>
       <c r="D529" s="58"/>
@@ -13930,7 +13979,7 @@
       </c>
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A530" s="94"/>
+      <c r="A530" s="84"/>
       <c r="B530" s="72"/>
       <c r="C530" s="57"/>
       <c r="D530" s="58"/>
@@ -13953,7 +14002,7 @@
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A531" s="94"/>
+      <c r="A531" s="84"/>
       <c r="B531" s="72"/>
       <c r="C531" s="57"/>
       <c r="D531" s="58"/>
@@ -13976,7 +14025,7 @@
       </c>
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A532" s="95"/>
+      <c r="A532" s="85"/>
       <c r="B532" s="74"/>
       <c r="C532" s="64"/>
       <c r="D532" s="65"/>
@@ -13999,7 +14048,7 @@
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A533" s="94"/>
+      <c r="A533" s="84"/>
       <c r="B533" s="70"/>
       <c r="C533" s="76"/>
       <c r="D533" s="77"/>
@@ -14022,7 +14071,7 @@
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A534" s="94"/>
+      <c r="A534" s="84"/>
       <c r="B534" s="72"/>
       <c r="C534" s="57"/>
       <c r="D534" s="58"/>
@@ -14045,7 +14094,7 @@
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A535" s="94"/>
+      <c r="A535" s="84"/>
       <c r="B535" s="72"/>
       <c r="C535" s="57"/>
       <c r="D535" s="58"/>
@@ -14068,7 +14117,7 @@
       </c>
     </row>
     <row r="536" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A536" s="94"/>
+      <c r="A536" s="84"/>
       <c r="B536" s="72"/>
       <c r="C536" s="57"/>
       <c r="D536" s="58"/>
@@ -14091,7 +14140,7 @@
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A537" s="94"/>
+      <c r="A537" s="84"/>
       <c r="B537" s="72"/>
       <c r="C537" s="57"/>
       <c r="D537" s="58"/>
@@ -14114,7 +14163,7 @@
       </c>
     </row>
     <row r="538" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A538" s="95"/>
+      <c r="A538" s="85"/>
       <c r="B538" s="74"/>
       <c r="C538" s="64"/>
       <c r="D538" s="65"/>
@@ -14137,7 +14186,7 @@
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A539" s="94"/>
+      <c r="A539" s="84"/>
       <c r="B539" s="70"/>
       <c r="C539" s="76"/>
       <c r="D539" s="77"/>
@@ -14160,7 +14209,7 @@
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A540" s="94"/>
+      <c r="A540" s="84"/>
       <c r="B540" s="72"/>
       <c r="C540" s="57"/>
       <c r="D540" s="58"/>
@@ -14183,7 +14232,7 @@
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A541" s="94"/>
+      <c r="A541" s="84"/>
       <c r="B541" s="72"/>
       <c r="C541" s="57"/>
       <c r="D541" s="58"/>
@@ -14206,7 +14255,7 @@
       </c>
     </row>
     <row r="542" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A542" s="94"/>
+      <c r="A542" s="84"/>
       <c r="B542" s="72"/>
       <c r="C542" s="57"/>
       <c r="D542" s="58"/>
@@ -14229,7 +14278,7 @@
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A543" s="94"/>
+      <c r="A543" s="84"/>
       <c r="B543" s="72"/>
       <c r="C543" s="57"/>
       <c r="D543" s="58"/>
@@ -14252,7 +14301,7 @@
       </c>
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A544" s="95"/>
+      <c r="A544" s="85"/>
       <c r="B544" s="74"/>
       <c r="C544" s="64"/>
       <c r="D544" s="65"/>
@@ -14275,7 +14324,7 @@
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A545" s="94"/>
+      <c r="A545" s="84"/>
       <c r="B545" s="70"/>
       <c r="C545" s="76"/>
       <c r="D545" s="77"/>
@@ -14298,7 +14347,7 @@
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A546" s="94"/>
+      <c r="A546" s="84"/>
       <c r="B546" s="72"/>
       <c r="C546" s="57"/>
       <c r="D546" s="58"/>
@@ -14321,7 +14370,7 @@
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A547" s="94"/>
+      <c r="A547" s="84"/>
       <c r="B547" s="72"/>
       <c r="C547" s="57"/>
       <c r="D547" s="58"/>
@@ -14344,7 +14393,7 @@
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A548" s="94"/>
+      <c r="A548" s="84"/>
       <c r="B548" s="72"/>
       <c r="C548" s="57"/>
       <c r="D548" s="58"/>
@@ -14367,7 +14416,7 @@
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A549" s="94"/>
+      <c r="A549" s="84"/>
       <c r="B549" s="72"/>
       <c r="C549" s="57"/>
       <c r="D549" s="58"/>
@@ -14390,7 +14439,7 @@
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A550" s="95"/>
+      <c r="A550" s="85"/>
       <c r="B550" s="74"/>
       <c r="C550" s="64"/>
       <c r="D550" s="65"/>
@@ -14413,7 +14462,7 @@
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A551" s="94"/>
+      <c r="A551" s="84"/>
       <c r="B551" s="70"/>
       <c r="C551" s="76"/>
       <c r="D551" s="77"/>
@@ -14436,7 +14485,7 @@
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A552" s="94"/>
+      <c r="A552" s="84"/>
       <c r="B552" s="72"/>
       <c r="C552" s="57"/>
       <c r="D552" s="58"/>
@@ -14459,7 +14508,7 @@
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A553" s="94"/>
+      <c r="A553" s="84"/>
       <c r="B553" s="72"/>
       <c r="C553" s="57"/>
       <c r="D553" s="58"/>
@@ -14482,7 +14531,7 @@
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A554" s="94"/>
+      <c r="A554" s="84"/>
       <c r="B554" s="72"/>
       <c r="C554" s="57"/>
       <c r="D554" s="58"/>
@@ -14505,7 +14554,7 @@
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A555" s="94"/>
+      <c r="A555" s="84"/>
       <c r="B555" s="72"/>
       <c r="C555" s="57"/>
       <c r="D555" s="58"/>
@@ -14528,7 +14577,7 @@
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A556" s="95"/>
+      <c r="A556" s="85"/>
       <c r="B556" s="74"/>
       <c r="C556" s="64"/>
       <c r="D556" s="65"/>
@@ -14551,7 +14600,7 @@
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A557" s="94"/>
+      <c r="A557" s="84"/>
       <c r="B557" s="70"/>
       <c r="C557" s="76"/>
       <c r="D557" s="77"/>
@@ -14574,7 +14623,7 @@
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A558" s="94"/>
+      <c r="A558" s="84"/>
       <c r="B558" s="72"/>
       <c r="C558" s="57"/>
       <c r="D558" s="58"/>
@@ -14597,7 +14646,7 @@
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A559" s="94"/>
+      <c r="A559" s="84"/>
       <c r="B559" s="72"/>
       <c r="C559" s="57"/>
       <c r="D559" s="58"/>
@@ -14620,7 +14669,7 @@
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A560" s="94"/>
+      <c r="A560" s="84"/>
       <c r="B560" s="72"/>
       <c r="C560" s="57"/>
       <c r="D560" s="58"/>
@@ -14643,7 +14692,7 @@
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A561" s="94"/>
+      <c r="A561" s="84"/>
       <c r="B561" s="72"/>
       <c r="C561" s="57"/>
       <c r="D561" s="58"/>
@@ -14666,7 +14715,7 @@
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A562" s="95"/>
+      <c r="A562" s="85"/>
       <c r="B562" s="74"/>
       <c r="C562" s="64"/>
       <c r="D562" s="65"/>
@@ -14689,7 +14738,7 @@
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A563" s="94"/>
+      <c r="A563" s="84"/>
       <c r="B563" s="70"/>
       <c r="C563" s="76"/>
       <c r="D563" s="77"/>
@@ -14712,7 +14761,7 @@
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A564" s="94"/>
+      <c r="A564" s="84"/>
       <c r="B564" s="72"/>
       <c r="C564" s="57"/>
       <c r="D564" s="58"/>
@@ -14735,7 +14784,7 @@
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A565" s="94"/>
+      <c r="A565" s="84"/>
       <c r="B565" s="72"/>
       <c r="C565" s="57"/>
       <c r="D565" s="58"/>
@@ -14758,7 +14807,7 @@
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A566" s="94"/>
+      <c r="A566" s="84"/>
       <c r="B566" s="72"/>
       <c r="C566" s="57"/>
       <c r="D566" s="58"/>
@@ -14781,7 +14830,7 @@
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A567" s="94"/>
+      <c r="A567" s="84"/>
       <c r="B567" s="72"/>
       <c r="C567" s="57"/>
       <c r="D567" s="58"/>
@@ -14804,7 +14853,7 @@
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A568" s="95"/>
+      <c r="A568" s="85"/>
       <c r="B568" s="74"/>
       <c r="C568" s="64"/>
       <c r="D568" s="65"/>
@@ -14827,7 +14876,7 @@
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A569" s="94"/>
+      <c r="A569" s="84"/>
       <c r="B569" s="70"/>
       <c r="C569" s="76"/>
       <c r="D569" s="77"/>
@@ -14850,7 +14899,7 @@
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A570" s="94"/>
+      <c r="A570" s="84"/>
       <c r="B570" s="72"/>
       <c r="C570" s="57"/>
       <c r="D570" s="58"/>
@@ -14873,7 +14922,7 @@
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A571" s="94"/>
+      <c r="A571" s="84"/>
       <c r="B571" s="72"/>
       <c r="C571" s="57"/>
       <c r="D571" s="58"/>
@@ -14896,7 +14945,7 @@
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A572" s="94"/>
+      <c r="A572" s="84"/>
       <c r="B572" s="72"/>
       <c r="C572" s="57"/>
       <c r="D572" s="58"/>
@@ -14919,7 +14968,7 @@
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A573" s="94"/>
+      <c r="A573" s="84"/>
       <c r="B573" s="72"/>
       <c r="C573" s="57"/>
       <c r="D573" s="58"/>
@@ -14942,7 +14991,7 @@
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A574" s="95"/>
+      <c r="A574" s="85"/>
       <c r="B574" s="74"/>
       <c r="C574" s="64"/>
       <c r="D574" s="65"/>
@@ -14965,7 +15014,7 @@
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A575" s="94"/>
+      <c r="A575" s="84"/>
       <c r="B575" s="70"/>
       <c r="C575" s="76"/>
       <c r="D575" s="77"/>
@@ -14988,7 +15037,7 @@
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A576" s="94"/>
+      <c r="A576" s="84"/>
       <c r="B576" s="72"/>
       <c r="C576" s="57"/>
       <c r="D576" s="58"/>
@@ -15011,7 +15060,7 @@
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A577" s="94"/>
+      <c r="A577" s="84"/>
       <c r="B577" s="72"/>
       <c r="C577" s="57"/>
       <c r="D577" s="58"/>
@@ -15034,7 +15083,7 @@
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A578" s="94"/>
+      <c r="A578" s="84"/>
       <c r="B578" s="72"/>
       <c r="C578" s="57"/>
       <c r="D578" s="58"/>
@@ -15057,7 +15106,7 @@
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A579" s="94"/>
+      <c r="A579" s="84"/>
       <c r="B579" s="72"/>
       <c r="C579" s="57"/>
       <c r="D579" s="58"/>
@@ -15080,7 +15129,7 @@
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A580" s="95"/>
+      <c r="A580" s="85"/>
       <c r="B580" s="74"/>
       <c r="C580" s="64"/>
       <c r="D580" s="65"/>
@@ -15103,7 +15152,7 @@
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A581" s="94"/>
+      <c r="A581" s="84"/>
       <c r="B581" s="70"/>
       <c r="C581" s="76"/>
       <c r="D581" s="77"/>
@@ -15126,7 +15175,7 @@
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A582" s="94"/>
+      <c r="A582" s="84"/>
       <c r="B582" s="72"/>
       <c r="C582" s="57"/>
       <c r="D582" s="58"/>
@@ -15149,7 +15198,7 @@
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A583" s="94"/>
+      <c r="A583" s="84"/>
       <c r="B583" s="72"/>
       <c r="C583" s="57"/>
       <c r="D583" s="58"/>
@@ -15172,7 +15221,7 @@
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A584" s="94"/>
+      <c r="A584" s="84"/>
       <c r="B584" s="72"/>
       <c r="C584" s="57"/>
       <c r="D584" s="58"/>
@@ -15195,7 +15244,7 @@
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A585" s="94"/>
+      <c r="A585" s="84"/>
       <c r="B585" s="72"/>
       <c r="C585" s="57"/>
       <c r="D585" s="58"/>
@@ -15218,7 +15267,7 @@
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A586" s="95"/>
+      <c r="A586" s="85"/>
       <c r="B586" s="74"/>
       <c r="C586" s="64"/>
       <c r="D586" s="65"/>
@@ -15241,7 +15290,7 @@
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A587" s="94"/>
+      <c r="A587" s="84"/>
       <c r="B587" s="70"/>
       <c r="C587" s="76"/>
       <c r="D587" s="77"/>
@@ -15264,7 +15313,7 @@
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A588" s="94"/>
+      <c r="A588" s="84"/>
       <c r="B588" s="72"/>
       <c r="C588" s="57"/>
       <c r="D588" s="58"/>
@@ -15287,7 +15336,7 @@
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A589" s="94"/>
+      <c r="A589" s="84"/>
       <c r="B589" s="72"/>
       <c r="C589" s="57"/>
       <c r="D589" s="58"/>
@@ -15310,7 +15359,7 @@
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A590" s="94"/>
+      <c r="A590" s="84"/>
       <c r="B590" s="72"/>
       <c r="C590" s="57"/>
       <c r="D590" s="58"/>
@@ -15333,7 +15382,7 @@
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A591" s="94"/>
+      <c r="A591" s="84"/>
       <c r="B591" s="72"/>
       <c r="C591" s="57"/>
       <c r="D591" s="58"/>
@@ -15356,7 +15405,7 @@
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A592" s="95"/>
+      <c r="A592" s="85"/>
       <c r="B592" s="74"/>
       <c r="C592" s="64"/>
       <c r="D592" s="65"/>
@@ -15379,7 +15428,7 @@
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A593" s="94"/>
+      <c r="A593" s="84"/>
       <c r="B593" s="70"/>
       <c r="C593" s="76"/>
       <c r="D593" s="77"/>
@@ -15402,7 +15451,7 @@
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A594" s="94"/>
+      <c r="A594" s="84"/>
       <c r="B594" s="72"/>
       <c r="C594" s="57"/>
       <c r="D594" s="58"/>
@@ -15425,7 +15474,7 @@
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A595" s="94"/>
+      <c r="A595" s="84"/>
       <c r="B595" s="72"/>
       <c r="C595" s="57"/>
       <c r="D595" s="58"/>
@@ -15448,7 +15497,7 @@
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A596" s="94"/>
+      <c r="A596" s="84"/>
       <c r="B596" s="72"/>
       <c r="C596" s="57"/>
       <c r="D596" s="58"/>
@@ -15471,7 +15520,7 @@
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A597" s="94"/>
+      <c r="A597" s="84"/>
       <c r="B597" s="72"/>
       <c r="C597" s="57"/>
       <c r="D597" s="58"/>
@@ -15494,7 +15543,7 @@
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A598" s="95"/>
+      <c r="A598" s="85"/>
       <c r="B598" s="74"/>
       <c r="C598" s="64"/>
       <c r="D598" s="65"/>
@@ -15519,6 +15568,91 @@
   </sheetData>
   <sheetProtection password="C66B" sheet="1" objects="1"/>
   <mergeCells count="109">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="A131:A136"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="A191:A196"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="A209:A214"/>
+    <mergeCell ref="A215:A220"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="A227:A232"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A239:A244"/>
+    <mergeCell ref="A245:A250"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="A257:A262"/>
+    <mergeCell ref="A263:A268"/>
+    <mergeCell ref="A269:A274"/>
+    <mergeCell ref="A275:A280"/>
+    <mergeCell ref="A281:A286"/>
+    <mergeCell ref="A287:A292"/>
+    <mergeCell ref="A293:A298"/>
+    <mergeCell ref="A299:A304"/>
+    <mergeCell ref="A305:A310"/>
+    <mergeCell ref="A311:A316"/>
+    <mergeCell ref="A317:A322"/>
+    <mergeCell ref="A323:A328"/>
+    <mergeCell ref="A329:A334"/>
+    <mergeCell ref="A335:A340"/>
+    <mergeCell ref="A341:A346"/>
+    <mergeCell ref="A347:A352"/>
+    <mergeCell ref="A353:A358"/>
+    <mergeCell ref="A359:A364"/>
+    <mergeCell ref="A365:A370"/>
+    <mergeCell ref="A371:A376"/>
+    <mergeCell ref="A377:A382"/>
+    <mergeCell ref="A383:A388"/>
+    <mergeCell ref="A389:A394"/>
+    <mergeCell ref="A395:A400"/>
+    <mergeCell ref="A401:A406"/>
+    <mergeCell ref="A407:A412"/>
+    <mergeCell ref="A503:A508"/>
+    <mergeCell ref="A509:A514"/>
+    <mergeCell ref="A515:A520"/>
+    <mergeCell ref="A413:A418"/>
+    <mergeCell ref="A419:A424"/>
+    <mergeCell ref="A425:A430"/>
+    <mergeCell ref="A431:A436"/>
+    <mergeCell ref="A437:A442"/>
+    <mergeCell ref="A443:A448"/>
+    <mergeCell ref="A449:A454"/>
+    <mergeCell ref="A455:A460"/>
+    <mergeCell ref="A461:A466"/>
     <mergeCell ref="A575:A580"/>
     <mergeCell ref="A581:A586"/>
     <mergeCell ref="A587:A592"/>
@@ -15543,91 +15677,6 @@
     <mergeCell ref="A485:A490"/>
     <mergeCell ref="A491:A496"/>
     <mergeCell ref="A497:A502"/>
-    <mergeCell ref="A503:A508"/>
-    <mergeCell ref="A509:A514"/>
-    <mergeCell ref="A515:A520"/>
-    <mergeCell ref="A413:A418"/>
-    <mergeCell ref="A419:A424"/>
-    <mergeCell ref="A425:A430"/>
-    <mergeCell ref="A431:A436"/>
-    <mergeCell ref="A437:A442"/>
-    <mergeCell ref="A443:A448"/>
-    <mergeCell ref="A449:A454"/>
-    <mergeCell ref="A455:A460"/>
-    <mergeCell ref="A461:A466"/>
-    <mergeCell ref="A359:A364"/>
-    <mergeCell ref="A365:A370"/>
-    <mergeCell ref="A371:A376"/>
-    <mergeCell ref="A377:A382"/>
-    <mergeCell ref="A383:A388"/>
-    <mergeCell ref="A389:A394"/>
-    <mergeCell ref="A395:A400"/>
-    <mergeCell ref="A401:A406"/>
-    <mergeCell ref="A407:A412"/>
-    <mergeCell ref="A305:A310"/>
-    <mergeCell ref="A311:A316"/>
-    <mergeCell ref="A317:A322"/>
-    <mergeCell ref="A323:A328"/>
-    <mergeCell ref="A329:A334"/>
-    <mergeCell ref="A335:A340"/>
-    <mergeCell ref="A341:A346"/>
-    <mergeCell ref="A347:A352"/>
-    <mergeCell ref="A353:A358"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="A257:A262"/>
-    <mergeCell ref="A263:A268"/>
-    <mergeCell ref="A269:A274"/>
-    <mergeCell ref="A275:A280"/>
-    <mergeCell ref="A281:A286"/>
-    <mergeCell ref="A287:A292"/>
-    <mergeCell ref="A293:A298"/>
-    <mergeCell ref="A299:A304"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="A203:A208"/>
-    <mergeCell ref="A209:A214"/>
-    <mergeCell ref="A215:A220"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="A227:A232"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A239:A244"/>
-    <mergeCell ref="A245:A250"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="A191:A196"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -15640,7 +15689,7 @@
   <dimension ref="A1:P292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15707,7 +15756,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="108">
+      <c r="A2" s="110">
         <v>17</v>
       </c>
       <c r="B2" s="35">
@@ -15754,7 +15803,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="109"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="35">
         <v>43217</v>
       </c>
@@ -15799,7 +15848,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="109"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="35">
         <v>43217</v>
       </c>
@@ -15844,7 +15893,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="109"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="35">
         <v>43217</v>
       </c>
@@ -15889,7 +15938,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="109"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="35">
         <v>43217</v>
       </c>
@@ -15934,7 +15983,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="109"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="35">
         <v>43217</v>
       </c>
@@ -15979,7 +16028,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="109">
+      <c r="A8" s="111">
         <v>22</v>
       </c>
       <c r="B8" s="39">
@@ -16026,7 +16075,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="109"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="39">
         <v>43244</v>
       </c>
@@ -16071,7 +16120,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="39">
         <v>43244</v>
       </c>
@@ -16116,7 +16165,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="109"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="39">
         <v>43250</v>
       </c>
@@ -16161,7 +16210,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="110"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="39">
         <v>43250</v>
       </c>
@@ -16206,7 +16255,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="111">
+      <c r="A13" s="113">
         <v>23</v>
       </c>
       <c r="B13" s="39">
@@ -16256,7 +16305,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="112"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="39">
         <v>43257</v>
       </c>
@@ -16304,7 +16353,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="111">
+      <c r="A15" s="113">
         <v>25</v>
       </c>
       <c r="B15" s="39">
@@ -16313,22 +16362,22 @@
       <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="82" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="1">
         <v>76181189</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H15" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="114" t="s">
+      <c r="I15" s="82" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="42" t="s">
@@ -16337,10 +16386,10 @@
       <c r="K15" s="42">
         <v>15161100931</v>
       </c>
-      <c r="L15" s="114" t="s">
+      <c r="L15" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="114" t="s">
+      <c r="M15" s="82" t="s">
         <v>85</v>
       </c>
       <c r="N15" s="1">
@@ -16349,34 +16398,34 @@
       <c r="O15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="115" t="s">
+      <c r="P15" s="83" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="113"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="39">
         <v>43271</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="82" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="1">
         <v>76179053</v>
       </c>
-      <c r="H16" s="114" t="s">
+      <c r="H16" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="114" t="s">
+      <c r="I16" s="82" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="42" t="s">
@@ -16385,10 +16434,10 @@
       <c r="K16" s="42">
         <v>15161100931</v>
       </c>
-      <c r="L16" s="114" t="s">
+      <c r="L16" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="114" t="s">
+      <c r="M16" s="82" t="s">
         <v>85</v>
       </c>
       <c r="N16" s="1">
@@ -16397,34 +16446,34 @@
       <c r="O16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="115" t="s">
+      <c r="P16" s="83" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="112"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="39">
         <v>43271</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="82" t="s">
         <v>51</v>
       </c>
       <c r="G17" s="1">
         <v>76171122</v>
       </c>
-      <c r="H17" s="114" t="s">
+      <c r="H17" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="114" t="s">
+      <c r="I17" s="82" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="42" t="s">
@@ -16433,10 +16482,10 @@
       <c r="K17" s="42">
         <v>15161100931</v>
       </c>
-      <c r="L17" s="114" t="s">
+      <c r="L17" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="114" t="s">
+      <c r="M17" s="82" t="s">
         <v>85</v>
       </c>
       <c r="N17" s="1">
@@ -16445,43 +16494,107 @@
       <c r="O17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="115" t="s">
+      <c r="P17" s="83" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="A18" s="113">
+        <v>26</v>
+      </c>
+      <c r="B18" s="39">
+        <v>43278</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="1">
+        <v>76171121</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="42">
+        <v>15161100931</v>
+      </c>
+      <c r="L18" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="83" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="39">
+        <v>43278</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1">
+        <v>76179052</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="42">
+        <v>15161100931</v>
+      </c>
+      <c r="L19" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="1">
+        <v>18020275119</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="83" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
@@ -21124,11 +21237,12 @@
       <c r="N292" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="3">
@@ -21213,7 +21327,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="111">
+      <c r="A3" s="113">
         <v>20</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -21234,7 +21348,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="112"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="17" t="s">
         <v>76</v>
       </c>
@@ -21255,7 +21369,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="111"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
@@ -21264,7 +21378,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="113"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
@@ -21273,7 +21387,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="113"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
@@ -21282,7 +21396,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="113"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
@@ -21291,7 +21405,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="113"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
@@ -21300,7 +21414,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="113"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -21309,7 +21423,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="113"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
@@ -21318,7 +21432,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="113"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
@@ -21327,7 +21441,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="112"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -21336,7 +21450,7 @@
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
@@ -21345,7 +21459,7 @@
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="113"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="21"/>
       <c r="C15" s="24"/>
       <c r="D15" s="23"/>
@@ -21354,7 +21468,7 @@
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="113"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="17"/>
       <c r="C16" s="24"/>
       <c r="D16" s="23"/>
@@ -21363,7 +21477,7 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="113"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="25"/>
@@ -21372,7 +21486,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="113"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="25"/>
@@ -21381,7 +21495,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="113"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="25"/>
@@ -21390,7 +21504,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="113"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="25"/>
@@ -21399,7 +21513,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="113"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="25"/>
@@ -21408,7 +21522,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="113"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="25"/>
@@ -21417,7 +21531,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="113"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="25"/>
@@ -21426,7 +21540,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="113"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="25"/>
@@ -21435,7 +21549,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="113"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="25"/>
@@ -21444,7 +21558,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="112"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="25"/>
@@ -21453,7 +21567,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="111"/>
+      <c r="A27" s="113"/>
       <c r="B27" s="21"/>
       <c r="C27" s="24"/>
       <c r="D27" s="23"/>
@@ -21462,7 +21576,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="113"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="17"/>
       <c r="C28" s="24"/>
       <c r="D28" s="23"/>
@@ -21471,7 +21585,7 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="113"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="25"/>
@@ -21480,7 +21594,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="113"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="25"/>
@@ -21489,7 +21603,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="113"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="25"/>
@@ -21498,7 +21612,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="113"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="25"/>
@@ -21507,7 +21621,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="113"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="25"/>
@@ -21516,7 +21630,7 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="113"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="25"/>
@@ -21525,7 +21639,7 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="113"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="25"/>
@@ -21534,7 +21648,7 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="113"/>
+      <c r="A36" s="115"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="25"/>
@@ -21543,7 +21657,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="113"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="25"/>
@@ -21552,7 +21666,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="113"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="25"/>
@@ -21561,7 +21675,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="113"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="25"/>
@@ -21570,7 +21684,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="113"/>
+      <c r="A40" s="115"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="25"/>
@@ -21579,7 +21693,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="112"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="25"/>
@@ -21588,7 +21702,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="111"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="17"/>
       <c r="C42" s="24"/>
       <c r="D42" s="23"/>
@@ -21597,7 +21711,7 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="113"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="17"/>
       <c r="C43" s="26"/>
       <c r="D43" s="23"/>
@@ -21606,7 +21720,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="113"/>
+      <c r="A44" s="115"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="25"/>
@@ -21615,7 +21729,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="113"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="25"/>
@@ -21624,7 +21738,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="113"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="25"/>
@@ -21633,7 +21747,7 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="113"/>
+      <c r="A47" s="115"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="25"/>
@@ -21642,7 +21756,7 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="113"/>
+      <c r="A48" s="115"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="25"/>
@@ -21651,7 +21765,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="113"/>
+      <c r="A49" s="115"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="25"/>
@@ -21660,7 +21774,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="113"/>
+      <c r="A50" s="115"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="25"/>
@@ -21669,7 +21783,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="113"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="25"/>
@@ -21678,7 +21792,7 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="113"/>
+      <c r="A52" s="115"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="25"/>
@@ -21687,7 +21801,7 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="113"/>
+      <c r="A53" s="115"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="25"/>
@@ -21696,7 +21810,7 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="113"/>
+      <c r="A54" s="115"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="25"/>
@@ -21705,7 +21819,7 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="113"/>
+      <c r="A55" s="115"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="25"/>
@@ -21714,7 +21828,7 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="112"/>
+      <c r="A56" s="114"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="25"/>
@@ -21723,7 +21837,7 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="111"/>
+      <c r="A57" s="113"/>
       <c r="B57" s="17"/>
       <c r="C57" s="24"/>
       <c r="D57" s="23"/>
@@ -21732,7 +21846,7 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="113"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="17"/>
       <c r="C58" s="26"/>
       <c r="D58" s="23"/>
@@ -21741,7 +21855,7 @@
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="113"/>
+      <c r="A59" s="115"/>
       <c r="B59" s="17"/>
       <c r="C59" s="26"/>
       <c r="D59" s="23"/>
@@ -21750,7 +21864,7 @@
       <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="113"/>
+      <c r="A60" s="115"/>
       <c r="B60" s="17"/>
       <c r="C60" s="26"/>
       <c r="D60" s="23"/>
@@ -21759,7 +21873,7 @@
       <c r="G60" s="27"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="113"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="25"/>
@@ -21768,7 +21882,7 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="113"/>
+      <c r="A62" s="115"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="25"/>
@@ -21777,7 +21891,7 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="113"/>
+      <c r="A63" s="115"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="25"/>
@@ -21786,7 +21900,7 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="113"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="25"/>
@@ -21795,7 +21909,7 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="113"/>
+      <c r="A65" s="115"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="25"/>
@@ -21804,7 +21918,7 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="113"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="25"/>
@@ -21813,7 +21927,7 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="113"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="25"/>
@@ -21822,7 +21936,7 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="112"/>
+      <c r="A68" s="114"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="25"/>
@@ -21831,7 +21945,7 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="111"/>
+      <c r="A69" s="113"/>
       <c r="B69" s="17"/>
       <c r="C69" s="24"/>
       <c r="D69" s="23"/>
@@ -21840,7 +21954,7 @@
       <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="113"/>
+      <c r="A70" s="115"/>
       <c r="B70" s="17"/>
       <c r="C70" s="26"/>
       <c r="D70" s="23"/>
@@ -21849,7 +21963,7 @@
       <c r="G70" s="11"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="113"/>
+      <c r="A71" s="115"/>
       <c r="B71" s="17"/>
       <c r="C71" s="26"/>
       <c r="D71" s="23"/>
@@ -21858,7 +21972,7 @@
       <c r="G71" s="11"/>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="113"/>
+      <c r="A72" s="115"/>
       <c r="B72" s="17"/>
       <c r="C72" s="26"/>
       <c r="D72" s="23"/>
@@ -21867,7 +21981,7 @@
       <c r="G72" s="27"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="113"/>
+      <c r="A73" s="115"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="25"/>
@@ -21876,7 +21990,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="113"/>
+      <c r="A74" s="115"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="25"/>
@@ -21885,7 +21999,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="113"/>
+      <c r="A75" s="115"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="25"/>
@@ -21894,7 +22008,7 @@
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="113"/>
+      <c r="A76" s="115"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="25"/>
@@ -21903,7 +22017,7 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="113"/>
+      <c r="A77" s="115"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="25"/>
@@ -21912,7 +22026,7 @@
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="113"/>
+      <c r="A78" s="115"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="25"/>
@@ -21921,7 +22035,7 @@
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="113"/>
+      <c r="A79" s="115"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="25"/>
@@ -21930,7 +22044,7 @@
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="112"/>
+      <c r="A80" s="114"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="25"/>
@@ -21939,7 +22053,7 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="113"/>
+      <c r="A81" s="115"/>
       <c r="B81" s="17"/>
       <c r="C81" s="26"/>
       <c r="D81" s="23"/>
@@ -21948,7 +22062,7 @@
       <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="113"/>
+      <c r="A82" s="115"/>
       <c r="B82" s="17"/>
       <c r="C82" s="26"/>
       <c r="D82" s="23"/>
@@ -21957,7 +22071,7 @@
       <c r="G82" s="27"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="113"/>
+      <c r="A83" s="115"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="25"/>
@@ -21966,7 +22080,7 @@
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="113"/>
+      <c r="A84" s="115"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="25"/>
@@ -21975,7 +22089,7 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="113"/>
+      <c r="A85" s="115"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="25"/>
@@ -21984,7 +22098,7 @@
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="113"/>
+      <c r="A86" s="115"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="25"/>
@@ -21993,7 +22107,7 @@
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="113"/>
+      <c r="A87" s="115"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="25"/>
@@ -22002,7 +22116,7 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="113"/>
+      <c r="A88" s="115"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="25"/>
@@ -22011,7 +22125,7 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A89" s="113"/>
+      <c r="A89" s="115"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="25"/>
@@ -22020,7 +22134,7 @@
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="112"/>
+      <c r="A90" s="114"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="25"/>
